--- a/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
+++ b/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\다회로_차단기(한전)_신규장비\ETCCU104_remapping_ing\Point_Index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\entec-msyoun\Documents\entecene\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26295" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="580">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2256,6 +2256,10 @@
   <si>
     <t>40/02,41/02</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 branch 사용해보자!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2694,7 +2698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3150,6 +3154,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3924,7 +3937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4375,56 +4388,77 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="247" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4432,50 +4466,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4483,21 +4511,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4512,6 +4525,12 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="247" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="257">
@@ -6012,8 +6031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6032,10 +6051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -6059,7 +6078,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>259</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -6088,8 +6107,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="154" t="s">
+      <c r="A3" s="153"/>
+      <c r="B3" s="150" t="s">
         <v>261</v>
       </c>
       <c r="C3" s="129">
@@ -6116,8 +6135,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="154"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="129">
         <v>2</v>
       </c>
@@ -6130,7 +6149,10 @@
       <c r="F4" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="106"/>
+      <c r="G4" s="196" t="s">
+        <v>579</v>
+      </c>
+      <c r="H4" s="197"/>
       <c r="I4" s="107">
         <v>2</v>
       </c>
@@ -6139,8 +6161,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="151"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="129">
         <v>3</v>
       </c>
@@ -6162,8 +6184,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1">
-      <c r="A6" s="151"/>
-      <c r="B6" s="154"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="129">
         <v>4</v>
       </c>
@@ -6185,7 +6207,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1">
-      <c r="A7" s="151"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
       </c>
@@ -6210,10 +6232,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="152" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="129">
@@ -6237,8 +6259,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="129">
         <v>7</v>
       </c>
@@ -6260,8 +6282,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1">
-      <c r="A10" s="151"/>
-      <c r="B10" s="154"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="129">
         <v>8</v>
       </c>
@@ -6283,8 +6305,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="154" t="s">
+      <c r="A11" s="153"/>
+      <c r="B11" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="129">
@@ -6318,8 +6340,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="154"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="129">
         <v>10</v>
       </c>
@@ -6342,16 +6364,16 @@
       <c r="K12" t="s">
         <v>552</v>
       </c>
-      <c r="L12" s="150" t="s">
+      <c r="L12" s="156" t="s">
         <v>554</v>
       </c>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1">
-      <c r="A13" s="151"/>
-      <c r="B13" s="154" t="s">
+      <c r="A13" s="153"/>
+      <c r="B13" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="129">
@@ -6375,8 +6397,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
-      <c r="A14" s="151"/>
-      <c r="B14" s="154"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="129">
         <v>12</v>
       </c>
@@ -6398,8 +6420,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1">
-      <c r="A15" s="151"/>
-      <c r="B15" s="154"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="129">
         <v>13</v>
       </c>
@@ -6421,8 +6443,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1">
-      <c r="A16" s="151"/>
-      <c r="B16" s="154" t="s">
+      <c r="A16" s="153"/>
+      <c r="B16" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="129">
@@ -6446,8 +6468,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
-      <c r="A17" s="151"/>
-      <c r="B17" s="154"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="129">
         <v>15</v>
       </c>
@@ -6469,8 +6491,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="154"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="129">
         <v>16</v>
       </c>
@@ -6492,8 +6514,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
-      <c r="A19" s="151"/>
-      <c r="B19" s="154"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="129">
         <v>17</v>
       </c>
@@ -6515,8 +6537,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
-      <c r="A20" s="151"/>
-      <c r="B20" s="154"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="129">
         <v>18</v>
       </c>
@@ -6538,8 +6560,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1">
-      <c r="A21" s="151"/>
-      <c r="B21" s="154"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="129">
         <v>19</v>
       </c>
@@ -6561,8 +6583,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="154"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="129">
         <v>20</v>
       </c>
@@ -6584,8 +6606,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1">
-      <c r="A23" s="151"/>
-      <c r="B23" s="154" t="s">
+      <c r="A23" s="153"/>
+      <c r="B23" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="129">
@@ -6612,8 +6634,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1">
-      <c r="A24" s="151"/>
-      <c r="B24" s="155"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="129">
         <v>22</v>
       </c>
@@ -6638,8 +6660,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1">
-      <c r="A25" s="151"/>
-      <c r="B25" s="155"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="129">
         <v>23</v>
       </c>
@@ -6664,8 +6686,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1">
-      <c r="A26" s="151"/>
-      <c r="B26" s="155"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="129">
         <v>24</v>
       </c>
@@ -6690,8 +6712,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="155"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="129">
         <v>25</v>
       </c>
@@ -6713,8 +6735,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1">
-      <c r="A28" s="151"/>
-      <c r="B28" s="155"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="129">
         <v>26</v>
       </c>
@@ -6736,8 +6758,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1">
-      <c r="A29" s="151"/>
-      <c r="B29" s="155"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="129">
         <v>27</v>
       </c>
@@ -6759,8 +6781,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1">
-      <c r="A30" s="151"/>
-      <c r="B30" s="155"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="129">
         <v>28</v>
       </c>
@@ -6782,8 +6804,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1">
-      <c r="A31" s="151"/>
-      <c r="B31" s="155"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="129">
         <v>29</v>
       </c>
@@ -6805,10 +6827,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1">
-      <c r="A32" s="157" t="s">
+      <c r="A32" s="152" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="129">
@@ -6832,8 +6854,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="154"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="129">
         <v>31</v>
       </c>
@@ -6855,8 +6877,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1">
-      <c r="A34" s="151"/>
-      <c r="B34" s="154"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="129">
         <v>32</v>
       </c>
@@ -6878,8 +6900,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1">
-      <c r="A35" s="151"/>
-      <c r="B35" s="154" t="s">
+      <c r="A35" s="153"/>
+      <c r="B35" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="129">
@@ -6906,8 +6928,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1">
-      <c r="A36" s="151"/>
-      <c r="B36" s="154"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="129">
         <v>34</v>
       </c>
@@ -6930,14 +6952,14 @@
       <c r="K36" t="s">
         <v>552</v>
       </c>
-      <c r="L36" s="150" t="s">
+      <c r="L36" s="156" t="s">
         <v>560</v>
       </c>
-      <c r="M36" s="150"/>
+      <c r="M36" s="156"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1">
-      <c r="A37" s="151"/>
-      <c r="B37" s="154" t="s">
+      <c r="A37" s="153"/>
+      <c r="B37" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="129">
@@ -6967,8 +6989,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1">
-      <c r="A38" s="151"/>
-      <c r="B38" s="154"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="129">
         <v>36</v>
       </c>
@@ -6996,8 +7018,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1">
-      <c r="A39" s="151"/>
-      <c r="B39" s="154"/>
+      <c r="A39" s="153"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="129">
         <v>37</v>
       </c>
@@ -7019,8 +7041,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="151"/>
-      <c r="B40" s="154"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="129">
         <v>38</v>
       </c>
@@ -7042,8 +7064,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
-      <c r="A41" s="151"/>
-      <c r="B41" s="154" t="s">
+      <c r="A41" s="153"/>
+      <c r="B41" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="129">
@@ -7067,8 +7089,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
-      <c r="A42" s="151"/>
-      <c r="B42" s="154"/>
+      <c r="A42" s="153"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="129">
         <v>40</v>
       </c>
@@ -7090,8 +7112,8 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1">
-      <c r="A43" s="151"/>
-      <c r="B43" s="154"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="129">
         <v>41</v>
       </c>
@@ -7113,8 +7135,8 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1">
-      <c r="A44" s="151"/>
-      <c r="B44" s="154"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="129">
         <v>42</v>
       </c>
@@ -7136,8 +7158,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1">
-      <c r="A45" s="151"/>
-      <c r="B45" s="154"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="129">
         <v>43</v>
       </c>
@@ -7159,8 +7181,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1">
-      <c r="A46" s="151"/>
-      <c r="B46" s="154"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="129">
         <v>44</v>
       </c>
@@ -7182,8 +7204,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1">
-      <c r="A47" s="151"/>
-      <c r="B47" s="154"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="150"/>
       <c r="C47" s="129">
         <v>45</v>
       </c>
@@ -7205,8 +7227,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1">
-      <c r="A48" s="151"/>
-      <c r="B48" s="154" t="s">
+      <c r="A48" s="153"/>
+      <c r="B48" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="129">
@@ -7230,8 +7252,8 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="18" customHeight="1">
-      <c r="A49" s="151"/>
-      <c r="B49" s="155"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="151"/>
       <c r="C49" s="129">
         <v>47</v>
       </c>
@@ -7253,8 +7275,8 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1">
-      <c r="A50" s="151"/>
-      <c r="B50" s="155"/>
+      <c r="A50" s="153"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="129">
         <v>48</v>
       </c>
@@ -7276,8 +7298,8 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="18" customHeight="1">
-      <c r="A51" s="151"/>
-      <c r="B51" s="155"/>
+      <c r="A51" s="153"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="129">
         <v>49</v>
       </c>
@@ -7299,8 +7321,8 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="18" customHeight="1">
-      <c r="A52" s="151"/>
-      <c r="B52" s="155"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="129">
         <v>50</v>
       </c>
@@ -7322,8 +7344,8 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="18" customHeight="1">
-      <c r="A53" s="151"/>
-      <c r="B53" s="155"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="151"/>
       <c r="C53" s="129">
         <v>51</v>
       </c>
@@ -7345,10 +7367,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="157" t="s">
+      <c r="A54" s="152" t="s">
         <v>346</v>
       </c>
-      <c r="B54" s="154" t="s">
+      <c r="B54" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="129">
@@ -7372,8 +7394,8 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="151"/>
-      <c r="B55" s="154"/>
+      <c r="A55" s="153"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="129">
         <v>53</v>
       </c>
@@ -7395,8 +7417,8 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="151"/>
-      <c r="B56" s="154"/>
+      <c r="A56" s="153"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="129">
         <v>54</v>
       </c>
@@ -7418,8 +7440,8 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="151"/>
-      <c r="B57" s="154" t="s">
+      <c r="A57" s="153"/>
+      <c r="B57" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="129">
@@ -7453,8 +7475,8 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="151"/>
-      <c r="B58" s="154"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="150"/>
       <c r="C58" s="129">
         <v>56</v>
       </c>
@@ -7477,15 +7499,15 @@
       <c r="K58" t="s">
         <v>570</v>
       </c>
-      <c r="L58" s="150" t="s">
+      <c r="L58" s="156" t="s">
         <v>571</v>
       </c>
-      <c r="M58" s="150"/>
-      <c r="N58" s="150"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="151"/>
-      <c r="B59" s="154" t="s">
+      <c r="A59" s="153"/>
+      <c r="B59" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="129">
@@ -7515,8 +7537,8 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="151"/>
-      <c r="B60" s="154"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="150"/>
       <c r="C60" s="129">
         <v>58</v>
       </c>
@@ -7544,8 +7566,8 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="151"/>
-      <c r="B61" s="154"/>
+      <c r="A61" s="153"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="129">
         <v>59</v>
       </c>
@@ -7567,8 +7589,8 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="151"/>
-      <c r="B62" s="154"/>
+      <c r="A62" s="153"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="129">
         <v>60</v>
       </c>
@@ -7590,8 +7612,8 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="151"/>
-      <c r="B63" s="154" t="s">
+      <c r="A63" s="153"/>
+      <c r="B63" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="129">
@@ -7615,8 +7637,8 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="151"/>
-      <c r="B64" s="154"/>
+      <c r="A64" s="153"/>
+      <c r="B64" s="150"/>
       <c r="C64" s="129">
         <v>62</v>
       </c>
@@ -7638,8 +7660,8 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="151"/>
-      <c r="B65" s="154"/>
+      <c r="A65" s="153"/>
+      <c r="B65" s="150"/>
       <c r="C65" s="129">
         <v>63</v>
       </c>
@@ -7661,8 +7683,8 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="151"/>
-      <c r="B66" s="154"/>
+      <c r="A66" s="153"/>
+      <c r="B66" s="150"/>
       <c r="C66" s="129">
         <v>64</v>
       </c>
@@ -7684,8 +7706,8 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="151"/>
-      <c r="B67" s="154"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="129">
         <v>65</v>
       </c>
@@ -7707,8 +7729,8 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="151"/>
-      <c r="B68" s="154"/>
+      <c r="A68" s="153"/>
+      <c r="B68" s="150"/>
       <c r="C68" s="129">
         <v>66</v>
       </c>
@@ -7730,8 +7752,8 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="151"/>
-      <c r="B69" s="154"/>
+      <c r="A69" s="153"/>
+      <c r="B69" s="150"/>
       <c r="C69" s="129">
         <v>67</v>
       </c>
@@ -7753,8 +7775,8 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="151"/>
-      <c r="B70" s="154" t="s">
+      <c r="A70" s="153"/>
+      <c r="B70" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="129">
@@ -7778,8 +7800,8 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="151"/>
-      <c r="B71" s="155"/>
+      <c r="A71" s="153"/>
+      <c r="B71" s="151"/>
       <c r="C71" s="129">
         <v>69</v>
       </c>
@@ -7801,8 +7823,8 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="151"/>
-      <c r="B72" s="155"/>
+      <c r="A72" s="153"/>
+      <c r="B72" s="151"/>
       <c r="C72" s="129">
         <v>70</v>
       </c>
@@ -7824,8 +7846,8 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="151"/>
-      <c r="B73" s="155"/>
+      <c r="A73" s="153"/>
+      <c r="B73" s="151"/>
       <c r="C73" s="129">
         <v>71</v>
       </c>
@@ -7847,8 +7869,8 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="151"/>
-      <c r="B74" s="155"/>
+      <c r="A74" s="153"/>
+      <c r="B74" s="151"/>
       <c r="C74" s="129">
         <v>72</v>
       </c>
@@ -7870,8 +7892,8 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="151"/>
-      <c r="B75" s="155"/>
+      <c r="A75" s="153"/>
+      <c r="B75" s="151"/>
       <c r="C75" s="129">
         <v>73</v>
       </c>
@@ -7893,10 +7915,10 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A76" s="157" t="s">
+      <c r="A76" s="152" t="s">
         <v>440</v>
       </c>
-      <c r="B76" s="154" t="s">
+      <c r="B76" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="129">
@@ -7920,8 +7942,8 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="151"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="153"/>
+      <c r="B77" s="150"/>
       <c r="C77" s="129">
         <v>75</v>
       </c>
@@ -7943,8 +7965,8 @@
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="151"/>
-      <c r="B78" s="154"/>
+      <c r="A78" s="153"/>
+      <c r="B78" s="150"/>
       <c r="C78" s="129">
         <v>76</v>
       </c>
@@ -7966,8 +7988,8 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="151"/>
-      <c r="B79" s="154" t="s">
+      <c r="A79" s="153"/>
+      <c r="B79" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="129">
@@ -8001,8 +8023,8 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="151"/>
-      <c r="B80" s="154"/>
+      <c r="A80" s="153"/>
+      <c r="B80" s="150"/>
       <c r="C80" s="129">
         <v>78</v>
       </c>
@@ -8025,15 +8047,15 @@
       <c r="K80" t="s">
         <v>570</v>
       </c>
-      <c r="L80" s="150" t="s">
+      <c r="L80" s="156" t="s">
         <v>571</v>
       </c>
-      <c r="M80" s="150"/>
-      <c r="N80" s="150"/>
+      <c r="M80" s="156"/>
+      <c r="N80" s="156"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="151"/>
-      <c r="B81" s="154" t="s">
+      <c r="A81" s="153"/>
+      <c r="B81" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="129">
@@ -8063,8 +8085,8 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="151"/>
-      <c r="B82" s="154"/>
+      <c r="A82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="129">
         <v>80</v>
       </c>
@@ -8092,8 +8114,8 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="151"/>
-      <c r="B83" s="154"/>
+      <c r="A83" s="153"/>
+      <c r="B83" s="150"/>
       <c r="C83" s="129">
         <v>81</v>
       </c>
@@ -8115,8 +8137,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="151"/>
-      <c r="B84" s="154"/>
+      <c r="A84" s="153"/>
+      <c r="B84" s="150"/>
       <c r="C84" s="129">
         <v>82</v>
       </c>
@@ -8138,8 +8160,8 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="151"/>
-      <c r="B85" s="154" t="s">
+      <c r="A85" s="153"/>
+      <c r="B85" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="129">
@@ -8163,8 +8185,8 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="151"/>
-      <c r="B86" s="154"/>
+      <c r="A86" s="153"/>
+      <c r="B86" s="150"/>
       <c r="C86" s="129">
         <v>84</v>
       </c>
@@ -8186,8 +8208,8 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="151"/>
-      <c r="B87" s="154"/>
+      <c r="A87" s="153"/>
+      <c r="B87" s="150"/>
       <c r="C87" s="129">
         <v>85</v>
       </c>
@@ -8209,8 +8231,8 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="151"/>
-      <c r="B88" s="154"/>
+      <c r="A88" s="153"/>
+      <c r="B88" s="150"/>
       <c r="C88" s="129">
         <v>86</v>
       </c>
@@ -8232,8 +8254,8 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="151"/>
-      <c r="B89" s="154"/>
+      <c r="A89" s="153"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="129">
         <v>87</v>
       </c>
@@ -8255,8 +8277,8 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="151"/>
-      <c r="B90" s="154"/>
+      <c r="A90" s="153"/>
+      <c r="B90" s="150"/>
       <c r="C90" s="129">
         <v>88</v>
       </c>
@@ -8278,8 +8300,8 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="151"/>
-      <c r="B91" s="154"/>
+      <c r="A91" s="153"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="129">
         <v>89</v>
       </c>
@@ -8301,8 +8323,8 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="151"/>
-      <c r="B92" s="154" t="s">
+      <c r="A92" s="153"/>
+      <c r="B92" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="129">
@@ -8326,8 +8348,8 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="151"/>
-      <c r="B93" s="155"/>
+      <c r="A93" s="153"/>
+      <c r="B93" s="151"/>
       <c r="C93" s="129">
         <v>91</v>
       </c>
@@ -8349,8 +8371,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="151"/>
-      <c r="B94" s="155"/>
+      <c r="A94" s="153"/>
+      <c r="B94" s="151"/>
       <c r="C94" s="129">
         <v>92</v>
       </c>
@@ -8372,8 +8394,8 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="151"/>
-      <c r="B95" s="155"/>
+      <c r="A95" s="153"/>
+      <c r="B95" s="151"/>
       <c r="C95" s="129">
         <v>93</v>
       </c>
@@ -8395,8 +8417,8 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="151"/>
-      <c r="B96" s="155"/>
+      <c r="A96" s="153"/>
+      <c r="B96" s="151"/>
       <c r="C96" s="129">
         <v>94</v>
       </c>
@@ -8418,8 +8440,8 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="151"/>
-      <c r="B97" s="155"/>
+      <c r="A97" s="153"/>
+      <c r="B97" s="151"/>
       <c r="C97" s="129">
         <v>95</v>
       </c>
@@ -8441,10 +8463,10 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="151" t="s">
+      <c r="A98" s="153" t="s">
         <v>538</v>
       </c>
-      <c r="B98" s="154" t="s">
+      <c r="B98" s="150" t="s">
         <v>539</v>
       </c>
       <c r="C98" s="129">
@@ -8468,8 +8490,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="152"/>
-      <c r="B99" s="155"/>
+      <c r="A99" s="157"/>
+      <c r="B99" s="151"/>
       <c r="C99" s="129">
         <v>97</v>
       </c>
@@ -8491,8 +8513,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A100" s="153"/>
-      <c r="B100" s="156"/>
+      <c r="A100" s="158"/>
+      <c r="B100" s="159"/>
       <c r="C100" s="112">
         <v>98</v>
       </c>
@@ -8514,24 +8536,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="A54:A75"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A31"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B3:B6"/>
+  <mergeCells count="34">
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L58:N58"/>
@@ -8548,6 +8554,23 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A31"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="A54:A75"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8581,10 +8604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -8608,7 +8631,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="161" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -8637,7 +8660,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="164"/>
+      <c r="A3" s="161"/>
       <c r="B3" s="102" t="s">
         <v>264</v>
       </c>
@@ -8664,7 +8687,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="A4" s="164"/>
+      <c r="A4" s="161"/>
       <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
@@ -8691,8 +8714,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="A5" s="164"/>
-      <c r="B5" s="166" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -8719,8 +8742,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1">
-      <c r="A6" s="164"/>
-      <c r="B6" s="166"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -8744,7 +8767,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="160" t="s">
         <v>302</v>
       </c>
       <c r="B7" s="102" t="s">
@@ -8773,7 +8796,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A8" s="164"/>
+      <c r="A8" s="161"/>
       <c r="B8" s="102" t="s">
         <v>6</v>
       </c>
@@ -8798,15 +8821,15 @@
       <c r="J8" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="161" t="s">
+      <c r="K8" s="164" t="s">
         <v>572</v>
       </c>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A9" s="164"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="102" t="s">
         <v>8</v>
       </c>
@@ -8833,7 +8856,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="160" t="s">
         <v>303</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -8862,8 +8885,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="166" t="s">
+      <c r="A11" s="161"/>
+      <c r="B11" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="102">
@@ -8887,19 +8910,19 @@
       <c r="J11" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="161" t="s">
+      <c r="K11" s="164" t="s">
         <v>575</v>
       </c>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
       <c r="Q11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="166"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -8921,19 +8944,19 @@
       <c r="J12" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K12" s="160" t="s">
+      <c r="K12" s="166" t="s">
         <v>574</v>
       </c>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
       <c r="Q12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="166"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -8955,18 +8978,18 @@
       <c r="J13" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K13" s="160" t="s">
+      <c r="K13" s="166" t="s">
         <v>573</v>
       </c>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
       <c r="Q13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A14" s="164"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="102" t="s">
         <v>8</v>
       </c>
@@ -8993,7 +9016,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="160" t="s">
         <v>304</v>
       </c>
       <c r="B15" s="102" t="s">
@@ -9022,8 +9045,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="166" t="s">
+      <c r="A16" s="161"/>
+      <c r="B16" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="102">
@@ -9047,19 +9070,19 @@
       <c r="J16" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="161" t="s">
+      <c r="K16" s="164" t="s">
         <v>575</v>
       </c>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
       <c r="Q16" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -9084,19 +9107,19 @@
       <c r="J17" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="160" t="s">
+      <c r="K17" s="166" t="s">
         <v>574</v>
       </c>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
       <c r="Q17" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="166"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="102">
         <v>16</v>
       </c>
@@ -9121,18 +9144,18 @@
       <c r="J18" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="160" t="s">
+      <c r="K18" s="166" t="s">
         <v>573</v>
       </c>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
       <c r="Q18" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A19" s="164"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="102" t="s">
         <v>8</v>
       </c>
@@ -9159,7 +9182,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="160" t="s">
         <v>441</v>
       </c>
       <c r="B20" s="102" t="s">
@@ -9188,8 +9211,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="166" t="s">
+      <c r="A21" s="161"/>
+      <c r="B21" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="102">
@@ -9213,19 +9236,19 @@
       <c r="J21" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="161" t="s">
+      <c r="K21" s="164" t="s">
         <v>575</v>
       </c>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
       <c r="Q21" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -9247,12 +9270,12 @@
       <c r="J22" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K22" s="160" t="s">
+      <c r="K22" s="166" t="s">
         <v>574</v>
       </c>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
       <c r="O22" t="s">
         <v>577</v>
       </c>
@@ -9261,8 +9284,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A23" s="164"/>
-      <c r="B23" s="166"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="102">
         <v>21</v>
       </c>
@@ -9284,18 +9307,18 @@
       <c r="J23" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K23" s="160" t="s">
+      <c r="K23" s="166" t="s">
         <v>573</v>
       </c>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
       <c r="Q23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A24" s="165"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="105" t="s">
         <v>8</v>
       </c>
@@ -9323,6 +9346,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:A9"/>
@@ -9333,16 +9366,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A15:A19"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9376,10 +9399,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -9403,10 +9426,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="152" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="173" t="s">
         <v>444</v>
       </c>
       <c r="C2" s="108">
@@ -9432,8 +9455,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="171"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="108">
         <v>1</v>
       </c>
@@ -9457,8 +9480,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="108">
         <v>2</v>
       </c>
@@ -9480,8 +9503,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A5" s="157"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="108">
         <v>3</v>
       </c>
@@ -9505,10 +9528,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="152" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="150" t="s">
         <v>442</v>
       </c>
       <c r="C6" s="124">
@@ -9534,8 +9557,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A7" s="151"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="124">
         <v>5</v>
       </c>
@@ -9559,8 +9582,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A8" s="151"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="124">
         <v>6</v>
       </c>
@@ -9584,8 +9607,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="124">
         <v>7</v>
       </c>
@@ -9609,8 +9632,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A10" s="151"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="124">
         <v>8</v>
       </c>
@@ -9637,8 +9660,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="124">
         <v>9</v>
       </c>
@@ -9665,8 +9688,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="124">
         <v>10</v>
       </c>
@@ -9690,8 +9713,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A13" s="151"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="124">
         <v>11</v>
       </c>
@@ -9715,8 +9738,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A14" s="151"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="124">
         <v>12</v>
       </c>
@@ -9740,8 +9763,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A15" s="151"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="124">
         <v>13</v>
       </c>
@@ -9765,8 +9788,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A16" s="151"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="124">
         <v>14</v>
       </c>
@@ -9790,8 +9813,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A17" s="151"/>
-      <c r="B17" s="171"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="124">
         <v>15</v>
       </c>
@@ -9815,8 +9838,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="171"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="124">
         <v>16</v>
       </c>
@@ -9840,8 +9863,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A19" s="151"/>
-      <c r="B19" s="171"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="124">
         <v>17</v>
       </c>
@@ -9865,8 +9888,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A20" s="151"/>
-      <c r="B20" s="171"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="124">
         <v>18</v>
       </c>
@@ -9890,8 +9913,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A21" s="151"/>
-      <c r="B21" s="171"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="124">
         <v>19</v>
       </c>
@@ -9915,8 +9938,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="171"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="124">
         <v>20</v>
       </c>
@@ -9940,8 +9963,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A23" s="151"/>
-      <c r="B23" s="171"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="124">
         <v>21</v>
       </c>
@@ -9965,8 +9988,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A24" s="151"/>
-      <c r="B24" s="171"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="124">
         <v>22</v>
       </c>
@@ -9990,8 +10013,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A25" s="151"/>
-      <c r="B25" s="171"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="124">
         <v>23</v>
       </c>
@@ -10015,8 +10038,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A26" s="151"/>
-      <c r="B26" s="171"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="124">
         <v>24</v>
       </c>
@@ -10040,8 +10063,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="124">
         <v>25</v>
       </c>
@@ -10065,8 +10088,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A28" s="151"/>
-      <c r="B28" s="171"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="124">
         <v>26</v>
       </c>
@@ -10090,8 +10113,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A29" s="151"/>
-      <c r="B29" s="171"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="124">
         <v>27</v>
       </c>
@@ -10115,8 +10138,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A30" s="151"/>
-      <c r="B30" s="171"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="124">
         <v>28</v>
       </c>
@@ -10140,8 +10163,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A31" s="151"/>
-      <c r="B31" s="171"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="124">
         <v>29</v>
       </c>
@@ -10165,8 +10188,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A32" s="151"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="124">
         <v>30</v>
       </c>
@@ -10190,8 +10213,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="124">
         <v>31</v>
       </c>
@@ -10215,8 +10238,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A34" s="151"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="124">
         <v>32</v>
       </c>
@@ -10240,8 +10263,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A35" s="151"/>
-      <c r="B35" s="171"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="124">
         <v>33</v>
       </c>
@@ -10265,8 +10288,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A36" s="151"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="124">
         <v>34</v>
       </c>
@@ -10290,8 +10313,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A37" s="151"/>
-      <c r="B37" s="171"/>
+      <c r="A37" s="153"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="124">
         <v>35</v>
       </c>
@@ -10315,8 +10338,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A38" s="151"/>
-      <c r="B38" s="171"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="124">
         <v>36</v>
       </c>
@@ -10340,8 +10363,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A39" s="151"/>
-      <c r="B39" s="171"/>
+      <c r="A39" s="153"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="124">
         <v>37</v>
       </c>
@@ -10365,8 +10388,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A40" s="151"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="124">
         <v>38</v>
       </c>
@@ -10390,8 +10413,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A41" s="151"/>
-      <c r="B41" s="171"/>
+      <c r="A41" s="153"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="124">
         <v>39</v>
       </c>
@@ -10415,8 +10438,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A42" s="151"/>
-      <c r="B42" s="154" t="s">
+      <c r="A42" s="153"/>
+      <c r="B42" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="124">
@@ -10440,14 +10463,14 @@
       <c r="J42" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="K42" s="167" t="s">
+      <c r="K42" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L42" s="168"/>
+      <c r="L42" s="175"/>
     </row>
     <row r="43" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A43" s="151"/>
-      <c r="B43" s="171"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="124">
         <v>41</v>
       </c>
@@ -10469,14 +10492,14 @@
       <c r="J43" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="167" t="s">
+      <c r="K43" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L43" s="168"/>
+      <c r="L43" s="175"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A44" s="151"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="124">
         <v>42</v>
       </c>
@@ -10498,14 +10521,14 @@
       <c r="J44" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="167" t="s">
+      <c r="K44" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L44" s="168"/>
+      <c r="L44" s="175"/>
     </row>
     <row r="45" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A45" s="151"/>
-      <c r="B45" s="171"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="124">
         <v>43</v>
       </c>
@@ -10527,14 +10550,14 @@
       <c r="J45" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="167" t="s">
+      <c r="K45" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L45" s="168"/>
+      <c r="L45" s="175"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A46" s="151"/>
-      <c r="B46" s="171"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="124">
         <v>44</v>
       </c>
@@ -10556,14 +10579,14 @@
       <c r="J46" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="K46" s="167" t="s">
+      <c r="K46" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L46" s="168"/>
+      <c r="L46" s="175"/>
     </row>
     <row r="47" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A47" s="151"/>
-      <c r="B47" s="171"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="124">
         <v>45</v>
       </c>
@@ -10585,14 +10608,14 @@
       <c r="J47" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="K47" s="167" t="s">
+      <c r="K47" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L47" s="168"/>
+      <c r="L47" s="175"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A48" s="151"/>
-      <c r="B48" s="171"/>
+      <c r="A48" s="153"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="124">
         <v>46</v>
       </c>
@@ -10614,14 +10637,14 @@
       <c r="J48" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="K48" s="167" t="s">
+      <c r="K48" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L48" s="168"/>
+      <c r="L48" s="175"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A49" s="151"/>
-      <c r="B49" s="171"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="170"/>
       <c r="C49" s="124">
         <v>47</v>
       </c>
@@ -10643,16 +10666,16 @@
       <c r="J49" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="167" t="s">
+      <c r="K49" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L49" s="168"/>
+      <c r="L49" s="175"/>
     </row>
     <row r="50" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A50" s="157" t="s">
+      <c r="A50" s="152" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="154" t="s">
+      <c r="B50" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="124">
@@ -10678,8 +10701,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A51" s="151"/>
-      <c r="B51" s="171"/>
+      <c r="A51" s="153"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="124">
         <v>49</v>
       </c>
@@ -10703,8 +10726,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A52" s="151"/>
-      <c r="B52" s="171"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="170"/>
       <c r="C52" s="124">
         <v>50</v>
       </c>
@@ -10728,8 +10751,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A53" s="151"/>
-      <c r="B53" s="171"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="170"/>
       <c r="C53" s="124">
         <v>51</v>
       </c>
@@ -10753,8 +10776,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A54" s="151"/>
-      <c r="B54" s="171"/>
+      <c r="A54" s="153"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="124">
         <v>52</v>
       </c>
@@ -10778,8 +10801,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A55" s="151"/>
-      <c r="B55" s="171"/>
+      <c r="A55" s="153"/>
+      <c r="B55" s="170"/>
       <c r="C55" s="124">
         <v>53</v>
       </c>
@@ -10803,8 +10826,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A56" s="151"/>
-      <c r="B56" s="171"/>
+      <c r="A56" s="153"/>
+      <c r="B56" s="170"/>
       <c r="C56" s="124">
         <v>54</v>
       </c>
@@ -10828,8 +10851,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A57" s="151"/>
-      <c r="B57" s="171"/>
+      <c r="A57" s="153"/>
+      <c r="B57" s="170"/>
       <c r="C57" s="124">
         <v>55</v>
       </c>
@@ -10853,8 +10876,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A58" s="151"/>
-      <c r="B58" s="171"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="124">
         <v>56</v>
       </c>
@@ -10878,8 +10901,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A59" s="151"/>
-      <c r="B59" s="171"/>
+      <c r="A59" s="153"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="124">
         <v>57</v>
       </c>
@@ -10903,8 +10926,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A60" s="151"/>
-      <c r="B60" s="171"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="170"/>
       <c r="C60" s="124">
         <v>58</v>
       </c>
@@ -10928,8 +10951,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A61" s="151"/>
-      <c r="B61" s="171"/>
+      <c r="A61" s="153"/>
+      <c r="B61" s="170"/>
       <c r="C61" s="124">
         <v>59</v>
       </c>
@@ -10953,8 +10976,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A62" s="151"/>
-      <c r="B62" s="171"/>
+      <c r="A62" s="153"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="124">
         <v>60</v>
       </c>
@@ -10978,8 +11001,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A63" s="151"/>
-      <c r="B63" s="171"/>
+      <c r="A63" s="153"/>
+      <c r="B63" s="170"/>
       <c r="C63" s="124">
         <v>61</v>
       </c>
@@ -11003,8 +11026,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A64" s="151"/>
-      <c r="B64" s="171"/>
+      <c r="A64" s="153"/>
+      <c r="B64" s="170"/>
       <c r="C64" s="124">
         <v>62</v>
       </c>
@@ -11028,8 +11051,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A65" s="151"/>
-      <c r="B65" s="171"/>
+      <c r="A65" s="153"/>
+      <c r="B65" s="170"/>
       <c r="C65" s="124">
         <v>63</v>
       </c>
@@ -11053,8 +11076,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A66" s="151"/>
-      <c r="B66" s="171"/>
+      <c r="A66" s="153"/>
+      <c r="B66" s="170"/>
       <c r="C66" s="124">
         <v>64</v>
       </c>
@@ -11078,8 +11101,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A67" s="151"/>
-      <c r="B67" s="171"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="170"/>
       <c r="C67" s="124">
         <v>65</v>
       </c>
@@ -11103,8 +11126,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A68" s="151"/>
-      <c r="B68" s="171"/>
+      <c r="A68" s="153"/>
+      <c r="B68" s="170"/>
       <c r="C68" s="124">
         <v>66</v>
       </c>
@@ -11128,8 +11151,8 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A69" s="151"/>
-      <c r="B69" s="171"/>
+      <c r="A69" s="153"/>
+      <c r="B69" s="170"/>
       <c r="C69" s="124">
         <v>67</v>
       </c>
@@ -11153,8 +11176,8 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A70" s="151"/>
-      <c r="B70" s="171"/>
+      <c r="A70" s="153"/>
+      <c r="B70" s="170"/>
       <c r="C70" s="124">
         <v>68</v>
       </c>
@@ -11178,8 +11201,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A71" s="151"/>
-      <c r="B71" s="171"/>
+      <c r="A71" s="153"/>
+      <c r="B71" s="170"/>
       <c r="C71" s="124">
         <v>69</v>
       </c>
@@ -11203,8 +11226,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A72" s="151"/>
-      <c r="B72" s="171"/>
+      <c r="A72" s="153"/>
+      <c r="B72" s="170"/>
       <c r="C72" s="124">
         <v>70</v>
       </c>
@@ -11228,8 +11251,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A73" s="151"/>
-      <c r="B73" s="171"/>
+      <c r="A73" s="153"/>
+      <c r="B73" s="170"/>
       <c r="C73" s="124">
         <v>71</v>
       </c>
@@ -11253,8 +11276,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A74" s="151"/>
-      <c r="B74" s="171"/>
+      <c r="A74" s="153"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="124">
         <v>72</v>
       </c>
@@ -11278,8 +11301,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A75" s="151"/>
-      <c r="B75" s="171"/>
+      <c r="A75" s="153"/>
+      <c r="B75" s="170"/>
       <c r="C75" s="124">
         <v>73</v>
       </c>
@@ -11303,8 +11326,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A76" s="151"/>
-      <c r="B76" s="171"/>
+      <c r="A76" s="153"/>
+      <c r="B76" s="170"/>
       <c r="C76" s="124">
         <v>74</v>
       </c>
@@ -11328,8 +11351,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A77" s="151"/>
-      <c r="B77" s="171"/>
+      <c r="A77" s="153"/>
+      <c r="B77" s="170"/>
       <c r="C77" s="124">
         <v>75</v>
       </c>
@@ -11353,8 +11376,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A78" s="151"/>
-      <c r="B78" s="171"/>
+      <c r="A78" s="153"/>
+      <c r="B78" s="170"/>
       <c r="C78" s="124">
         <v>76</v>
       </c>
@@ -11378,8 +11401,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A79" s="151"/>
-      <c r="B79" s="171"/>
+      <c r="A79" s="153"/>
+      <c r="B79" s="170"/>
       <c r="C79" s="124">
         <v>77</v>
       </c>
@@ -11403,8 +11426,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A80" s="151"/>
-      <c r="B80" s="171"/>
+      <c r="A80" s="153"/>
+      <c r="B80" s="170"/>
       <c r="C80" s="124">
         <v>78</v>
       </c>
@@ -11428,8 +11451,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A81" s="151"/>
-      <c r="B81" s="171"/>
+      <c r="A81" s="153"/>
+      <c r="B81" s="170"/>
       <c r="C81" s="124">
         <v>79</v>
       </c>
@@ -11453,8 +11476,8 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A82" s="151"/>
-      <c r="B82" s="171"/>
+      <c r="A82" s="153"/>
+      <c r="B82" s="170"/>
       <c r="C82" s="124">
         <v>80</v>
       </c>
@@ -11478,8 +11501,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A83" s="151"/>
-      <c r="B83" s="171"/>
+      <c r="A83" s="153"/>
+      <c r="B83" s="170"/>
       <c r="C83" s="124">
         <v>81</v>
       </c>
@@ -11503,8 +11526,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A84" s="151"/>
-      <c r="B84" s="171"/>
+      <c r="A84" s="153"/>
+      <c r="B84" s="170"/>
       <c r="C84" s="124">
         <v>82</v>
       </c>
@@ -11528,8 +11551,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A85" s="151"/>
-      <c r="B85" s="171"/>
+      <c r="A85" s="153"/>
+      <c r="B85" s="170"/>
       <c r="C85" s="124">
         <v>83</v>
       </c>
@@ -11553,8 +11576,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A86" s="151"/>
-      <c r="B86" s="154" t="s">
+      <c r="A86" s="153"/>
+      <c r="B86" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="124">
@@ -11580,8 +11603,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A87" s="151"/>
-      <c r="B87" s="171"/>
+      <c r="A87" s="153"/>
+      <c r="B87" s="170"/>
       <c r="C87" s="124">
         <v>85</v>
       </c>
@@ -11605,8 +11628,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A88" s="151"/>
-      <c r="B88" s="171"/>
+      <c r="A88" s="153"/>
+      <c r="B88" s="170"/>
       <c r="C88" s="124">
         <v>86</v>
       </c>
@@ -11630,8 +11653,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A89" s="151"/>
-      <c r="B89" s="171"/>
+      <c r="A89" s="153"/>
+      <c r="B89" s="170"/>
       <c r="C89" s="124">
         <v>87</v>
       </c>
@@ -11655,8 +11678,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A90" s="151"/>
-      <c r="B90" s="171"/>
+      <c r="A90" s="153"/>
+      <c r="B90" s="170"/>
       <c r="C90" s="124">
         <v>88</v>
       </c>
@@ -11680,8 +11703,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A91" s="151"/>
-      <c r="B91" s="171"/>
+      <c r="A91" s="153"/>
+      <c r="B91" s="170"/>
       <c r="C91" s="124">
         <v>89</v>
       </c>
@@ -11705,8 +11728,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A92" s="151"/>
-      <c r="B92" s="171"/>
+      <c r="A92" s="153"/>
+      <c r="B92" s="170"/>
       <c r="C92" s="124">
         <v>90</v>
       </c>
@@ -11730,8 +11753,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A93" s="151"/>
-      <c r="B93" s="171"/>
+      <c r="A93" s="153"/>
+      <c r="B93" s="170"/>
       <c r="C93" s="124">
         <v>91</v>
       </c>
@@ -11755,10 +11778,10 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A94" s="157" t="s">
+      <c r="A94" s="152" t="s">
         <v>346</v>
       </c>
-      <c r="B94" s="154" t="s">
+      <c r="B94" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C94" s="124">
@@ -11784,8 +11807,8 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A95" s="151"/>
-      <c r="B95" s="171"/>
+      <c r="A95" s="153"/>
+      <c r="B95" s="170"/>
       <c r="C95" s="124">
         <v>93</v>
       </c>
@@ -11809,8 +11832,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A96" s="151"/>
-      <c r="B96" s="171"/>
+      <c r="A96" s="153"/>
+      <c r="B96" s="170"/>
       <c r="C96" s="124">
         <v>94</v>
       </c>
@@ -11834,8 +11857,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A97" s="151"/>
-      <c r="B97" s="171"/>
+      <c r="A97" s="153"/>
+      <c r="B97" s="170"/>
       <c r="C97" s="124">
         <v>95</v>
       </c>
@@ -11859,8 +11882,8 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A98" s="151"/>
-      <c r="B98" s="171"/>
+      <c r="A98" s="153"/>
+      <c r="B98" s="170"/>
       <c r="C98" s="124">
         <v>96</v>
       </c>
@@ -11884,8 +11907,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A99" s="151"/>
-      <c r="B99" s="171"/>
+      <c r="A99" s="153"/>
+      <c r="B99" s="170"/>
       <c r="C99" s="124">
         <v>97</v>
       </c>
@@ -11909,8 +11932,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A100" s="151"/>
-      <c r="B100" s="171"/>
+      <c r="A100" s="153"/>
+      <c r="B100" s="170"/>
       <c r="C100" s="124">
         <v>98</v>
       </c>
@@ -11934,8 +11957,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A101" s="151"/>
-      <c r="B101" s="171"/>
+      <c r="A101" s="153"/>
+      <c r="B101" s="170"/>
       <c r="C101" s="124">
         <v>99</v>
       </c>
@@ -11959,8 +11982,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A102" s="151"/>
-      <c r="B102" s="171"/>
+      <c r="A102" s="153"/>
+      <c r="B102" s="170"/>
       <c r="C102" s="124">
         <v>100</v>
       </c>
@@ -11984,8 +12007,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A103" s="151"/>
-      <c r="B103" s="171"/>
+      <c r="A103" s="153"/>
+      <c r="B103" s="170"/>
       <c r="C103" s="124">
         <v>101</v>
       </c>
@@ -12009,8 +12032,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A104" s="151"/>
-      <c r="B104" s="171"/>
+      <c r="A104" s="153"/>
+      <c r="B104" s="170"/>
       <c r="C104" s="124">
         <v>102</v>
       </c>
@@ -12034,8 +12057,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A105" s="151"/>
-      <c r="B105" s="171"/>
+      <c r="A105" s="153"/>
+      <c r="B105" s="170"/>
       <c r="C105" s="124">
         <v>103</v>
       </c>
@@ -12059,8 +12082,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A106" s="151"/>
-      <c r="B106" s="171"/>
+      <c r="A106" s="153"/>
+      <c r="B106" s="170"/>
       <c r="C106" s="124">
         <v>104</v>
       </c>
@@ -12084,8 +12107,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A107" s="151"/>
-      <c r="B107" s="171"/>
+      <c r="A107" s="153"/>
+      <c r="B107" s="170"/>
       <c r="C107" s="124">
         <v>105</v>
       </c>
@@ -12109,8 +12132,8 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A108" s="151"/>
-      <c r="B108" s="171"/>
+      <c r="A108" s="153"/>
+      <c r="B108" s="170"/>
       <c r="C108" s="124">
         <v>106</v>
       </c>
@@ -12134,8 +12157,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A109" s="151"/>
-      <c r="B109" s="171"/>
+      <c r="A109" s="153"/>
+      <c r="B109" s="170"/>
       <c r="C109" s="124">
         <v>107</v>
       </c>
@@ -12159,8 +12182,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A110" s="151"/>
-      <c r="B110" s="171"/>
+      <c r="A110" s="153"/>
+      <c r="B110" s="170"/>
       <c r="C110" s="124">
         <v>108</v>
       </c>
@@ -12184,8 +12207,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A111" s="151"/>
-      <c r="B111" s="171"/>
+      <c r="A111" s="153"/>
+      <c r="B111" s="170"/>
       <c r="C111" s="124">
         <v>109</v>
       </c>
@@ -12209,8 +12232,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A112" s="151"/>
-      <c r="B112" s="171"/>
+      <c r="A112" s="153"/>
+      <c r="B112" s="170"/>
       <c r="C112" s="124">
         <v>110</v>
       </c>
@@ -12234,8 +12257,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A113" s="151"/>
-      <c r="B113" s="171"/>
+      <c r="A113" s="153"/>
+      <c r="B113" s="170"/>
       <c r="C113" s="124">
         <v>111</v>
       </c>
@@ -12259,8 +12282,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A114" s="151"/>
-      <c r="B114" s="171"/>
+      <c r="A114" s="153"/>
+      <c r="B114" s="170"/>
       <c r="C114" s="124">
         <v>112</v>
       </c>
@@ -12284,8 +12307,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A115" s="151"/>
-      <c r="B115" s="171"/>
+      <c r="A115" s="153"/>
+      <c r="B115" s="170"/>
       <c r="C115" s="124">
         <v>113</v>
       </c>
@@ -12309,8 +12332,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A116" s="151"/>
-      <c r="B116" s="171"/>
+      <c r="A116" s="153"/>
+      <c r="B116" s="170"/>
       <c r="C116" s="124">
         <v>114</v>
       </c>
@@ -12334,8 +12357,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A117" s="151"/>
-      <c r="B117" s="171"/>
+      <c r="A117" s="153"/>
+      <c r="B117" s="170"/>
       <c r="C117" s="124">
         <v>115</v>
       </c>
@@ -12359,8 +12382,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A118" s="151"/>
-      <c r="B118" s="171"/>
+      <c r="A118" s="153"/>
+      <c r="B118" s="170"/>
       <c r="C118" s="124">
         <v>116</v>
       </c>
@@ -12384,8 +12407,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A119" s="151"/>
-      <c r="B119" s="171"/>
+      <c r="A119" s="153"/>
+      <c r="B119" s="170"/>
       <c r="C119" s="124">
         <v>117</v>
       </c>
@@ -12409,8 +12432,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A120" s="151"/>
-      <c r="B120" s="171"/>
+      <c r="A120" s="153"/>
+      <c r="B120" s="170"/>
       <c r="C120" s="124">
         <v>118</v>
       </c>
@@ -12434,8 +12457,8 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A121" s="151"/>
-      <c r="B121" s="171"/>
+      <c r="A121" s="153"/>
+      <c r="B121" s="170"/>
       <c r="C121" s="124">
         <v>119</v>
       </c>
@@ -12459,8 +12482,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A122" s="151"/>
-      <c r="B122" s="171"/>
+      <c r="A122" s="153"/>
+      <c r="B122" s="170"/>
       <c r="C122" s="124">
         <v>120</v>
       </c>
@@ -12484,8 +12507,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A123" s="151"/>
-      <c r="B123" s="171"/>
+      <c r="A123" s="153"/>
+      <c r="B123" s="170"/>
       <c r="C123" s="124">
         <v>121</v>
       </c>
@@ -12509,8 +12532,8 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A124" s="151"/>
-      <c r="B124" s="171"/>
+      <c r="A124" s="153"/>
+      <c r="B124" s="170"/>
       <c r="C124" s="124">
         <v>122</v>
       </c>
@@ -12534,8 +12557,8 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A125" s="151"/>
-      <c r="B125" s="171"/>
+      <c r="A125" s="153"/>
+      <c r="B125" s="170"/>
       <c r="C125" s="124">
         <v>123</v>
       </c>
@@ -12559,8 +12582,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A126" s="151"/>
-      <c r="B126" s="171"/>
+      <c r="A126" s="153"/>
+      <c r="B126" s="170"/>
       <c r="C126" s="124">
         <v>124</v>
       </c>
@@ -12584,8 +12607,8 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A127" s="151"/>
-      <c r="B127" s="171"/>
+      <c r="A127" s="153"/>
+      <c r="B127" s="170"/>
       <c r="C127" s="124">
         <v>125</v>
       </c>
@@ -12609,8 +12632,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A128" s="151"/>
-      <c r="B128" s="171"/>
+      <c r="A128" s="153"/>
+      <c r="B128" s="170"/>
       <c r="C128" s="124">
         <v>126</v>
       </c>
@@ -12634,8 +12657,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A129" s="151"/>
-      <c r="B129" s="171"/>
+      <c r="A129" s="153"/>
+      <c r="B129" s="170"/>
       <c r="C129" s="124">
         <v>127</v>
       </c>
@@ -12659,8 +12682,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A130" s="151"/>
-      <c r="B130" s="154" t="s">
+      <c r="A130" s="153"/>
+      <c r="B130" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="124">
@@ -12686,8 +12709,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A131" s="151"/>
-      <c r="B131" s="171"/>
+      <c r="A131" s="153"/>
+      <c r="B131" s="170"/>
       <c r="C131" s="124">
         <v>129</v>
       </c>
@@ -12711,8 +12734,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A132" s="151"/>
-      <c r="B132" s="171"/>
+      <c r="A132" s="153"/>
+      <c r="B132" s="170"/>
       <c r="C132" s="124">
         <v>130</v>
       </c>
@@ -12736,8 +12759,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A133" s="151"/>
-      <c r="B133" s="171"/>
+      <c r="A133" s="153"/>
+      <c r="B133" s="170"/>
       <c r="C133" s="124">
         <v>131</v>
       </c>
@@ -12761,8 +12784,8 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A134" s="151"/>
-      <c r="B134" s="171"/>
+      <c r="A134" s="153"/>
+      <c r="B134" s="170"/>
       <c r="C134" s="124">
         <v>132</v>
       </c>
@@ -12786,8 +12809,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A135" s="151"/>
-      <c r="B135" s="171"/>
+      <c r="A135" s="153"/>
+      <c r="B135" s="170"/>
       <c r="C135" s="124">
         <v>133</v>
       </c>
@@ -12811,8 +12834,8 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A136" s="151"/>
-      <c r="B136" s="171"/>
+      <c r="A136" s="153"/>
+      <c r="B136" s="170"/>
       <c r="C136" s="124">
         <v>134</v>
       </c>
@@ -12836,8 +12859,8 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A137" s="151"/>
-      <c r="B137" s="171"/>
+      <c r="A137" s="153"/>
+      <c r="B137" s="170"/>
       <c r="C137" s="124">
         <v>135</v>
       </c>
@@ -12861,10 +12884,10 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A138" s="157" t="s">
+      <c r="A138" s="152" t="s">
         <v>447</v>
       </c>
-      <c r="B138" s="154" t="s">
+      <c r="B138" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C138" s="124">
@@ -12890,8 +12913,8 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A139" s="151"/>
-      <c r="B139" s="171"/>
+      <c r="A139" s="153"/>
+      <c r="B139" s="170"/>
       <c r="C139" s="124">
         <v>137</v>
       </c>
@@ -12915,8 +12938,8 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A140" s="151"/>
-      <c r="B140" s="171"/>
+      <c r="A140" s="153"/>
+      <c r="B140" s="170"/>
       <c r="C140" s="124">
         <v>138</v>
       </c>
@@ -12940,8 +12963,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A141" s="151"/>
-      <c r="B141" s="171"/>
+      <c r="A141" s="153"/>
+      <c r="B141" s="170"/>
       <c r="C141" s="124">
         <v>139</v>
       </c>
@@ -12965,8 +12988,8 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A142" s="151"/>
-      <c r="B142" s="171"/>
+      <c r="A142" s="153"/>
+      <c r="B142" s="170"/>
       <c r="C142" s="124">
         <v>140</v>
       </c>
@@ -12990,8 +13013,8 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A143" s="151"/>
-      <c r="B143" s="171"/>
+      <c r="A143" s="153"/>
+      <c r="B143" s="170"/>
       <c r="C143" s="124">
         <v>141</v>
       </c>
@@ -13015,8 +13038,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A144" s="151"/>
-      <c r="B144" s="171"/>
+      <c r="A144" s="153"/>
+      <c r="B144" s="170"/>
       <c r="C144" s="124">
         <v>142</v>
       </c>
@@ -13040,8 +13063,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A145" s="151"/>
-      <c r="B145" s="171"/>
+      <c r="A145" s="153"/>
+      <c r="B145" s="170"/>
       <c r="C145" s="124">
         <v>143</v>
       </c>
@@ -13065,8 +13088,8 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A146" s="151"/>
-      <c r="B146" s="171"/>
+      <c r="A146" s="153"/>
+      <c r="B146" s="170"/>
       <c r="C146" s="124">
         <v>144</v>
       </c>
@@ -13090,8 +13113,8 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A147" s="151"/>
-      <c r="B147" s="171"/>
+      <c r="A147" s="153"/>
+      <c r="B147" s="170"/>
       <c r="C147" s="124">
         <v>145</v>
       </c>
@@ -13115,8 +13138,8 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A148" s="151"/>
-      <c r="B148" s="171"/>
+      <c r="A148" s="153"/>
+      <c r="B148" s="170"/>
       <c r="C148" s="124">
         <v>146</v>
       </c>
@@ -13140,8 +13163,8 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A149" s="151"/>
-      <c r="B149" s="171"/>
+      <c r="A149" s="153"/>
+      <c r="B149" s="170"/>
       <c r="C149" s="124">
         <v>147</v>
       </c>
@@ -13165,8 +13188,8 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A150" s="151"/>
-      <c r="B150" s="171"/>
+      <c r="A150" s="153"/>
+      <c r="B150" s="170"/>
       <c r="C150" s="124">
         <v>148</v>
       </c>
@@ -13190,8 +13213,8 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A151" s="151"/>
-      <c r="B151" s="171"/>
+      <c r="A151" s="153"/>
+      <c r="B151" s="170"/>
       <c r="C151" s="124">
         <v>149</v>
       </c>
@@ -13215,8 +13238,8 @@
       </c>
     </row>
     <row r="152" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A152" s="151"/>
-      <c r="B152" s="171"/>
+      <c r="A152" s="153"/>
+      <c r="B152" s="170"/>
       <c r="C152" s="124">
         <v>150</v>
       </c>
@@ -13240,8 +13263,8 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A153" s="151"/>
-      <c r="B153" s="171"/>
+      <c r="A153" s="153"/>
+      <c r="B153" s="170"/>
       <c r="C153" s="124">
         <v>151</v>
       </c>
@@ -13265,8 +13288,8 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A154" s="151"/>
-      <c r="B154" s="171"/>
+      <c r="A154" s="153"/>
+      <c r="B154" s="170"/>
       <c r="C154" s="124">
         <v>152</v>
       </c>
@@ -13290,8 +13313,8 @@
       </c>
     </row>
     <row r="155" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A155" s="151"/>
-      <c r="B155" s="171"/>
+      <c r="A155" s="153"/>
+      <c r="B155" s="170"/>
       <c r="C155" s="124">
         <v>153</v>
       </c>
@@ -13315,8 +13338,8 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A156" s="151"/>
-      <c r="B156" s="171"/>
+      <c r="A156" s="153"/>
+      <c r="B156" s="170"/>
       <c r="C156" s="124">
         <v>154</v>
       </c>
@@ -13340,8 +13363,8 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A157" s="151"/>
-      <c r="B157" s="171"/>
+      <c r="A157" s="153"/>
+      <c r="B157" s="170"/>
       <c r="C157" s="124">
         <v>155</v>
       </c>
@@ -13365,8 +13388,8 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A158" s="151"/>
-      <c r="B158" s="171"/>
+      <c r="A158" s="153"/>
+      <c r="B158" s="170"/>
       <c r="C158" s="124">
         <v>156</v>
       </c>
@@ -13390,8 +13413,8 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A159" s="151"/>
-      <c r="B159" s="171"/>
+      <c r="A159" s="153"/>
+      <c r="B159" s="170"/>
       <c r="C159" s="124">
         <v>157</v>
       </c>
@@ -13415,8 +13438,8 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A160" s="151"/>
-      <c r="B160" s="171"/>
+      <c r="A160" s="153"/>
+      <c r="B160" s="170"/>
       <c r="C160" s="124">
         <v>158</v>
       </c>
@@ -13440,8 +13463,8 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A161" s="151"/>
-      <c r="B161" s="171"/>
+      <c r="A161" s="153"/>
+      <c r="B161" s="170"/>
       <c r="C161" s="124">
         <v>159</v>
       </c>
@@ -13465,8 +13488,8 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A162" s="151"/>
-      <c r="B162" s="171"/>
+      <c r="A162" s="153"/>
+      <c r="B162" s="170"/>
       <c r="C162" s="124">
         <v>160</v>
       </c>
@@ -13490,8 +13513,8 @@
       </c>
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A163" s="151"/>
-      <c r="B163" s="171"/>
+      <c r="A163" s="153"/>
+      <c r="B163" s="170"/>
       <c r="C163" s="124">
         <v>161</v>
       </c>
@@ -13515,8 +13538,8 @@
       </c>
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A164" s="151"/>
-      <c r="B164" s="171"/>
+      <c r="A164" s="153"/>
+      <c r="B164" s="170"/>
       <c r="C164" s="124">
         <v>162</v>
       </c>
@@ -13540,8 +13563,8 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A165" s="151"/>
-      <c r="B165" s="171"/>
+      <c r="A165" s="153"/>
+      <c r="B165" s="170"/>
       <c r="C165" s="124">
         <v>163</v>
       </c>
@@ -13565,8 +13588,8 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A166" s="151"/>
-      <c r="B166" s="171"/>
+      <c r="A166" s="153"/>
+      <c r="B166" s="170"/>
       <c r="C166" s="124">
         <v>164</v>
       </c>
@@ -13590,8 +13613,8 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A167" s="151"/>
-      <c r="B167" s="171"/>
+      <c r="A167" s="153"/>
+      <c r="B167" s="170"/>
       <c r="C167" s="124">
         <v>165</v>
       </c>
@@ -13615,8 +13638,8 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A168" s="151"/>
-      <c r="B168" s="171"/>
+      <c r="A168" s="153"/>
+      <c r="B168" s="170"/>
       <c r="C168" s="124">
         <v>166</v>
       </c>
@@ -13640,8 +13663,8 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A169" s="151"/>
-      <c r="B169" s="171"/>
+      <c r="A169" s="153"/>
+      <c r="B169" s="170"/>
       <c r="C169" s="124">
         <v>167</v>
       </c>
@@ -13665,8 +13688,8 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A170" s="151"/>
-      <c r="B170" s="171"/>
+      <c r="A170" s="153"/>
+      <c r="B170" s="170"/>
       <c r="C170" s="124">
         <v>168</v>
       </c>
@@ -13690,8 +13713,8 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A171" s="151"/>
-      <c r="B171" s="171"/>
+      <c r="A171" s="153"/>
+      <c r="B171" s="170"/>
       <c r="C171" s="124">
         <v>169</v>
       </c>
@@ -13715,8 +13738,8 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A172" s="151"/>
-      <c r="B172" s="171"/>
+      <c r="A172" s="153"/>
+      <c r="B172" s="170"/>
       <c r="C172" s="124">
         <v>170</v>
       </c>
@@ -13740,8 +13763,8 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A173" s="151"/>
-      <c r="B173" s="171"/>
+      <c r="A173" s="153"/>
+      <c r="B173" s="170"/>
       <c r="C173" s="124">
         <v>171</v>
       </c>
@@ -13765,8 +13788,8 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A174" s="151"/>
-      <c r="B174" s="154" t="s">
+      <c r="A174" s="153"/>
+      <c r="B174" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="124">
@@ -13792,8 +13815,8 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A175" s="151"/>
-      <c r="B175" s="171"/>
+      <c r="A175" s="153"/>
+      <c r="B175" s="170"/>
       <c r="C175" s="124">
         <v>173</v>
       </c>
@@ -13817,8 +13840,8 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A176" s="151"/>
-      <c r="B176" s="171"/>
+      <c r="A176" s="153"/>
+      <c r="B176" s="170"/>
       <c r="C176" s="124">
         <v>174</v>
       </c>
@@ -13842,8 +13865,8 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A177" s="151"/>
-      <c r="B177" s="171"/>
+      <c r="A177" s="153"/>
+      <c r="B177" s="170"/>
       <c r="C177" s="124">
         <v>175</v>
       </c>
@@ -13867,8 +13890,8 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A178" s="151"/>
-      <c r="B178" s="171"/>
+      <c r="A178" s="153"/>
+      <c r="B178" s="170"/>
       <c r="C178" s="124">
         <v>176</v>
       </c>
@@ -13892,8 +13915,8 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A179" s="151"/>
-      <c r="B179" s="171"/>
+      <c r="A179" s="153"/>
+      <c r="B179" s="170"/>
       <c r="C179" s="124">
         <v>177</v>
       </c>
@@ -13917,8 +13940,8 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A180" s="151"/>
-      <c r="B180" s="171"/>
+      <c r="A180" s="153"/>
+      <c r="B180" s="170"/>
       <c r="C180" s="124">
         <v>178</v>
       </c>
@@ -13942,8 +13965,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A181" s="172"/>
-      <c r="B181" s="173"/>
+      <c r="A181" s="171"/>
+      <c r="B181" s="172"/>
       <c r="C181" s="125">
         <v>179</v>
       </c>
@@ -14023,10 +14046,10 @@
       <c r="A186" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B186" s="175" t="s">
+      <c r="B186" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="C186" s="170"/>
+      <c r="C186" s="168"/>
       <c r="G186" s="63"/>
       <c r="I186"/>
     </row>
@@ -14034,10 +14057,10 @@
       <c r="A187" s="2">
         <v>0</v>
       </c>
-      <c r="B187" s="169" t="s">
+      <c r="B187" s="167" t="s">
         <v>209</v>
       </c>
-      <c r="C187" s="170"/>
+      <c r="C187" s="168"/>
       <c r="G187" s="63"/>
       <c r="I187"/>
     </row>
@@ -14045,10 +14068,10 @@
       <c r="A188" s="2">
         <v>1</v>
       </c>
-      <c r="B188" s="169" t="s">
+      <c r="B188" s="167" t="s">
         <v>210</v>
       </c>
-      <c r="C188" s="170"/>
+      <c r="C188" s="168"/>
       <c r="G188" s="63"/>
       <c r="I188"/>
     </row>
@@ -14056,10 +14079,10 @@
       <c r="A189" s="2">
         <v>2</v>
       </c>
-      <c r="B189" s="169" t="s">
+      <c r="B189" s="167" t="s">
         <v>211</v>
       </c>
-      <c r="C189" s="170"/>
+      <c r="C189" s="168"/>
       <c r="G189" s="63"/>
       <c r="I189"/>
     </row>
@@ -14067,10 +14090,10 @@
       <c r="A190" s="2">
         <v>3</v>
       </c>
-      <c r="B190" s="169" t="s">
+      <c r="B190" s="167" t="s">
         <v>212</v>
       </c>
-      <c r="C190" s="170"/>
+      <c r="C190" s="168"/>
       <c r="G190" s="63"/>
       <c r="I190"/>
     </row>
@@ -14078,10 +14101,10 @@
       <c r="A191" s="2">
         <v>4</v>
       </c>
-      <c r="B191" s="169" t="s">
+      <c r="B191" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="C191" s="170"/>
+      <c r="C191" s="168"/>
       <c r="G191" s="63"/>
       <c r="I191"/>
     </row>
@@ -14089,10 +14112,10 @@
       <c r="A192" s="2">
         <v>5</v>
       </c>
-      <c r="B192" s="169" t="s">
+      <c r="B192" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="C192" s="170"/>
+      <c r="C192" s="168"/>
       <c r="G192" s="63"/>
       <c r="I192"/>
     </row>
@@ -14100,10 +14123,10 @@
       <c r="A193" s="2">
         <v>6</v>
       </c>
-      <c r="B193" s="169" t="s">
+      <c r="B193" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="C193" s="170"/>
+      <c r="C193" s="168"/>
       <c r="G193" s="63"/>
       <c r="I193"/>
     </row>
@@ -14111,10 +14134,10 @@
       <c r="A194" s="2">
         <v>7</v>
       </c>
-      <c r="B194" s="169" t="s">
+      <c r="B194" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="C194" s="170"/>
+      <c r="C194" s="168"/>
       <c r="G194" s="63"/>
       <c r="I194"/>
     </row>
@@ -14122,10 +14145,10 @@
       <c r="A195" s="2">
         <v>8</v>
       </c>
-      <c r="B195" s="169" t="s">
+      <c r="B195" s="167" t="s">
         <v>217</v>
       </c>
-      <c r="C195" s="170"/>
+      <c r="C195" s="168"/>
       <c r="G195" s="63"/>
       <c r="I195"/>
     </row>
@@ -14133,10 +14156,10 @@
       <c r="A196" s="2">
         <v>9</v>
       </c>
-      <c r="B196" s="169" t="s">
+      <c r="B196" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="C196" s="170"/>
+      <c r="C196" s="168"/>
       <c r="G196" s="63"/>
       <c r="I196"/>
     </row>
@@ -14144,10 +14167,10 @@
       <c r="A197" s="2">
         <v>10</v>
       </c>
-      <c r="B197" s="169" t="s">
+      <c r="B197" s="167" t="s">
         <v>219</v>
       </c>
-      <c r="C197" s="170"/>
+      <c r="C197" s="168"/>
       <c r="G197" s="63"/>
       <c r="I197"/>
     </row>
@@ -14155,10 +14178,10 @@
       <c r="A198" s="2">
         <v>11</v>
       </c>
-      <c r="B198" s="169" t="s">
+      <c r="B198" s="167" t="s">
         <v>220</v>
       </c>
-      <c r="C198" s="170"/>
+      <c r="C198" s="168"/>
       <c r="G198" s="63"/>
       <c r="I198"/>
     </row>
@@ -14166,10 +14189,10 @@
       <c r="A199" s="2">
         <v>12</v>
       </c>
-      <c r="B199" s="169" t="s">
+      <c r="B199" s="167" t="s">
         <v>221</v>
       </c>
-      <c r="C199" s="170"/>
+      <c r="C199" s="168"/>
       <c r="G199" s="63"/>
       <c r="I199"/>
     </row>
@@ -14177,50 +14200,42 @@
       <c r="A200" s="2">
         <v>13</v>
       </c>
-      <c r="B200" s="169" t="s">
+      <c r="B200" s="167" t="s">
         <v>222</v>
       </c>
-      <c r="C200" s="170"/>
+      <c r="C200" s="168"/>
       <c r="I200"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2">
         <v>14</v>
       </c>
-      <c r="B201" s="175" t="s">
+      <c r="B201" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="C201" s="170"/>
+      <c r="C201" s="168"/>
       <c r="I201"/>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2">
         <v>15</v>
       </c>
-      <c r="B202" s="175" t="s">
+      <c r="B202" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="C202" s="170"/>
+      <c r="C202" s="168"/>
       <c r="I202"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:A49"/>
@@ -14237,14 +14252,22 @@
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B41"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B197:C197"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14278,35 +14301,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="180" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="182" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="181" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="182" t="s">
+      <c r="E1" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="F1" s="178" t="s">
         <v>536</v>
       </c>
-      <c r="G1" s="187" t="s">
+      <c r="G1" s="176" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="187"/>
-      <c r="I1" s="188"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="177"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="190"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="98" t="s">
         <v>270</v>
       </c>
@@ -14318,10 +14341,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="160" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="102">
@@ -14347,8 +14370,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="181"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="188"/>
       <c r="C4" s="102">
         <v>1</v>
       </c>
@@ -14372,8 +14395,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="181"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="102">
         <v>2</v>
       </c>
@@ -14397,8 +14420,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="181"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="102">
         <v>3</v>
       </c>
@@ -14422,8 +14445,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="102">
         <v>4</v>
       </c>
@@ -14447,8 +14470,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="181"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="102">
         <v>5</v>
       </c>
@@ -14472,8 +14495,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="177" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="184" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="102">
@@ -14499,8 +14522,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="177"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="102">
         <v>7</v>
       </c>
@@ -14524,8 +14547,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="184"/>
       <c r="C11" s="102">
         <v>8</v>
       </c>
@@ -14549,8 +14572,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="102">
         <v>9</v>
       </c>
@@ -14574,8 +14597,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="177"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="102">
         <v>10</v>
       </c>
@@ -14599,8 +14622,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="177"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="102">
         <v>11</v>
       </c>
@@ -14624,8 +14647,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="102">
         <v>12</v>
       </c>
@@ -14649,8 +14672,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="177"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="102">
         <v>13</v>
       </c>
@@ -14674,8 +14697,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="177"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="102">
         <v>14</v>
       </c>
@@ -14699,8 +14722,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="177"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="102">
         <v>15</v>
       </c>
@@ -14724,8 +14747,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="177"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="184"/>
       <c r="C19" s="102">
         <v>16</v>
       </c>
@@ -14749,8 +14772,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="177"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="184"/>
       <c r="C20" s="102">
         <v>17</v>
       </c>
@@ -14774,8 +14797,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="184"/>
       <c r="C21" s="102">
         <v>18</v>
       </c>
@@ -14799,8 +14822,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="102">
         <v>19</v>
       </c>
@@ -14824,8 +14847,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="177"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="184"/>
       <c r="C23" s="102">
         <v>20</v>
       </c>
@@ -14849,8 +14872,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="102">
         <v>21</v>
       </c>
@@ -14874,8 +14897,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="177"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="102">
         <v>22</v>
       </c>
@@ -14899,8 +14922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="184"/>
       <c r="C26" s="102">
         <v>23</v>
       </c>
@@ -14924,10 +14947,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="160" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="184" t="s">
         <v>363</v>
       </c>
       <c r="C27" s="102">
@@ -14953,8 +14976,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="185"/>
       <c r="C28" s="102">
         <v>25</v>
       </c>
@@ -14978,8 +15001,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="185"/>
       <c r="C29" s="102">
         <v>26</v>
       </c>
@@ -15003,8 +15026,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="186"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="185"/>
       <c r="C30" s="102">
         <v>27</v>
       </c>
@@ -15028,8 +15051,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="163"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="185"/>
       <c r="C31" s="102">
         <v>28</v>
       </c>
@@ -15053,8 +15076,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
-      <c r="A32" s="163"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="185"/>
       <c r="C32" s="102">
         <v>29</v>
       </c>
@@ -15078,8 +15101,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
-      <c r="A33" s="163"/>
-      <c r="B33" s="177" t="s">
+      <c r="A33" s="160"/>
+      <c r="B33" s="184" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="102">
@@ -15105,8 +15128,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1">
-      <c r="A34" s="163"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="160"/>
+      <c r="B34" s="184"/>
       <c r="C34" s="102">
         <v>31</v>
       </c>
@@ -15130,8 +15153,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="177"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="102">
         <v>32</v>
       </c>
@@ -15155,8 +15178,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1">
-      <c r="A36" s="163"/>
-      <c r="B36" s="177"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="102">
         <v>33</v>
       </c>
@@ -15180,8 +15203,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="177"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="102">
         <v>34</v>
       </c>
@@ -15205,8 +15228,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1">
-      <c r="A38" s="163"/>
-      <c r="B38" s="177"/>
+      <c r="A38" s="160"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="102">
         <v>35</v>
       </c>
@@ -15230,8 +15253,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="177"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="102">
         <v>36</v>
       </c>
@@ -15255,8 +15278,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="163"/>
-      <c r="B40" s="177"/>
+      <c r="A40" s="160"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="102">
         <v>37</v>
       </c>
@@ -15280,8 +15303,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1">
-      <c r="A41" s="163"/>
-      <c r="B41" s="177"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="102">
         <v>38</v>
       </c>
@@ -15305,8 +15328,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1">
-      <c r="A42" s="163"/>
-      <c r="B42" s="177"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="102">
         <v>39</v>
       </c>
@@ -15330,8 +15353,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1">
-      <c r="A43" s="163"/>
-      <c r="B43" s="177"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="184"/>
       <c r="C43" s="102">
         <v>40</v>
       </c>
@@ -15355,8 +15378,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1">
-      <c r="A44" s="163"/>
-      <c r="B44" s="177"/>
+      <c r="A44" s="160"/>
+      <c r="B44" s="184"/>
       <c r="C44" s="102">
         <v>41</v>
       </c>
@@ -15380,8 +15403,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1">
-      <c r="A45" s="163"/>
-      <c r="B45" s="177"/>
+      <c r="A45" s="160"/>
+      <c r="B45" s="184"/>
       <c r="C45" s="102">
         <v>42</v>
       </c>
@@ -15405,8 +15428,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1">
-      <c r="A46" s="163"/>
-      <c r="B46" s="177"/>
+      <c r="A46" s="160"/>
+      <c r="B46" s="184"/>
       <c r="C46" s="102">
         <v>43</v>
       </c>
@@ -15430,8 +15453,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1">
-      <c r="A47" s="163"/>
-      <c r="B47" s="177"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="102">
         <v>44</v>
       </c>
@@ -15455,8 +15478,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" customHeight="1">
-      <c r="A48" s="163"/>
-      <c r="B48" s="177"/>
+      <c r="A48" s="160"/>
+      <c r="B48" s="184"/>
       <c r="C48" s="102">
         <v>45</v>
       </c>
@@ -15480,8 +15503,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1">
-      <c r="A49" s="163"/>
-      <c r="B49" s="177"/>
+      <c r="A49" s="160"/>
+      <c r="B49" s="184"/>
       <c r="C49" s="102">
         <v>46</v>
       </c>
@@ -15505,8 +15528,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1">
-      <c r="A50" s="163"/>
-      <c r="B50" s="177"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="184"/>
       <c r="C50" s="102">
         <v>47</v>
       </c>
@@ -15530,8 +15553,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1">
-      <c r="A51" s="163"/>
-      <c r="B51" s="177"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="184"/>
       <c r="C51" s="102">
         <v>48</v>
       </c>
@@ -15555,8 +15578,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1">
-      <c r="A52" s="163"/>
-      <c r="B52" s="177"/>
+      <c r="A52" s="160"/>
+      <c r="B52" s="184"/>
       <c r="C52" s="102">
         <v>49</v>
       </c>
@@ -15580,8 +15603,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1">
-      <c r="A53" s="163"/>
-      <c r="B53" s="177"/>
+      <c r="A53" s="160"/>
+      <c r="B53" s="184"/>
       <c r="C53" s="102">
         <v>50</v>
       </c>
@@ -15605,8 +15628,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1">
-      <c r="A54" s="163"/>
-      <c r="B54" s="177"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="184"/>
       <c r="C54" s="102">
         <v>51</v>
       </c>
@@ -15630,8 +15653,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1">
-      <c r="A55" s="163"/>
-      <c r="B55" s="177"/>
+      <c r="A55" s="160"/>
+      <c r="B55" s="184"/>
       <c r="C55" s="102">
         <v>52</v>
       </c>
@@ -15655,8 +15678,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1">
-      <c r="A56" s="163"/>
-      <c r="B56" s="177"/>
+      <c r="A56" s="160"/>
+      <c r="B56" s="184"/>
       <c r="C56" s="102">
         <v>53</v>
       </c>
@@ -15680,8 +15703,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" customHeight="1">
-      <c r="A57" s="163"/>
-      <c r="B57" s="177"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="184"/>
       <c r="C57" s="102">
         <v>54</v>
       </c>
@@ -15705,8 +15728,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" customHeight="1">
-      <c r="A58" s="163"/>
-      <c r="B58" s="177"/>
+      <c r="A58" s="160"/>
+      <c r="B58" s="184"/>
       <c r="C58" s="102">
         <v>55</v>
       </c>
@@ -15730,8 +15753,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" customHeight="1">
-      <c r="A59" s="163"/>
-      <c r="B59" s="177"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="184"/>
       <c r="C59" s="102">
         <v>56</v>
       </c>
@@ -15755,8 +15778,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" customHeight="1">
-      <c r="A60" s="163"/>
-      <c r="B60" s="177"/>
+      <c r="A60" s="160"/>
+      <c r="B60" s="184"/>
       <c r="C60" s="102">
         <v>57</v>
       </c>
@@ -15780,8 +15803,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1">
-      <c r="A61" s="185"/>
-      <c r="B61" s="184"/>
+      <c r="A61" s="190"/>
+      <c r="B61" s="189"/>
       <c r="C61" s="102">
         <v>58</v>
       </c>
@@ -15805,8 +15828,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" customHeight="1">
-      <c r="A62" s="185"/>
-      <c r="B62" s="184"/>
+      <c r="A62" s="190"/>
+      <c r="B62" s="189"/>
       <c r="C62" s="102">
         <v>59</v>
       </c>
@@ -15830,10 +15853,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" customHeight="1">
-      <c r="A63" s="163" t="s">
+      <c r="A63" s="160" t="s">
         <v>502</v>
       </c>
-      <c r="B63" s="177" t="s">
+      <c r="B63" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="102">
@@ -15859,8 +15882,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" customHeight="1">
-      <c r="A64" s="163"/>
-      <c r="B64" s="186"/>
+      <c r="A64" s="160"/>
+      <c r="B64" s="185"/>
       <c r="C64" s="102">
         <v>61</v>
       </c>
@@ -15884,8 +15907,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" customHeight="1">
-      <c r="A65" s="163"/>
-      <c r="B65" s="186"/>
+      <c r="A65" s="160"/>
+      <c r="B65" s="185"/>
       <c r="C65" s="102">
         <v>62</v>
       </c>
@@ -15909,8 +15932,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" customHeight="1">
-      <c r="A66" s="163"/>
-      <c r="B66" s="186"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="185"/>
       <c r="C66" s="102">
         <v>63</v>
       </c>
@@ -15934,8 +15957,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1">
-      <c r="A67" s="163"/>
-      <c r="B67" s="186"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="185"/>
       <c r="C67" s="102">
         <v>64</v>
       </c>
@@ -15959,8 +15982,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" customHeight="1">
-      <c r="A68" s="163"/>
-      <c r="B68" s="186"/>
+      <c r="A68" s="160"/>
+      <c r="B68" s="185"/>
       <c r="C68" s="102">
         <v>65</v>
       </c>
@@ -15984,8 +16007,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1">
-      <c r="A69" s="163"/>
-      <c r="B69" s="177" t="s">
+      <c r="A69" s="160"/>
+      <c r="B69" s="184" t="s">
         <v>206</v>
       </c>
       <c r="C69" s="102">
@@ -16011,8 +16034,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" customHeight="1">
-      <c r="A70" s="163"/>
-      <c r="B70" s="177"/>
+      <c r="A70" s="160"/>
+      <c r="B70" s="184"/>
       <c r="C70" s="102">
         <v>67</v>
       </c>
@@ -16036,8 +16059,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" customHeight="1">
-      <c r="A71" s="163"/>
-      <c r="B71" s="177"/>
+      <c r="A71" s="160"/>
+      <c r="B71" s="184"/>
       <c r="C71" s="102">
         <v>68</v>
       </c>
@@ -16061,8 +16084,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" customHeight="1">
-      <c r="A72" s="163"/>
-      <c r="B72" s="177"/>
+      <c r="A72" s="160"/>
+      <c r="B72" s="184"/>
       <c r="C72" s="102">
         <v>69</v>
       </c>
@@ -16086,8 +16109,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1">
-      <c r="A73" s="163"/>
-      <c r="B73" s="177"/>
+      <c r="A73" s="160"/>
+      <c r="B73" s="184"/>
       <c r="C73" s="102">
         <v>70</v>
       </c>
@@ -16111,8 +16134,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1">
-      <c r="A74" s="163"/>
-      <c r="B74" s="177"/>
+      <c r="A74" s="160"/>
+      <c r="B74" s="184"/>
       <c r="C74" s="102">
         <v>71</v>
       </c>
@@ -16136,8 +16159,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1">
-      <c r="A75" s="163"/>
-      <c r="B75" s="177"/>
+      <c r="A75" s="160"/>
+      <c r="B75" s="184"/>
       <c r="C75" s="102">
         <v>72</v>
       </c>
@@ -16161,8 +16184,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1">
-      <c r="A76" s="163"/>
-      <c r="B76" s="177"/>
+      <c r="A76" s="160"/>
+      <c r="B76" s="184"/>
       <c r="C76" s="102">
         <v>73</v>
       </c>
@@ -16186,8 +16209,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1">
-      <c r="A77" s="163"/>
-      <c r="B77" s="177"/>
+      <c r="A77" s="160"/>
+      <c r="B77" s="184"/>
       <c r="C77" s="102">
         <v>74</v>
       </c>
@@ -16211,8 +16234,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1">
-      <c r="A78" s="163"/>
-      <c r="B78" s="177"/>
+      <c r="A78" s="160"/>
+      <c r="B78" s="184"/>
       <c r="C78" s="102">
         <v>75</v>
       </c>
@@ -16236,8 +16259,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" customHeight="1">
-      <c r="A79" s="163"/>
-      <c r="B79" s="177"/>
+      <c r="A79" s="160"/>
+      <c r="B79" s="184"/>
       <c r="C79" s="102">
         <v>76</v>
       </c>
@@ -16261,8 +16284,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" customHeight="1">
-      <c r="A80" s="163"/>
-      <c r="B80" s="177"/>
+      <c r="A80" s="160"/>
+      <c r="B80" s="184"/>
       <c r="C80" s="102">
         <v>77</v>
       </c>
@@ -16286,8 +16309,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" customHeight="1">
-      <c r="A81" s="163"/>
-      <c r="B81" s="177"/>
+      <c r="A81" s="160"/>
+      <c r="B81" s="184"/>
       <c r="C81" s="102">
         <v>78</v>
       </c>
@@ -16311,8 +16334,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" customHeight="1">
-      <c r="A82" s="163"/>
-      <c r="B82" s="177"/>
+      <c r="A82" s="160"/>
+      <c r="B82" s="184"/>
       <c r="C82" s="102">
         <v>79</v>
       </c>
@@ -16336,8 +16359,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" customHeight="1">
-      <c r="A83" s="163"/>
-      <c r="B83" s="177"/>
+      <c r="A83" s="160"/>
+      <c r="B83" s="184"/>
       <c r="C83" s="102">
         <v>80</v>
       </c>
@@ -16361,8 +16384,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" customHeight="1">
-      <c r="A84" s="163"/>
-      <c r="B84" s="177"/>
+      <c r="A84" s="160"/>
+      <c r="B84" s="184"/>
       <c r="C84" s="102">
         <v>81</v>
       </c>
@@ -16386,8 +16409,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" customHeight="1">
-      <c r="A85" s="163"/>
-      <c r="B85" s="177"/>
+      <c r="A85" s="160"/>
+      <c r="B85" s="184"/>
       <c r="C85" s="102">
         <v>82</v>
       </c>
@@ -16411,8 +16434,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="18" customHeight="1">
-      <c r="A86" s="163"/>
-      <c r="B86" s="177"/>
+      <c r="A86" s="160"/>
+      <c r="B86" s="184"/>
       <c r="C86" s="102">
         <v>83</v>
       </c>
@@ -16436,8 +16459,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" customHeight="1">
-      <c r="A87" s="163"/>
-      <c r="B87" s="177"/>
+      <c r="A87" s="160"/>
+      <c r="B87" s="184"/>
       <c r="C87" s="102">
         <v>84</v>
       </c>
@@ -16461,8 +16484,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="18" customHeight="1">
-      <c r="A88" s="163"/>
-      <c r="B88" s="177"/>
+      <c r="A88" s="160"/>
+      <c r="B88" s="184"/>
       <c r="C88" s="102">
         <v>85</v>
       </c>
@@ -16486,8 +16509,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" customHeight="1">
-      <c r="A89" s="163"/>
-      <c r="B89" s="177"/>
+      <c r="A89" s="160"/>
+      <c r="B89" s="184"/>
       <c r="C89" s="102">
         <v>86</v>
       </c>
@@ -16511,8 +16534,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="18" customHeight="1">
-      <c r="A90" s="163"/>
-      <c r="B90" s="177"/>
+      <c r="A90" s="160"/>
+      <c r="B90" s="184"/>
       <c r="C90" s="102">
         <v>87</v>
       </c>
@@ -16536,8 +16559,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="18" customHeight="1">
-      <c r="A91" s="163"/>
-      <c r="B91" s="177"/>
+      <c r="A91" s="160"/>
+      <c r="B91" s="184"/>
       <c r="C91" s="102">
         <v>88</v>
       </c>
@@ -16561,8 +16584,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="18" customHeight="1">
-      <c r="A92" s="163"/>
-      <c r="B92" s="177"/>
+      <c r="A92" s="160"/>
+      <c r="B92" s="184"/>
       <c r="C92" s="102">
         <v>89</v>
       </c>
@@ -16586,8 +16609,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" customHeight="1">
-      <c r="A93" s="163"/>
-      <c r="B93" s="177"/>
+      <c r="A93" s="160"/>
+      <c r="B93" s="184"/>
       <c r="C93" s="102">
         <v>90</v>
       </c>
@@ -16611,8 +16634,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="18" customHeight="1">
-      <c r="A94" s="163"/>
-      <c r="B94" s="177"/>
+      <c r="A94" s="160"/>
+      <c r="B94" s="184"/>
       <c r="C94" s="102">
         <v>91</v>
       </c>
@@ -16636,8 +16659,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="18" customHeight="1">
-      <c r="A95" s="163"/>
-      <c r="B95" s="177"/>
+      <c r="A95" s="160"/>
+      <c r="B95" s="184"/>
       <c r="C95" s="102">
         <v>92</v>
       </c>
@@ -16661,8 +16684,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="18" customHeight="1">
-      <c r="A96" s="163"/>
-      <c r="B96" s="177"/>
+      <c r="A96" s="160"/>
+      <c r="B96" s="184"/>
       <c r="C96" s="102">
         <v>93</v>
       </c>
@@ -16686,8 +16709,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="18" customHeight="1">
-      <c r="A97" s="185"/>
-      <c r="B97" s="184"/>
+      <c r="A97" s="190"/>
+      <c r="B97" s="189"/>
       <c r="C97" s="102">
         <v>94</v>
       </c>
@@ -16711,8 +16734,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="18" customHeight="1">
-      <c r="A98" s="185"/>
-      <c r="B98" s="184"/>
+      <c r="A98" s="190"/>
+      <c r="B98" s="189"/>
       <c r="C98" s="102">
         <v>95</v>
       </c>
@@ -16736,10 +16759,10 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="18" customHeight="1">
-      <c r="A99" s="163" t="s">
+      <c r="A99" s="160" t="s">
         <v>503</v>
       </c>
-      <c r="B99" s="177" t="s">
+      <c r="B99" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="102">
@@ -16765,8 +16788,8 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="18" customHeight="1">
-      <c r="A100" s="163"/>
-      <c r="B100" s="186"/>
+      <c r="A100" s="160"/>
+      <c r="B100" s="185"/>
       <c r="C100" s="102">
         <v>97</v>
       </c>
@@ -16790,8 +16813,8 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="18" customHeight="1">
-      <c r="A101" s="163"/>
-      <c r="B101" s="186"/>
+      <c r="A101" s="160"/>
+      <c r="B101" s="185"/>
       <c r="C101" s="102">
         <v>98</v>
       </c>
@@ -16815,8 +16838,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" customHeight="1">
-      <c r="A102" s="163"/>
-      <c r="B102" s="186"/>
+      <c r="A102" s="160"/>
+      <c r="B102" s="185"/>
       <c r="C102" s="102">
         <v>99</v>
       </c>
@@ -16840,8 +16863,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="18" customHeight="1">
-      <c r="A103" s="163"/>
-      <c r="B103" s="186"/>
+      <c r="A103" s="160"/>
+      <c r="B103" s="185"/>
       <c r="C103" s="102">
         <v>100</v>
       </c>
@@ -16865,8 +16888,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" customHeight="1">
-      <c r="A104" s="163"/>
-      <c r="B104" s="186"/>
+      <c r="A104" s="160"/>
+      <c r="B104" s="185"/>
       <c r="C104" s="102">
         <v>101</v>
       </c>
@@ -16890,8 +16913,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="18" customHeight="1">
-      <c r="A105" s="163"/>
-      <c r="B105" s="177" t="s">
+      <c r="A105" s="160"/>
+      <c r="B105" s="184" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="102">
@@ -16917,8 +16940,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="18" customHeight="1">
-      <c r="A106" s="163"/>
-      <c r="B106" s="177"/>
+      <c r="A106" s="160"/>
+      <c r="B106" s="184"/>
       <c r="C106" s="102">
         <v>103</v>
       </c>
@@ -16942,8 +16965,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="18" customHeight="1">
-      <c r="A107" s="163"/>
-      <c r="B107" s="177"/>
+      <c r="A107" s="160"/>
+      <c r="B107" s="184"/>
       <c r="C107" s="102">
         <v>104</v>
       </c>
@@ -16967,8 +16990,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="18" customHeight="1">
-      <c r="A108" s="163"/>
-      <c r="B108" s="177"/>
+      <c r="A108" s="160"/>
+      <c r="B108" s="184"/>
       <c r="C108" s="102">
         <v>105</v>
       </c>
@@ -16992,8 +17015,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="18" customHeight="1">
-      <c r="A109" s="163"/>
-      <c r="B109" s="177"/>
+      <c r="A109" s="160"/>
+      <c r="B109" s="184"/>
       <c r="C109" s="102">
         <v>106</v>
       </c>
@@ -17017,8 +17040,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" customHeight="1">
-      <c r="A110" s="163"/>
-      <c r="B110" s="177"/>
+      <c r="A110" s="160"/>
+      <c r="B110" s="184"/>
       <c r="C110" s="102">
         <v>107</v>
       </c>
@@ -17042,8 +17065,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" customHeight="1">
-      <c r="A111" s="163"/>
-      <c r="B111" s="177"/>
+      <c r="A111" s="160"/>
+      <c r="B111" s="184"/>
       <c r="C111" s="102">
         <v>108</v>
       </c>
@@ -17067,8 +17090,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" customHeight="1">
-      <c r="A112" s="163"/>
-      <c r="B112" s="177"/>
+      <c r="A112" s="160"/>
+      <c r="B112" s="184"/>
       <c r="C112" s="102">
         <v>109</v>
       </c>
@@ -17092,8 +17115,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="18" customHeight="1">
-      <c r="A113" s="163"/>
-      <c r="B113" s="177"/>
+      <c r="A113" s="160"/>
+      <c r="B113" s="184"/>
       <c r="C113" s="102">
         <v>110</v>
       </c>
@@ -17117,8 +17140,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="18" customHeight="1">
-      <c r="A114" s="163"/>
-      <c r="B114" s="177"/>
+      <c r="A114" s="160"/>
+      <c r="B114" s="184"/>
       <c r="C114" s="102">
         <v>111</v>
       </c>
@@ -17142,8 +17165,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="18" customHeight="1">
-      <c r="A115" s="163"/>
-      <c r="B115" s="177"/>
+      <c r="A115" s="160"/>
+      <c r="B115" s="184"/>
       <c r="C115" s="102">
         <v>112</v>
       </c>
@@ -17167,8 +17190,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="18" customHeight="1">
-      <c r="A116" s="163"/>
-      <c r="B116" s="177"/>
+      <c r="A116" s="160"/>
+      <c r="B116" s="184"/>
       <c r="C116" s="102">
         <v>113</v>
       </c>
@@ -17192,8 +17215,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="18" customHeight="1">
-      <c r="A117" s="163"/>
-      <c r="B117" s="177"/>
+      <c r="A117" s="160"/>
+      <c r="B117" s="184"/>
       <c r="C117" s="102">
         <v>114</v>
       </c>
@@ -17217,8 +17240,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="18" customHeight="1">
-      <c r="A118" s="163"/>
-      <c r="B118" s="177"/>
+      <c r="A118" s="160"/>
+      <c r="B118" s="184"/>
       <c r="C118" s="102">
         <v>115</v>
       </c>
@@ -17242,8 +17265,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="18" customHeight="1">
-      <c r="A119" s="163"/>
-      <c r="B119" s="177"/>
+      <c r="A119" s="160"/>
+      <c r="B119" s="184"/>
       <c r="C119" s="102">
         <v>116</v>
       </c>
@@ -17267,8 +17290,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" customHeight="1">
-      <c r="A120" s="163"/>
-      <c r="B120" s="177"/>
+      <c r="A120" s="160"/>
+      <c r="B120" s="184"/>
       <c r="C120" s="102">
         <v>117</v>
       </c>
@@ -17292,8 +17315,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="18" customHeight="1">
-      <c r="A121" s="163"/>
-      <c r="B121" s="177"/>
+      <c r="A121" s="160"/>
+      <c r="B121" s="184"/>
       <c r="C121" s="102">
         <v>118</v>
       </c>
@@ -17317,8 +17340,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="18" customHeight="1">
-      <c r="A122" s="163"/>
-      <c r="B122" s="177"/>
+      <c r="A122" s="160"/>
+      <c r="B122" s="184"/>
       <c r="C122" s="102">
         <v>119</v>
       </c>
@@ -17342,8 +17365,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="18" customHeight="1">
-      <c r="A123" s="163"/>
-      <c r="B123" s="177"/>
+      <c r="A123" s="160"/>
+      <c r="B123" s="184"/>
       <c r="C123" s="102">
         <v>120</v>
       </c>
@@ -17367,8 +17390,8 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="18" customHeight="1">
-      <c r="A124" s="163"/>
-      <c r="B124" s="177"/>
+      <c r="A124" s="160"/>
+      <c r="B124" s="184"/>
       <c r="C124" s="102">
         <v>121</v>
       </c>
@@ -17392,8 +17415,8 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="18" customHeight="1">
-      <c r="A125" s="163"/>
-      <c r="B125" s="177"/>
+      <c r="A125" s="160"/>
+      <c r="B125" s="184"/>
       <c r="C125" s="102">
         <v>122</v>
       </c>
@@ -17417,8 +17440,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="18" customHeight="1">
-      <c r="A126" s="163"/>
-      <c r="B126" s="177"/>
+      <c r="A126" s="160"/>
+      <c r="B126" s="184"/>
       <c r="C126" s="102">
         <v>123</v>
       </c>
@@ -17442,8 +17465,8 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="18" customHeight="1">
-      <c r="A127" s="163"/>
-      <c r="B127" s="177"/>
+      <c r="A127" s="160"/>
+      <c r="B127" s="184"/>
       <c r="C127" s="102">
         <v>124</v>
       </c>
@@ -17467,8 +17490,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="18" customHeight="1">
-      <c r="A128" s="163"/>
-      <c r="B128" s="177"/>
+      <c r="A128" s="160"/>
+      <c r="B128" s="184"/>
       <c r="C128" s="102">
         <v>125</v>
       </c>
@@ -17492,8 +17515,8 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="18" customHeight="1">
-      <c r="A129" s="163"/>
-      <c r="B129" s="177"/>
+      <c r="A129" s="160"/>
+      <c r="B129" s="184"/>
       <c r="C129" s="102">
         <v>126</v>
       </c>
@@ -17517,8 +17540,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" customHeight="1">
-      <c r="A130" s="163"/>
-      <c r="B130" s="177"/>
+      <c r="A130" s="160"/>
+      <c r="B130" s="184"/>
       <c r="C130" s="102">
         <v>127</v>
       </c>
@@ -17542,8 +17565,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" customHeight="1">
-      <c r="A131" s="163"/>
-      <c r="B131" s="177"/>
+      <c r="A131" s="160"/>
+      <c r="B131" s="184"/>
       <c r="C131" s="102">
         <v>128</v>
       </c>
@@ -17567,8 +17590,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" customHeight="1">
-      <c r="A132" s="163"/>
-      <c r="B132" s="177"/>
+      <c r="A132" s="160"/>
+      <c r="B132" s="184"/>
       <c r="C132" s="102">
         <v>129</v>
       </c>
@@ -17592,8 +17615,8 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" customHeight="1">
-      <c r="A133" s="185"/>
-      <c r="B133" s="184"/>
+      <c r="A133" s="190"/>
+      <c r="B133" s="189"/>
       <c r="C133" s="102">
         <v>130</v>
       </c>
@@ -17617,8 +17640,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" customHeight="1">
-      <c r="A134" s="185"/>
-      <c r="B134" s="184"/>
+      <c r="A134" s="190"/>
+      <c r="B134" s="189"/>
       <c r="C134" s="102">
         <v>131</v>
       </c>
@@ -17642,10 +17665,10 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" customHeight="1">
-      <c r="A135" s="163" t="s">
+      <c r="A135" s="160" t="s">
         <v>265</v>
       </c>
-      <c r="B135" s="177" t="s">
+      <c r="B135" s="184" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="102">
@@ -17671,8 +17694,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="18" customHeight="1">
-      <c r="A136" s="163"/>
-      <c r="B136" s="177"/>
+      <c r="A136" s="160"/>
+      <c r="B136" s="184"/>
       <c r="C136" s="102">
         <v>133</v>
       </c>
@@ -17696,8 +17719,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" customHeight="1">
-      <c r="A137" s="163"/>
-      <c r="B137" s="177"/>
+      <c r="A137" s="160"/>
+      <c r="B137" s="184"/>
       <c r="C137" s="102">
         <v>134</v>
       </c>
@@ -17719,8 +17742,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" customHeight="1">
-      <c r="A138" s="163"/>
-      <c r="B138" s="177"/>
+      <c r="A138" s="160"/>
+      <c r="B138" s="184"/>
       <c r="C138" s="102">
         <v>135</v>
       </c>
@@ -17744,8 +17767,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" customHeight="1">
-      <c r="A139" s="163"/>
-      <c r="B139" s="177"/>
+      <c r="A139" s="160"/>
+      <c r="B139" s="184"/>
       <c r="C139" s="102">
         <v>136</v>
       </c>
@@ -17769,8 +17792,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" customHeight="1">
-      <c r="A140" s="163"/>
-      <c r="B140" s="177"/>
+      <c r="A140" s="160"/>
+      <c r="B140" s="184"/>
       <c r="C140" s="102">
         <v>137</v>
       </c>
@@ -17794,8 +17817,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="18" customHeight="1">
-      <c r="A141" s="163"/>
-      <c r="B141" s="177"/>
+      <c r="A141" s="160"/>
+      <c r="B141" s="184"/>
       <c r="C141" s="102">
         <v>138</v>
       </c>
@@ -17819,8 +17842,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="18" customHeight="1">
-      <c r="A142" s="163"/>
-      <c r="B142" s="177"/>
+      <c r="A142" s="160"/>
+      <c r="B142" s="184"/>
       <c r="C142" s="102">
         <v>139</v>
       </c>
@@ -17844,8 +17867,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="18" customHeight="1">
-      <c r="A143" s="163"/>
-      <c r="B143" s="177"/>
+      <c r="A143" s="160"/>
+      <c r="B143" s="184"/>
       <c r="C143" s="102">
         <v>140</v>
       </c>
@@ -17869,8 +17892,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="18" customHeight="1">
-      <c r="A144" s="163"/>
-      <c r="B144" s="177"/>
+      <c r="A144" s="160"/>
+      <c r="B144" s="184"/>
       <c r="C144" s="102">
         <v>141</v>
       </c>
@@ -17894,8 +17917,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="18" customHeight="1">
-      <c r="A145" s="163"/>
-      <c r="B145" s="177"/>
+      <c r="A145" s="160"/>
+      <c r="B145" s="184"/>
       <c r="C145" s="102">
         <v>142</v>
       </c>
@@ -17919,8 +17942,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="18" customHeight="1">
-      <c r="A146" s="163"/>
-      <c r="B146" s="177"/>
+      <c r="A146" s="160"/>
+      <c r="B146" s="184"/>
       <c r="C146" s="102">
         <v>143</v>
       </c>
@@ -17944,8 +17967,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="18" customHeight="1">
-      <c r="A147" s="163"/>
-      <c r="B147" s="177"/>
+      <c r="A147" s="160"/>
+      <c r="B147" s="184"/>
       <c r="C147" s="102">
         <v>144</v>
       </c>
@@ -17969,8 +17992,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="18" customHeight="1">
-      <c r="A148" s="163"/>
-      <c r="B148" s="177"/>
+      <c r="A148" s="160"/>
+      <c r="B148" s="184"/>
       <c r="C148" s="102">
         <v>145</v>
       </c>
@@ -17994,8 +18017,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="18" customHeight="1">
-      <c r="A149" s="163"/>
-      <c r="B149" s="177"/>
+      <c r="A149" s="160"/>
+      <c r="B149" s="184"/>
       <c r="C149" s="102">
         <v>146</v>
       </c>
@@ -18019,8 +18042,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="18" customHeight="1">
-      <c r="A150" s="163"/>
-      <c r="B150" s="177"/>
+      <c r="A150" s="160"/>
+      <c r="B150" s="184"/>
       <c r="C150" s="102">
         <v>147</v>
       </c>
@@ -18044,8 +18067,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="18" customHeight="1">
-      <c r="A151" s="163"/>
-      <c r="B151" s="177"/>
+      <c r="A151" s="160"/>
+      <c r="B151" s="184"/>
       <c r="C151" s="102">
         <v>148</v>
       </c>
@@ -18069,8 +18092,8 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="18" customHeight="1">
-      <c r="A152" s="163"/>
-      <c r="B152" s="177"/>
+      <c r="A152" s="160"/>
+      <c r="B152" s="184"/>
       <c r="C152" s="102">
         <v>149</v>
       </c>
@@ -18094,8 +18117,8 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="18" customHeight="1">
-      <c r="A153" s="163"/>
-      <c r="B153" s="177"/>
+      <c r="A153" s="160"/>
+      <c r="B153" s="184"/>
       <c r="C153" s="102">
         <v>150</v>
       </c>
@@ -18119,8 +18142,8 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="18" customHeight="1">
-      <c r="A154" s="163"/>
-      <c r="B154" s="177"/>
+      <c r="A154" s="160"/>
+      <c r="B154" s="184"/>
       <c r="C154" s="102">
         <v>151</v>
       </c>
@@ -18144,8 +18167,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="18" customHeight="1">
-      <c r="A155" s="163"/>
-      <c r="B155" s="177"/>
+      <c r="A155" s="160"/>
+      <c r="B155" s="184"/>
       <c r="C155" s="102">
         <v>152</v>
       </c>
@@ -18169,8 +18192,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="18" customHeight="1">
-      <c r="A156" s="163"/>
-      <c r="B156" s="177"/>
+      <c r="A156" s="160"/>
+      <c r="B156" s="184"/>
       <c r="C156" s="102">
         <v>153</v>
       </c>
@@ -18194,8 +18217,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="18" customHeight="1">
-      <c r="A157" s="163"/>
-      <c r="B157" s="177"/>
+      <c r="A157" s="160"/>
+      <c r="B157" s="184"/>
       <c r="C157" s="102">
         <v>154</v>
       </c>
@@ -18219,8 +18242,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="18" customHeight="1">
-      <c r="A158" s="163"/>
-      <c r="B158" s="177"/>
+      <c r="A158" s="160"/>
+      <c r="B158" s="184"/>
       <c r="C158" s="102">
         <v>155</v>
       </c>
@@ -18244,8 +18267,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="18" customHeight="1">
-      <c r="A159" s="163"/>
-      <c r="B159" s="177"/>
+      <c r="A159" s="160"/>
+      <c r="B159" s="184"/>
       <c r="C159" s="102">
         <v>156</v>
       </c>
@@ -18269,8 +18292,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="18" customHeight="1">
-      <c r="A160" s="163"/>
-      <c r="B160" s="177"/>
+      <c r="A160" s="160"/>
+      <c r="B160" s="184"/>
       <c r="C160" s="102">
         <v>157</v>
       </c>
@@ -18294,8 +18317,8 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="18" customHeight="1">
-      <c r="A161" s="163"/>
-      <c r="B161" s="177"/>
+      <c r="A161" s="160"/>
+      <c r="B161" s="184"/>
       <c r="C161" s="102">
         <v>158</v>
       </c>
@@ -18319,8 +18342,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="18" customHeight="1">
-      <c r="A162" s="163"/>
-      <c r="B162" s="177"/>
+      <c r="A162" s="160"/>
+      <c r="B162" s="184"/>
       <c r="C162" s="102">
         <v>159</v>
       </c>
@@ -18344,8 +18367,8 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="18" customHeight="1">
-      <c r="A163" s="163"/>
-      <c r="B163" s="177"/>
+      <c r="A163" s="160"/>
+      <c r="B163" s="184"/>
       <c r="C163" s="102">
         <v>160</v>
       </c>
@@ -18369,8 +18392,8 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="18" customHeight="1">
-      <c r="A164" s="163"/>
-      <c r="B164" s="177"/>
+      <c r="A164" s="160"/>
+      <c r="B164" s="184"/>
       <c r="C164" s="102">
         <v>161</v>
       </c>
@@ -18397,8 +18420,8 @@
       <c r="L164" s="12"/>
     </row>
     <row r="165" spans="1:12" ht="18" customHeight="1">
-      <c r="A165" s="163"/>
-      <c r="B165" s="177"/>
+      <c r="A165" s="160"/>
+      <c r="B165" s="184"/>
       <c r="C165" s="102">
         <v>162</v>
       </c>
@@ -18425,8 +18448,8 @@
       <c r="L165" s="12"/>
     </row>
     <row r="166" spans="1:12" ht="18" customHeight="1">
-      <c r="A166" s="163"/>
-      <c r="B166" s="177"/>
+      <c r="A166" s="160"/>
+      <c r="B166" s="184"/>
       <c r="C166" s="102">
         <v>163</v>
       </c>
@@ -18453,8 +18476,8 @@
       <c r="L166" s="12"/>
     </row>
     <row r="167" spans="1:12" ht="18" customHeight="1">
-      <c r="A167" s="163"/>
-      <c r="B167" s="177"/>
+      <c r="A167" s="160"/>
+      <c r="B167" s="184"/>
       <c r="C167" s="102">
         <v>164</v>
       </c>
@@ -18478,8 +18501,8 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A168" s="176"/>
-      <c r="B168" s="178"/>
+      <c r="A168" s="186"/>
+      <c r="B168" s="187"/>
       <c r="C168" s="105">
         <v>165</v>
       </c>
@@ -18504,11 +18527,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B27:B32"/>
     <mergeCell ref="A135:A168"/>
     <mergeCell ref="B135:B168"/>
     <mergeCell ref="D1:D2"/>
@@ -18524,6 +18542,11 @@
     <mergeCell ref="A99:A134"/>
     <mergeCell ref="B99:B104"/>
     <mergeCell ref="B105:B134"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18555,10 +18578,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -18576,7 +18599,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="161" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -18599,7 +18622,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="164"/>
+      <c r="A3" s="161"/>
       <c r="B3" s="102" t="s">
         <v>13</v>
       </c>
@@ -18620,7 +18643,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="160" t="s">
         <v>302</v>
       </c>
       <c r="B4" s="102" t="s">
@@ -18643,8 +18666,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="164"/>
-      <c r="B5" s="166" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -18664,8 +18687,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="164"/>
-      <c r="B6" s="166"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -18683,8 +18706,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="164"/>
-      <c r="B7" s="166"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="102">
         <v>5</v>
       </c>
@@ -18702,8 +18725,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="164"/>
-      <c r="B8" s="166"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="102">
         <v>6</v>
       </c>
@@ -18721,8 +18744,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="166"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="102">
         <v>7</v>
       </c>
@@ -18740,8 +18763,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="166"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="102">
         <v>8</v>
       </c>
@@ -18759,8 +18782,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="166"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="102">
         <v>9</v>
       </c>
@@ -18778,8 +18801,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="166"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -18797,8 +18820,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="166"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -18816,8 +18839,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="166"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="102">
         <v>12</v>
       </c>
@@ -18835,10 +18858,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="160" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="163" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="102">
@@ -18858,8 +18881,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="166"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="102">
         <v>14</v>
       </c>
@@ -18877,8 +18900,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -18896,8 +18919,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="166" t="s">
+      <c r="A18" s="161"/>
+      <c r="B18" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="102">
@@ -18917,8 +18940,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="166"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="102">
         <v>17</v>
       </c>
@@ -18936,8 +18959,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="166"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="102">
         <v>18</v>
       </c>
@@ -18955,8 +18978,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="166"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="102">
         <v>19</v>
       </c>
@@ -18974,8 +18997,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -18993,10 +19016,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="163" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="102">
@@ -19016,8 +19039,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="164"/>
-      <c r="B24" s="166"/>
+      <c r="A24" s="161"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="102">
         <v>22</v>
       </c>
@@ -19035,8 +19058,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="164"/>
-      <c r="B25" s="166"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="102">
         <v>23</v>
       </c>
@@ -19054,8 +19077,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="164"/>
-      <c r="B26" s="166" t="s">
+      <c r="A26" s="161"/>
+      <c r="B26" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="102">
@@ -19075,8 +19098,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1">
-      <c r="A27" s="164"/>
-      <c r="B27" s="166"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="102">
         <v>25</v>
       </c>
@@ -19094,8 +19117,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="164"/>
-      <c r="B28" s="166"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="163"/>
       <c r="C28" s="102">
         <v>26</v>
       </c>
@@ -19113,8 +19136,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="164"/>
-      <c r="B29" s="166"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="102">
         <v>27</v>
       </c>
@@ -19132,8 +19155,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="166"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="102">
         <v>28</v>
       </c>
@@ -19151,10 +19174,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="160" t="s">
         <v>441</v>
       </c>
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="163" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="102">
@@ -19174,8 +19197,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1">
-      <c r="A32" s="164"/>
-      <c r="B32" s="166"/>
+      <c r="A32" s="161"/>
+      <c r="B32" s="163"/>
       <c r="C32" s="102">
         <v>30</v>
       </c>
@@ -19193,8 +19216,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="164"/>
-      <c r="B33" s="166"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="102">
         <v>31</v>
       </c>
@@ -19212,8 +19235,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1">
-      <c r="A34" s="164"/>
-      <c r="B34" s="166" t="s">
+      <c r="A34" s="161"/>
+      <c r="B34" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="102">
@@ -19233,8 +19256,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1">
-      <c r="A35" s="164"/>
-      <c r="B35" s="166"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="102">
         <v>33</v>
       </c>
@@ -19252,8 +19275,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1">
-      <c r="A36" s="164"/>
-      <c r="B36" s="166"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="102">
         <v>34</v>
       </c>
@@ -19271,8 +19294,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1">
-      <c r="A37" s="164"/>
-      <c r="B37" s="166"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="102">
         <v>35</v>
       </c>
@@ -19290,7 +19313,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="165"/>
+      <c r="A38" s="162"/>
       <c r="B38" s="191"/>
       <c r="C38" s="105">
         <v>36</v>
@@ -19387,7 +19410,7 @@
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="153" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -19403,7 +19426,7 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A4" s="152"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="107" t="s">
         <v>290</v>
       </c>
@@ -19433,7 +19456,7 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="153" t="s">
         <v>448</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -19449,7 +19472,7 @@
       <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="152"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="107" t="s">
         <v>526</v>
       </c>
@@ -19462,7 +19485,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A8" s="153"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="112" t="s">
         <v>527</v>
       </c>

--- a/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
+++ b/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\다회로_차단기(한전)_신규장비\ETCCU104_remapping_ing\Point_Index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\entec-msyoun\Documents\entecene\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="580">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2256,6 +2256,10 @@
   <si>
     <t>40/02,41/02</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 master에서 변경한것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2694,7 +2698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3150,6 +3154,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3924,7 +3937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4375,56 +4388,77 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="247" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4432,50 +4466,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4483,21 +4511,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4512,6 +4525,12 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="247" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="257">
@@ -6012,8 +6031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6032,10 +6051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -6059,7 +6078,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>259</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -6088,8 +6107,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="154" t="s">
+      <c r="A3" s="153"/>
+      <c r="B3" s="150" t="s">
         <v>261</v>
       </c>
       <c r="C3" s="129">
@@ -6116,8 +6135,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="154"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="129">
         <v>2</v>
       </c>
@@ -6130,7 +6149,10 @@
       <c r="F4" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="106"/>
+      <c r="G4" s="196" t="s">
+        <v>579</v>
+      </c>
+      <c r="H4" s="197"/>
       <c r="I4" s="107">
         <v>2</v>
       </c>
@@ -6139,8 +6161,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="151"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="129">
         <v>3</v>
       </c>
@@ -6162,8 +6184,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1">
-      <c r="A6" s="151"/>
-      <c r="B6" s="154"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="129">
         <v>4</v>
       </c>
@@ -6185,7 +6207,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1">
-      <c r="A7" s="151"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
       </c>
@@ -6210,10 +6232,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="152" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="129">
@@ -6237,8 +6259,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="129">
         <v>7</v>
       </c>
@@ -6260,8 +6282,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1">
-      <c r="A10" s="151"/>
-      <c r="B10" s="154"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="129">
         <v>8</v>
       </c>
@@ -6283,8 +6305,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="154" t="s">
+      <c r="A11" s="153"/>
+      <c r="B11" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="129">
@@ -6318,8 +6340,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="154"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="129">
         <v>10</v>
       </c>
@@ -6342,16 +6364,16 @@
       <c r="K12" t="s">
         <v>552</v>
       </c>
-      <c r="L12" s="150" t="s">
+      <c r="L12" s="156" t="s">
         <v>554</v>
       </c>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1">
-      <c r="A13" s="151"/>
-      <c r="B13" s="154" t="s">
+      <c r="A13" s="153"/>
+      <c r="B13" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="129">
@@ -6375,8 +6397,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
-      <c r="A14" s="151"/>
-      <c r="B14" s="154"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="129">
         <v>12</v>
       </c>
@@ -6398,8 +6420,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1">
-      <c r="A15" s="151"/>
-      <c r="B15" s="154"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="129">
         <v>13</v>
       </c>
@@ -6421,8 +6443,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1">
-      <c r="A16" s="151"/>
-      <c r="B16" s="154" t="s">
+      <c r="A16" s="153"/>
+      <c r="B16" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="129">
@@ -6446,8 +6468,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
-      <c r="A17" s="151"/>
-      <c r="B17" s="154"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="129">
         <v>15</v>
       </c>
@@ -6469,8 +6491,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="154"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="129">
         <v>16</v>
       </c>
@@ -6492,8 +6514,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
-      <c r="A19" s="151"/>
-      <c r="B19" s="154"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="129">
         <v>17</v>
       </c>
@@ -6515,8 +6537,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
-      <c r="A20" s="151"/>
-      <c r="B20" s="154"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="129">
         <v>18</v>
       </c>
@@ -6538,8 +6560,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1">
-      <c r="A21" s="151"/>
-      <c r="B21" s="154"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="129">
         <v>19</v>
       </c>
@@ -6561,8 +6583,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="154"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="129">
         <v>20</v>
       </c>
@@ -6584,8 +6606,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1">
-      <c r="A23" s="151"/>
-      <c r="B23" s="154" t="s">
+      <c r="A23" s="153"/>
+      <c r="B23" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="129">
@@ -6612,8 +6634,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1">
-      <c r="A24" s="151"/>
-      <c r="B24" s="155"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="129">
         <v>22</v>
       </c>
@@ -6638,8 +6660,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1">
-      <c r="A25" s="151"/>
-      <c r="B25" s="155"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="129">
         <v>23</v>
       </c>
@@ -6664,8 +6686,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1">
-      <c r="A26" s="151"/>
-      <c r="B26" s="155"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="129">
         <v>24</v>
       </c>
@@ -6690,8 +6712,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="155"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="129">
         <v>25</v>
       </c>
@@ -6713,8 +6735,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1">
-      <c r="A28" s="151"/>
-      <c r="B28" s="155"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="129">
         <v>26</v>
       </c>
@@ -6736,8 +6758,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1">
-      <c r="A29" s="151"/>
-      <c r="B29" s="155"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="129">
         <v>27</v>
       </c>
@@ -6759,8 +6781,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1">
-      <c r="A30" s="151"/>
-      <c r="B30" s="155"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="129">
         <v>28</v>
       </c>
@@ -6782,8 +6804,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1">
-      <c r="A31" s="151"/>
-      <c r="B31" s="155"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="129">
         <v>29</v>
       </c>
@@ -6805,10 +6827,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1">
-      <c r="A32" s="157" t="s">
+      <c r="A32" s="152" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="129">
@@ -6832,8 +6854,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="154"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="129">
         <v>31</v>
       </c>
@@ -6855,8 +6877,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1">
-      <c r="A34" s="151"/>
-      <c r="B34" s="154"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="129">
         <v>32</v>
       </c>
@@ -6878,8 +6900,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1">
-      <c r="A35" s="151"/>
-      <c r="B35" s="154" t="s">
+      <c r="A35" s="153"/>
+      <c r="B35" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="129">
@@ -6906,8 +6928,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1">
-      <c r="A36" s="151"/>
-      <c r="B36" s="154"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="129">
         <v>34</v>
       </c>
@@ -6930,14 +6952,14 @@
       <c r="K36" t="s">
         <v>552</v>
       </c>
-      <c r="L36" s="150" t="s">
+      <c r="L36" s="156" t="s">
         <v>560</v>
       </c>
-      <c r="M36" s="150"/>
+      <c r="M36" s="156"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1">
-      <c r="A37" s="151"/>
-      <c r="B37" s="154" t="s">
+      <c r="A37" s="153"/>
+      <c r="B37" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="129">
@@ -6967,8 +6989,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1">
-      <c r="A38" s="151"/>
-      <c r="B38" s="154"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="129">
         <v>36</v>
       </c>
@@ -6996,8 +7018,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1">
-      <c r="A39" s="151"/>
-      <c r="B39" s="154"/>
+      <c r="A39" s="153"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="129">
         <v>37</v>
       </c>
@@ -7019,8 +7041,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="151"/>
-      <c r="B40" s="154"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="129">
         <v>38</v>
       </c>
@@ -7042,8 +7064,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
-      <c r="A41" s="151"/>
-      <c r="B41" s="154" t="s">
+      <c r="A41" s="153"/>
+      <c r="B41" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="129">
@@ -7067,8 +7089,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
-      <c r="A42" s="151"/>
-      <c r="B42" s="154"/>
+      <c r="A42" s="153"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="129">
         <v>40</v>
       </c>
@@ -7090,8 +7112,8 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1">
-      <c r="A43" s="151"/>
-      <c r="B43" s="154"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="129">
         <v>41</v>
       </c>
@@ -7113,8 +7135,8 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1">
-      <c r="A44" s="151"/>
-      <c r="B44" s="154"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="129">
         <v>42</v>
       </c>
@@ -7136,8 +7158,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1">
-      <c r="A45" s="151"/>
-      <c r="B45" s="154"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="129">
         <v>43</v>
       </c>
@@ -7159,8 +7181,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1">
-      <c r="A46" s="151"/>
-      <c r="B46" s="154"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="129">
         <v>44</v>
       </c>
@@ -7182,8 +7204,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1">
-      <c r="A47" s="151"/>
-      <c r="B47" s="154"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="150"/>
       <c r="C47" s="129">
         <v>45</v>
       </c>
@@ -7205,8 +7227,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1">
-      <c r="A48" s="151"/>
-      <c r="B48" s="154" t="s">
+      <c r="A48" s="153"/>
+      <c r="B48" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="129">
@@ -7230,8 +7252,8 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="18" customHeight="1">
-      <c r="A49" s="151"/>
-      <c r="B49" s="155"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="151"/>
       <c r="C49" s="129">
         <v>47</v>
       </c>
@@ -7253,8 +7275,8 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1">
-      <c r="A50" s="151"/>
-      <c r="B50" s="155"/>
+      <c r="A50" s="153"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="129">
         <v>48</v>
       </c>
@@ -7276,8 +7298,8 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="18" customHeight="1">
-      <c r="A51" s="151"/>
-      <c r="B51" s="155"/>
+      <c r="A51" s="153"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="129">
         <v>49</v>
       </c>
@@ -7299,8 +7321,8 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="18" customHeight="1">
-      <c r="A52" s="151"/>
-      <c r="B52" s="155"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="129">
         <v>50</v>
       </c>
@@ -7322,8 +7344,8 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="18" customHeight="1">
-      <c r="A53" s="151"/>
-      <c r="B53" s="155"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="151"/>
       <c r="C53" s="129">
         <v>51</v>
       </c>
@@ -7345,10 +7367,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="157" t="s">
+      <c r="A54" s="152" t="s">
         <v>346</v>
       </c>
-      <c r="B54" s="154" t="s">
+      <c r="B54" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="129">
@@ -7372,8 +7394,8 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="151"/>
-      <c r="B55" s="154"/>
+      <c r="A55" s="153"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="129">
         <v>53</v>
       </c>
@@ -7395,8 +7417,8 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="151"/>
-      <c r="B56" s="154"/>
+      <c r="A56" s="153"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="129">
         <v>54</v>
       </c>
@@ -7418,8 +7440,8 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="151"/>
-      <c r="B57" s="154" t="s">
+      <c r="A57" s="153"/>
+      <c r="B57" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="129">
@@ -7453,8 +7475,8 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="151"/>
-      <c r="B58" s="154"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="150"/>
       <c r="C58" s="129">
         <v>56</v>
       </c>
@@ -7477,15 +7499,15 @@
       <c r="K58" t="s">
         <v>570</v>
       </c>
-      <c r="L58" s="150" t="s">
+      <c r="L58" s="156" t="s">
         <v>571</v>
       </c>
-      <c r="M58" s="150"/>
-      <c r="N58" s="150"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="151"/>
-      <c r="B59" s="154" t="s">
+      <c r="A59" s="153"/>
+      <c r="B59" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="129">
@@ -7515,8 +7537,8 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="151"/>
-      <c r="B60" s="154"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="150"/>
       <c r="C60" s="129">
         <v>58</v>
       </c>
@@ -7544,8 +7566,8 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="151"/>
-      <c r="B61" s="154"/>
+      <c r="A61" s="153"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="129">
         <v>59</v>
       </c>
@@ -7567,8 +7589,8 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="151"/>
-      <c r="B62" s="154"/>
+      <c r="A62" s="153"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="129">
         <v>60</v>
       </c>
@@ -7590,8 +7612,8 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="151"/>
-      <c r="B63" s="154" t="s">
+      <c r="A63" s="153"/>
+      <c r="B63" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="129">
@@ -7615,8 +7637,8 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="151"/>
-      <c r="B64" s="154"/>
+      <c r="A64" s="153"/>
+      <c r="B64" s="150"/>
       <c r="C64" s="129">
         <v>62</v>
       </c>
@@ -7638,8 +7660,8 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="151"/>
-      <c r="B65" s="154"/>
+      <c r="A65" s="153"/>
+      <c r="B65" s="150"/>
       <c r="C65" s="129">
         <v>63</v>
       </c>
@@ -7661,8 +7683,8 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="151"/>
-      <c r="B66" s="154"/>
+      <c r="A66" s="153"/>
+      <c r="B66" s="150"/>
       <c r="C66" s="129">
         <v>64</v>
       </c>
@@ -7684,8 +7706,8 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="151"/>
-      <c r="B67" s="154"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="129">
         <v>65</v>
       </c>
@@ -7707,8 +7729,8 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="151"/>
-      <c r="B68" s="154"/>
+      <c r="A68" s="153"/>
+      <c r="B68" s="150"/>
       <c r="C68" s="129">
         <v>66</v>
       </c>
@@ -7730,8 +7752,8 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="151"/>
-      <c r="B69" s="154"/>
+      <c r="A69" s="153"/>
+      <c r="B69" s="150"/>
       <c r="C69" s="129">
         <v>67</v>
       </c>
@@ -7753,8 +7775,8 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="151"/>
-      <c r="B70" s="154" t="s">
+      <c r="A70" s="153"/>
+      <c r="B70" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="129">
@@ -7778,8 +7800,8 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="151"/>
-      <c r="B71" s="155"/>
+      <c r="A71" s="153"/>
+      <c r="B71" s="151"/>
       <c r="C71" s="129">
         <v>69</v>
       </c>
@@ -7801,8 +7823,8 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="151"/>
-      <c r="B72" s="155"/>
+      <c r="A72" s="153"/>
+      <c r="B72" s="151"/>
       <c r="C72" s="129">
         <v>70</v>
       </c>
@@ -7824,8 +7846,8 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="151"/>
-      <c r="B73" s="155"/>
+      <c r="A73" s="153"/>
+      <c r="B73" s="151"/>
       <c r="C73" s="129">
         <v>71</v>
       </c>
@@ -7847,8 +7869,8 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="151"/>
-      <c r="B74" s="155"/>
+      <c r="A74" s="153"/>
+      <c r="B74" s="151"/>
       <c r="C74" s="129">
         <v>72</v>
       </c>
@@ -7870,8 +7892,8 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="151"/>
-      <c r="B75" s="155"/>
+      <c r="A75" s="153"/>
+      <c r="B75" s="151"/>
       <c r="C75" s="129">
         <v>73</v>
       </c>
@@ -7893,10 +7915,10 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A76" s="157" t="s">
+      <c r="A76" s="152" t="s">
         <v>440</v>
       </c>
-      <c r="B76" s="154" t="s">
+      <c r="B76" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="129">
@@ -7920,8 +7942,8 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="151"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="153"/>
+      <c r="B77" s="150"/>
       <c r="C77" s="129">
         <v>75</v>
       </c>
@@ -7943,8 +7965,8 @@
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="151"/>
-      <c r="B78" s="154"/>
+      <c r="A78" s="153"/>
+      <c r="B78" s="150"/>
       <c r="C78" s="129">
         <v>76</v>
       </c>
@@ -7966,8 +7988,8 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="151"/>
-      <c r="B79" s="154" t="s">
+      <c r="A79" s="153"/>
+      <c r="B79" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="129">
@@ -8001,8 +8023,8 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="151"/>
-      <c r="B80" s="154"/>
+      <c r="A80" s="153"/>
+      <c r="B80" s="150"/>
       <c r="C80" s="129">
         <v>78</v>
       </c>
@@ -8025,15 +8047,15 @@
       <c r="K80" t="s">
         <v>570</v>
       </c>
-      <c r="L80" s="150" t="s">
+      <c r="L80" s="156" t="s">
         <v>571</v>
       </c>
-      <c r="M80" s="150"/>
-      <c r="N80" s="150"/>
+      <c r="M80" s="156"/>
+      <c r="N80" s="156"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="151"/>
-      <c r="B81" s="154" t="s">
+      <c r="A81" s="153"/>
+      <c r="B81" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="129">
@@ -8063,8 +8085,8 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="151"/>
-      <c r="B82" s="154"/>
+      <c r="A82" s="153"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="129">
         <v>80</v>
       </c>
@@ -8092,8 +8114,8 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="151"/>
-      <c r="B83" s="154"/>
+      <c r="A83" s="153"/>
+      <c r="B83" s="150"/>
       <c r="C83" s="129">
         <v>81</v>
       </c>
@@ -8115,8 +8137,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="151"/>
-      <c r="B84" s="154"/>
+      <c r="A84" s="153"/>
+      <c r="B84" s="150"/>
       <c r="C84" s="129">
         <v>82</v>
       </c>
@@ -8138,8 +8160,8 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="151"/>
-      <c r="B85" s="154" t="s">
+      <c r="A85" s="153"/>
+      <c r="B85" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="129">
@@ -8163,8 +8185,8 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="151"/>
-      <c r="B86" s="154"/>
+      <c r="A86" s="153"/>
+      <c r="B86" s="150"/>
       <c r="C86" s="129">
         <v>84</v>
       </c>
@@ -8186,8 +8208,8 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="151"/>
-      <c r="B87" s="154"/>
+      <c r="A87" s="153"/>
+      <c r="B87" s="150"/>
       <c r="C87" s="129">
         <v>85</v>
       </c>
@@ -8209,8 +8231,8 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="151"/>
-      <c r="B88" s="154"/>
+      <c r="A88" s="153"/>
+      <c r="B88" s="150"/>
       <c r="C88" s="129">
         <v>86</v>
       </c>
@@ -8232,8 +8254,8 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="151"/>
-      <c r="B89" s="154"/>
+      <c r="A89" s="153"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="129">
         <v>87</v>
       </c>
@@ -8255,8 +8277,8 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="151"/>
-      <c r="B90" s="154"/>
+      <c r="A90" s="153"/>
+      <c r="B90" s="150"/>
       <c r="C90" s="129">
         <v>88</v>
       </c>
@@ -8278,8 +8300,8 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="151"/>
-      <c r="B91" s="154"/>
+      <c r="A91" s="153"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="129">
         <v>89</v>
       </c>
@@ -8301,8 +8323,8 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="151"/>
-      <c r="B92" s="154" t="s">
+      <c r="A92" s="153"/>
+      <c r="B92" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="129">
@@ -8326,8 +8348,8 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="151"/>
-      <c r="B93" s="155"/>
+      <c r="A93" s="153"/>
+      <c r="B93" s="151"/>
       <c r="C93" s="129">
         <v>91</v>
       </c>
@@ -8349,8 +8371,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="151"/>
-      <c r="B94" s="155"/>
+      <c r="A94" s="153"/>
+      <c r="B94" s="151"/>
       <c r="C94" s="129">
         <v>92</v>
       </c>
@@ -8372,8 +8394,8 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="151"/>
-      <c r="B95" s="155"/>
+      <c r="A95" s="153"/>
+      <c r="B95" s="151"/>
       <c r="C95" s="129">
         <v>93</v>
       </c>
@@ -8395,8 +8417,8 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="151"/>
-      <c r="B96" s="155"/>
+      <c r="A96" s="153"/>
+      <c r="B96" s="151"/>
       <c r="C96" s="129">
         <v>94</v>
       </c>
@@ -8418,8 +8440,8 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="151"/>
-      <c r="B97" s="155"/>
+      <c r="A97" s="153"/>
+      <c r="B97" s="151"/>
       <c r="C97" s="129">
         <v>95</v>
       </c>
@@ -8441,10 +8463,10 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="151" t="s">
+      <c r="A98" s="153" t="s">
         <v>538</v>
       </c>
-      <c r="B98" s="154" t="s">
+      <c r="B98" s="150" t="s">
         <v>539</v>
       </c>
       <c r="C98" s="129">
@@ -8468,8 +8490,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="152"/>
-      <c r="B99" s="155"/>
+      <c r="A99" s="157"/>
+      <c r="B99" s="151"/>
       <c r="C99" s="129">
         <v>97</v>
       </c>
@@ -8491,8 +8513,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A100" s="153"/>
-      <c r="B100" s="156"/>
+      <c r="A100" s="158"/>
+      <c r="B100" s="159"/>
       <c r="C100" s="112">
         <v>98</v>
       </c>
@@ -8514,24 +8536,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="A54:A75"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A31"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B3:B6"/>
+  <mergeCells count="34">
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L58:N58"/>
@@ -8548,6 +8554,23 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A31"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="A54:A75"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8581,10 +8604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -8608,7 +8631,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="161" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -8637,7 +8660,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="164"/>
+      <c r="A3" s="161"/>
       <c r="B3" s="102" t="s">
         <v>264</v>
       </c>
@@ -8664,7 +8687,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="A4" s="164"/>
+      <c r="A4" s="161"/>
       <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
@@ -8691,8 +8714,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="A5" s="164"/>
-      <c r="B5" s="166" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -8719,8 +8742,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1">
-      <c r="A6" s="164"/>
-      <c r="B6" s="166"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -8744,7 +8767,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="160" t="s">
         <v>302</v>
       </c>
       <c r="B7" s="102" t="s">
@@ -8773,7 +8796,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A8" s="164"/>
+      <c r="A8" s="161"/>
       <c r="B8" s="102" t="s">
         <v>6</v>
       </c>
@@ -8798,15 +8821,15 @@
       <c r="J8" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="161" t="s">
+      <c r="K8" s="164" t="s">
         <v>572</v>
       </c>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A9" s="164"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="102" t="s">
         <v>8</v>
       </c>
@@ -8833,7 +8856,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="160" t="s">
         <v>303</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -8862,8 +8885,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="166" t="s">
+      <c r="A11" s="161"/>
+      <c r="B11" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="102">
@@ -8887,19 +8910,19 @@
       <c r="J11" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="161" t="s">
+      <c r="K11" s="164" t="s">
         <v>575</v>
       </c>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
       <c r="Q11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="166"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -8921,19 +8944,19 @@
       <c r="J12" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K12" s="160" t="s">
+      <c r="K12" s="166" t="s">
         <v>574</v>
       </c>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
       <c r="Q12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="166"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -8955,18 +8978,18 @@
       <c r="J13" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K13" s="160" t="s">
+      <c r="K13" s="166" t="s">
         <v>573</v>
       </c>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
       <c r="Q13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A14" s="164"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="102" t="s">
         <v>8</v>
       </c>
@@ -8993,7 +9016,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="160" t="s">
         <v>304</v>
       </c>
       <c r="B15" s="102" t="s">
@@ -9022,8 +9045,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="166" t="s">
+      <c r="A16" s="161"/>
+      <c r="B16" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="102">
@@ -9047,19 +9070,19 @@
       <c r="J16" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="161" t="s">
+      <c r="K16" s="164" t="s">
         <v>575</v>
       </c>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
       <c r="Q16" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -9084,19 +9107,19 @@
       <c r="J17" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="160" t="s">
+      <c r="K17" s="166" t="s">
         <v>574</v>
       </c>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
       <c r="Q17" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="166"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="102">
         <v>16</v>
       </c>
@@ -9121,18 +9144,18 @@
       <c r="J18" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="160" t="s">
+      <c r="K18" s="166" t="s">
         <v>573</v>
       </c>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
       <c r="Q18" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A19" s="164"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="102" t="s">
         <v>8</v>
       </c>
@@ -9159,7 +9182,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="160" t="s">
         <v>441</v>
       </c>
       <c r="B20" s="102" t="s">
@@ -9188,8 +9211,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="166" t="s">
+      <c r="A21" s="161"/>
+      <c r="B21" s="163" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="102">
@@ -9213,19 +9236,19 @@
       <c r="J21" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="161" t="s">
+      <c r="K21" s="164" t="s">
         <v>575</v>
       </c>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
       <c r="Q21" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -9247,12 +9270,12 @@
       <c r="J22" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K22" s="160" t="s">
+      <c r="K22" s="166" t="s">
         <v>574</v>
       </c>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
       <c r="O22" t="s">
         <v>577</v>
       </c>
@@ -9261,8 +9284,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A23" s="164"/>
-      <c r="B23" s="166"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="102">
         <v>21</v>
       </c>
@@ -9284,18 +9307,18 @@
       <c r="J23" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K23" s="160" t="s">
+      <c r="K23" s="166" t="s">
         <v>573</v>
       </c>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
       <c r="Q23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A24" s="165"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="105" t="s">
         <v>8</v>
       </c>
@@ -9323,6 +9346,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:A9"/>
@@ -9333,16 +9366,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A15:A19"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9376,10 +9399,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -9403,10 +9426,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="152" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="173" t="s">
         <v>444</v>
       </c>
       <c r="C2" s="108">
@@ -9432,8 +9455,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="171"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="108">
         <v>1</v>
       </c>
@@ -9457,8 +9480,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="108">
         <v>2</v>
       </c>
@@ -9480,8 +9503,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A5" s="157"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="108">
         <v>3</v>
       </c>
@@ -9505,10 +9528,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="152" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="150" t="s">
         <v>442</v>
       </c>
       <c r="C6" s="124">
@@ -9534,8 +9557,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A7" s="151"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="124">
         <v>5</v>
       </c>
@@ -9559,8 +9582,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A8" s="151"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="124">
         <v>6</v>
       </c>
@@ -9584,8 +9607,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="124">
         <v>7</v>
       </c>
@@ -9609,8 +9632,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A10" s="151"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="124">
         <v>8</v>
       </c>
@@ -9637,8 +9660,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="124">
         <v>9</v>
       </c>
@@ -9665,8 +9688,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="124">
         <v>10</v>
       </c>
@@ -9690,8 +9713,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A13" s="151"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="124">
         <v>11</v>
       </c>
@@ -9715,8 +9738,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A14" s="151"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="124">
         <v>12</v>
       </c>
@@ -9740,8 +9763,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A15" s="151"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="124">
         <v>13</v>
       </c>
@@ -9765,8 +9788,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A16" s="151"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="124">
         <v>14</v>
       </c>
@@ -9790,8 +9813,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A17" s="151"/>
-      <c r="B17" s="171"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="124">
         <v>15</v>
       </c>
@@ -9815,8 +9838,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="171"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="124">
         <v>16</v>
       </c>
@@ -9840,8 +9863,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A19" s="151"/>
-      <c r="B19" s="171"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="124">
         <v>17</v>
       </c>
@@ -9865,8 +9888,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A20" s="151"/>
-      <c r="B20" s="171"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="124">
         <v>18</v>
       </c>
@@ -9890,8 +9913,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A21" s="151"/>
-      <c r="B21" s="171"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="124">
         <v>19</v>
       </c>
@@ -9915,8 +9938,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="171"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="124">
         <v>20</v>
       </c>
@@ -9940,8 +9963,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A23" s="151"/>
-      <c r="B23" s="171"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="124">
         <v>21</v>
       </c>
@@ -9965,8 +9988,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A24" s="151"/>
-      <c r="B24" s="171"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="124">
         <v>22</v>
       </c>
@@ -9990,8 +10013,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A25" s="151"/>
-      <c r="B25" s="171"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="124">
         <v>23</v>
       </c>
@@ -10015,8 +10038,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A26" s="151"/>
-      <c r="B26" s="171"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="124">
         <v>24</v>
       </c>
@@ -10040,8 +10063,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="124">
         <v>25</v>
       </c>
@@ -10065,8 +10088,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A28" s="151"/>
-      <c r="B28" s="171"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="124">
         <v>26</v>
       </c>
@@ -10090,8 +10113,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A29" s="151"/>
-      <c r="B29" s="171"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="124">
         <v>27</v>
       </c>
@@ -10115,8 +10138,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A30" s="151"/>
-      <c r="B30" s="171"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="124">
         <v>28</v>
       </c>
@@ -10140,8 +10163,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A31" s="151"/>
-      <c r="B31" s="171"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="124">
         <v>29</v>
       </c>
@@ -10165,8 +10188,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A32" s="151"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="124">
         <v>30</v>
       </c>
@@ -10190,8 +10213,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="124">
         <v>31</v>
       </c>
@@ -10215,8 +10238,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A34" s="151"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="124">
         <v>32</v>
       </c>
@@ -10240,8 +10263,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A35" s="151"/>
-      <c r="B35" s="171"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="124">
         <v>33</v>
       </c>
@@ -10265,8 +10288,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A36" s="151"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="124">
         <v>34</v>
       </c>
@@ -10290,8 +10313,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A37" s="151"/>
-      <c r="B37" s="171"/>
+      <c r="A37" s="153"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="124">
         <v>35</v>
       </c>
@@ -10315,8 +10338,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A38" s="151"/>
-      <c r="B38" s="171"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="124">
         <v>36</v>
       </c>
@@ -10340,8 +10363,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A39" s="151"/>
-      <c r="B39" s="171"/>
+      <c r="A39" s="153"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="124">
         <v>37</v>
       </c>
@@ -10365,8 +10388,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A40" s="151"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="124">
         <v>38</v>
       </c>
@@ -10390,8 +10413,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A41" s="151"/>
-      <c r="B41" s="171"/>
+      <c r="A41" s="153"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="124">
         <v>39</v>
       </c>
@@ -10415,8 +10438,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A42" s="151"/>
-      <c r="B42" s="154" t="s">
+      <c r="A42" s="153"/>
+      <c r="B42" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="124">
@@ -10440,14 +10463,14 @@
       <c r="J42" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="K42" s="167" t="s">
+      <c r="K42" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L42" s="168"/>
+      <c r="L42" s="175"/>
     </row>
     <row r="43" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A43" s="151"/>
-      <c r="B43" s="171"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="124">
         <v>41</v>
       </c>
@@ -10469,14 +10492,14 @@
       <c r="J43" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="167" t="s">
+      <c r="K43" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L43" s="168"/>
+      <c r="L43" s="175"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A44" s="151"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="124">
         <v>42</v>
       </c>
@@ -10498,14 +10521,14 @@
       <c r="J44" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="167" t="s">
+      <c r="K44" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L44" s="168"/>
+      <c r="L44" s="175"/>
     </row>
     <row r="45" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A45" s="151"/>
-      <c r="B45" s="171"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="124">
         <v>43</v>
       </c>
@@ -10527,14 +10550,14 @@
       <c r="J45" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="167" t="s">
+      <c r="K45" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L45" s="168"/>
+      <c r="L45" s="175"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A46" s="151"/>
-      <c r="B46" s="171"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="124">
         <v>44</v>
       </c>
@@ -10556,14 +10579,14 @@
       <c r="J46" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="K46" s="167" t="s">
+      <c r="K46" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L46" s="168"/>
+      <c r="L46" s="175"/>
     </row>
     <row r="47" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A47" s="151"/>
-      <c r="B47" s="171"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="124">
         <v>45</v>
       </c>
@@ -10585,14 +10608,14 @@
       <c r="J47" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="K47" s="167" t="s">
+      <c r="K47" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L47" s="168"/>
+      <c r="L47" s="175"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A48" s="151"/>
-      <c r="B48" s="171"/>
+      <c r="A48" s="153"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="124">
         <v>46</v>
       </c>
@@ -10614,14 +10637,14 @@
       <c r="J48" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="K48" s="167" t="s">
+      <c r="K48" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L48" s="168"/>
+      <c r="L48" s="175"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A49" s="151"/>
-      <c r="B49" s="171"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="170"/>
       <c r="C49" s="124">
         <v>47</v>
       </c>
@@ -10643,16 +10666,16 @@
       <c r="J49" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="167" t="s">
+      <c r="K49" s="174" t="s">
         <v>555</v>
       </c>
-      <c r="L49" s="168"/>
+      <c r="L49" s="175"/>
     </row>
     <row r="50" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A50" s="157" t="s">
+      <c r="A50" s="152" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="154" t="s">
+      <c r="B50" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="124">
@@ -10678,8 +10701,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A51" s="151"/>
-      <c r="B51" s="171"/>
+      <c r="A51" s="153"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="124">
         <v>49</v>
       </c>
@@ -10703,8 +10726,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A52" s="151"/>
-      <c r="B52" s="171"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="170"/>
       <c r="C52" s="124">
         <v>50</v>
       </c>
@@ -10728,8 +10751,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A53" s="151"/>
-      <c r="B53" s="171"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="170"/>
       <c r="C53" s="124">
         <v>51</v>
       </c>
@@ -10753,8 +10776,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A54" s="151"/>
-      <c r="B54" s="171"/>
+      <c r="A54" s="153"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="124">
         <v>52</v>
       </c>
@@ -10778,8 +10801,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A55" s="151"/>
-      <c r="B55" s="171"/>
+      <c r="A55" s="153"/>
+      <c r="B55" s="170"/>
       <c r="C55" s="124">
         <v>53</v>
       </c>
@@ -10803,8 +10826,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A56" s="151"/>
-      <c r="B56" s="171"/>
+      <c r="A56" s="153"/>
+      <c r="B56" s="170"/>
       <c r="C56" s="124">
         <v>54</v>
       </c>
@@ -10828,8 +10851,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A57" s="151"/>
-      <c r="B57" s="171"/>
+      <c r="A57" s="153"/>
+      <c r="B57" s="170"/>
       <c r="C57" s="124">
         <v>55</v>
       </c>
@@ -10853,8 +10876,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A58" s="151"/>
-      <c r="B58" s="171"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="124">
         <v>56</v>
       </c>
@@ -10878,8 +10901,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A59" s="151"/>
-      <c r="B59" s="171"/>
+      <c r="A59" s="153"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="124">
         <v>57</v>
       </c>
@@ -10903,8 +10926,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A60" s="151"/>
-      <c r="B60" s="171"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="170"/>
       <c r="C60" s="124">
         <v>58</v>
       </c>
@@ -10928,8 +10951,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A61" s="151"/>
-      <c r="B61" s="171"/>
+      <c r="A61" s="153"/>
+      <c r="B61" s="170"/>
       <c r="C61" s="124">
         <v>59</v>
       </c>
@@ -10953,8 +10976,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A62" s="151"/>
-      <c r="B62" s="171"/>
+      <c r="A62" s="153"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="124">
         <v>60</v>
       </c>
@@ -10978,8 +11001,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A63" s="151"/>
-      <c r="B63" s="171"/>
+      <c r="A63" s="153"/>
+      <c r="B63" s="170"/>
       <c r="C63" s="124">
         <v>61</v>
       </c>
@@ -11003,8 +11026,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A64" s="151"/>
-      <c r="B64" s="171"/>
+      <c r="A64" s="153"/>
+      <c r="B64" s="170"/>
       <c r="C64" s="124">
         <v>62</v>
       </c>
@@ -11028,8 +11051,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A65" s="151"/>
-      <c r="B65" s="171"/>
+      <c r="A65" s="153"/>
+      <c r="B65" s="170"/>
       <c r="C65" s="124">
         <v>63</v>
       </c>
@@ -11053,8 +11076,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A66" s="151"/>
-      <c r="B66" s="171"/>
+      <c r="A66" s="153"/>
+      <c r="B66" s="170"/>
       <c r="C66" s="124">
         <v>64</v>
       </c>
@@ -11078,8 +11101,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A67" s="151"/>
-      <c r="B67" s="171"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="170"/>
       <c r="C67" s="124">
         <v>65</v>
       </c>
@@ -11103,8 +11126,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A68" s="151"/>
-      <c r="B68" s="171"/>
+      <c r="A68" s="153"/>
+      <c r="B68" s="170"/>
       <c r="C68" s="124">
         <v>66</v>
       </c>
@@ -11128,8 +11151,8 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A69" s="151"/>
-      <c r="B69" s="171"/>
+      <c r="A69" s="153"/>
+      <c r="B69" s="170"/>
       <c r="C69" s="124">
         <v>67</v>
       </c>
@@ -11153,8 +11176,8 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A70" s="151"/>
-      <c r="B70" s="171"/>
+      <c r="A70" s="153"/>
+      <c r="B70" s="170"/>
       <c r="C70" s="124">
         <v>68</v>
       </c>
@@ -11178,8 +11201,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A71" s="151"/>
-      <c r="B71" s="171"/>
+      <c r="A71" s="153"/>
+      <c r="B71" s="170"/>
       <c r="C71" s="124">
         <v>69</v>
       </c>
@@ -11203,8 +11226,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A72" s="151"/>
-      <c r="B72" s="171"/>
+      <c r="A72" s="153"/>
+      <c r="B72" s="170"/>
       <c r="C72" s="124">
         <v>70</v>
       </c>
@@ -11228,8 +11251,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A73" s="151"/>
-      <c r="B73" s="171"/>
+      <c r="A73" s="153"/>
+      <c r="B73" s="170"/>
       <c r="C73" s="124">
         <v>71</v>
       </c>
@@ -11253,8 +11276,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A74" s="151"/>
-      <c r="B74" s="171"/>
+      <c r="A74" s="153"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="124">
         <v>72</v>
       </c>
@@ -11278,8 +11301,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A75" s="151"/>
-      <c r="B75" s="171"/>
+      <c r="A75" s="153"/>
+      <c r="B75" s="170"/>
       <c r="C75" s="124">
         <v>73</v>
       </c>
@@ -11303,8 +11326,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A76" s="151"/>
-      <c r="B76" s="171"/>
+      <c r="A76" s="153"/>
+      <c r="B76" s="170"/>
       <c r="C76" s="124">
         <v>74</v>
       </c>
@@ -11328,8 +11351,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A77" s="151"/>
-      <c r="B77" s="171"/>
+      <c r="A77" s="153"/>
+      <c r="B77" s="170"/>
       <c r="C77" s="124">
         <v>75</v>
       </c>
@@ -11353,8 +11376,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A78" s="151"/>
-      <c r="B78" s="171"/>
+      <c r="A78" s="153"/>
+      <c r="B78" s="170"/>
       <c r="C78" s="124">
         <v>76</v>
       </c>
@@ -11378,8 +11401,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A79" s="151"/>
-      <c r="B79" s="171"/>
+      <c r="A79" s="153"/>
+      <c r="B79" s="170"/>
       <c r="C79" s="124">
         <v>77</v>
       </c>
@@ -11403,8 +11426,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A80" s="151"/>
-      <c r="B80" s="171"/>
+      <c r="A80" s="153"/>
+      <c r="B80" s="170"/>
       <c r="C80" s="124">
         <v>78</v>
       </c>
@@ -11428,8 +11451,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A81" s="151"/>
-      <c r="B81" s="171"/>
+      <c r="A81" s="153"/>
+      <c r="B81" s="170"/>
       <c r="C81" s="124">
         <v>79</v>
       </c>
@@ -11453,8 +11476,8 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A82" s="151"/>
-      <c r="B82" s="171"/>
+      <c r="A82" s="153"/>
+      <c r="B82" s="170"/>
       <c r="C82" s="124">
         <v>80</v>
       </c>
@@ -11478,8 +11501,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A83" s="151"/>
-      <c r="B83" s="171"/>
+      <c r="A83" s="153"/>
+      <c r="B83" s="170"/>
       <c r="C83" s="124">
         <v>81</v>
       </c>
@@ -11503,8 +11526,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A84" s="151"/>
-      <c r="B84" s="171"/>
+      <c r="A84" s="153"/>
+      <c r="B84" s="170"/>
       <c r="C84" s="124">
         <v>82</v>
       </c>
@@ -11528,8 +11551,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A85" s="151"/>
-      <c r="B85" s="171"/>
+      <c r="A85" s="153"/>
+      <c r="B85" s="170"/>
       <c r="C85" s="124">
         <v>83</v>
       </c>
@@ -11553,8 +11576,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A86" s="151"/>
-      <c r="B86" s="154" t="s">
+      <c r="A86" s="153"/>
+      <c r="B86" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="124">
@@ -11580,8 +11603,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A87" s="151"/>
-      <c r="B87" s="171"/>
+      <c r="A87" s="153"/>
+      <c r="B87" s="170"/>
       <c r="C87" s="124">
         <v>85</v>
       </c>
@@ -11605,8 +11628,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A88" s="151"/>
-      <c r="B88" s="171"/>
+      <c r="A88" s="153"/>
+      <c r="B88" s="170"/>
       <c r="C88" s="124">
         <v>86</v>
       </c>
@@ -11630,8 +11653,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A89" s="151"/>
-      <c r="B89" s="171"/>
+      <c r="A89" s="153"/>
+      <c r="B89" s="170"/>
       <c r="C89" s="124">
         <v>87</v>
       </c>
@@ -11655,8 +11678,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A90" s="151"/>
-      <c r="B90" s="171"/>
+      <c r="A90" s="153"/>
+      <c r="B90" s="170"/>
       <c r="C90" s="124">
         <v>88</v>
       </c>
@@ -11680,8 +11703,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A91" s="151"/>
-      <c r="B91" s="171"/>
+      <c r="A91" s="153"/>
+      <c r="B91" s="170"/>
       <c r="C91" s="124">
         <v>89</v>
       </c>
@@ -11705,8 +11728,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A92" s="151"/>
-      <c r="B92" s="171"/>
+      <c r="A92" s="153"/>
+      <c r="B92" s="170"/>
       <c r="C92" s="124">
         <v>90</v>
       </c>
@@ -11730,8 +11753,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A93" s="151"/>
-      <c r="B93" s="171"/>
+      <c r="A93" s="153"/>
+      <c r="B93" s="170"/>
       <c r="C93" s="124">
         <v>91</v>
       </c>
@@ -11755,10 +11778,10 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A94" s="157" t="s">
+      <c r="A94" s="152" t="s">
         <v>346</v>
       </c>
-      <c r="B94" s="154" t="s">
+      <c r="B94" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C94" s="124">
@@ -11784,8 +11807,8 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A95" s="151"/>
-      <c r="B95" s="171"/>
+      <c r="A95" s="153"/>
+      <c r="B95" s="170"/>
       <c r="C95" s="124">
         <v>93</v>
       </c>
@@ -11809,8 +11832,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A96" s="151"/>
-      <c r="B96" s="171"/>
+      <c r="A96" s="153"/>
+      <c r="B96" s="170"/>
       <c r="C96" s="124">
         <v>94</v>
       </c>
@@ -11834,8 +11857,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A97" s="151"/>
-      <c r="B97" s="171"/>
+      <c r="A97" s="153"/>
+      <c r="B97" s="170"/>
       <c r="C97" s="124">
         <v>95</v>
       </c>
@@ -11859,8 +11882,8 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A98" s="151"/>
-      <c r="B98" s="171"/>
+      <c r="A98" s="153"/>
+      <c r="B98" s="170"/>
       <c r="C98" s="124">
         <v>96</v>
       </c>
@@ -11884,8 +11907,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A99" s="151"/>
-      <c r="B99" s="171"/>
+      <c r="A99" s="153"/>
+      <c r="B99" s="170"/>
       <c r="C99" s="124">
         <v>97</v>
       </c>
@@ -11909,8 +11932,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A100" s="151"/>
-      <c r="B100" s="171"/>
+      <c r="A100" s="153"/>
+      <c r="B100" s="170"/>
       <c r="C100" s="124">
         <v>98</v>
       </c>
@@ -11934,8 +11957,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A101" s="151"/>
-      <c r="B101" s="171"/>
+      <c r="A101" s="153"/>
+      <c r="B101" s="170"/>
       <c r="C101" s="124">
         <v>99</v>
       </c>
@@ -11959,8 +11982,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A102" s="151"/>
-      <c r="B102" s="171"/>
+      <c r="A102" s="153"/>
+      <c r="B102" s="170"/>
       <c r="C102" s="124">
         <v>100</v>
       </c>
@@ -11984,8 +12007,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A103" s="151"/>
-      <c r="B103" s="171"/>
+      <c r="A103" s="153"/>
+      <c r="B103" s="170"/>
       <c r="C103" s="124">
         <v>101</v>
       </c>
@@ -12009,8 +12032,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A104" s="151"/>
-      <c r="B104" s="171"/>
+      <c r="A104" s="153"/>
+      <c r="B104" s="170"/>
       <c r="C104" s="124">
         <v>102</v>
       </c>
@@ -12034,8 +12057,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A105" s="151"/>
-      <c r="B105" s="171"/>
+      <c r="A105" s="153"/>
+      <c r="B105" s="170"/>
       <c r="C105" s="124">
         <v>103</v>
       </c>
@@ -12059,8 +12082,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A106" s="151"/>
-      <c r="B106" s="171"/>
+      <c r="A106" s="153"/>
+      <c r="B106" s="170"/>
       <c r="C106" s="124">
         <v>104</v>
       </c>
@@ -12084,8 +12107,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A107" s="151"/>
-      <c r="B107" s="171"/>
+      <c r="A107" s="153"/>
+      <c r="B107" s="170"/>
       <c r="C107" s="124">
         <v>105</v>
       </c>
@@ -12109,8 +12132,8 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A108" s="151"/>
-      <c r="B108" s="171"/>
+      <c r="A108" s="153"/>
+      <c r="B108" s="170"/>
       <c r="C108" s="124">
         <v>106</v>
       </c>
@@ -12134,8 +12157,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A109" s="151"/>
-      <c r="B109" s="171"/>
+      <c r="A109" s="153"/>
+      <c r="B109" s="170"/>
       <c r="C109" s="124">
         <v>107</v>
       </c>
@@ -12159,8 +12182,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A110" s="151"/>
-      <c r="B110" s="171"/>
+      <c r="A110" s="153"/>
+      <c r="B110" s="170"/>
       <c r="C110" s="124">
         <v>108</v>
       </c>
@@ -12184,8 +12207,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A111" s="151"/>
-      <c r="B111" s="171"/>
+      <c r="A111" s="153"/>
+      <c r="B111" s="170"/>
       <c r="C111" s="124">
         <v>109</v>
       </c>
@@ -12209,8 +12232,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A112" s="151"/>
-      <c r="B112" s="171"/>
+      <c r="A112" s="153"/>
+      <c r="B112" s="170"/>
       <c r="C112" s="124">
         <v>110</v>
       </c>
@@ -12234,8 +12257,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A113" s="151"/>
-      <c r="B113" s="171"/>
+      <c r="A113" s="153"/>
+      <c r="B113" s="170"/>
       <c r="C113" s="124">
         <v>111</v>
       </c>
@@ -12259,8 +12282,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A114" s="151"/>
-      <c r="B114" s="171"/>
+      <c r="A114" s="153"/>
+      <c r="B114" s="170"/>
       <c r="C114" s="124">
         <v>112</v>
       </c>
@@ -12284,8 +12307,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A115" s="151"/>
-      <c r="B115" s="171"/>
+      <c r="A115" s="153"/>
+      <c r="B115" s="170"/>
       <c r="C115" s="124">
         <v>113</v>
       </c>
@@ -12309,8 +12332,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A116" s="151"/>
-      <c r="B116" s="171"/>
+      <c r="A116" s="153"/>
+      <c r="B116" s="170"/>
       <c r="C116" s="124">
         <v>114</v>
       </c>
@@ -12334,8 +12357,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A117" s="151"/>
-      <c r="B117" s="171"/>
+      <c r="A117" s="153"/>
+      <c r="B117" s="170"/>
       <c r="C117" s="124">
         <v>115</v>
       </c>
@@ -12359,8 +12382,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A118" s="151"/>
-      <c r="B118" s="171"/>
+      <c r="A118" s="153"/>
+      <c r="B118" s="170"/>
       <c r="C118" s="124">
         <v>116</v>
       </c>
@@ -12384,8 +12407,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A119" s="151"/>
-      <c r="B119" s="171"/>
+      <c r="A119" s="153"/>
+      <c r="B119" s="170"/>
       <c r="C119" s="124">
         <v>117</v>
       </c>
@@ -12409,8 +12432,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A120" s="151"/>
-      <c r="B120" s="171"/>
+      <c r="A120" s="153"/>
+      <c r="B120" s="170"/>
       <c r="C120" s="124">
         <v>118</v>
       </c>
@@ -12434,8 +12457,8 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A121" s="151"/>
-      <c r="B121" s="171"/>
+      <c r="A121" s="153"/>
+      <c r="B121" s="170"/>
       <c r="C121" s="124">
         <v>119</v>
       </c>
@@ -12459,8 +12482,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A122" s="151"/>
-      <c r="B122" s="171"/>
+      <c r="A122" s="153"/>
+      <c r="B122" s="170"/>
       <c r="C122" s="124">
         <v>120</v>
       </c>
@@ -12484,8 +12507,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A123" s="151"/>
-      <c r="B123" s="171"/>
+      <c r="A123" s="153"/>
+      <c r="B123" s="170"/>
       <c r="C123" s="124">
         <v>121</v>
       </c>
@@ -12509,8 +12532,8 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A124" s="151"/>
-      <c r="B124" s="171"/>
+      <c r="A124" s="153"/>
+      <c r="B124" s="170"/>
       <c r="C124" s="124">
         <v>122</v>
       </c>
@@ -12534,8 +12557,8 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A125" s="151"/>
-      <c r="B125" s="171"/>
+      <c r="A125" s="153"/>
+      <c r="B125" s="170"/>
       <c r="C125" s="124">
         <v>123</v>
       </c>
@@ -12559,8 +12582,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A126" s="151"/>
-      <c r="B126" s="171"/>
+      <c r="A126" s="153"/>
+      <c r="B126" s="170"/>
       <c r="C126" s="124">
         <v>124</v>
       </c>
@@ -12584,8 +12607,8 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A127" s="151"/>
-      <c r="B127" s="171"/>
+      <c r="A127" s="153"/>
+      <c r="B127" s="170"/>
       <c r="C127" s="124">
         <v>125</v>
       </c>
@@ -12609,8 +12632,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A128" s="151"/>
-      <c r="B128" s="171"/>
+      <c r="A128" s="153"/>
+      <c r="B128" s="170"/>
       <c r="C128" s="124">
         <v>126</v>
       </c>
@@ -12634,8 +12657,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A129" s="151"/>
-      <c r="B129" s="171"/>
+      <c r="A129" s="153"/>
+      <c r="B129" s="170"/>
       <c r="C129" s="124">
         <v>127</v>
       </c>
@@ -12659,8 +12682,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A130" s="151"/>
-      <c r="B130" s="154" t="s">
+      <c r="A130" s="153"/>
+      <c r="B130" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="124">
@@ -12686,8 +12709,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A131" s="151"/>
-      <c r="B131" s="171"/>
+      <c r="A131" s="153"/>
+      <c r="B131" s="170"/>
       <c r="C131" s="124">
         <v>129</v>
       </c>
@@ -12711,8 +12734,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A132" s="151"/>
-      <c r="B132" s="171"/>
+      <c r="A132" s="153"/>
+      <c r="B132" s="170"/>
       <c r="C132" s="124">
         <v>130</v>
       </c>
@@ -12736,8 +12759,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A133" s="151"/>
-      <c r="B133" s="171"/>
+      <c r="A133" s="153"/>
+      <c r="B133" s="170"/>
       <c r="C133" s="124">
         <v>131</v>
       </c>
@@ -12761,8 +12784,8 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A134" s="151"/>
-      <c r="B134" s="171"/>
+      <c r="A134" s="153"/>
+      <c r="B134" s="170"/>
       <c r="C134" s="124">
         <v>132</v>
       </c>
@@ -12786,8 +12809,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A135" s="151"/>
-      <c r="B135" s="171"/>
+      <c r="A135" s="153"/>
+      <c r="B135" s="170"/>
       <c r="C135" s="124">
         <v>133</v>
       </c>
@@ -12811,8 +12834,8 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A136" s="151"/>
-      <c r="B136" s="171"/>
+      <c r="A136" s="153"/>
+      <c r="B136" s="170"/>
       <c r="C136" s="124">
         <v>134</v>
       </c>
@@ -12836,8 +12859,8 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A137" s="151"/>
-      <c r="B137" s="171"/>
+      <c r="A137" s="153"/>
+      <c r="B137" s="170"/>
       <c r="C137" s="124">
         <v>135</v>
       </c>
@@ -12861,10 +12884,10 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A138" s="157" t="s">
+      <c r="A138" s="152" t="s">
         <v>447</v>
       </c>
-      <c r="B138" s="154" t="s">
+      <c r="B138" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C138" s="124">
@@ -12890,8 +12913,8 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A139" s="151"/>
-      <c r="B139" s="171"/>
+      <c r="A139" s="153"/>
+      <c r="B139" s="170"/>
       <c r="C139" s="124">
         <v>137</v>
       </c>
@@ -12915,8 +12938,8 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A140" s="151"/>
-      <c r="B140" s="171"/>
+      <c r="A140" s="153"/>
+      <c r="B140" s="170"/>
       <c r="C140" s="124">
         <v>138</v>
       </c>
@@ -12940,8 +12963,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A141" s="151"/>
-      <c r="B141" s="171"/>
+      <c r="A141" s="153"/>
+      <c r="B141" s="170"/>
       <c r="C141" s="124">
         <v>139</v>
       </c>
@@ -12965,8 +12988,8 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A142" s="151"/>
-      <c r="B142" s="171"/>
+      <c r="A142" s="153"/>
+      <c r="B142" s="170"/>
       <c r="C142" s="124">
         <v>140</v>
       </c>
@@ -12990,8 +13013,8 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A143" s="151"/>
-      <c r="B143" s="171"/>
+      <c r="A143" s="153"/>
+      <c r="B143" s="170"/>
       <c r="C143" s="124">
         <v>141</v>
       </c>
@@ -13015,8 +13038,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A144" s="151"/>
-      <c r="B144" s="171"/>
+      <c r="A144" s="153"/>
+      <c r="B144" s="170"/>
       <c r="C144" s="124">
         <v>142</v>
       </c>
@@ -13040,8 +13063,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A145" s="151"/>
-      <c r="B145" s="171"/>
+      <c r="A145" s="153"/>
+      <c r="B145" s="170"/>
       <c r="C145" s="124">
         <v>143</v>
       </c>
@@ -13065,8 +13088,8 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A146" s="151"/>
-      <c r="B146" s="171"/>
+      <c r="A146" s="153"/>
+      <c r="B146" s="170"/>
       <c r="C146" s="124">
         <v>144</v>
       </c>
@@ -13090,8 +13113,8 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A147" s="151"/>
-      <c r="B147" s="171"/>
+      <c r="A147" s="153"/>
+      <c r="B147" s="170"/>
       <c r="C147" s="124">
         <v>145</v>
       </c>
@@ -13115,8 +13138,8 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A148" s="151"/>
-      <c r="B148" s="171"/>
+      <c r="A148" s="153"/>
+      <c r="B148" s="170"/>
       <c r="C148" s="124">
         <v>146</v>
       </c>
@@ -13140,8 +13163,8 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A149" s="151"/>
-      <c r="B149" s="171"/>
+      <c r="A149" s="153"/>
+      <c r="B149" s="170"/>
       <c r="C149" s="124">
         <v>147</v>
       </c>
@@ -13165,8 +13188,8 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A150" s="151"/>
-      <c r="B150" s="171"/>
+      <c r="A150" s="153"/>
+      <c r="B150" s="170"/>
       <c r="C150" s="124">
         <v>148</v>
       </c>
@@ -13190,8 +13213,8 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A151" s="151"/>
-      <c r="B151" s="171"/>
+      <c r="A151" s="153"/>
+      <c r="B151" s="170"/>
       <c r="C151" s="124">
         <v>149</v>
       </c>
@@ -13215,8 +13238,8 @@
       </c>
     </row>
     <row r="152" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A152" s="151"/>
-      <c r="B152" s="171"/>
+      <c r="A152" s="153"/>
+      <c r="B152" s="170"/>
       <c r="C152" s="124">
         <v>150</v>
       </c>
@@ -13240,8 +13263,8 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A153" s="151"/>
-      <c r="B153" s="171"/>
+      <c r="A153" s="153"/>
+      <c r="B153" s="170"/>
       <c r="C153" s="124">
         <v>151</v>
       </c>
@@ -13265,8 +13288,8 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A154" s="151"/>
-      <c r="B154" s="171"/>
+      <c r="A154" s="153"/>
+      <c r="B154" s="170"/>
       <c r="C154" s="124">
         <v>152</v>
       </c>
@@ -13290,8 +13313,8 @@
       </c>
     </row>
     <row r="155" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A155" s="151"/>
-      <c r="B155" s="171"/>
+      <c r="A155" s="153"/>
+      <c r="B155" s="170"/>
       <c r="C155" s="124">
         <v>153</v>
       </c>
@@ -13315,8 +13338,8 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A156" s="151"/>
-      <c r="B156" s="171"/>
+      <c r="A156" s="153"/>
+      <c r="B156" s="170"/>
       <c r="C156" s="124">
         <v>154</v>
       </c>
@@ -13340,8 +13363,8 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A157" s="151"/>
-      <c r="B157" s="171"/>
+      <c r="A157" s="153"/>
+      <c r="B157" s="170"/>
       <c r="C157" s="124">
         <v>155</v>
       </c>
@@ -13365,8 +13388,8 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A158" s="151"/>
-      <c r="B158" s="171"/>
+      <c r="A158" s="153"/>
+      <c r="B158" s="170"/>
       <c r="C158" s="124">
         <v>156</v>
       </c>
@@ -13390,8 +13413,8 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A159" s="151"/>
-      <c r="B159" s="171"/>
+      <c r="A159" s="153"/>
+      <c r="B159" s="170"/>
       <c r="C159" s="124">
         <v>157</v>
       </c>
@@ -13415,8 +13438,8 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A160" s="151"/>
-      <c r="B160" s="171"/>
+      <c r="A160" s="153"/>
+      <c r="B160" s="170"/>
       <c r="C160" s="124">
         <v>158</v>
       </c>
@@ -13440,8 +13463,8 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A161" s="151"/>
-      <c r="B161" s="171"/>
+      <c r="A161" s="153"/>
+      <c r="B161" s="170"/>
       <c r="C161" s="124">
         <v>159</v>
       </c>
@@ -13465,8 +13488,8 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A162" s="151"/>
-      <c r="B162" s="171"/>
+      <c r="A162" s="153"/>
+      <c r="B162" s="170"/>
       <c r="C162" s="124">
         <v>160</v>
       </c>
@@ -13490,8 +13513,8 @@
       </c>
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A163" s="151"/>
-      <c r="B163" s="171"/>
+      <c r="A163" s="153"/>
+      <c r="B163" s="170"/>
       <c r="C163" s="124">
         <v>161</v>
       </c>
@@ -13515,8 +13538,8 @@
       </c>
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A164" s="151"/>
-      <c r="B164" s="171"/>
+      <c r="A164" s="153"/>
+      <c r="B164" s="170"/>
       <c r="C164" s="124">
         <v>162</v>
       </c>
@@ -13540,8 +13563,8 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A165" s="151"/>
-      <c r="B165" s="171"/>
+      <c r="A165" s="153"/>
+      <c r="B165" s="170"/>
       <c r="C165" s="124">
         <v>163</v>
       </c>
@@ -13565,8 +13588,8 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A166" s="151"/>
-      <c r="B166" s="171"/>
+      <c r="A166" s="153"/>
+      <c r="B166" s="170"/>
       <c r="C166" s="124">
         <v>164</v>
       </c>
@@ -13590,8 +13613,8 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A167" s="151"/>
-      <c r="B167" s="171"/>
+      <c r="A167" s="153"/>
+      <c r="B167" s="170"/>
       <c r="C167" s="124">
         <v>165</v>
       </c>
@@ -13615,8 +13638,8 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A168" s="151"/>
-      <c r="B168" s="171"/>
+      <c r="A168" s="153"/>
+      <c r="B168" s="170"/>
       <c r="C168" s="124">
         <v>166</v>
       </c>
@@ -13640,8 +13663,8 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A169" s="151"/>
-      <c r="B169" s="171"/>
+      <c r="A169" s="153"/>
+      <c r="B169" s="170"/>
       <c r="C169" s="124">
         <v>167</v>
       </c>
@@ -13665,8 +13688,8 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A170" s="151"/>
-      <c r="B170" s="171"/>
+      <c r="A170" s="153"/>
+      <c r="B170" s="170"/>
       <c r="C170" s="124">
         <v>168</v>
       </c>
@@ -13690,8 +13713,8 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A171" s="151"/>
-      <c r="B171" s="171"/>
+      <c r="A171" s="153"/>
+      <c r="B171" s="170"/>
       <c r="C171" s="124">
         <v>169</v>
       </c>
@@ -13715,8 +13738,8 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A172" s="151"/>
-      <c r="B172" s="171"/>
+      <c r="A172" s="153"/>
+      <c r="B172" s="170"/>
       <c r="C172" s="124">
         <v>170</v>
       </c>
@@ -13740,8 +13763,8 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A173" s="151"/>
-      <c r="B173" s="171"/>
+      <c r="A173" s="153"/>
+      <c r="B173" s="170"/>
       <c r="C173" s="124">
         <v>171</v>
       </c>
@@ -13765,8 +13788,8 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A174" s="151"/>
-      <c r="B174" s="154" t="s">
+      <c r="A174" s="153"/>
+      <c r="B174" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="124">
@@ -13792,8 +13815,8 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A175" s="151"/>
-      <c r="B175" s="171"/>
+      <c r="A175" s="153"/>
+      <c r="B175" s="170"/>
       <c r="C175" s="124">
         <v>173</v>
       </c>
@@ -13817,8 +13840,8 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A176" s="151"/>
-      <c r="B176" s="171"/>
+      <c r="A176" s="153"/>
+      <c r="B176" s="170"/>
       <c r="C176" s="124">
         <v>174</v>
       </c>
@@ -13842,8 +13865,8 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A177" s="151"/>
-      <c r="B177" s="171"/>
+      <c r="A177" s="153"/>
+      <c r="B177" s="170"/>
       <c r="C177" s="124">
         <v>175</v>
       </c>
@@ -13867,8 +13890,8 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A178" s="151"/>
-      <c r="B178" s="171"/>
+      <c r="A178" s="153"/>
+      <c r="B178" s="170"/>
       <c r="C178" s="124">
         <v>176</v>
       </c>
@@ -13892,8 +13915,8 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A179" s="151"/>
-      <c r="B179" s="171"/>
+      <c r="A179" s="153"/>
+      <c r="B179" s="170"/>
       <c r="C179" s="124">
         <v>177</v>
       </c>
@@ -13917,8 +13940,8 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A180" s="151"/>
-      <c r="B180" s="171"/>
+      <c r="A180" s="153"/>
+      <c r="B180" s="170"/>
       <c r="C180" s="124">
         <v>178</v>
       </c>
@@ -13942,8 +13965,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A181" s="172"/>
-      <c r="B181" s="173"/>
+      <c r="A181" s="171"/>
+      <c r="B181" s="172"/>
       <c r="C181" s="125">
         <v>179</v>
       </c>
@@ -14023,10 +14046,10 @@
       <c r="A186" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B186" s="175" t="s">
+      <c r="B186" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="C186" s="170"/>
+      <c r="C186" s="168"/>
       <c r="G186" s="63"/>
       <c r="I186"/>
     </row>
@@ -14034,10 +14057,10 @@
       <c r="A187" s="2">
         <v>0</v>
       </c>
-      <c r="B187" s="169" t="s">
+      <c r="B187" s="167" t="s">
         <v>209</v>
       </c>
-      <c r="C187" s="170"/>
+      <c r="C187" s="168"/>
       <c r="G187" s="63"/>
       <c r="I187"/>
     </row>
@@ -14045,10 +14068,10 @@
       <c r="A188" s="2">
         <v>1</v>
       </c>
-      <c r="B188" s="169" t="s">
+      <c r="B188" s="167" t="s">
         <v>210</v>
       </c>
-      <c r="C188" s="170"/>
+      <c r="C188" s="168"/>
       <c r="G188" s="63"/>
       <c r="I188"/>
     </row>
@@ -14056,10 +14079,10 @@
       <c r="A189" s="2">
         <v>2</v>
       </c>
-      <c r="B189" s="169" t="s">
+      <c r="B189" s="167" t="s">
         <v>211</v>
       </c>
-      <c r="C189" s="170"/>
+      <c r="C189" s="168"/>
       <c r="G189" s="63"/>
       <c r="I189"/>
     </row>
@@ -14067,10 +14090,10 @@
       <c r="A190" s="2">
         <v>3</v>
       </c>
-      <c r="B190" s="169" t="s">
+      <c r="B190" s="167" t="s">
         <v>212</v>
       </c>
-      <c r="C190" s="170"/>
+      <c r="C190" s="168"/>
       <c r="G190" s="63"/>
       <c r="I190"/>
     </row>
@@ -14078,10 +14101,10 @@
       <c r="A191" s="2">
         <v>4</v>
       </c>
-      <c r="B191" s="169" t="s">
+      <c r="B191" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="C191" s="170"/>
+      <c r="C191" s="168"/>
       <c r="G191" s="63"/>
       <c r="I191"/>
     </row>
@@ -14089,10 +14112,10 @@
       <c r="A192" s="2">
         <v>5</v>
       </c>
-      <c r="B192" s="169" t="s">
+      <c r="B192" s="167" t="s">
         <v>214</v>
       </c>
-      <c r="C192" s="170"/>
+      <c r="C192" s="168"/>
       <c r="G192" s="63"/>
       <c r="I192"/>
     </row>
@@ -14100,10 +14123,10 @@
       <c r="A193" s="2">
         <v>6</v>
       </c>
-      <c r="B193" s="169" t="s">
+      <c r="B193" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="C193" s="170"/>
+      <c r="C193" s="168"/>
       <c r="G193" s="63"/>
       <c r="I193"/>
     </row>
@@ -14111,10 +14134,10 @@
       <c r="A194" s="2">
         <v>7</v>
       </c>
-      <c r="B194" s="169" t="s">
+      <c r="B194" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="C194" s="170"/>
+      <c r="C194" s="168"/>
       <c r="G194" s="63"/>
       <c r="I194"/>
     </row>
@@ -14122,10 +14145,10 @@
       <c r="A195" s="2">
         <v>8</v>
       </c>
-      <c r="B195" s="169" t="s">
+      <c r="B195" s="167" t="s">
         <v>217</v>
       </c>
-      <c r="C195" s="170"/>
+      <c r="C195" s="168"/>
       <c r="G195" s="63"/>
       <c r="I195"/>
     </row>
@@ -14133,10 +14156,10 @@
       <c r="A196" s="2">
         <v>9</v>
       </c>
-      <c r="B196" s="169" t="s">
+      <c r="B196" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="C196" s="170"/>
+      <c r="C196" s="168"/>
       <c r="G196" s="63"/>
       <c r="I196"/>
     </row>
@@ -14144,10 +14167,10 @@
       <c r="A197" s="2">
         <v>10</v>
       </c>
-      <c r="B197" s="169" t="s">
+      <c r="B197" s="167" t="s">
         <v>219</v>
       </c>
-      <c r="C197" s="170"/>
+      <c r="C197" s="168"/>
       <c r="G197" s="63"/>
       <c r="I197"/>
     </row>
@@ -14155,10 +14178,10 @@
       <c r="A198" s="2">
         <v>11</v>
       </c>
-      <c r="B198" s="169" t="s">
+      <c r="B198" s="167" t="s">
         <v>220</v>
       </c>
-      <c r="C198" s="170"/>
+      <c r="C198" s="168"/>
       <c r="G198" s="63"/>
       <c r="I198"/>
     </row>
@@ -14166,10 +14189,10 @@
       <c r="A199" s="2">
         <v>12</v>
       </c>
-      <c r="B199" s="169" t="s">
+      <c r="B199" s="167" t="s">
         <v>221</v>
       </c>
-      <c r="C199" s="170"/>
+      <c r="C199" s="168"/>
       <c r="G199" s="63"/>
       <c r="I199"/>
     </row>
@@ -14177,50 +14200,42 @@
       <c r="A200" s="2">
         <v>13</v>
       </c>
-      <c r="B200" s="169" t="s">
+      <c r="B200" s="167" t="s">
         <v>222</v>
       </c>
-      <c r="C200" s="170"/>
+      <c r="C200" s="168"/>
       <c r="I200"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2">
         <v>14</v>
       </c>
-      <c r="B201" s="175" t="s">
+      <c r="B201" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="C201" s="170"/>
+      <c r="C201" s="168"/>
       <c r="I201"/>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2">
         <v>15</v>
       </c>
-      <c r="B202" s="175" t="s">
+      <c r="B202" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="C202" s="170"/>
+      <c r="C202" s="168"/>
       <c r="I202"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:A49"/>
@@ -14237,14 +14252,22 @@
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B41"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B197:C197"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14278,35 +14301,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="180" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="182" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="181" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="182" t="s">
+      <c r="E1" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="F1" s="178" t="s">
         <v>536</v>
       </c>
-      <c r="G1" s="187" t="s">
+      <c r="G1" s="176" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="187"/>
-      <c r="I1" s="188"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="177"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="190"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="98" t="s">
         <v>270</v>
       </c>
@@ -14318,10 +14341,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="160" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="102">
@@ -14347,8 +14370,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="181"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="188"/>
       <c r="C4" s="102">
         <v>1</v>
       </c>
@@ -14372,8 +14395,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="181"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="102">
         <v>2</v>
       </c>
@@ -14397,8 +14420,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="181"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="102">
         <v>3</v>
       </c>
@@ -14422,8 +14445,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="102">
         <v>4</v>
       </c>
@@ -14447,8 +14470,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="181"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="102">
         <v>5</v>
       </c>
@@ -14472,8 +14495,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="177" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="184" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="102">
@@ -14499,8 +14522,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="177"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="102">
         <v>7</v>
       </c>
@@ -14524,8 +14547,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="184"/>
       <c r="C11" s="102">
         <v>8</v>
       </c>
@@ -14549,8 +14572,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="102">
         <v>9</v>
       </c>
@@ -14574,8 +14597,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="177"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="102">
         <v>10</v>
       </c>
@@ -14599,8 +14622,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="177"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="102">
         <v>11</v>
       </c>
@@ -14624,8 +14647,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="102">
         <v>12</v>
       </c>
@@ -14649,8 +14672,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="177"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="102">
         <v>13</v>
       </c>
@@ -14674,8 +14697,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="177"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="102">
         <v>14</v>
       </c>
@@ -14699,8 +14722,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="177"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="102">
         <v>15</v>
       </c>
@@ -14724,8 +14747,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="177"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="184"/>
       <c r="C19" s="102">
         <v>16</v>
       </c>
@@ -14749,8 +14772,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="177"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="184"/>
       <c r="C20" s="102">
         <v>17</v>
       </c>
@@ -14774,8 +14797,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="184"/>
       <c r="C21" s="102">
         <v>18</v>
       </c>
@@ -14799,8 +14822,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="102">
         <v>19</v>
       </c>
@@ -14824,8 +14847,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="177"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="184"/>
       <c r="C23" s="102">
         <v>20</v>
       </c>
@@ -14849,8 +14872,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="102">
         <v>21</v>
       </c>
@@ -14874,8 +14897,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="177"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="102">
         <v>22</v>
       </c>
@@ -14899,8 +14922,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="184"/>
       <c r="C26" s="102">
         <v>23</v>
       </c>
@@ -14924,10 +14947,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="160" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="184" t="s">
         <v>363</v>
       </c>
       <c r="C27" s="102">
@@ -14953,8 +14976,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="185"/>
       <c r="C28" s="102">
         <v>25</v>
       </c>
@@ -14978,8 +15001,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="185"/>
       <c r="C29" s="102">
         <v>26</v>
       </c>
@@ -15003,8 +15026,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="186"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="185"/>
       <c r="C30" s="102">
         <v>27</v>
       </c>
@@ -15028,8 +15051,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="163"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="185"/>
       <c r="C31" s="102">
         <v>28</v>
       </c>
@@ -15053,8 +15076,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
-      <c r="A32" s="163"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="185"/>
       <c r="C32" s="102">
         <v>29</v>
       </c>
@@ -15078,8 +15101,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
-      <c r="A33" s="163"/>
-      <c r="B33" s="177" t="s">
+      <c r="A33" s="160"/>
+      <c r="B33" s="184" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="102">
@@ -15105,8 +15128,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1">
-      <c r="A34" s="163"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="160"/>
+      <c r="B34" s="184"/>
       <c r="C34" s="102">
         <v>31</v>
       </c>
@@ -15130,8 +15153,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="177"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="102">
         <v>32</v>
       </c>
@@ -15155,8 +15178,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1">
-      <c r="A36" s="163"/>
-      <c r="B36" s="177"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="102">
         <v>33</v>
       </c>
@@ -15180,8 +15203,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="177"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="102">
         <v>34</v>
       </c>
@@ -15205,8 +15228,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1">
-      <c r="A38" s="163"/>
-      <c r="B38" s="177"/>
+      <c r="A38" s="160"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="102">
         <v>35</v>
       </c>
@@ -15230,8 +15253,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="177"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="102">
         <v>36</v>
       </c>
@@ -15255,8 +15278,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="163"/>
-      <c r="B40" s="177"/>
+      <c r="A40" s="160"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="102">
         <v>37</v>
       </c>
@@ -15280,8 +15303,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1">
-      <c r="A41" s="163"/>
-      <c r="B41" s="177"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="102">
         <v>38</v>
       </c>
@@ -15305,8 +15328,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1">
-      <c r="A42" s="163"/>
-      <c r="B42" s="177"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="102">
         <v>39</v>
       </c>
@@ -15330,8 +15353,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1">
-      <c r="A43" s="163"/>
-      <c r="B43" s="177"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="184"/>
       <c r="C43" s="102">
         <v>40</v>
       </c>
@@ -15355,8 +15378,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1">
-      <c r="A44" s="163"/>
-      <c r="B44" s="177"/>
+      <c r="A44" s="160"/>
+      <c r="B44" s="184"/>
       <c r="C44" s="102">
         <v>41</v>
       </c>
@@ -15380,8 +15403,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1">
-      <c r="A45" s="163"/>
-      <c r="B45" s="177"/>
+      <c r="A45" s="160"/>
+      <c r="B45" s="184"/>
       <c r="C45" s="102">
         <v>42</v>
       </c>
@@ -15405,8 +15428,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1">
-      <c r="A46" s="163"/>
-      <c r="B46" s="177"/>
+      <c r="A46" s="160"/>
+      <c r="B46" s="184"/>
       <c r="C46" s="102">
         <v>43</v>
       </c>
@@ -15430,8 +15453,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1">
-      <c r="A47" s="163"/>
-      <c r="B47" s="177"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="102">
         <v>44</v>
       </c>
@@ -15455,8 +15478,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" customHeight="1">
-      <c r="A48" s="163"/>
-      <c r="B48" s="177"/>
+      <c r="A48" s="160"/>
+      <c r="B48" s="184"/>
       <c r="C48" s="102">
         <v>45</v>
       </c>
@@ -15480,8 +15503,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1">
-      <c r="A49" s="163"/>
-      <c r="B49" s="177"/>
+      <c r="A49" s="160"/>
+      <c r="B49" s="184"/>
       <c r="C49" s="102">
         <v>46</v>
       </c>
@@ -15505,8 +15528,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1">
-      <c r="A50" s="163"/>
-      <c r="B50" s="177"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="184"/>
       <c r="C50" s="102">
         <v>47</v>
       </c>
@@ -15530,8 +15553,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1">
-      <c r="A51" s="163"/>
-      <c r="B51" s="177"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="184"/>
       <c r="C51" s="102">
         <v>48</v>
       </c>
@@ -15555,8 +15578,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1">
-      <c r="A52" s="163"/>
-      <c r="B52" s="177"/>
+      <c r="A52" s="160"/>
+      <c r="B52" s="184"/>
       <c r="C52" s="102">
         <v>49</v>
       </c>
@@ -15580,8 +15603,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1">
-      <c r="A53" s="163"/>
-      <c r="B53" s="177"/>
+      <c r="A53" s="160"/>
+      <c r="B53" s="184"/>
       <c r="C53" s="102">
         <v>50</v>
       </c>
@@ -15605,8 +15628,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1">
-      <c r="A54" s="163"/>
-      <c r="B54" s="177"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="184"/>
       <c r="C54" s="102">
         <v>51</v>
       </c>
@@ -15630,8 +15653,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1">
-      <c r="A55" s="163"/>
-      <c r="B55" s="177"/>
+      <c r="A55" s="160"/>
+      <c r="B55" s="184"/>
       <c r="C55" s="102">
         <v>52</v>
       </c>
@@ -15655,8 +15678,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1">
-      <c r="A56" s="163"/>
-      <c r="B56" s="177"/>
+      <c r="A56" s="160"/>
+      <c r="B56" s="184"/>
       <c r="C56" s="102">
         <v>53</v>
       </c>
@@ -15680,8 +15703,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" customHeight="1">
-      <c r="A57" s="163"/>
-      <c r="B57" s="177"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="184"/>
       <c r="C57" s="102">
         <v>54</v>
       </c>
@@ -15705,8 +15728,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" customHeight="1">
-      <c r="A58" s="163"/>
-      <c r="B58" s="177"/>
+      <c r="A58" s="160"/>
+      <c r="B58" s="184"/>
       <c r="C58" s="102">
         <v>55</v>
       </c>
@@ -15730,8 +15753,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" customHeight="1">
-      <c r="A59" s="163"/>
-      <c r="B59" s="177"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="184"/>
       <c r="C59" s="102">
         <v>56</v>
       </c>
@@ -15755,8 +15778,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" customHeight="1">
-      <c r="A60" s="163"/>
-      <c r="B60" s="177"/>
+      <c r="A60" s="160"/>
+      <c r="B60" s="184"/>
       <c r="C60" s="102">
         <v>57</v>
       </c>
@@ -15780,8 +15803,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1">
-      <c r="A61" s="185"/>
-      <c r="B61" s="184"/>
+      <c r="A61" s="190"/>
+      <c r="B61" s="189"/>
       <c r="C61" s="102">
         <v>58</v>
       </c>
@@ -15805,8 +15828,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" customHeight="1">
-      <c r="A62" s="185"/>
-      <c r="B62" s="184"/>
+      <c r="A62" s="190"/>
+      <c r="B62" s="189"/>
       <c r="C62" s="102">
         <v>59</v>
       </c>
@@ -15830,10 +15853,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" customHeight="1">
-      <c r="A63" s="163" t="s">
+      <c r="A63" s="160" t="s">
         <v>502</v>
       </c>
-      <c r="B63" s="177" t="s">
+      <c r="B63" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="102">
@@ -15859,8 +15882,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" customHeight="1">
-      <c r="A64" s="163"/>
-      <c r="B64" s="186"/>
+      <c r="A64" s="160"/>
+      <c r="B64" s="185"/>
       <c r="C64" s="102">
         <v>61</v>
       </c>
@@ -15884,8 +15907,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" customHeight="1">
-      <c r="A65" s="163"/>
-      <c r="B65" s="186"/>
+      <c r="A65" s="160"/>
+      <c r="B65" s="185"/>
       <c r="C65" s="102">
         <v>62</v>
       </c>
@@ -15909,8 +15932,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" customHeight="1">
-      <c r="A66" s="163"/>
-      <c r="B66" s="186"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="185"/>
       <c r="C66" s="102">
         <v>63</v>
       </c>
@@ -15934,8 +15957,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1">
-      <c r="A67" s="163"/>
-      <c r="B67" s="186"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="185"/>
       <c r="C67" s="102">
         <v>64</v>
       </c>
@@ -15959,8 +15982,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" customHeight="1">
-      <c r="A68" s="163"/>
-      <c r="B68" s="186"/>
+      <c r="A68" s="160"/>
+      <c r="B68" s="185"/>
       <c r="C68" s="102">
         <v>65</v>
       </c>
@@ -15984,8 +16007,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1">
-      <c r="A69" s="163"/>
-      <c r="B69" s="177" t="s">
+      <c r="A69" s="160"/>
+      <c r="B69" s="184" t="s">
         <v>206</v>
       </c>
       <c r="C69" s="102">
@@ -16011,8 +16034,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" customHeight="1">
-      <c r="A70" s="163"/>
-      <c r="B70" s="177"/>
+      <c r="A70" s="160"/>
+      <c r="B70" s="184"/>
       <c r="C70" s="102">
         <v>67</v>
       </c>
@@ -16036,8 +16059,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" customHeight="1">
-      <c r="A71" s="163"/>
-      <c r="B71" s="177"/>
+      <c r="A71" s="160"/>
+      <c r="B71" s="184"/>
       <c r="C71" s="102">
         <v>68</v>
       </c>
@@ -16061,8 +16084,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" customHeight="1">
-      <c r="A72" s="163"/>
-      <c r="B72" s="177"/>
+      <c r="A72" s="160"/>
+      <c r="B72" s="184"/>
       <c r="C72" s="102">
         <v>69</v>
       </c>
@@ -16086,8 +16109,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1">
-      <c r="A73" s="163"/>
-      <c r="B73" s="177"/>
+      <c r="A73" s="160"/>
+      <c r="B73" s="184"/>
       <c r="C73" s="102">
         <v>70</v>
       </c>
@@ -16111,8 +16134,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1">
-      <c r="A74" s="163"/>
-      <c r="B74" s="177"/>
+      <c r="A74" s="160"/>
+      <c r="B74" s="184"/>
       <c r="C74" s="102">
         <v>71</v>
       </c>
@@ -16136,8 +16159,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1">
-      <c r="A75" s="163"/>
-      <c r="B75" s="177"/>
+      <c r="A75" s="160"/>
+      <c r="B75" s="184"/>
       <c r="C75" s="102">
         <v>72</v>
       </c>
@@ -16161,8 +16184,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1">
-      <c r="A76" s="163"/>
-      <c r="B76" s="177"/>
+      <c r="A76" s="160"/>
+      <c r="B76" s="184"/>
       <c r="C76" s="102">
         <v>73</v>
       </c>
@@ -16186,8 +16209,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1">
-      <c r="A77" s="163"/>
-      <c r="B77" s="177"/>
+      <c r="A77" s="160"/>
+      <c r="B77" s="184"/>
       <c r="C77" s="102">
         <v>74</v>
       </c>
@@ -16211,8 +16234,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1">
-      <c r="A78" s="163"/>
-      <c r="B78" s="177"/>
+      <c r="A78" s="160"/>
+      <c r="B78" s="184"/>
       <c r="C78" s="102">
         <v>75</v>
       </c>
@@ -16236,8 +16259,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" customHeight="1">
-      <c r="A79" s="163"/>
-      <c r="B79" s="177"/>
+      <c r="A79" s="160"/>
+      <c r="B79" s="184"/>
       <c r="C79" s="102">
         <v>76</v>
       </c>
@@ -16261,8 +16284,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" customHeight="1">
-      <c r="A80" s="163"/>
-      <c r="B80" s="177"/>
+      <c r="A80" s="160"/>
+      <c r="B80" s="184"/>
       <c r="C80" s="102">
         <v>77</v>
       </c>
@@ -16286,8 +16309,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" customHeight="1">
-      <c r="A81" s="163"/>
-      <c r="B81" s="177"/>
+      <c r="A81" s="160"/>
+      <c r="B81" s="184"/>
       <c r="C81" s="102">
         <v>78</v>
       </c>
@@ -16311,8 +16334,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" customHeight="1">
-      <c r="A82" s="163"/>
-      <c r="B82" s="177"/>
+      <c r="A82" s="160"/>
+      <c r="B82" s="184"/>
       <c r="C82" s="102">
         <v>79</v>
       </c>
@@ -16336,8 +16359,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" customHeight="1">
-      <c r="A83" s="163"/>
-      <c r="B83" s="177"/>
+      <c r="A83" s="160"/>
+      <c r="B83" s="184"/>
       <c r="C83" s="102">
         <v>80</v>
       </c>
@@ -16361,8 +16384,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" customHeight="1">
-      <c r="A84" s="163"/>
-      <c r="B84" s="177"/>
+      <c r="A84" s="160"/>
+      <c r="B84" s="184"/>
       <c r="C84" s="102">
         <v>81</v>
       </c>
@@ -16386,8 +16409,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" customHeight="1">
-      <c r="A85" s="163"/>
-      <c r="B85" s="177"/>
+      <c r="A85" s="160"/>
+      <c r="B85" s="184"/>
       <c r="C85" s="102">
         <v>82</v>
       </c>
@@ -16411,8 +16434,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="18" customHeight="1">
-      <c r="A86" s="163"/>
-      <c r="B86" s="177"/>
+      <c r="A86" s="160"/>
+      <c r="B86" s="184"/>
       <c r="C86" s="102">
         <v>83</v>
       </c>
@@ -16436,8 +16459,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" customHeight="1">
-      <c r="A87" s="163"/>
-      <c r="B87" s="177"/>
+      <c r="A87" s="160"/>
+      <c r="B87" s="184"/>
       <c r="C87" s="102">
         <v>84</v>
       </c>
@@ -16461,8 +16484,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="18" customHeight="1">
-      <c r="A88" s="163"/>
-      <c r="B88" s="177"/>
+      <c r="A88" s="160"/>
+      <c r="B88" s="184"/>
       <c r="C88" s="102">
         <v>85</v>
       </c>
@@ -16486,8 +16509,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" customHeight="1">
-      <c r="A89" s="163"/>
-      <c r="B89" s="177"/>
+      <c r="A89" s="160"/>
+      <c r="B89" s="184"/>
       <c r="C89" s="102">
         <v>86</v>
       </c>
@@ -16511,8 +16534,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="18" customHeight="1">
-      <c r="A90" s="163"/>
-      <c r="B90" s="177"/>
+      <c r="A90" s="160"/>
+      <c r="B90" s="184"/>
       <c r="C90" s="102">
         <v>87</v>
       </c>
@@ -16536,8 +16559,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="18" customHeight="1">
-      <c r="A91" s="163"/>
-      <c r="B91" s="177"/>
+      <c r="A91" s="160"/>
+      <c r="B91" s="184"/>
       <c r="C91" s="102">
         <v>88</v>
       </c>
@@ -16561,8 +16584,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="18" customHeight="1">
-      <c r="A92" s="163"/>
-      <c r="B92" s="177"/>
+      <c r="A92" s="160"/>
+      <c r="B92" s="184"/>
       <c r="C92" s="102">
         <v>89</v>
       </c>
@@ -16586,8 +16609,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" customHeight="1">
-      <c r="A93" s="163"/>
-      <c r="B93" s="177"/>
+      <c r="A93" s="160"/>
+      <c r="B93" s="184"/>
       <c r="C93" s="102">
         <v>90</v>
       </c>
@@ -16611,8 +16634,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="18" customHeight="1">
-      <c r="A94" s="163"/>
-      <c r="B94" s="177"/>
+      <c r="A94" s="160"/>
+      <c r="B94" s="184"/>
       <c r="C94" s="102">
         <v>91</v>
       </c>
@@ -16636,8 +16659,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="18" customHeight="1">
-      <c r="A95" s="163"/>
-      <c r="B95" s="177"/>
+      <c r="A95" s="160"/>
+      <c r="B95" s="184"/>
       <c r="C95" s="102">
         <v>92</v>
       </c>
@@ -16661,8 +16684,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="18" customHeight="1">
-      <c r="A96" s="163"/>
-      <c r="B96" s="177"/>
+      <c r="A96" s="160"/>
+      <c r="B96" s="184"/>
       <c r="C96" s="102">
         <v>93</v>
       </c>
@@ -16686,8 +16709,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="18" customHeight="1">
-      <c r="A97" s="185"/>
-      <c r="B97" s="184"/>
+      <c r="A97" s="190"/>
+      <c r="B97" s="189"/>
       <c r="C97" s="102">
         <v>94</v>
       </c>
@@ -16711,8 +16734,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="18" customHeight="1">
-      <c r="A98" s="185"/>
-      <c r="B98" s="184"/>
+      <c r="A98" s="190"/>
+      <c r="B98" s="189"/>
       <c r="C98" s="102">
         <v>95</v>
       </c>
@@ -16736,10 +16759,10 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="18" customHeight="1">
-      <c r="A99" s="163" t="s">
+      <c r="A99" s="160" t="s">
         <v>503</v>
       </c>
-      <c r="B99" s="177" t="s">
+      <c r="B99" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="102">
@@ -16765,8 +16788,8 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="18" customHeight="1">
-      <c r="A100" s="163"/>
-      <c r="B100" s="186"/>
+      <c r="A100" s="160"/>
+      <c r="B100" s="185"/>
       <c r="C100" s="102">
         <v>97</v>
       </c>
@@ -16790,8 +16813,8 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="18" customHeight="1">
-      <c r="A101" s="163"/>
-      <c r="B101" s="186"/>
+      <c r="A101" s="160"/>
+      <c r="B101" s="185"/>
       <c r="C101" s="102">
         <v>98</v>
       </c>
@@ -16815,8 +16838,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" customHeight="1">
-      <c r="A102" s="163"/>
-      <c r="B102" s="186"/>
+      <c r="A102" s="160"/>
+      <c r="B102" s="185"/>
       <c r="C102" s="102">
         <v>99</v>
       </c>
@@ -16840,8 +16863,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="18" customHeight="1">
-      <c r="A103" s="163"/>
-      <c r="B103" s="186"/>
+      <c r="A103" s="160"/>
+      <c r="B103" s="185"/>
       <c r="C103" s="102">
         <v>100</v>
       </c>
@@ -16865,8 +16888,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" customHeight="1">
-      <c r="A104" s="163"/>
-      <c r="B104" s="186"/>
+      <c r="A104" s="160"/>
+      <c r="B104" s="185"/>
       <c r="C104" s="102">
         <v>101</v>
       </c>
@@ -16890,8 +16913,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="18" customHeight="1">
-      <c r="A105" s="163"/>
-      <c r="B105" s="177" t="s">
+      <c r="A105" s="160"/>
+      <c r="B105" s="184" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="102">
@@ -16917,8 +16940,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="18" customHeight="1">
-      <c r="A106" s="163"/>
-      <c r="B106" s="177"/>
+      <c r="A106" s="160"/>
+      <c r="B106" s="184"/>
       <c r="C106" s="102">
         <v>103</v>
       </c>
@@ -16942,8 +16965,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="18" customHeight="1">
-      <c r="A107" s="163"/>
-      <c r="B107" s="177"/>
+      <c r="A107" s="160"/>
+      <c r="B107" s="184"/>
       <c r="C107" s="102">
         <v>104</v>
       </c>
@@ -16967,8 +16990,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="18" customHeight="1">
-      <c r="A108" s="163"/>
-      <c r="B108" s="177"/>
+      <c r="A108" s="160"/>
+      <c r="B108" s="184"/>
       <c r="C108" s="102">
         <v>105</v>
       </c>
@@ -16992,8 +17015,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="18" customHeight="1">
-      <c r="A109" s="163"/>
-      <c r="B109" s="177"/>
+      <c r="A109" s="160"/>
+      <c r="B109" s="184"/>
       <c r="C109" s="102">
         <v>106</v>
       </c>
@@ -17017,8 +17040,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" customHeight="1">
-      <c r="A110" s="163"/>
-      <c r="B110" s="177"/>
+      <c r="A110" s="160"/>
+      <c r="B110" s="184"/>
       <c r="C110" s="102">
         <v>107</v>
       </c>
@@ -17042,8 +17065,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" customHeight="1">
-      <c r="A111" s="163"/>
-      <c r="B111" s="177"/>
+      <c r="A111" s="160"/>
+      <c r="B111" s="184"/>
       <c r="C111" s="102">
         <v>108</v>
       </c>
@@ -17067,8 +17090,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" customHeight="1">
-      <c r="A112" s="163"/>
-      <c r="B112" s="177"/>
+      <c r="A112" s="160"/>
+      <c r="B112" s="184"/>
       <c r="C112" s="102">
         <v>109</v>
       </c>
@@ -17092,8 +17115,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="18" customHeight="1">
-      <c r="A113" s="163"/>
-      <c r="B113" s="177"/>
+      <c r="A113" s="160"/>
+      <c r="B113" s="184"/>
       <c r="C113" s="102">
         <v>110</v>
       </c>
@@ -17117,8 +17140,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="18" customHeight="1">
-      <c r="A114" s="163"/>
-      <c r="B114" s="177"/>
+      <c r="A114" s="160"/>
+      <c r="B114" s="184"/>
       <c r="C114" s="102">
         <v>111</v>
       </c>
@@ -17142,8 +17165,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="18" customHeight="1">
-      <c r="A115" s="163"/>
-      <c r="B115" s="177"/>
+      <c r="A115" s="160"/>
+      <c r="B115" s="184"/>
       <c r="C115" s="102">
         <v>112</v>
       </c>
@@ -17167,8 +17190,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="18" customHeight="1">
-      <c r="A116" s="163"/>
-      <c r="B116" s="177"/>
+      <c r="A116" s="160"/>
+      <c r="B116" s="184"/>
       <c r="C116" s="102">
         <v>113</v>
       </c>
@@ -17192,8 +17215,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="18" customHeight="1">
-      <c r="A117" s="163"/>
-      <c r="B117" s="177"/>
+      <c r="A117" s="160"/>
+      <c r="B117" s="184"/>
       <c r="C117" s="102">
         <v>114</v>
       </c>
@@ -17217,8 +17240,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="18" customHeight="1">
-      <c r="A118" s="163"/>
-      <c r="B118" s="177"/>
+      <c r="A118" s="160"/>
+      <c r="B118" s="184"/>
       <c r="C118" s="102">
         <v>115</v>
       </c>
@@ -17242,8 +17265,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="18" customHeight="1">
-      <c r="A119" s="163"/>
-      <c r="B119" s="177"/>
+      <c r="A119" s="160"/>
+      <c r="B119" s="184"/>
       <c r="C119" s="102">
         <v>116</v>
       </c>
@@ -17267,8 +17290,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" customHeight="1">
-      <c r="A120" s="163"/>
-      <c r="B120" s="177"/>
+      <c r="A120" s="160"/>
+      <c r="B120" s="184"/>
       <c r="C120" s="102">
         <v>117</v>
       </c>
@@ -17292,8 +17315,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="18" customHeight="1">
-      <c r="A121" s="163"/>
-      <c r="B121" s="177"/>
+      <c r="A121" s="160"/>
+      <c r="B121" s="184"/>
       <c r="C121" s="102">
         <v>118</v>
       </c>
@@ -17317,8 +17340,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="18" customHeight="1">
-      <c r="A122" s="163"/>
-      <c r="B122" s="177"/>
+      <c r="A122" s="160"/>
+      <c r="B122" s="184"/>
       <c r="C122" s="102">
         <v>119</v>
       </c>
@@ -17342,8 +17365,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="18" customHeight="1">
-      <c r="A123" s="163"/>
-      <c r="B123" s="177"/>
+      <c r="A123" s="160"/>
+      <c r="B123" s="184"/>
       <c r="C123" s="102">
         <v>120</v>
       </c>
@@ -17367,8 +17390,8 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="18" customHeight="1">
-      <c r="A124" s="163"/>
-      <c r="B124" s="177"/>
+      <c r="A124" s="160"/>
+      <c r="B124" s="184"/>
       <c r="C124" s="102">
         <v>121</v>
       </c>
@@ -17392,8 +17415,8 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="18" customHeight="1">
-      <c r="A125" s="163"/>
-      <c r="B125" s="177"/>
+      <c r="A125" s="160"/>
+      <c r="B125" s="184"/>
       <c r="C125" s="102">
         <v>122</v>
       </c>
@@ -17417,8 +17440,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="18" customHeight="1">
-      <c r="A126" s="163"/>
-      <c r="B126" s="177"/>
+      <c r="A126" s="160"/>
+      <c r="B126" s="184"/>
       <c r="C126" s="102">
         <v>123</v>
       </c>
@@ -17442,8 +17465,8 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="18" customHeight="1">
-      <c r="A127" s="163"/>
-      <c r="B127" s="177"/>
+      <c r="A127" s="160"/>
+      <c r="B127" s="184"/>
       <c r="C127" s="102">
         <v>124</v>
       </c>
@@ -17467,8 +17490,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="18" customHeight="1">
-      <c r="A128" s="163"/>
-      <c r="B128" s="177"/>
+      <c r="A128" s="160"/>
+      <c r="B128" s="184"/>
       <c r="C128" s="102">
         <v>125</v>
       </c>
@@ -17492,8 +17515,8 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="18" customHeight="1">
-      <c r="A129" s="163"/>
-      <c r="B129" s="177"/>
+      <c r="A129" s="160"/>
+      <c r="B129" s="184"/>
       <c r="C129" s="102">
         <v>126</v>
       </c>
@@ -17517,8 +17540,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" customHeight="1">
-      <c r="A130" s="163"/>
-      <c r="B130" s="177"/>
+      <c r="A130" s="160"/>
+      <c r="B130" s="184"/>
       <c r="C130" s="102">
         <v>127</v>
       </c>
@@ -17542,8 +17565,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" customHeight="1">
-      <c r="A131" s="163"/>
-      <c r="B131" s="177"/>
+      <c r="A131" s="160"/>
+      <c r="B131" s="184"/>
       <c r="C131" s="102">
         <v>128</v>
       </c>
@@ -17567,8 +17590,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" customHeight="1">
-      <c r="A132" s="163"/>
-      <c r="B132" s="177"/>
+      <c r="A132" s="160"/>
+      <c r="B132" s="184"/>
       <c r="C132" s="102">
         <v>129</v>
       </c>
@@ -17592,8 +17615,8 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" customHeight="1">
-      <c r="A133" s="185"/>
-      <c r="B133" s="184"/>
+      <c r="A133" s="190"/>
+      <c r="B133" s="189"/>
       <c r="C133" s="102">
         <v>130</v>
       </c>
@@ -17617,8 +17640,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" customHeight="1">
-      <c r="A134" s="185"/>
-      <c r="B134" s="184"/>
+      <c r="A134" s="190"/>
+      <c r="B134" s="189"/>
       <c r="C134" s="102">
         <v>131</v>
       </c>
@@ -17642,10 +17665,10 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" customHeight="1">
-      <c r="A135" s="163" t="s">
+      <c r="A135" s="160" t="s">
         <v>265</v>
       </c>
-      <c r="B135" s="177" t="s">
+      <c r="B135" s="184" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="102">
@@ -17671,8 +17694,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="18" customHeight="1">
-      <c r="A136" s="163"/>
-      <c r="B136" s="177"/>
+      <c r="A136" s="160"/>
+      <c r="B136" s="184"/>
       <c r="C136" s="102">
         <v>133</v>
       </c>
@@ -17696,8 +17719,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" customHeight="1">
-      <c r="A137" s="163"/>
-      <c r="B137" s="177"/>
+      <c r="A137" s="160"/>
+      <c r="B137" s="184"/>
       <c r="C137" s="102">
         <v>134</v>
       </c>
@@ -17719,8 +17742,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" customHeight="1">
-      <c r="A138" s="163"/>
-      <c r="B138" s="177"/>
+      <c r="A138" s="160"/>
+      <c r="B138" s="184"/>
       <c r="C138" s="102">
         <v>135</v>
       </c>
@@ -17744,8 +17767,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" customHeight="1">
-      <c r="A139" s="163"/>
-      <c r="B139" s="177"/>
+      <c r="A139" s="160"/>
+      <c r="B139" s="184"/>
       <c r="C139" s="102">
         <v>136</v>
       </c>
@@ -17769,8 +17792,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" customHeight="1">
-      <c r="A140" s="163"/>
-      <c r="B140" s="177"/>
+      <c r="A140" s="160"/>
+      <c r="B140" s="184"/>
       <c r="C140" s="102">
         <v>137</v>
       </c>
@@ -17794,8 +17817,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="18" customHeight="1">
-      <c r="A141" s="163"/>
-      <c r="B141" s="177"/>
+      <c r="A141" s="160"/>
+      <c r="B141" s="184"/>
       <c r="C141" s="102">
         <v>138</v>
       </c>
@@ -17819,8 +17842,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="18" customHeight="1">
-      <c r="A142" s="163"/>
-      <c r="B142" s="177"/>
+      <c r="A142" s="160"/>
+      <c r="B142" s="184"/>
       <c r="C142" s="102">
         <v>139</v>
       </c>
@@ -17844,8 +17867,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="18" customHeight="1">
-      <c r="A143" s="163"/>
-      <c r="B143" s="177"/>
+      <c r="A143" s="160"/>
+      <c r="B143" s="184"/>
       <c r="C143" s="102">
         <v>140</v>
       </c>
@@ -17869,8 +17892,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="18" customHeight="1">
-      <c r="A144" s="163"/>
-      <c r="B144" s="177"/>
+      <c r="A144" s="160"/>
+      <c r="B144" s="184"/>
       <c r="C144" s="102">
         <v>141</v>
       </c>
@@ -17894,8 +17917,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="18" customHeight="1">
-      <c r="A145" s="163"/>
-      <c r="B145" s="177"/>
+      <c r="A145" s="160"/>
+      <c r="B145" s="184"/>
       <c r="C145" s="102">
         <v>142</v>
       </c>
@@ -17919,8 +17942,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="18" customHeight="1">
-      <c r="A146" s="163"/>
-      <c r="B146" s="177"/>
+      <c r="A146" s="160"/>
+      <c r="B146" s="184"/>
       <c r="C146" s="102">
         <v>143</v>
       </c>
@@ -17944,8 +17967,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="18" customHeight="1">
-      <c r="A147" s="163"/>
-      <c r="B147" s="177"/>
+      <c r="A147" s="160"/>
+      <c r="B147" s="184"/>
       <c r="C147" s="102">
         <v>144</v>
       </c>
@@ -17969,8 +17992,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="18" customHeight="1">
-      <c r="A148" s="163"/>
-      <c r="B148" s="177"/>
+      <c r="A148" s="160"/>
+      <c r="B148" s="184"/>
       <c r="C148" s="102">
         <v>145</v>
       </c>
@@ -17994,8 +18017,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="18" customHeight="1">
-      <c r="A149" s="163"/>
-      <c r="B149" s="177"/>
+      <c r="A149" s="160"/>
+      <c r="B149" s="184"/>
       <c r="C149" s="102">
         <v>146</v>
       </c>
@@ -18019,8 +18042,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="18" customHeight="1">
-      <c r="A150" s="163"/>
-      <c r="B150" s="177"/>
+      <c r="A150" s="160"/>
+      <c r="B150" s="184"/>
       <c r="C150" s="102">
         <v>147</v>
       </c>
@@ -18044,8 +18067,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="18" customHeight="1">
-      <c r="A151" s="163"/>
-      <c r="B151" s="177"/>
+      <c r="A151" s="160"/>
+      <c r="B151" s="184"/>
       <c r="C151" s="102">
         <v>148</v>
       </c>
@@ -18069,8 +18092,8 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="18" customHeight="1">
-      <c r="A152" s="163"/>
-      <c r="B152" s="177"/>
+      <c r="A152" s="160"/>
+      <c r="B152" s="184"/>
       <c r="C152" s="102">
         <v>149</v>
       </c>
@@ -18094,8 +18117,8 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="18" customHeight="1">
-      <c r="A153" s="163"/>
-      <c r="B153" s="177"/>
+      <c r="A153" s="160"/>
+      <c r="B153" s="184"/>
       <c r="C153" s="102">
         <v>150</v>
       </c>
@@ -18119,8 +18142,8 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="18" customHeight="1">
-      <c r="A154" s="163"/>
-      <c r="B154" s="177"/>
+      <c r="A154" s="160"/>
+      <c r="B154" s="184"/>
       <c r="C154" s="102">
         <v>151</v>
       </c>
@@ -18144,8 +18167,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="18" customHeight="1">
-      <c r="A155" s="163"/>
-      <c r="B155" s="177"/>
+      <c r="A155" s="160"/>
+      <c r="B155" s="184"/>
       <c r="C155" s="102">
         <v>152</v>
       </c>
@@ -18169,8 +18192,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="18" customHeight="1">
-      <c r="A156" s="163"/>
-      <c r="B156" s="177"/>
+      <c r="A156" s="160"/>
+      <c r="B156" s="184"/>
       <c r="C156" s="102">
         <v>153</v>
       </c>
@@ -18194,8 +18217,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="18" customHeight="1">
-      <c r="A157" s="163"/>
-      <c r="B157" s="177"/>
+      <c r="A157" s="160"/>
+      <c r="B157" s="184"/>
       <c r="C157" s="102">
         <v>154</v>
       </c>
@@ -18219,8 +18242,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="18" customHeight="1">
-      <c r="A158" s="163"/>
-      <c r="B158" s="177"/>
+      <c r="A158" s="160"/>
+      <c r="B158" s="184"/>
       <c r="C158" s="102">
         <v>155</v>
       </c>
@@ -18244,8 +18267,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="18" customHeight="1">
-      <c r="A159" s="163"/>
-      <c r="B159" s="177"/>
+      <c r="A159" s="160"/>
+      <c r="B159" s="184"/>
       <c r="C159" s="102">
         <v>156</v>
       </c>
@@ -18269,8 +18292,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="18" customHeight="1">
-      <c r="A160" s="163"/>
-      <c r="B160" s="177"/>
+      <c r="A160" s="160"/>
+      <c r="B160" s="184"/>
       <c r="C160" s="102">
         <v>157</v>
       </c>
@@ -18294,8 +18317,8 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="18" customHeight="1">
-      <c r="A161" s="163"/>
-      <c r="B161" s="177"/>
+      <c r="A161" s="160"/>
+      <c r="B161" s="184"/>
       <c r="C161" s="102">
         <v>158</v>
       </c>
@@ -18319,8 +18342,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="18" customHeight="1">
-      <c r="A162" s="163"/>
-      <c r="B162" s="177"/>
+      <c r="A162" s="160"/>
+      <c r="B162" s="184"/>
       <c r="C162" s="102">
         <v>159</v>
       </c>
@@ -18344,8 +18367,8 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="18" customHeight="1">
-      <c r="A163" s="163"/>
-      <c r="B163" s="177"/>
+      <c r="A163" s="160"/>
+      <c r="B163" s="184"/>
       <c r="C163" s="102">
         <v>160</v>
       </c>
@@ -18369,8 +18392,8 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="18" customHeight="1">
-      <c r="A164" s="163"/>
-      <c r="B164" s="177"/>
+      <c r="A164" s="160"/>
+      <c r="B164" s="184"/>
       <c r="C164" s="102">
         <v>161</v>
       </c>
@@ -18397,8 +18420,8 @@
       <c r="L164" s="12"/>
     </row>
     <row r="165" spans="1:12" ht="18" customHeight="1">
-      <c r="A165" s="163"/>
-      <c r="B165" s="177"/>
+      <c r="A165" s="160"/>
+      <c r="B165" s="184"/>
       <c r="C165" s="102">
         <v>162</v>
       </c>
@@ -18425,8 +18448,8 @@
       <c r="L165" s="12"/>
     </row>
     <row r="166" spans="1:12" ht="18" customHeight="1">
-      <c r="A166" s="163"/>
-      <c r="B166" s="177"/>
+      <c r="A166" s="160"/>
+      <c r="B166" s="184"/>
       <c r="C166" s="102">
         <v>163</v>
       </c>
@@ -18453,8 +18476,8 @@
       <c r="L166" s="12"/>
     </row>
     <row r="167" spans="1:12" ht="18" customHeight="1">
-      <c r="A167" s="163"/>
-      <c r="B167" s="177"/>
+      <c r="A167" s="160"/>
+      <c r="B167" s="184"/>
       <c r="C167" s="102">
         <v>164</v>
       </c>
@@ -18478,8 +18501,8 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A168" s="176"/>
-      <c r="B168" s="178"/>
+      <c r="A168" s="186"/>
+      <c r="B168" s="187"/>
       <c r="C168" s="105">
         <v>165</v>
       </c>
@@ -18504,11 +18527,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B27:B32"/>
     <mergeCell ref="A135:A168"/>
     <mergeCell ref="B135:B168"/>
     <mergeCell ref="D1:D2"/>
@@ -18524,6 +18542,11 @@
     <mergeCell ref="A99:A134"/>
     <mergeCell ref="B99:B104"/>
     <mergeCell ref="B105:B134"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18555,10 +18578,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -18576,7 +18599,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="161" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -18599,7 +18622,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="164"/>
+      <c r="A3" s="161"/>
       <c r="B3" s="102" t="s">
         <v>13</v>
       </c>
@@ -18620,7 +18643,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="160" t="s">
         <v>302</v>
       </c>
       <c r="B4" s="102" t="s">
@@ -18643,8 +18666,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="164"/>
-      <c r="B5" s="166" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -18664,8 +18687,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="164"/>
-      <c r="B6" s="166"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -18683,8 +18706,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="164"/>
-      <c r="B7" s="166"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="102">
         <v>5</v>
       </c>
@@ -18702,8 +18725,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="164"/>
-      <c r="B8" s="166"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="102">
         <v>6</v>
       </c>
@@ -18721,8 +18744,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="166"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="102">
         <v>7</v>
       </c>
@@ -18740,8 +18763,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="166"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="102">
         <v>8</v>
       </c>
@@ -18759,8 +18782,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="166"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="102">
         <v>9</v>
       </c>
@@ -18778,8 +18801,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="166"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -18797,8 +18820,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="166"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -18816,8 +18839,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="166"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="102">
         <v>12</v>
       </c>
@@ -18835,10 +18858,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="160" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="163" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="102">
@@ -18858,8 +18881,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="166"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="102">
         <v>14</v>
       </c>
@@ -18877,8 +18900,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -18896,8 +18919,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="166" t="s">
+      <c r="A18" s="161"/>
+      <c r="B18" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="102">
@@ -18917,8 +18940,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="166"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="102">
         <v>17</v>
       </c>
@@ -18936,8 +18959,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="166"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="102">
         <v>18</v>
       </c>
@@ -18955,8 +18978,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="166"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="102">
         <v>19</v>
       </c>
@@ -18974,8 +18997,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -18993,10 +19016,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="163" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="102">
@@ -19016,8 +19039,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="164"/>
-      <c r="B24" s="166"/>
+      <c r="A24" s="161"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="102">
         <v>22</v>
       </c>
@@ -19035,8 +19058,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="164"/>
-      <c r="B25" s="166"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="102">
         <v>23</v>
       </c>
@@ -19054,8 +19077,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="164"/>
-      <c r="B26" s="166" t="s">
+      <c r="A26" s="161"/>
+      <c r="B26" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="102">
@@ -19075,8 +19098,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1">
-      <c r="A27" s="164"/>
-      <c r="B27" s="166"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="102">
         <v>25</v>
       </c>
@@ -19094,8 +19117,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="164"/>
-      <c r="B28" s="166"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="163"/>
       <c r="C28" s="102">
         <v>26</v>
       </c>
@@ -19113,8 +19136,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="164"/>
-      <c r="B29" s="166"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="102">
         <v>27</v>
       </c>
@@ -19132,8 +19155,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="166"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="102">
         <v>28</v>
       </c>
@@ -19151,10 +19174,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="160" t="s">
         <v>441</v>
       </c>
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="163" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="102">
@@ -19174,8 +19197,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1">
-      <c r="A32" s="164"/>
-      <c r="B32" s="166"/>
+      <c r="A32" s="161"/>
+      <c r="B32" s="163"/>
       <c r="C32" s="102">
         <v>30</v>
       </c>
@@ -19193,8 +19216,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="164"/>
-      <c r="B33" s="166"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="102">
         <v>31</v>
       </c>
@@ -19212,8 +19235,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1">
-      <c r="A34" s="164"/>
-      <c r="B34" s="166" t="s">
+      <c r="A34" s="161"/>
+      <c r="B34" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="102">
@@ -19233,8 +19256,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1">
-      <c r="A35" s="164"/>
-      <c r="B35" s="166"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="102">
         <v>33</v>
       </c>
@@ -19252,8 +19275,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1">
-      <c r="A36" s="164"/>
-      <c r="B36" s="166"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="102">
         <v>34</v>
       </c>
@@ -19271,8 +19294,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1">
-      <c r="A37" s="164"/>
-      <c r="B37" s="166"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="102">
         <v>35</v>
       </c>
@@ -19290,7 +19313,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="165"/>
+      <c r="A38" s="162"/>
       <c r="B38" s="191"/>
       <c r="C38" s="105">
         <v>36</v>
@@ -19387,7 +19410,7 @@
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="153" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -19403,7 +19426,7 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A4" s="152"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="107" t="s">
         <v>290</v>
       </c>
@@ -19433,7 +19456,7 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="153" t="s">
         <v>448</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -19449,7 +19472,7 @@
       <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="152"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="107" t="s">
         <v>526</v>
       </c>
@@ -19462,7 +19485,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A8" s="153"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="112" t="s">
         <v>527</v>
       </c>

--- a/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
+++ b/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="581">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2259,6 +2259,10 @@
   </si>
   <si>
     <t>이건 master에서 변경한것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요 셀에도 내용을 바꿔보자</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4388,35 +4392,50 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="247" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4430,14 +4449,11 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4445,26 +4461,53 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4472,45 +4515,12 @@
     <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4525,12 +4535,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="247" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="257">
@@ -6032,7 +6036,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6051,10 +6055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="161"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -6108,7 +6112,7 @@
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
       <c r="A3" s="153"/>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="156" t="s">
         <v>261</v>
       </c>
       <c r="C3" s="129">
@@ -6136,7 +6140,7 @@
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
       <c r="A4" s="153"/>
-      <c r="B4" s="150"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="129">
         <v>2</v>
       </c>
@@ -6149,10 +6153,10 @@
       <c r="F4" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="196" t="s">
+      <c r="G4" s="150" t="s">
         <v>579</v>
       </c>
-      <c r="H4" s="197"/>
+      <c r="H4" s="151"/>
       <c r="I4" s="107">
         <v>2</v>
       </c>
@@ -6162,7 +6166,7 @@
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
       <c r="A5" s="153"/>
-      <c r="B5" s="150"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="129">
         <v>3</v>
       </c>
@@ -6175,7 +6179,10 @@
       <c r="F5" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="106"/>
+      <c r="G5" s="150" t="s">
+        <v>580</v>
+      </c>
+      <c r="H5" s="151"/>
       <c r="I5" s="107">
         <v>3</v>
       </c>
@@ -6185,7 +6192,7 @@
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1">
       <c r="A6" s="153"/>
-      <c r="B6" s="150"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="129">
         <v>4</v>
       </c>
@@ -6232,10 +6239,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="159" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="129">
@@ -6260,7 +6267,7 @@
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
       <c r="A9" s="153"/>
-      <c r="B9" s="150"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="129">
         <v>7</v>
       </c>
@@ -6283,7 +6290,7 @@
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1">
       <c r="A10" s="153"/>
-      <c r="B10" s="150"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="129">
         <v>8</v>
       </c>
@@ -6306,7 +6313,7 @@
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1">
       <c r="A11" s="153"/>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="129">
@@ -6341,7 +6348,7 @@
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1">
       <c r="A12" s="153"/>
-      <c r="B12" s="150"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="129">
         <v>10</v>
       </c>
@@ -6364,16 +6371,16 @@
       <c r="K12" t="s">
         <v>552</v>
       </c>
-      <c r="L12" s="156" t="s">
+      <c r="L12" s="152" t="s">
         <v>554</v>
       </c>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="129">
@@ -6398,7 +6405,7 @@
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
       <c r="A14" s="153"/>
-      <c r="B14" s="150"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="129">
         <v>12</v>
       </c>
@@ -6421,7 +6428,7 @@
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1">
       <c r="A15" s="153"/>
-      <c r="B15" s="150"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="129">
         <v>13</v>
       </c>
@@ -6444,7 +6451,7 @@
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1">
       <c r="A16" s="153"/>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="129">
@@ -6469,7 +6476,7 @@
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="153"/>
-      <c r="B17" s="150"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="129">
         <v>15</v>
       </c>
@@ -6492,7 +6499,7 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="153"/>
-      <c r="B18" s="150"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="129">
         <v>16</v>
       </c>
@@ -6515,7 +6522,7 @@
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="153"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="129">
         <v>17</v>
       </c>
@@ -6538,7 +6545,7 @@
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="153"/>
-      <c r="B20" s="150"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="129">
         <v>18</v>
       </c>
@@ -6561,7 +6568,7 @@
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1">
       <c r="A21" s="153"/>
-      <c r="B21" s="150"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="129">
         <v>19</v>
       </c>
@@ -6584,7 +6591,7 @@
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1">
       <c r="A22" s="153"/>
-      <c r="B22" s="150"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="129">
         <v>20</v>
       </c>
@@ -6607,7 +6614,7 @@
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1">
       <c r="A23" s="153"/>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="129">
@@ -6635,7 +6642,7 @@
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1">
       <c r="A24" s="153"/>
-      <c r="B24" s="151"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="129">
         <v>22</v>
       </c>
@@ -6661,7 +6668,7 @@
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1">
       <c r="A25" s="153"/>
-      <c r="B25" s="151"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="129">
         <v>23</v>
       </c>
@@ -6687,7 +6694,7 @@
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1">
       <c r="A26" s="153"/>
-      <c r="B26" s="151"/>
+      <c r="B26" s="157"/>
       <c r="C26" s="129">
         <v>24</v>
       </c>
@@ -6713,7 +6720,7 @@
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1">
       <c r="A27" s="153"/>
-      <c r="B27" s="151"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="129">
         <v>25</v>
       </c>
@@ -6736,7 +6743,7 @@
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="151"/>
+      <c r="B28" s="157"/>
       <c r="C28" s="129">
         <v>26</v>
       </c>
@@ -6759,7 +6766,7 @@
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1">
       <c r="A29" s="153"/>
-      <c r="B29" s="151"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="129">
         <v>27</v>
       </c>
@@ -6782,7 +6789,7 @@
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1">
       <c r="A30" s="153"/>
-      <c r="B30" s="151"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="129">
         <v>28</v>
       </c>
@@ -6805,7 +6812,7 @@
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1">
       <c r="A31" s="153"/>
-      <c r="B31" s="151"/>
+      <c r="B31" s="157"/>
       <c r="C31" s="129">
         <v>29</v>
       </c>
@@ -6827,10 +6834,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="159" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="129">
@@ -6855,7 +6862,7 @@
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1">
       <c r="A33" s="153"/>
-      <c r="B33" s="150"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="129">
         <v>31</v>
       </c>
@@ -6878,7 +6885,7 @@
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1">
       <c r="A34" s="153"/>
-      <c r="B34" s="150"/>
+      <c r="B34" s="156"/>
       <c r="C34" s="129">
         <v>32</v>
       </c>
@@ -6901,7 +6908,7 @@
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1">
       <c r="A35" s="153"/>
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="129">
@@ -6929,7 +6936,7 @@
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1">
       <c r="A36" s="153"/>
-      <c r="B36" s="150"/>
+      <c r="B36" s="156"/>
       <c r="C36" s="129">
         <v>34</v>
       </c>
@@ -6952,14 +6959,14 @@
       <c r="K36" t="s">
         <v>552</v>
       </c>
-      <c r="L36" s="156" t="s">
+      <c r="L36" s="152" t="s">
         <v>560</v>
       </c>
-      <c r="M36" s="156"/>
+      <c r="M36" s="152"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1">
       <c r="A37" s="153"/>
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="129">
@@ -6990,7 +6997,7 @@
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1">
       <c r="A38" s="153"/>
-      <c r="B38" s="150"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="129">
         <v>36</v>
       </c>
@@ -7019,7 +7026,7 @@
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1">
       <c r="A39" s="153"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="129">
         <v>37</v>
       </c>
@@ -7042,7 +7049,7 @@
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
       <c r="A40" s="153"/>
-      <c r="B40" s="150"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="129">
         <v>38</v>
       </c>
@@ -7065,7 +7072,7 @@
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
       <c r="A41" s="153"/>
-      <c r="B41" s="150" t="s">
+      <c r="B41" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="129">
@@ -7090,7 +7097,7 @@
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
       <c r="A42" s="153"/>
-      <c r="B42" s="150"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="129">
         <v>40</v>
       </c>
@@ -7113,7 +7120,7 @@
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1">
       <c r="A43" s="153"/>
-      <c r="B43" s="150"/>
+      <c r="B43" s="156"/>
       <c r="C43" s="129">
         <v>41</v>
       </c>
@@ -7136,7 +7143,7 @@
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1">
       <c r="A44" s="153"/>
-      <c r="B44" s="150"/>
+      <c r="B44" s="156"/>
       <c r="C44" s="129">
         <v>42</v>
       </c>
@@ -7159,7 +7166,7 @@
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1">
       <c r="A45" s="153"/>
-      <c r="B45" s="150"/>
+      <c r="B45" s="156"/>
       <c r="C45" s="129">
         <v>43</v>
       </c>
@@ -7182,7 +7189,7 @@
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1">
       <c r="A46" s="153"/>
-      <c r="B46" s="150"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="129">
         <v>44</v>
       </c>
@@ -7205,7 +7212,7 @@
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1">
       <c r="A47" s="153"/>
-      <c r="B47" s="150"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="129">
         <v>45</v>
       </c>
@@ -7228,7 +7235,7 @@
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1">
       <c r="A48" s="153"/>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="129">
@@ -7253,7 +7260,7 @@
     </row>
     <row r="49" spans="1:16" ht="18" customHeight="1">
       <c r="A49" s="153"/>
-      <c r="B49" s="151"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="129">
         <v>47</v>
       </c>
@@ -7276,7 +7283,7 @@
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1">
       <c r="A50" s="153"/>
-      <c r="B50" s="151"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="129">
         <v>48</v>
       </c>
@@ -7299,7 +7306,7 @@
     </row>
     <row r="51" spans="1:16" ht="18" customHeight="1">
       <c r="A51" s="153"/>
-      <c r="B51" s="151"/>
+      <c r="B51" s="157"/>
       <c r="C51" s="129">
         <v>49</v>
       </c>
@@ -7322,7 +7329,7 @@
     </row>
     <row r="52" spans="1:16" ht="18" customHeight="1">
       <c r="A52" s="153"/>
-      <c r="B52" s="151"/>
+      <c r="B52" s="157"/>
       <c r="C52" s="129">
         <v>50</v>
       </c>
@@ -7345,7 +7352,7 @@
     </row>
     <row r="53" spans="1:16" ht="18" customHeight="1">
       <c r="A53" s="153"/>
-      <c r="B53" s="151"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="129">
         <v>51</v>
       </c>
@@ -7367,10 +7374,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="152" t="s">
+      <c r="A54" s="159" t="s">
         <v>346</v>
       </c>
-      <c r="B54" s="150" t="s">
+      <c r="B54" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="129">
@@ -7395,7 +7402,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="153"/>
-      <c r="B55" s="150"/>
+      <c r="B55" s="156"/>
       <c r="C55" s="129">
         <v>53</v>
       </c>
@@ -7418,7 +7425,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="153"/>
-      <c r="B56" s="150"/>
+      <c r="B56" s="156"/>
       <c r="C56" s="129">
         <v>54</v>
       </c>
@@ -7441,7 +7448,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="153"/>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="129">
@@ -7476,7 +7483,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="153"/>
-      <c r="B58" s="150"/>
+      <c r="B58" s="156"/>
       <c r="C58" s="129">
         <v>56</v>
       </c>
@@ -7499,15 +7506,15 @@
       <c r="K58" t="s">
         <v>570</v>
       </c>
-      <c r="L58" s="156" t="s">
+      <c r="L58" s="152" t="s">
         <v>571</v>
       </c>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="153"/>
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="129">
@@ -7538,7 +7545,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="153"/>
-      <c r="B60" s="150"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="129">
         <v>58</v>
       </c>
@@ -7567,7 +7574,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="153"/>
-      <c r="B61" s="150"/>
+      <c r="B61" s="156"/>
       <c r="C61" s="129">
         <v>59</v>
       </c>
@@ -7590,7 +7597,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="153"/>
-      <c r="B62" s="150"/>
+      <c r="B62" s="156"/>
       <c r="C62" s="129">
         <v>60</v>
       </c>
@@ -7613,7 +7620,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="153"/>
-      <c r="B63" s="150" t="s">
+      <c r="B63" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="129">
@@ -7638,7 +7645,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="153"/>
-      <c r="B64" s="150"/>
+      <c r="B64" s="156"/>
       <c r="C64" s="129">
         <v>62</v>
       </c>
@@ -7661,7 +7668,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="153"/>
-      <c r="B65" s="150"/>
+      <c r="B65" s="156"/>
       <c r="C65" s="129">
         <v>63</v>
       </c>
@@ -7684,7 +7691,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="153"/>
-      <c r="B66" s="150"/>
+      <c r="B66" s="156"/>
       <c r="C66" s="129">
         <v>64</v>
       </c>
@@ -7707,7 +7714,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="153"/>
-      <c r="B67" s="150"/>
+      <c r="B67" s="156"/>
       <c r="C67" s="129">
         <v>65</v>
       </c>
@@ -7730,7 +7737,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="153"/>
-      <c r="B68" s="150"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="129">
         <v>66</v>
       </c>
@@ -7753,7 +7760,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="153"/>
-      <c r="B69" s="150"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="129">
         <v>67</v>
       </c>
@@ -7776,7 +7783,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="153"/>
-      <c r="B70" s="150" t="s">
+      <c r="B70" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="129">
@@ -7801,7 +7808,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="153"/>
-      <c r="B71" s="151"/>
+      <c r="B71" s="157"/>
       <c r="C71" s="129">
         <v>69</v>
       </c>
@@ -7824,7 +7831,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="153"/>
-      <c r="B72" s="151"/>
+      <c r="B72" s="157"/>
       <c r="C72" s="129">
         <v>70</v>
       </c>
@@ -7847,7 +7854,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="153"/>
-      <c r="B73" s="151"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="129">
         <v>71</v>
       </c>
@@ -7870,7 +7877,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="153"/>
-      <c r="B74" s="151"/>
+      <c r="B74" s="157"/>
       <c r="C74" s="129">
         <v>72</v>
       </c>
@@ -7893,7 +7900,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="153"/>
-      <c r="B75" s="151"/>
+      <c r="B75" s="157"/>
       <c r="C75" s="129">
         <v>73</v>
       </c>
@@ -7915,10 +7922,10 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A76" s="152" t="s">
+      <c r="A76" s="159" t="s">
         <v>440</v>
       </c>
-      <c r="B76" s="150" t="s">
+      <c r="B76" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="129">
@@ -7943,7 +7950,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="153"/>
-      <c r="B77" s="150"/>
+      <c r="B77" s="156"/>
       <c r="C77" s="129">
         <v>75</v>
       </c>
@@ -7966,7 +7973,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="153"/>
-      <c r="B78" s="150"/>
+      <c r="B78" s="156"/>
       <c r="C78" s="129">
         <v>76</v>
       </c>
@@ -7989,7 +7996,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="153"/>
-      <c r="B79" s="150" t="s">
+      <c r="B79" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="129">
@@ -8024,7 +8031,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="153"/>
-      <c r="B80" s="150"/>
+      <c r="B80" s="156"/>
       <c r="C80" s="129">
         <v>78</v>
       </c>
@@ -8047,15 +8054,15 @@
       <c r="K80" t="s">
         <v>570</v>
       </c>
-      <c r="L80" s="156" t="s">
+      <c r="L80" s="152" t="s">
         <v>571</v>
       </c>
-      <c r="M80" s="156"/>
-      <c r="N80" s="156"/>
+      <c r="M80" s="152"/>
+      <c r="N80" s="152"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="153"/>
-      <c r="B81" s="150" t="s">
+      <c r="B81" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="129">
@@ -8086,7 +8093,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="153"/>
-      <c r="B82" s="150"/>
+      <c r="B82" s="156"/>
       <c r="C82" s="129">
         <v>80</v>
       </c>
@@ -8115,7 +8122,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="153"/>
-      <c r="B83" s="150"/>
+      <c r="B83" s="156"/>
       <c r="C83" s="129">
         <v>81</v>
       </c>
@@ -8138,7 +8145,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="153"/>
-      <c r="B84" s="150"/>
+      <c r="B84" s="156"/>
       <c r="C84" s="129">
         <v>82</v>
       </c>
@@ -8161,7 +8168,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="153"/>
-      <c r="B85" s="150" t="s">
+      <c r="B85" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="129">
@@ -8186,7 +8193,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="153"/>
-      <c r="B86" s="150"/>
+      <c r="B86" s="156"/>
       <c r="C86" s="129">
         <v>84</v>
       </c>
@@ -8209,7 +8216,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="153"/>
-      <c r="B87" s="150"/>
+      <c r="B87" s="156"/>
       <c r="C87" s="129">
         <v>85</v>
       </c>
@@ -8232,7 +8239,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="153"/>
-      <c r="B88" s="150"/>
+      <c r="B88" s="156"/>
       <c r="C88" s="129">
         <v>86</v>
       </c>
@@ -8255,7 +8262,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="153"/>
-      <c r="B89" s="150"/>
+      <c r="B89" s="156"/>
       <c r="C89" s="129">
         <v>87</v>
       </c>
@@ -8278,7 +8285,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="153"/>
-      <c r="B90" s="150"/>
+      <c r="B90" s="156"/>
       <c r="C90" s="129">
         <v>88</v>
       </c>
@@ -8301,7 +8308,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="153"/>
-      <c r="B91" s="150"/>
+      <c r="B91" s="156"/>
       <c r="C91" s="129">
         <v>89</v>
       </c>
@@ -8324,7 +8331,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="153"/>
-      <c r="B92" s="150" t="s">
+      <c r="B92" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="129">
@@ -8349,7 +8356,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="153"/>
-      <c r="B93" s="151"/>
+      <c r="B93" s="157"/>
       <c r="C93" s="129">
         <v>91</v>
       </c>
@@ -8372,7 +8379,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="153"/>
-      <c r="B94" s="151"/>
+      <c r="B94" s="157"/>
       <c r="C94" s="129">
         <v>92</v>
       </c>
@@ -8395,7 +8402,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="153"/>
-      <c r="B95" s="151"/>
+      <c r="B95" s="157"/>
       <c r="C95" s="129">
         <v>93</v>
       </c>
@@ -8418,7 +8425,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="153"/>
-      <c r="B96" s="151"/>
+      <c r="B96" s="157"/>
       <c r="C96" s="129">
         <v>94</v>
       </c>
@@ -8441,7 +8448,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="153"/>
-      <c r="B97" s="151"/>
+      <c r="B97" s="157"/>
       <c r="C97" s="129">
         <v>95</v>
       </c>
@@ -8466,7 +8473,7 @@
       <c r="A98" s="153" t="s">
         <v>538</v>
       </c>
-      <c r="B98" s="150" t="s">
+      <c r="B98" s="156" t="s">
         <v>539</v>
       </c>
       <c r="C98" s="129">
@@ -8490,8 +8497,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="157"/>
-      <c r="B99" s="151"/>
+      <c r="A99" s="154"/>
+      <c r="B99" s="157"/>
       <c r="C99" s="129">
         <v>97</v>
       </c>
@@ -8513,8 +8520,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A100" s="158"/>
-      <c r="B100" s="159"/>
+      <c r="A100" s="155"/>
+      <c r="B100" s="158"/>
       <c r="C100" s="112">
         <v>98</v>
       </c>
@@ -8536,20 +8543,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A76:A97"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B92:B97"/>
+  <mergeCells count="35">
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B75"/>
     <mergeCell ref="A32:A53"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
@@ -8566,11 +8565,20 @@
     <mergeCell ref="B41:B47"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="A54:A75"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A76:A97"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8604,10 +8612,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="161"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -8631,7 +8639,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -8660,7 +8668,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="161"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="102" t="s">
         <v>264</v>
       </c>
@@ -8687,7 +8695,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="A4" s="161"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
@@ -8714,8 +8722,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -8742,8 +8750,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1">
-      <c r="A6" s="161"/>
-      <c r="B6" s="163"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -8767,7 +8775,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="165" t="s">
         <v>302</v>
       </c>
       <c r="B7" s="102" t="s">
@@ -8796,7 +8804,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A8" s="161"/>
+      <c r="A8" s="166"/>
       <c r="B8" s="102" t="s">
         <v>6</v>
       </c>
@@ -8821,15 +8829,15 @@
       <c r="J8" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="164" t="s">
+      <c r="K8" s="163" t="s">
         <v>572</v>
       </c>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="102" t="s">
         <v>8</v>
       </c>
@@ -8856,7 +8864,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="165" t="s">
         <v>303</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -8885,8 +8893,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A11" s="161"/>
-      <c r="B11" s="163" t="s">
+      <c r="A11" s="166"/>
+      <c r="B11" s="168" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="102">
@@ -8910,19 +8918,19 @@
       <c r="J11" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="164" t="s">
+      <c r="K11" s="163" t="s">
         <v>575</v>
       </c>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
       <c r="Q11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -8944,19 +8952,19 @@
       <c r="J12" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K12" s="166" t="s">
+      <c r="K12" s="162" t="s">
         <v>574</v>
       </c>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
       <c r="Q12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -8978,18 +8986,18 @@
       <c r="J13" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K13" s="166" t="s">
+      <c r="K13" s="162" t="s">
         <v>573</v>
       </c>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
       <c r="Q13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A14" s="161"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="102" t="s">
         <v>8</v>
       </c>
@@ -9016,7 +9024,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="165" t="s">
         <v>304</v>
       </c>
       <c r="B15" s="102" t="s">
@@ -9045,8 +9053,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163" t="s">
+      <c r="A16" s="166"/>
+      <c r="B16" s="168" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="102">
@@ -9070,19 +9078,19 @@
       <c r="J16" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="164" t="s">
+      <c r="K16" s="163" t="s">
         <v>575</v>
       </c>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
       <c r="Q16" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -9107,19 +9115,19 @@
       <c r="J17" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="166" t="s">
+      <c r="K17" s="162" t="s">
         <v>574</v>
       </c>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
       <c r="Q17" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="102">
         <v>16</v>
       </c>
@@ -9144,18 +9152,18 @@
       <c r="J18" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="166" t="s">
+      <c r="K18" s="162" t="s">
         <v>573</v>
       </c>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
       <c r="Q18" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A19" s="161"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="102" t="s">
         <v>8</v>
       </c>
@@ -9182,7 +9190,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="165" t="s">
         <v>441</v>
       </c>
       <c r="B20" s="102" t="s">
@@ -9211,8 +9219,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163" t="s">
+      <c r="A21" s="166"/>
+      <c r="B21" s="168" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="102">
@@ -9236,19 +9244,19 @@
       <c r="J21" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="164" t="s">
+      <c r="K21" s="163" t="s">
         <v>575</v>
       </c>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
       <c r="Q21" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -9270,12 +9278,12 @@
       <c r="J22" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K22" s="166" t="s">
+      <c r="K22" s="162" t="s">
         <v>574</v>
       </c>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
       <c r="O22" t="s">
         <v>577</v>
       </c>
@@ -9284,8 +9292,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A23" s="161"/>
-      <c r="B23" s="163"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="102">
         <v>21</v>
       </c>
@@ -9307,18 +9315,18 @@
       <c r="J23" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K23" s="166" t="s">
+      <c r="K23" s="162" t="s">
         <v>573</v>
       </c>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
       <c r="Q23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A24" s="162"/>
+      <c r="A24" s="167"/>
       <c r="B24" s="105" t="s">
         <v>8</v>
       </c>
@@ -9346,16 +9354,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:A9"/>
@@ -9366,6 +9364,16 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A15:A19"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9399,10 +9407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="161"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -9426,10 +9434,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="159" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="176" t="s">
         <v>444</v>
       </c>
       <c r="C2" s="108">
@@ -9455,8 +9463,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="170"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="173"/>
       <c r="C3" s="108">
         <v>1</v>
       </c>
@@ -9480,8 +9488,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="152"/>
-      <c r="B4" s="170"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="173"/>
       <c r="C4" s="108">
         <v>2</v>
       </c>
@@ -9503,8 +9511,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A5" s="152"/>
-      <c r="B5" s="170"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="108">
         <v>3</v>
       </c>
@@ -9528,10 +9536,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="159" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="156" t="s">
         <v>442</v>
       </c>
       <c r="C6" s="124">
@@ -9558,7 +9566,7 @@
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
       <c r="A7" s="153"/>
-      <c r="B7" s="170"/>
+      <c r="B7" s="173"/>
       <c r="C7" s="124">
         <v>5</v>
       </c>
@@ -9583,7 +9591,7 @@
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
       <c r="A8" s="153"/>
-      <c r="B8" s="170"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="124">
         <v>6</v>
       </c>
@@ -9608,7 +9616,7 @@
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
       <c r="A9" s="153"/>
-      <c r="B9" s="170"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="124">
         <v>7</v>
       </c>
@@ -9633,7 +9641,7 @@
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
       <c r="A10" s="153"/>
-      <c r="B10" s="170"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="124">
         <v>8</v>
       </c>
@@ -9661,7 +9669,7 @@
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="153"/>
-      <c r="B11" s="170"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="124">
         <v>9</v>
       </c>
@@ -9689,7 +9697,7 @@
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="153"/>
-      <c r="B12" s="170"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="124">
         <v>10</v>
       </c>
@@ -9714,7 +9722,7 @@
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="170"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="124">
         <v>11</v>
       </c>
@@ -9739,7 +9747,7 @@
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="153"/>
-      <c r="B14" s="170"/>
+      <c r="B14" s="173"/>
       <c r="C14" s="124">
         <v>12</v>
       </c>
@@ -9764,7 +9772,7 @@
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="A15" s="153"/>
-      <c r="B15" s="170"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="124">
         <v>13</v>
       </c>
@@ -9789,7 +9797,7 @@
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="A16" s="153"/>
-      <c r="B16" s="170"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="124">
         <v>14</v>
       </c>
@@ -9814,7 +9822,7 @@
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1">
       <c r="A17" s="153"/>
-      <c r="B17" s="170"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="124">
         <v>15</v>
       </c>
@@ -9839,7 +9847,7 @@
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1">
       <c r="A18" s="153"/>
-      <c r="B18" s="170"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="124">
         <v>16</v>
       </c>
@@ -9864,7 +9872,7 @@
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1">
       <c r="A19" s="153"/>
-      <c r="B19" s="170"/>
+      <c r="B19" s="173"/>
       <c r="C19" s="124">
         <v>17</v>
       </c>
@@ -9889,7 +9897,7 @@
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1">
       <c r="A20" s="153"/>
-      <c r="B20" s="170"/>
+      <c r="B20" s="173"/>
       <c r="C20" s="124">
         <v>18</v>
       </c>
@@ -9914,7 +9922,7 @@
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
       <c r="A21" s="153"/>
-      <c r="B21" s="170"/>
+      <c r="B21" s="173"/>
       <c r="C21" s="124">
         <v>19</v>
       </c>
@@ -9939,7 +9947,7 @@
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1">
       <c r="A22" s="153"/>
-      <c r="B22" s="170"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="124">
         <v>20</v>
       </c>
@@ -9964,7 +9972,7 @@
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1">
       <c r="A23" s="153"/>
-      <c r="B23" s="170"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="124">
         <v>21</v>
       </c>
@@ -9989,7 +9997,7 @@
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1">
       <c r="A24" s="153"/>
-      <c r="B24" s="170"/>
+      <c r="B24" s="173"/>
       <c r="C24" s="124">
         <v>22</v>
       </c>
@@ -10014,7 +10022,7 @@
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1">
       <c r="A25" s="153"/>
-      <c r="B25" s="170"/>
+      <c r="B25" s="173"/>
       <c r="C25" s="124">
         <v>23</v>
       </c>
@@ -10039,7 +10047,7 @@
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1">
       <c r="A26" s="153"/>
-      <c r="B26" s="170"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="124">
         <v>24</v>
       </c>
@@ -10064,7 +10072,7 @@
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1">
       <c r="A27" s="153"/>
-      <c r="B27" s="170"/>
+      <c r="B27" s="173"/>
       <c r="C27" s="124">
         <v>25</v>
       </c>
@@ -10089,7 +10097,7 @@
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="170"/>
+      <c r="B28" s="173"/>
       <c r="C28" s="124">
         <v>26</v>
       </c>
@@ -10114,7 +10122,7 @@
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
       <c r="A29" s="153"/>
-      <c r="B29" s="170"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="124">
         <v>27</v>
       </c>
@@ -10139,7 +10147,7 @@
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1">
       <c r="A30" s="153"/>
-      <c r="B30" s="170"/>
+      <c r="B30" s="173"/>
       <c r="C30" s="124">
         <v>28</v>
       </c>
@@ -10164,7 +10172,7 @@
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1">
       <c r="A31" s="153"/>
-      <c r="B31" s="170"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="124">
         <v>29</v>
       </c>
@@ -10189,7 +10197,7 @@
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1">
       <c r="A32" s="153"/>
-      <c r="B32" s="170"/>
+      <c r="B32" s="173"/>
       <c r="C32" s="124">
         <v>30</v>
       </c>
@@ -10214,7 +10222,7 @@
     </row>
     <row r="33" spans="1:12" ht="17.25" customHeight="1">
       <c r="A33" s="153"/>
-      <c r="B33" s="170"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="124">
         <v>31</v>
       </c>
@@ -10239,7 +10247,7 @@
     </row>
     <row r="34" spans="1:12" ht="17.25" customHeight="1">
       <c r="A34" s="153"/>
-      <c r="B34" s="170"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="124">
         <v>32</v>
       </c>
@@ -10264,7 +10272,7 @@
     </row>
     <row r="35" spans="1:12" ht="17.25" customHeight="1">
       <c r="A35" s="153"/>
-      <c r="B35" s="170"/>
+      <c r="B35" s="173"/>
       <c r="C35" s="124">
         <v>33</v>
       </c>
@@ -10289,7 +10297,7 @@
     </row>
     <row r="36" spans="1:12" ht="17.25" customHeight="1">
       <c r="A36" s="153"/>
-      <c r="B36" s="170"/>
+      <c r="B36" s="173"/>
       <c r="C36" s="124">
         <v>34</v>
       </c>
@@ -10314,7 +10322,7 @@
     </row>
     <row r="37" spans="1:12" ht="17.25" customHeight="1">
       <c r="A37" s="153"/>
-      <c r="B37" s="170"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="124">
         <v>35</v>
       </c>
@@ -10339,7 +10347,7 @@
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1">
       <c r="A38" s="153"/>
-      <c r="B38" s="170"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="124">
         <v>36</v>
       </c>
@@ -10364,7 +10372,7 @@
     </row>
     <row r="39" spans="1:12" ht="17.25" customHeight="1">
       <c r="A39" s="153"/>
-      <c r="B39" s="170"/>
+      <c r="B39" s="173"/>
       <c r="C39" s="124">
         <v>37</v>
       </c>
@@ -10389,7 +10397,7 @@
     </row>
     <row r="40" spans="1:12" ht="17.25" customHeight="1">
       <c r="A40" s="153"/>
-      <c r="B40" s="170"/>
+      <c r="B40" s="173"/>
       <c r="C40" s="124">
         <v>38</v>
       </c>
@@ -10414,7 +10422,7 @@
     </row>
     <row r="41" spans="1:12" ht="17.25" customHeight="1">
       <c r="A41" s="153"/>
-      <c r="B41" s="170"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="124">
         <v>39</v>
       </c>
@@ -10439,7 +10447,7 @@
     </row>
     <row r="42" spans="1:12" ht="17.25" customHeight="1">
       <c r="A42" s="153"/>
-      <c r="B42" s="150" t="s">
+      <c r="B42" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="124">
@@ -10463,14 +10471,14 @@
       <c r="J42" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="K42" s="174" t="s">
+      <c r="K42" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L42" s="175"/>
+      <c r="L42" s="170"/>
     </row>
     <row r="43" spans="1:12" ht="17.25" customHeight="1">
       <c r="A43" s="153"/>
-      <c r="B43" s="170"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="124">
         <v>41</v>
       </c>
@@ -10492,14 +10500,14 @@
       <c r="J43" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="174" t="s">
+      <c r="K43" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L43" s="175"/>
+      <c r="L43" s="170"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" customHeight="1">
       <c r="A44" s="153"/>
-      <c r="B44" s="170"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="124">
         <v>42</v>
       </c>
@@ -10521,14 +10529,14 @@
       <c r="J44" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="174" t="s">
+      <c r="K44" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L44" s="175"/>
+      <c r="L44" s="170"/>
     </row>
     <row r="45" spans="1:12" ht="17.25" customHeight="1">
       <c r="A45" s="153"/>
-      <c r="B45" s="170"/>
+      <c r="B45" s="173"/>
       <c r="C45" s="124">
         <v>43</v>
       </c>
@@ -10550,14 +10558,14 @@
       <c r="J45" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="174" t="s">
+      <c r="K45" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L45" s="175"/>
+      <c r="L45" s="170"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" customHeight="1">
       <c r="A46" s="153"/>
-      <c r="B46" s="170"/>
+      <c r="B46" s="173"/>
       <c r="C46" s="124">
         <v>44</v>
       </c>
@@ -10579,14 +10587,14 @@
       <c r="J46" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="K46" s="174" t="s">
+      <c r="K46" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L46" s="175"/>
+      <c r="L46" s="170"/>
     </row>
     <row r="47" spans="1:12" ht="17.25" customHeight="1">
       <c r="A47" s="153"/>
-      <c r="B47" s="170"/>
+      <c r="B47" s="173"/>
       <c r="C47" s="124">
         <v>45</v>
       </c>
@@ -10608,14 +10616,14 @@
       <c r="J47" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="K47" s="174" t="s">
+      <c r="K47" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L47" s="175"/>
+      <c r="L47" s="170"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" customHeight="1">
       <c r="A48" s="153"/>
-      <c r="B48" s="170"/>
+      <c r="B48" s="173"/>
       <c r="C48" s="124">
         <v>46</v>
       </c>
@@ -10637,14 +10645,14 @@
       <c r="J48" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="K48" s="174" t="s">
+      <c r="K48" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L48" s="175"/>
+      <c r="L48" s="170"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" customHeight="1">
       <c r="A49" s="153"/>
-      <c r="B49" s="170"/>
+      <c r="B49" s="173"/>
       <c r="C49" s="124">
         <v>47</v>
       </c>
@@ -10666,16 +10674,16 @@
       <c r="J49" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="174" t="s">
+      <c r="K49" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L49" s="175"/>
+      <c r="L49" s="170"/>
     </row>
     <row r="50" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A50" s="152" t="s">
+      <c r="A50" s="159" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="156" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="124">
@@ -10702,7 +10710,7 @@
     </row>
     <row r="51" spans="1:12" ht="17.25" customHeight="1">
       <c r="A51" s="153"/>
-      <c r="B51" s="170"/>
+      <c r="B51" s="173"/>
       <c r="C51" s="124">
         <v>49</v>
       </c>
@@ -10727,7 +10735,7 @@
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1">
       <c r="A52" s="153"/>
-      <c r="B52" s="170"/>
+      <c r="B52" s="173"/>
       <c r="C52" s="124">
         <v>50</v>
       </c>
@@ -10752,7 +10760,7 @@
     </row>
     <row r="53" spans="1:12" ht="17.25" customHeight="1">
       <c r="A53" s="153"/>
-      <c r="B53" s="170"/>
+      <c r="B53" s="173"/>
       <c r="C53" s="124">
         <v>51</v>
       </c>
@@ -10777,7 +10785,7 @@
     </row>
     <row r="54" spans="1:12" ht="17.25" customHeight="1">
       <c r="A54" s="153"/>
-      <c r="B54" s="170"/>
+      <c r="B54" s="173"/>
       <c r="C54" s="124">
         <v>52</v>
       </c>
@@ -10802,7 +10810,7 @@
     </row>
     <row r="55" spans="1:12" ht="17.25" customHeight="1">
       <c r="A55" s="153"/>
-      <c r="B55" s="170"/>
+      <c r="B55" s="173"/>
       <c r="C55" s="124">
         <v>53</v>
       </c>
@@ -10827,7 +10835,7 @@
     </row>
     <row r="56" spans="1:12" ht="17.25" customHeight="1">
       <c r="A56" s="153"/>
-      <c r="B56" s="170"/>
+      <c r="B56" s="173"/>
       <c r="C56" s="124">
         <v>54</v>
       </c>
@@ -10852,7 +10860,7 @@
     </row>
     <row r="57" spans="1:12" ht="17.25" customHeight="1">
       <c r="A57" s="153"/>
-      <c r="B57" s="170"/>
+      <c r="B57" s="173"/>
       <c r="C57" s="124">
         <v>55</v>
       </c>
@@ -10877,7 +10885,7 @@
     </row>
     <row r="58" spans="1:12" ht="17.25" customHeight="1">
       <c r="A58" s="153"/>
-      <c r="B58" s="170"/>
+      <c r="B58" s="173"/>
       <c r="C58" s="124">
         <v>56</v>
       </c>
@@ -10902,7 +10910,7 @@
     </row>
     <row r="59" spans="1:12" ht="17.25" customHeight="1">
       <c r="A59" s="153"/>
-      <c r="B59" s="170"/>
+      <c r="B59" s="173"/>
       <c r="C59" s="124">
         <v>57</v>
       </c>
@@ -10927,7 +10935,7 @@
     </row>
     <row r="60" spans="1:12" ht="17.25" customHeight="1">
       <c r="A60" s="153"/>
-      <c r="B60" s="170"/>
+      <c r="B60" s="173"/>
       <c r="C60" s="124">
         <v>58</v>
       </c>
@@ -10952,7 +10960,7 @@
     </row>
     <row r="61" spans="1:12" ht="17.25" customHeight="1">
       <c r="A61" s="153"/>
-      <c r="B61" s="170"/>
+      <c r="B61" s="173"/>
       <c r="C61" s="124">
         <v>59</v>
       </c>
@@ -10977,7 +10985,7 @@
     </row>
     <row r="62" spans="1:12" ht="17.25" customHeight="1">
       <c r="A62" s="153"/>
-      <c r="B62" s="170"/>
+      <c r="B62" s="173"/>
       <c r="C62" s="124">
         <v>60</v>
       </c>
@@ -11002,7 +11010,7 @@
     </row>
     <row r="63" spans="1:12" ht="17.25" customHeight="1">
       <c r="A63" s="153"/>
-      <c r="B63" s="170"/>
+      <c r="B63" s="173"/>
       <c r="C63" s="124">
         <v>61</v>
       </c>
@@ -11027,7 +11035,7 @@
     </row>
     <row r="64" spans="1:12" ht="17.25" customHeight="1">
       <c r="A64" s="153"/>
-      <c r="B64" s="170"/>
+      <c r="B64" s="173"/>
       <c r="C64" s="124">
         <v>62</v>
       </c>
@@ -11052,7 +11060,7 @@
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1">
       <c r="A65" s="153"/>
-      <c r="B65" s="170"/>
+      <c r="B65" s="173"/>
       <c r="C65" s="124">
         <v>63</v>
       </c>
@@ -11077,7 +11085,7 @@
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1">
       <c r="A66" s="153"/>
-      <c r="B66" s="170"/>
+      <c r="B66" s="173"/>
       <c r="C66" s="124">
         <v>64</v>
       </c>
@@ -11102,7 +11110,7 @@
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1">
       <c r="A67" s="153"/>
-      <c r="B67" s="170"/>
+      <c r="B67" s="173"/>
       <c r="C67" s="124">
         <v>65</v>
       </c>
@@ -11127,7 +11135,7 @@
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1">
       <c r="A68" s="153"/>
-      <c r="B68" s="170"/>
+      <c r="B68" s="173"/>
       <c r="C68" s="124">
         <v>66</v>
       </c>
@@ -11152,7 +11160,7 @@
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1">
       <c r="A69" s="153"/>
-      <c r="B69" s="170"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="124">
         <v>67</v>
       </c>
@@ -11177,7 +11185,7 @@
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1">
       <c r="A70" s="153"/>
-      <c r="B70" s="170"/>
+      <c r="B70" s="173"/>
       <c r="C70" s="124">
         <v>68</v>
       </c>
@@ -11202,7 +11210,7 @@
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1">
       <c r="A71" s="153"/>
-      <c r="B71" s="170"/>
+      <c r="B71" s="173"/>
       <c r="C71" s="124">
         <v>69</v>
       </c>
@@ -11227,7 +11235,7 @@
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1">
       <c r="A72" s="153"/>
-      <c r="B72" s="170"/>
+      <c r="B72" s="173"/>
       <c r="C72" s="124">
         <v>70</v>
       </c>
@@ -11252,7 +11260,7 @@
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1">
       <c r="A73" s="153"/>
-      <c r="B73" s="170"/>
+      <c r="B73" s="173"/>
       <c r="C73" s="124">
         <v>71</v>
       </c>
@@ -11277,7 +11285,7 @@
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1">
       <c r="A74" s="153"/>
-      <c r="B74" s="170"/>
+      <c r="B74" s="173"/>
       <c r="C74" s="124">
         <v>72</v>
       </c>
@@ -11302,7 +11310,7 @@
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1">
       <c r="A75" s="153"/>
-      <c r="B75" s="170"/>
+      <c r="B75" s="173"/>
       <c r="C75" s="124">
         <v>73</v>
       </c>
@@ -11327,7 +11335,7 @@
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1">
       <c r="A76" s="153"/>
-      <c r="B76" s="170"/>
+      <c r="B76" s="173"/>
       <c r="C76" s="124">
         <v>74</v>
       </c>
@@ -11352,7 +11360,7 @@
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1">
       <c r="A77" s="153"/>
-      <c r="B77" s="170"/>
+      <c r="B77" s="173"/>
       <c r="C77" s="124">
         <v>75</v>
       </c>
@@ -11377,7 +11385,7 @@
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1">
       <c r="A78" s="153"/>
-      <c r="B78" s="170"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="124">
         <v>76</v>
       </c>
@@ -11402,7 +11410,7 @@
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1">
       <c r="A79" s="153"/>
-      <c r="B79" s="170"/>
+      <c r="B79" s="173"/>
       <c r="C79" s="124">
         <v>77</v>
       </c>
@@ -11427,7 +11435,7 @@
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1">
       <c r="A80" s="153"/>
-      <c r="B80" s="170"/>
+      <c r="B80" s="173"/>
       <c r="C80" s="124">
         <v>78</v>
       </c>
@@ -11452,7 +11460,7 @@
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1">
       <c r="A81" s="153"/>
-      <c r="B81" s="170"/>
+      <c r="B81" s="173"/>
       <c r="C81" s="124">
         <v>79</v>
       </c>
@@ -11477,7 +11485,7 @@
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1">
       <c r="A82" s="153"/>
-      <c r="B82" s="170"/>
+      <c r="B82" s="173"/>
       <c r="C82" s="124">
         <v>80</v>
       </c>
@@ -11502,7 +11510,7 @@
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1">
       <c r="A83" s="153"/>
-      <c r="B83" s="170"/>
+      <c r="B83" s="173"/>
       <c r="C83" s="124">
         <v>81</v>
       </c>
@@ -11527,7 +11535,7 @@
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1">
       <c r="A84" s="153"/>
-      <c r="B84" s="170"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="124">
         <v>82</v>
       </c>
@@ -11552,7 +11560,7 @@
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1">
       <c r="A85" s="153"/>
-      <c r="B85" s="170"/>
+      <c r="B85" s="173"/>
       <c r="C85" s="124">
         <v>83</v>
       </c>
@@ -11577,7 +11585,7 @@
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1">
       <c r="A86" s="153"/>
-      <c r="B86" s="150" t="s">
+      <c r="B86" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="124">
@@ -11604,7 +11612,7 @@
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1">
       <c r="A87" s="153"/>
-      <c r="B87" s="170"/>
+      <c r="B87" s="173"/>
       <c r="C87" s="124">
         <v>85</v>
       </c>
@@ -11629,7 +11637,7 @@
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1">
       <c r="A88" s="153"/>
-      <c r="B88" s="170"/>
+      <c r="B88" s="173"/>
       <c r="C88" s="124">
         <v>86</v>
       </c>
@@ -11654,7 +11662,7 @@
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1">
       <c r="A89" s="153"/>
-      <c r="B89" s="170"/>
+      <c r="B89" s="173"/>
       <c r="C89" s="124">
         <v>87</v>
       </c>
@@ -11679,7 +11687,7 @@
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1">
       <c r="A90" s="153"/>
-      <c r="B90" s="170"/>
+      <c r="B90" s="173"/>
       <c r="C90" s="124">
         <v>88</v>
       </c>
@@ -11704,7 +11712,7 @@
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1">
       <c r="A91" s="153"/>
-      <c r="B91" s="170"/>
+      <c r="B91" s="173"/>
       <c r="C91" s="124">
         <v>89</v>
       </c>
@@ -11729,7 +11737,7 @@
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1">
       <c r="A92" s="153"/>
-      <c r="B92" s="170"/>
+      <c r="B92" s="173"/>
       <c r="C92" s="124">
         <v>90</v>
       </c>
@@ -11754,7 +11762,7 @@
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1">
       <c r="A93" s="153"/>
-      <c r="B93" s="170"/>
+      <c r="B93" s="173"/>
       <c r="C93" s="124">
         <v>91</v>
       </c>
@@ -11778,10 +11786,10 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A94" s="152" t="s">
+      <c r="A94" s="159" t="s">
         <v>346</v>
       </c>
-      <c r="B94" s="150" t="s">
+      <c r="B94" s="156" t="s">
         <v>102</v>
       </c>
       <c r="C94" s="124">
@@ -11808,7 +11816,7 @@
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1">
       <c r="A95" s="153"/>
-      <c r="B95" s="170"/>
+      <c r="B95" s="173"/>
       <c r="C95" s="124">
         <v>93</v>
       </c>
@@ -11833,7 +11841,7 @@
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1">
       <c r="A96" s="153"/>
-      <c r="B96" s="170"/>
+      <c r="B96" s="173"/>
       <c r="C96" s="124">
         <v>94</v>
       </c>
@@ -11858,7 +11866,7 @@
     </row>
     <row r="97" spans="1:10" ht="17.25" customHeight="1">
       <c r="A97" s="153"/>
-      <c r="B97" s="170"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="124">
         <v>95</v>
       </c>
@@ -11883,7 +11891,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1">
       <c r="A98" s="153"/>
-      <c r="B98" s="170"/>
+      <c r="B98" s="173"/>
       <c r="C98" s="124">
         <v>96</v>
       </c>
@@ -11908,7 +11916,7 @@
     </row>
     <row r="99" spans="1:10" ht="17.25" customHeight="1">
       <c r="A99" s="153"/>
-      <c r="B99" s="170"/>
+      <c r="B99" s="173"/>
       <c r="C99" s="124">
         <v>97</v>
       </c>
@@ -11933,7 +11941,7 @@
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1">
       <c r="A100" s="153"/>
-      <c r="B100" s="170"/>
+      <c r="B100" s="173"/>
       <c r="C100" s="124">
         <v>98</v>
       </c>
@@ -11958,7 +11966,7 @@
     </row>
     <row r="101" spans="1:10" ht="17.25" customHeight="1">
       <c r="A101" s="153"/>
-      <c r="B101" s="170"/>
+      <c r="B101" s="173"/>
       <c r="C101" s="124">
         <v>99</v>
       </c>
@@ -11983,7 +11991,7 @@
     </row>
     <row r="102" spans="1:10" ht="17.25" customHeight="1">
       <c r="A102" s="153"/>
-      <c r="B102" s="170"/>
+      <c r="B102" s="173"/>
       <c r="C102" s="124">
         <v>100</v>
       </c>
@@ -12008,7 +12016,7 @@
     </row>
     <row r="103" spans="1:10" ht="17.25" customHeight="1">
       <c r="A103" s="153"/>
-      <c r="B103" s="170"/>
+      <c r="B103" s="173"/>
       <c r="C103" s="124">
         <v>101</v>
       </c>
@@ -12033,7 +12041,7 @@
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1">
       <c r="A104" s="153"/>
-      <c r="B104" s="170"/>
+      <c r="B104" s="173"/>
       <c r="C104" s="124">
         <v>102</v>
       </c>
@@ -12058,7 +12066,7 @@
     </row>
     <row r="105" spans="1:10" ht="17.25" customHeight="1">
       <c r="A105" s="153"/>
-      <c r="B105" s="170"/>
+      <c r="B105" s="173"/>
       <c r="C105" s="124">
         <v>103</v>
       </c>
@@ -12083,7 +12091,7 @@
     </row>
     <row r="106" spans="1:10" ht="17.25" customHeight="1">
       <c r="A106" s="153"/>
-      <c r="B106" s="170"/>
+      <c r="B106" s="173"/>
       <c r="C106" s="124">
         <v>104</v>
       </c>
@@ -12108,7 +12116,7 @@
     </row>
     <row r="107" spans="1:10" ht="17.25" customHeight="1">
       <c r="A107" s="153"/>
-      <c r="B107" s="170"/>
+      <c r="B107" s="173"/>
       <c r="C107" s="124">
         <v>105</v>
       </c>
@@ -12133,7 +12141,7 @@
     </row>
     <row r="108" spans="1:10" ht="17.25" customHeight="1">
       <c r="A108" s="153"/>
-      <c r="B108" s="170"/>
+      <c r="B108" s="173"/>
       <c r="C108" s="124">
         <v>106</v>
       </c>
@@ -12158,7 +12166,7 @@
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1">
       <c r="A109" s="153"/>
-      <c r="B109" s="170"/>
+      <c r="B109" s="173"/>
       <c r="C109" s="124">
         <v>107</v>
       </c>
@@ -12183,7 +12191,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1">
       <c r="A110" s="153"/>
-      <c r="B110" s="170"/>
+      <c r="B110" s="173"/>
       <c r="C110" s="124">
         <v>108</v>
       </c>
@@ -12208,7 +12216,7 @@
     </row>
     <row r="111" spans="1:10" ht="17.25" customHeight="1">
       <c r="A111" s="153"/>
-      <c r="B111" s="170"/>
+      <c r="B111" s="173"/>
       <c r="C111" s="124">
         <v>109</v>
       </c>
@@ -12233,7 +12241,7 @@
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1">
       <c r="A112" s="153"/>
-      <c r="B112" s="170"/>
+      <c r="B112" s="173"/>
       <c r="C112" s="124">
         <v>110</v>
       </c>
@@ -12258,7 +12266,7 @@
     </row>
     <row r="113" spans="1:10" ht="17.25" customHeight="1">
       <c r="A113" s="153"/>
-      <c r="B113" s="170"/>
+      <c r="B113" s="173"/>
       <c r="C113" s="124">
         <v>111</v>
       </c>
@@ -12283,7 +12291,7 @@
     </row>
     <row r="114" spans="1:10" ht="17.25" customHeight="1">
       <c r="A114" s="153"/>
-      <c r="B114" s="170"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="124">
         <v>112</v>
       </c>
@@ -12308,7 +12316,7 @@
     </row>
     <row r="115" spans="1:10" ht="17.25" customHeight="1">
       <c r="A115" s="153"/>
-      <c r="B115" s="170"/>
+      <c r="B115" s="173"/>
       <c r="C115" s="124">
         <v>113</v>
       </c>
@@ -12333,7 +12341,7 @@
     </row>
     <row r="116" spans="1:10" ht="17.25" customHeight="1">
       <c r="A116" s="153"/>
-      <c r="B116" s="170"/>
+      <c r="B116" s="173"/>
       <c r="C116" s="124">
         <v>114</v>
       </c>
@@ -12358,7 +12366,7 @@
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1">
       <c r="A117" s="153"/>
-      <c r="B117" s="170"/>
+      <c r="B117" s="173"/>
       <c r="C117" s="124">
         <v>115</v>
       </c>
@@ -12383,7 +12391,7 @@
     </row>
     <row r="118" spans="1:10" ht="17.25" customHeight="1">
       <c r="A118" s="153"/>
-      <c r="B118" s="170"/>
+      <c r="B118" s="173"/>
       <c r="C118" s="124">
         <v>116</v>
       </c>
@@ -12408,7 +12416,7 @@
     </row>
     <row r="119" spans="1:10" ht="17.25" customHeight="1">
       <c r="A119" s="153"/>
-      <c r="B119" s="170"/>
+      <c r="B119" s="173"/>
       <c r="C119" s="124">
         <v>117</v>
       </c>
@@ -12433,7 +12441,7 @@
     </row>
     <row r="120" spans="1:10" ht="17.25" customHeight="1">
       <c r="A120" s="153"/>
-      <c r="B120" s="170"/>
+      <c r="B120" s="173"/>
       <c r="C120" s="124">
         <v>118</v>
       </c>
@@ -12458,7 +12466,7 @@
     </row>
     <row r="121" spans="1:10" ht="17.25" customHeight="1">
       <c r="A121" s="153"/>
-      <c r="B121" s="170"/>
+      <c r="B121" s="173"/>
       <c r="C121" s="124">
         <v>119</v>
       </c>
@@ -12483,7 +12491,7 @@
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1">
       <c r="A122" s="153"/>
-      <c r="B122" s="170"/>
+      <c r="B122" s="173"/>
       <c r="C122" s="124">
         <v>120</v>
       </c>
@@ -12508,7 +12516,7 @@
     </row>
     <row r="123" spans="1:10" ht="17.25" customHeight="1">
       <c r="A123" s="153"/>
-      <c r="B123" s="170"/>
+      <c r="B123" s="173"/>
       <c r="C123" s="124">
         <v>121</v>
       </c>
@@ -12533,7 +12541,7 @@
     </row>
     <row r="124" spans="1:10" ht="17.25" customHeight="1">
       <c r="A124" s="153"/>
-      <c r="B124" s="170"/>
+      <c r="B124" s="173"/>
       <c r="C124" s="124">
         <v>122</v>
       </c>
@@ -12558,7 +12566,7 @@
     </row>
     <row r="125" spans="1:10" ht="17.25" customHeight="1">
       <c r="A125" s="153"/>
-      <c r="B125" s="170"/>
+      <c r="B125" s="173"/>
       <c r="C125" s="124">
         <v>123</v>
       </c>
@@ -12583,7 +12591,7 @@
     </row>
     <row r="126" spans="1:10" ht="17.25" customHeight="1">
       <c r="A126" s="153"/>
-      <c r="B126" s="170"/>
+      <c r="B126" s="173"/>
       <c r="C126" s="124">
         <v>124</v>
       </c>
@@ -12608,7 +12616,7 @@
     </row>
     <row r="127" spans="1:10" ht="17.25" customHeight="1">
       <c r="A127" s="153"/>
-      <c r="B127" s="170"/>
+      <c r="B127" s="173"/>
       <c r="C127" s="124">
         <v>125</v>
       </c>
@@ -12633,7 +12641,7 @@
     </row>
     <row r="128" spans="1:10" ht="17.25" customHeight="1">
       <c r="A128" s="153"/>
-      <c r="B128" s="170"/>
+      <c r="B128" s="173"/>
       <c r="C128" s="124">
         <v>126</v>
       </c>
@@ -12658,7 +12666,7 @@
     </row>
     <row r="129" spans="1:10" ht="17.25" customHeight="1">
       <c r="A129" s="153"/>
-      <c r="B129" s="170"/>
+      <c r="B129" s="173"/>
       <c r="C129" s="124">
         <v>127</v>
       </c>
@@ -12683,7 +12691,7 @@
     </row>
     <row r="130" spans="1:10" ht="17.25" customHeight="1">
       <c r="A130" s="153"/>
-      <c r="B130" s="150" t="s">
+      <c r="B130" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="124">
@@ -12710,7 +12718,7 @@
     </row>
     <row r="131" spans="1:10" ht="17.25" customHeight="1">
       <c r="A131" s="153"/>
-      <c r="B131" s="170"/>
+      <c r="B131" s="173"/>
       <c r="C131" s="124">
         <v>129</v>
       </c>
@@ -12735,7 +12743,7 @@
     </row>
     <row r="132" spans="1:10" ht="17.25" customHeight="1">
       <c r="A132" s="153"/>
-      <c r="B132" s="170"/>
+      <c r="B132" s="173"/>
       <c r="C132" s="124">
         <v>130</v>
       </c>
@@ -12760,7 +12768,7 @@
     </row>
     <row r="133" spans="1:10" ht="17.25" customHeight="1">
       <c r="A133" s="153"/>
-      <c r="B133" s="170"/>
+      <c r="B133" s="173"/>
       <c r="C133" s="124">
         <v>131</v>
       </c>
@@ -12785,7 +12793,7 @@
     </row>
     <row r="134" spans="1:10" ht="17.25" customHeight="1">
       <c r="A134" s="153"/>
-      <c r="B134" s="170"/>
+      <c r="B134" s="173"/>
       <c r="C134" s="124">
         <v>132</v>
       </c>
@@ -12810,7 +12818,7 @@
     </row>
     <row r="135" spans="1:10" ht="17.25" customHeight="1">
       <c r="A135" s="153"/>
-      <c r="B135" s="170"/>
+      <c r="B135" s="173"/>
       <c r="C135" s="124">
         <v>133</v>
       </c>
@@ -12835,7 +12843,7 @@
     </row>
     <row r="136" spans="1:10" ht="17.25" customHeight="1">
       <c r="A136" s="153"/>
-      <c r="B136" s="170"/>
+      <c r="B136" s="173"/>
       <c r="C136" s="124">
         <v>134</v>
       </c>
@@ -12860,7 +12868,7 @@
     </row>
     <row r="137" spans="1:10" ht="17.25" customHeight="1">
       <c r="A137" s="153"/>
-      <c r="B137" s="170"/>
+      <c r="B137" s="173"/>
       <c r="C137" s="124">
         <v>135</v>
       </c>
@@ -12884,10 +12892,10 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A138" s="152" t="s">
+      <c r="A138" s="159" t="s">
         <v>447</v>
       </c>
-      <c r="B138" s="150" t="s">
+      <c r="B138" s="156" t="s">
         <v>102</v>
       </c>
       <c r="C138" s="124">
@@ -12914,7 +12922,7 @@
     </row>
     <row r="139" spans="1:10" ht="17.25" customHeight="1">
       <c r="A139" s="153"/>
-      <c r="B139" s="170"/>
+      <c r="B139" s="173"/>
       <c r="C139" s="124">
         <v>137</v>
       </c>
@@ -12939,7 +12947,7 @@
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1">
       <c r="A140" s="153"/>
-      <c r="B140" s="170"/>
+      <c r="B140" s="173"/>
       <c r="C140" s="124">
         <v>138</v>
       </c>
@@ -12964,7 +12972,7 @@
     </row>
     <row r="141" spans="1:10" ht="17.25" customHeight="1">
       <c r="A141" s="153"/>
-      <c r="B141" s="170"/>
+      <c r="B141" s="173"/>
       <c r="C141" s="124">
         <v>139</v>
       </c>
@@ -12989,7 +12997,7 @@
     </row>
     <row r="142" spans="1:10" ht="17.25" customHeight="1">
       <c r="A142" s="153"/>
-      <c r="B142" s="170"/>
+      <c r="B142" s="173"/>
       <c r="C142" s="124">
         <v>140</v>
       </c>
@@ -13014,7 +13022,7 @@
     </row>
     <row r="143" spans="1:10" ht="17.25" customHeight="1">
       <c r="A143" s="153"/>
-      <c r="B143" s="170"/>
+      <c r="B143" s="173"/>
       <c r="C143" s="124">
         <v>141</v>
       </c>
@@ -13039,7 +13047,7 @@
     </row>
     <row r="144" spans="1:10" ht="17.25" customHeight="1">
       <c r="A144" s="153"/>
-      <c r="B144" s="170"/>
+      <c r="B144" s="173"/>
       <c r="C144" s="124">
         <v>142</v>
       </c>
@@ -13064,7 +13072,7 @@
     </row>
     <row r="145" spans="1:10" ht="17.25" customHeight="1">
       <c r="A145" s="153"/>
-      <c r="B145" s="170"/>
+      <c r="B145" s="173"/>
       <c r="C145" s="124">
         <v>143</v>
       </c>
@@ -13089,7 +13097,7 @@
     </row>
     <row r="146" spans="1:10" ht="17.25" customHeight="1">
       <c r="A146" s="153"/>
-      <c r="B146" s="170"/>
+      <c r="B146" s="173"/>
       <c r="C146" s="124">
         <v>144</v>
       </c>
@@ -13114,7 +13122,7 @@
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1">
       <c r="A147" s="153"/>
-      <c r="B147" s="170"/>
+      <c r="B147" s="173"/>
       <c r="C147" s="124">
         <v>145</v>
       </c>
@@ -13139,7 +13147,7 @@
     </row>
     <row r="148" spans="1:10" ht="17.25" customHeight="1">
       <c r="A148" s="153"/>
-      <c r="B148" s="170"/>
+      <c r="B148" s="173"/>
       <c r="C148" s="124">
         <v>146</v>
       </c>
@@ -13164,7 +13172,7 @@
     </row>
     <row r="149" spans="1:10" ht="17.25" customHeight="1">
       <c r="A149" s="153"/>
-      <c r="B149" s="170"/>
+      <c r="B149" s="173"/>
       <c r="C149" s="124">
         <v>147</v>
       </c>
@@ -13189,7 +13197,7 @@
     </row>
     <row r="150" spans="1:10" ht="17.25" customHeight="1">
       <c r="A150" s="153"/>
-      <c r="B150" s="170"/>
+      <c r="B150" s="173"/>
       <c r="C150" s="124">
         <v>148</v>
       </c>
@@ -13214,7 +13222,7 @@
     </row>
     <row r="151" spans="1:10" ht="17.25" customHeight="1">
       <c r="A151" s="153"/>
-      <c r="B151" s="170"/>
+      <c r="B151" s="173"/>
       <c r="C151" s="124">
         <v>149</v>
       </c>
@@ -13239,7 +13247,7 @@
     </row>
     <row r="152" spans="1:10" ht="17.25" customHeight="1">
       <c r="A152" s="153"/>
-      <c r="B152" s="170"/>
+      <c r="B152" s="173"/>
       <c r="C152" s="124">
         <v>150</v>
       </c>
@@ -13264,7 +13272,7 @@
     </row>
     <row r="153" spans="1:10" ht="17.25" customHeight="1">
       <c r="A153" s="153"/>
-      <c r="B153" s="170"/>
+      <c r="B153" s="173"/>
       <c r="C153" s="124">
         <v>151</v>
       </c>
@@ -13289,7 +13297,7 @@
     </row>
     <row r="154" spans="1:10" ht="17.25" customHeight="1">
       <c r="A154" s="153"/>
-      <c r="B154" s="170"/>
+      <c r="B154" s="173"/>
       <c r="C154" s="124">
         <v>152</v>
       </c>
@@ -13314,7 +13322,7 @@
     </row>
     <row r="155" spans="1:10" ht="17.25" customHeight="1">
       <c r="A155" s="153"/>
-      <c r="B155" s="170"/>
+      <c r="B155" s="173"/>
       <c r="C155" s="124">
         <v>153</v>
       </c>
@@ -13339,7 +13347,7 @@
     </row>
     <row r="156" spans="1:10" ht="17.25" customHeight="1">
       <c r="A156" s="153"/>
-      <c r="B156" s="170"/>
+      <c r="B156" s="173"/>
       <c r="C156" s="124">
         <v>154</v>
       </c>
@@ -13364,7 +13372,7 @@
     </row>
     <row r="157" spans="1:10" ht="17.25" customHeight="1">
       <c r="A157" s="153"/>
-      <c r="B157" s="170"/>
+      <c r="B157" s="173"/>
       <c r="C157" s="124">
         <v>155</v>
       </c>
@@ -13389,7 +13397,7 @@
     </row>
     <row r="158" spans="1:10" ht="17.25" customHeight="1">
       <c r="A158" s="153"/>
-      <c r="B158" s="170"/>
+      <c r="B158" s="173"/>
       <c r="C158" s="124">
         <v>156</v>
       </c>
@@ -13414,7 +13422,7 @@
     </row>
     <row r="159" spans="1:10" ht="17.25" customHeight="1">
       <c r="A159" s="153"/>
-      <c r="B159" s="170"/>
+      <c r="B159" s="173"/>
       <c r="C159" s="124">
         <v>157</v>
       </c>
@@ -13439,7 +13447,7 @@
     </row>
     <row r="160" spans="1:10" ht="17.25" customHeight="1">
       <c r="A160" s="153"/>
-      <c r="B160" s="170"/>
+      <c r="B160" s="173"/>
       <c r="C160" s="124">
         <v>158</v>
       </c>
@@ -13464,7 +13472,7 @@
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1">
       <c r="A161" s="153"/>
-      <c r="B161" s="170"/>
+      <c r="B161" s="173"/>
       <c r="C161" s="124">
         <v>159</v>
       </c>
@@ -13489,7 +13497,7 @@
     </row>
     <row r="162" spans="1:10" ht="17.25" customHeight="1">
       <c r="A162" s="153"/>
-      <c r="B162" s="170"/>
+      <c r="B162" s="173"/>
       <c r="C162" s="124">
         <v>160</v>
       </c>
@@ -13514,7 +13522,7 @@
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1">
       <c r="A163" s="153"/>
-      <c r="B163" s="170"/>
+      <c r="B163" s="173"/>
       <c r="C163" s="124">
         <v>161</v>
       </c>
@@ -13539,7 +13547,7 @@
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1">
       <c r="A164" s="153"/>
-      <c r="B164" s="170"/>
+      <c r="B164" s="173"/>
       <c r="C164" s="124">
         <v>162</v>
       </c>
@@ -13564,7 +13572,7 @@
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1">
       <c r="A165" s="153"/>
-      <c r="B165" s="170"/>
+      <c r="B165" s="173"/>
       <c r="C165" s="124">
         <v>163</v>
       </c>
@@ -13589,7 +13597,7 @@
     </row>
     <row r="166" spans="1:10" ht="17.25" customHeight="1">
       <c r="A166" s="153"/>
-      <c r="B166" s="170"/>
+      <c r="B166" s="173"/>
       <c r="C166" s="124">
         <v>164</v>
       </c>
@@ -13614,7 +13622,7 @@
     </row>
     <row r="167" spans="1:10" ht="17.25" customHeight="1">
       <c r="A167" s="153"/>
-      <c r="B167" s="170"/>
+      <c r="B167" s="173"/>
       <c r="C167" s="124">
         <v>165</v>
       </c>
@@ -13639,7 +13647,7 @@
     </row>
     <row r="168" spans="1:10" ht="17.25" customHeight="1">
       <c r="A168" s="153"/>
-      <c r="B168" s="170"/>
+      <c r="B168" s="173"/>
       <c r="C168" s="124">
         <v>166</v>
       </c>
@@ -13664,7 +13672,7 @@
     </row>
     <row r="169" spans="1:10" ht="17.25" customHeight="1">
       <c r="A169" s="153"/>
-      <c r="B169" s="170"/>
+      <c r="B169" s="173"/>
       <c r="C169" s="124">
         <v>167</v>
       </c>
@@ -13689,7 +13697,7 @@
     </row>
     <row r="170" spans="1:10" ht="17.25" customHeight="1">
       <c r="A170" s="153"/>
-      <c r="B170" s="170"/>
+      <c r="B170" s="173"/>
       <c r="C170" s="124">
         <v>168</v>
       </c>
@@ -13714,7 +13722,7 @@
     </row>
     <row r="171" spans="1:10" ht="17.25" customHeight="1">
       <c r="A171" s="153"/>
-      <c r="B171" s="170"/>
+      <c r="B171" s="173"/>
       <c r="C171" s="124">
         <v>169</v>
       </c>
@@ -13739,7 +13747,7 @@
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1">
       <c r="A172" s="153"/>
-      <c r="B172" s="170"/>
+      <c r="B172" s="173"/>
       <c r="C172" s="124">
         <v>170</v>
       </c>
@@ -13764,7 +13772,7 @@
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1">
       <c r="A173" s="153"/>
-      <c r="B173" s="170"/>
+      <c r="B173" s="173"/>
       <c r="C173" s="124">
         <v>171</v>
       </c>
@@ -13789,7 +13797,7 @@
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1">
       <c r="A174" s="153"/>
-      <c r="B174" s="150" t="s">
+      <c r="B174" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="124">
@@ -13816,7 +13824,7 @@
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1">
       <c r="A175" s="153"/>
-      <c r="B175" s="170"/>
+      <c r="B175" s="173"/>
       <c r="C175" s="124">
         <v>173</v>
       </c>
@@ -13841,7 +13849,7 @@
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1">
       <c r="A176" s="153"/>
-      <c r="B176" s="170"/>
+      <c r="B176" s="173"/>
       <c r="C176" s="124">
         <v>174</v>
       </c>
@@ -13866,7 +13874,7 @@
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1">
       <c r="A177" s="153"/>
-      <c r="B177" s="170"/>
+      <c r="B177" s="173"/>
       <c r="C177" s="124">
         <v>175</v>
       </c>
@@ -13891,7 +13899,7 @@
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1">
       <c r="A178" s="153"/>
-      <c r="B178" s="170"/>
+      <c r="B178" s="173"/>
       <c r="C178" s="124">
         <v>176</v>
       </c>
@@ -13916,7 +13924,7 @@
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1">
       <c r="A179" s="153"/>
-      <c r="B179" s="170"/>
+      <c r="B179" s="173"/>
       <c r="C179" s="124">
         <v>177</v>
       </c>
@@ -13941,7 +13949,7 @@
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1">
       <c r="A180" s="153"/>
-      <c r="B180" s="170"/>
+      <c r="B180" s="173"/>
       <c r="C180" s="124">
         <v>178</v>
       </c>
@@ -13965,8 +13973,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A181" s="171"/>
-      <c r="B181" s="172"/>
+      <c r="A181" s="174"/>
+      <c r="B181" s="175"/>
       <c r="C181" s="125">
         <v>179</v>
       </c>
@@ -14046,10 +14054,10 @@
       <c r="A186" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B186" s="169" t="s">
+      <c r="B186" s="177" t="s">
         <v>208</v>
       </c>
-      <c r="C186" s="168"/>
+      <c r="C186" s="172"/>
       <c r="G186" s="63"/>
       <c r="I186"/>
     </row>
@@ -14057,10 +14065,10 @@
       <c r="A187" s="2">
         <v>0</v>
       </c>
-      <c r="B187" s="167" t="s">
+      <c r="B187" s="171" t="s">
         <v>209</v>
       </c>
-      <c r="C187" s="168"/>
+      <c r="C187" s="172"/>
       <c r="G187" s="63"/>
       <c r="I187"/>
     </row>
@@ -14068,10 +14076,10 @@
       <c r="A188" s="2">
         <v>1</v>
       </c>
-      <c r="B188" s="167" t="s">
+      <c r="B188" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="C188" s="168"/>
+      <c r="C188" s="172"/>
       <c r="G188" s="63"/>
       <c r="I188"/>
     </row>
@@ -14079,10 +14087,10 @@
       <c r="A189" s="2">
         <v>2</v>
       </c>
-      <c r="B189" s="167" t="s">
+      <c r="B189" s="171" t="s">
         <v>211</v>
       </c>
-      <c r="C189" s="168"/>
+      <c r="C189" s="172"/>
       <c r="G189" s="63"/>
       <c r="I189"/>
     </row>
@@ -14090,10 +14098,10 @@
       <c r="A190" s="2">
         <v>3</v>
       </c>
-      <c r="B190" s="167" t="s">
+      <c r="B190" s="171" t="s">
         <v>212</v>
       </c>
-      <c r="C190" s="168"/>
+      <c r="C190" s="172"/>
       <c r="G190" s="63"/>
       <c r="I190"/>
     </row>
@@ -14101,10 +14109,10 @@
       <c r="A191" s="2">
         <v>4</v>
       </c>
-      <c r="B191" s="167" t="s">
+      <c r="B191" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="C191" s="168"/>
+      <c r="C191" s="172"/>
       <c r="G191" s="63"/>
       <c r="I191"/>
     </row>
@@ -14112,10 +14120,10 @@
       <c r="A192" s="2">
         <v>5</v>
       </c>
-      <c r="B192" s="167" t="s">
+      <c r="B192" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="C192" s="168"/>
+      <c r="C192" s="172"/>
       <c r="G192" s="63"/>
       <c r="I192"/>
     </row>
@@ -14123,10 +14131,10 @@
       <c r="A193" s="2">
         <v>6</v>
       </c>
-      <c r="B193" s="167" t="s">
+      <c r="B193" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="C193" s="168"/>
+      <c r="C193" s="172"/>
       <c r="G193" s="63"/>
       <c r="I193"/>
     </row>
@@ -14134,10 +14142,10 @@
       <c r="A194" s="2">
         <v>7</v>
       </c>
-      <c r="B194" s="167" t="s">
+      <c r="B194" s="171" t="s">
         <v>216</v>
       </c>
-      <c r="C194" s="168"/>
+      <c r="C194" s="172"/>
       <c r="G194" s="63"/>
       <c r="I194"/>
     </row>
@@ -14145,10 +14153,10 @@
       <c r="A195" s="2">
         <v>8</v>
       </c>
-      <c r="B195" s="167" t="s">
+      <c r="B195" s="171" t="s">
         <v>217</v>
       </c>
-      <c r="C195" s="168"/>
+      <c r="C195" s="172"/>
       <c r="G195" s="63"/>
       <c r="I195"/>
     </row>
@@ -14156,10 +14164,10 @@
       <c r="A196" s="2">
         <v>9</v>
       </c>
-      <c r="B196" s="167" t="s">
+      <c r="B196" s="171" t="s">
         <v>218</v>
       </c>
-      <c r="C196" s="168"/>
+      <c r="C196" s="172"/>
       <c r="G196" s="63"/>
       <c r="I196"/>
     </row>
@@ -14167,10 +14175,10 @@
       <c r="A197" s="2">
         <v>10</v>
       </c>
-      <c r="B197" s="167" t="s">
+      <c r="B197" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="C197" s="168"/>
+      <c r="C197" s="172"/>
       <c r="G197" s="63"/>
       <c r="I197"/>
     </row>
@@ -14178,10 +14186,10 @@
       <c r="A198" s="2">
         <v>11</v>
       </c>
-      <c r="B198" s="167" t="s">
+      <c r="B198" s="171" t="s">
         <v>220</v>
       </c>
-      <c r="C198" s="168"/>
+      <c r="C198" s="172"/>
       <c r="G198" s="63"/>
       <c r="I198"/>
     </row>
@@ -14189,10 +14197,10 @@
       <c r="A199" s="2">
         <v>12</v>
       </c>
-      <c r="B199" s="167" t="s">
+      <c r="B199" s="171" t="s">
         <v>221</v>
       </c>
-      <c r="C199" s="168"/>
+      <c r="C199" s="172"/>
       <c r="G199" s="63"/>
       <c r="I199"/>
     </row>
@@ -14200,42 +14208,50 @@
       <c r="A200" s="2">
         <v>13</v>
       </c>
-      <c r="B200" s="167" t="s">
+      <c r="B200" s="171" t="s">
         <v>222</v>
       </c>
-      <c r="C200" s="168"/>
+      <c r="C200" s="172"/>
       <c r="I200"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2">
         <v>14</v>
       </c>
-      <c r="B201" s="169" t="s">
+      <c r="B201" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="C201" s="168"/>
+      <c r="C201" s="172"/>
       <c r="I201"/>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2">
         <v>15</v>
       </c>
-      <c r="B202" s="169" t="s">
+      <c r="B202" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="C202" s="168"/>
+      <c r="C202" s="172"/>
       <c r="I202"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B189:C189"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:A49"/>
@@ -14252,22 +14268,14 @@
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B41"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14301,35 +14309,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="191" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="181"/>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="184" t="s">
         <v>267</v>
       </c>
       <c r="D1" s="181" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="184" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="184" t="s">
         <v>536</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="177"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
       <c r="G2" s="98" t="s">
         <v>270</v>
       </c>
@@ -14341,10 +14349,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="165" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="179" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="102">
@@ -14370,8 +14378,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="160"/>
-      <c r="B4" s="188"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="102">
         <v>1</v>
       </c>
@@ -14395,8 +14403,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="160"/>
-      <c r="B5" s="188"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="102">
         <v>2</v>
       </c>
@@ -14420,8 +14428,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="160"/>
-      <c r="B6" s="188"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="102">
         <v>3</v>
       </c>
@@ -14445,8 +14453,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="160"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="102">
         <v>4</v>
       </c>
@@ -14470,8 +14478,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="160"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="102">
         <v>5</v>
       </c>
@@ -14495,8 +14503,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="160"/>
-      <c r="B9" s="184" t="s">
+      <c r="A9" s="165"/>
+      <c r="B9" s="179" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="102">
@@ -14522,8 +14530,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="160"/>
-      <c r="B10" s="184"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="102">
         <v>7</v>
       </c>
@@ -14547,8 +14555,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="160"/>
-      <c r="B11" s="184"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="179"/>
       <c r="C11" s="102">
         <v>8</v>
       </c>
@@ -14572,8 +14580,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="160"/>
-      <c r="B12" s="184"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="102">
         <v>9</v>
       </c>
@@ -14597,8 +14605,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="160"/>
-      <c r="B13" s="184"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="102">
         <v>10</v>
       </c>
@@ -14622,8 +14630,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="160"/>
-      <c r="B14" s="184"/>
+      <c r="A14" s="165"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="102">
         <v>11</v>
       </c>
@@ -14647,8 +14655,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="160"/>
-      <c r="B15" s="184"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="102">
         <v>12</v>
       </c>
@@ -14672,8 +14680,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="160"/>
-      <c r="B16" s="184"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="102">
         <v>13</v>
       </c>
@@ -14697,8 +14705,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="160"/>
-      <c r="B17" s="184"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="102">
         <v>14</v>
       </c>
@@ -14722,8 +14730,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="160"/>
-      <c r="B18" s="184"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="102">
         <v>15</v>
       </c>
@@ -14747,8 +14755,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="160"/>
-      <c r="B19" s="184"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="102">
         <v>16</v>
       </c>
@@ -14772,8 +14780,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="160"/>
-      <c r="B20" s="184"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="102">
         <v>17</v>
       </c>
@@ -14797,8 +14805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="160"/>
-      <c r="B21" s="184"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="102">
         <v>18</v>
       </c>
@@ -14822,8 +14830,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="160"/>
-      <c r="B22" s="184"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="102">
         <v>19</v>
       </c>
@@ -14847,8 +14855,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="160"/>
-      <c r="B23" s="184"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="179"/>
       <c r="C23" s="102">
         <v>20</v>
       </c>
@@ -14872,8 +14880,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="160"/>
-      <c r="B24" s="184"/>
+      <c r="A24" s="165"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="102">
         <v>21</v>
       </c>
@@ -14897,8 +14905,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="160"/>
-      <c r="B25" s="184"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="102">
         <v>22</v>
       </c>
@@ -14922,8 +14930,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="160"/>
-      <c r="B26" s="184"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="102">
         <v>23</v>
       </c>
@@ -14947,10 +14955,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="165" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="184" t="s">
+      <c r="B27" s="179" t="s">
         <v>363</v>
       </c>
       <c r="C27" s="102">
@@ -14976,8 +14984,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="160"/>
-      <c r="B28" s="185"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="188"/>
       <c r="C28" s="102">
         <v>25</v>
       </c>
@@ -15001,8 +15009,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="160"/>
-      <c r="B29" s="185"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="102">
         <v>26</v>
       </c>
@@ -15026,8 +15034,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="160"/>
-      <c r="B30" s="185"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="102">
         <v>27</v>
       </c>
@@ -15051,8 +15059,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="160"/>
-      <c r="B31" s="185"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="188"/>
       <c r="C31" s="102">
         <v>28</v>
       </c>
@@ -15076,8 +15084,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
-      <c r="A32" s="160"/>
-      <c r="B32" s="185"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="188"/>
       <c r="C32" s="102">
         <v>29</v>
       </c>
@@ -15101,8 +15109,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
-      <c r="A33" s="160"/>
-      <c r="B33" s="184" t="s">
+      <c r="A33" s="165"/>
+      <c r="B33" s="179" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="102">
@@ -15128,8 +15136,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1">
-      <c r="A34" s="160"/>
-      <c r="B34" s="184"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="102">
         <v>31</v>
       </c>
@@ -15153,8 +15161,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
-      <c r="A35" s="160"/>
-      <c r="B35" s="184"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="102">
         <v>32</v>
       </c>
@@ -15178,8 +15186,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1">
-      <c r="A36" s="160"/>
-      <c r="B36" s="184"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="102">
         <v>33</v>
       </c>
@@ -15203,8 +15211,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1">
-      <c r="A37" s="160"/>
-      <c r="B37" s="184"/>
+      <c r="A37" s="165"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="102">
         <v>34</v>
       </c>
@@ -15228,8 +15236,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1">
-      <c r="A38" s="160"/>
-      <c r="B38" s="184"/>
+      <c r="A38" s="165"/>
+      <c r="B38" s="179"/>
       <c r="C38" s="102">
         <v>35</v>
       </c>
@@ -15253,8 +15261,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1">
-      <c r="A39" s="160"/>
-      <c r="B39" s="184"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="179"/>
       <c r="C39" s="102">
         <v>36</v>
       </c>
@@ -15278,8 +15286,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="160"/>
-      <c r="B40" s="184"/>
+      <c r="A40" s="165"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="102">
         <v>37</v>
       </c>
@@ -15303,8 +15311,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1">
-      <c r="A41" s="160"/>
-      <c r="B41" s="184"/>
+      <c r="A41" s="165"/>
+      <c r="B41" s="179"/>
       <c r="C41" s="102">
         <v>38</v>
       </c>
@@ -15328,8 +15336,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1">
-      <c r="A42" s="160"/>
-      <c r="B42" s="184"/>
+      <c r="A42" s="165"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="102">
         <v>39</v>
       </c>
@@ -15353,8 +15361,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1">
-      <c r="A43" s="160"/>
-      <c r="B43" s="184"/>
+      <c r="A43" s="165"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="102">
         <v>40</v>
       </c>
@@ -15378,8 +15386,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1">
-      <c r="A44" s="160"/>
-      <c r="B44" s="184"/>
+      <c r="A44" s="165"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="102">
         <v>41</v>
       </c>
@@ -15403,8 +15411,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1">
-      <c r="A45" s="160"/>
-      <c r="B45" s="184"/>
+      <c r="A45" s="165"/>
+      <c r="B45" s="179"/>
       <c r="C45" s="102">
         <v>42</v>
       </c>
@@ -15428,8 +15436,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1">
-      <c r="A46" s="160"/>
-      <c r="B46" s="184"/>
+      <c r="A46" s="165"/>
+      <c r="B46" s="179"/>
       <c r="C46" s="102">
         <v>43</v>
       </c>
@@ -15453,8 +15461,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1">
-      <c r="A47" s="160"/>
-      <c r="B47" s="184"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="179"/>
       <c r="C47" s="102">
         <v>44</v>
       </c>
@@ -15478,8 +15486,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" customHeight="1">
-      <c r="A48" s="160"/>
-      <c r="B48" s="184"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="179"/>
       <c r="C48" s="102">
         <v>45</v>
       </c>
@@ -15503,8 +15511,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1">
-      <c r="A49" s="160"/>
-      <c r="B49" s="184"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="102">
         <v>46</v>
       </c>
@@ -15528,8 +15536,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1">
-      <c r="A50" s="160"/>
-      <c r="B50" s="184"/>
+      <c r="A50" s="165"/>
+      <c r="B50" s="179"/>
       <c r="C50" s="102">
         <v>47</v>
       </c>
@@ -15553,8 +15561,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1">
-      <c r="A51" s="160"/>
-      <c r="B51" s="184"/>
+      <c r="A51" s="165"/>
+      <c r="B51" s="179"/>
       <c r="C51" s="102">
         <v>48</v>
       </c>
@@ -15578,8 +15586,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1">
-      <c r="A52" s="160"/>
-      <c r="B52" s="184"/>
+      <c r="A52" s="165"/>
+      <c r="B52" s="179"/>
       <c r="C52" s="102">
         <v>49</v>
       </c>
@@ -15603,8 +15611,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1">
-      <c r="A53" s="160"/>
-      <c r="B53" s="184"/>
+      <c r="A53" s="165"/>
+      <c r="B53" s="179"/>
       <c r="C53" s="102">
         <v>50</v>
       </c>
@@ -15628,8 +15636,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1">
-      <c r="A54" s="160"/>
-      <c r="B54" s="184"/>
+      <c r="A54" s="165"/>
+      <c r="B54" s="179"/>
       <c r="C54" s="102">
         <v>51</v>
       </c>
@@ -15653,8 +15661,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1">
-      <c r="A55" s="160"/>
-      <c r="B55" s="184"/>
+      <c r="A55" s="165"/>
+      <c r="B55" s="179"/>
       <c r="C55" s="102">
         <v>52</v>
       </c>
@@ -15678,8 +15686,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1">
-      <c r="A56" s="160"/>
-      <c r="B56" s="184"/>
+      <c r="A56" s="165"/>
+      <c r="B56" s="179"/>
       <c r="C56" s="102">
         <v>53</v>
       </c>
@@ -15703,8 +15711,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" customHeight="1">
-      <c r="A57" s="160"/>
-      <c r="B57" s="184"/>
+      <c r="A57" s="165"/>
+      <c r="B57" s="179"/>
       <c r="C57" s="102">
         <v>54</v>
       </c>
@@ -15728,8 +15736,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" customHeight="1">
-      <c r="A58" s="160"/>
-      <c r="B58" s="184"/>
+      <c r="A58" s="165"/>
+      <c r="B58" s="179"/>
       <c r="C58" s="102">
         <v>55</v>
       </c>
@@ -15753,8 +15761,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" customHeight="1">
-      <c r="A59" s="160"/>
-      <c r="B59" s="184"/>
+      <c r="A59" s="165"/>
+      <c r="B59" s="179"/>
       <c r="C59" s="102">
         <v>56</v>
       </c>
@@ -15778,8 +15786,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" customHeight="1">
-      <c r="A60" s="160"/>
-      <c r="B60" s="184"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="179"/>
       <c r="C60" s="102">
         <v>57</v>
       </c>
@@ -15803,8 +15811,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1">
-      <c r="A61" s="190"/>
-      <c r="B61" s="189"/>
+      <c r="A61" s="187"/>
+      <c r="B61" s="186"/>
       <c r="C61" s="102">
         <v>58</v>
       </c>
@@ -15828,8 +15836,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" customHeight="1">
-      <c r="A62" s="190"/>
-      <c r="B62" s="189"/>
+      <c r="A62" s="187"/>
+      <c r="B62" s="186"/>
       <c r="C62" s="102">
         <v>59</v>
       </c>
@@ -15853,10 +15861,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" customHeight="1">
-      <c r="A63" s="160" t="s">
+      <c r="A63" s="165" t="s">
         <v>502</v>
       </c>
-      <c r="B63" s="184" t="s">
+      <c r="B63" s="179" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="102">
@@ -15882,8 +15890,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" customHeight="1">
-      <c r="A64" s="160"/>
-      <c r="B64" s="185"/>
+      <c r="A64" s="165"/>
+      <c r="B64" s="188"/>
       <c r="C64" s="102">
         <v>61</v>
       </c>
@@ -15907,8 +15915,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" customHeight="1">
-      <c r="A65" s="160"/>
-      <c r="B65" s="185"/>
+      <c r="A65" s="165"/>
+      <c r="B65" s="188"/>
       <c r="C65" s="102">
         <v>62</v>
       </c>
@@ -15932,8 +15940,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" customHeight="1">
-      <c r="A66" s="160"/>
-      <c r="B66" s="185"/>
+      <c r="A66" s="165"/>
+      <c r="B66" s="188"/>
       <c r="C66" s="102">
         <v>63</v>
       </c>
@@ -15957,8 +15965,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1">
-      <c r="A67" s="160"/>
-      <c r="B67" s="185"/>
+      <c r="A67" s="165"/>
+      <c r="B67" s="188"/>
       <c r="C67" s="102">
         <v>64</v>
       </c>
@@ -15982,8 +15990,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" customHeight="1">
-      <c r="A68" s="160"/>
-      <c r="B68" s="185"/>
+      <c r="A68" s="165"/>
+      <c r="B68" s="188"/>
       <c r="C68" s="102">
         <v>65</v>
       </c>
@@ -16007,8 +16015,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1">
-      <c r="A69" s="160"/>
-      <c r="B69" s="184" t="s">
+      <c r="A69" s="165"/>
+      <c r="B69" s="179" t="s">
         <v>206</v>
       </c>
       <c r="C69" s="102">
@@ -16034,8 +16042,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" customHeight="1">
-      <c r="A70" s="160"/>
-      <c r="B70" s="184"/>
+      <c r="A70" s="165"/>
+      <c r="B70" s="179"/>
       <c r="C70" s="102">
         <v>67</v>
       </c>
@@ -16059,8 +16067,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" customHeight="1">
-      <c r="A71" s="160"/>
-      <c r="B71" s="184"/>
+      <c r="A71" s="165"/>
+      <c r="B71" s="179"/>
       <c r="C71" s="102">
         <v>68</v>
       </c>
@@ -16084,8 +16092,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" customHeight="1">
-      <c r="A72" s="160"/>
-      <c r="B72" s="184"/>
+      <c r="A72" s="165"/>
+      <c r="B72" s="179"/>
       <c r="C72" s="102">
         <v>69</v>
       </c>
@@ -16109,8 +16117,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1">
-      <c r="A73" s="160"/>
-      <c r="B73" s="184"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="179"/>
       <c r="C73" s="102">
         <v>70</v>
       </c>
@@ -16134,8 +16142,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1">
-      <c r="A74" s="160"/>
-      <c r="B74" s="184"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="179"/>
       <c r="C74" s="102">
         <v>71</v>
       </c>
@@ -16159,8 +16167,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1">
-      <c r="A75" s="160"/>
-      <c r="B75" s="184"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="179"/>
       <c r="C75" s="102">
         <v>72</v>
       </c>
@@ -16184,8 +16192,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1">
-      <c r="A76" s="160"/>
-      <c r="B76" s="184"/>
+      <c r="A76" s="165"/>
+      <c r="B76" s="179"/>
       <c r="C76" s="102">
         <v>73</v>
       </c>
@@ -16209,8 +16217,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1">
-      <c r="A77" s="160"/>
-      <c r="B77" s="184"/>
+      <c r="A77" s="165"/>
+      <c r="B77" s="179"/>
       <c r="C77" s="102">
         <v>74</v>
       </c>
@@ -16234,8 +16242,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1">
-      <c r="A78" s="160"/>
-      <c r="B78" s="184"/>
+      <c r="A78" s="165"/>
+      <c r="B78" s="179"/>
       <c r="C78" s="102">
         <v>75</v>
       </c>
@@ -16259,8 +16267,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" customHeight="1">
-      <c r="A79" s="160"/>
-      <c r="B79" s="184"/>
+      <c r="A79" s="165"/>
+      <c r="B79" s="179"/>
       <c r="C79" s="102">
         <v>76</v>
       </c>
@@ -16284,8 +16292,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" customHeight="1">
-      <c r="A80" s="160"/>
-      <c r="B80" s="184"/>
+      <c r="A80" s="165"/>
+      <c r="B80" s="179"/>
       <c r="C80" s="102">
         <v>77</v>
       </c>
@@ -16309,8 +16317,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" customHeight="1">
-      <c r="A81" s="160"/>
-      <c r="B81" s="184"/>
+      <c r="A81" s="165"/>
+      <c r="B81" s="179"/>
       <c r="C81" s="102">
         <v>78</v>
       </c>
@@ -16334,8 +16342,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" customHeight="1">
-      <c r="A82" s="160"/>
-      <c r="B82" s="184"/>
+      <c r="A82" s="165"/>
+      <c r="B82" s="179"/>
       <c r="C82" s="102">
         <v>79</v>
       </c>
@@ -16359,8 +16367,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" customHeight="1">
-      <c r="A83" s="160"/>
-      <c r="B83" s="184"/>
+      <c r="A83" s="165"/>
+      <c r="B83" s="179"/>
       <c r="C83" s="102">
         <v>80</v>
       </c>
@@ -16384,8 +16392,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" customHeight="1">
-      <c r="A84" s="160"/>
-      <c r="B84" s="184"/>
+      <c r="A84" s="165"/>
+      <c r="B84" s="179"/>
       <c r="C84" s="102">
         <v>81</v>
       </c>
@@ -16409,8 +16417,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" customHeight="1">
-      <c r="A85" s="160"/>
-      <c r="B85" s="184"/>
+      <c r="A85" s="165"/>
+      <c r="B85" s="179"/>
       <c r="C85" s="102">
         <v>82</v>
       </c>
@@ -16434,8 +16442,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="18" customHeight="1">
-      <c r="A86" s="160"/>
-      <c r="B86" s="184"/>
+      <c r="A86" s="165"/>
+      <c r="B86" s="179"/>
       <c r="C86" s="102">
         <v>83</v>
       </c>
@@ -16459,8 +16467,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" customHeight="1">
-      <c r="A87" s="160"/>
-      <c r="B87" s="184"/>
+      <c r="A87" s="165"/>
+      <c r="B87" s="179"/>
       <c r="C87" s="102">
         <v>84</v>
       </c>
@@ -16484,8 +16492,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="18" customHeight="1">
-      <c r="A88" s="160"/>
-      <c r="B88" s="184"/>
+      <c r="A88" s="165"/>
+      <c r="B88" s="179"/>
       <c r="C88" s="102">
         <v>85</v>
       </c>
@@ -16509,8 +16517,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" customHeight="1">
-      <c r="A89" s="160"/>
-      <c r="B89" s="184"/>
+      <c r="A89" s="165"/>
+      <c r="B89" s="179"/>
       <c r="C89" s="102">
         <v>86</v>
       </c>
@@ -16534,8 +16542,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="18" customHeight="1">
-      <c r="A90" s="160"/>
-      <c r="B90" s="184"/>
+      <c r="A90" s="165"/>
+      <c r="B90" s="179"/>
       <c r="C90" s="102">
         <v>87</v>
       </c>
@@ -16559,8 +16567,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="18" customHeight="1">
-      <c r="A91" s="160"/>
-      <c r="B91" s="184"/>
+      <c r="A91" s="165"/>
+      <c r="B91" s="179"/>
       <c r="C91" s="102">
         <v>88</v>
       </c>
@@ -16584,8 +16592,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="18" customHeight="1">
-      <c r="A92" s="160"/>
-      <c r="B92" s="184"/>
+      <c r="A92" s="165"/>
+      <c r="B92" s="179"/>
       <c r="C92" s="102">
         <v>89</v>
       </c>
@@ -16609,8 +16617,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" customHeight="1">
-      <c r="A93" s="160"/>
-      <c r="B93" s="184"/>
+      <c r="A93" s="165"/>
+      <c r="B93" s="179"/>
       <c r="C93" s="102">
         <v>90</v>
       </c>
@@ -16634,8 +16642,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="18" customHeight="1">
-      <c r="A94" s="160"/>
-      <c r="B94" s="184"/>
+      <c r="A94" s="165"/>
+      <c r="B94" s="179"/>
       <c r="C94" s="102">
         <v>91</v>
       </c>
@@ -16659,8 +16667,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="18" customHeight="1">
-      <c r="A95" s="160"/>
-      <c r="B95" s="184"/>
+      <c r="A95" s="165"/>
+      <c r="B95" s="179"/>
       <c r="C95" s="102">
         <v>92</v>
       </c>
@@ -16684,8 +16692,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="18" customHeight="1">
-      <c r="A96" s="160"/>
-      <c r="B96" s="184"/>
+      <c r="A96" s="165"/>
+      <c r="B96" s="179"/>
       <c r="C96" s="102">
         <v>93</v>
       </c>
@@ -16709,8 +16717,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="18" customHeight="1">
-      <c r="A97" s="190"/>
-      <c r="B97" s="189"/>
+      <c r="A97" s="187"/>
+      <c r="B97" s="186"/>
       <c r="C97" s="102">
         <v>94</v>
       </c>
@@ -16734,8 +16742,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="18" customHeight="1">
-      <c r="A98" s="190"/>
-      <c r="B98" s="189"/>
+      <c r="A98" s="187"/>
+      <c r="B98" s="186"/>
       <c r="C98" s="102">
         <v>95</v>
       </c>
@@ -16759,10 +16767,10 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="18" customHeight="1">
-      <c r="A99" s="160" t="s">
+      <c r="A99" s="165" t="s">
         <v>503</v>
       </c>
-      <c r="B99" s="184" t="s">
+      <c r="B99" s="179" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="102">
@@ -16788,8 +16796,8 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="18" customHeight="1">
-      <c r="A100" s="160"/>
-      <c r="B100" s="185"/>
+      <c r="A100" s="165"/>
+      <c r="B100" s="188"/>
       <c r="C100" s="102">
         <v>97</v>
       </c>
@@ -16813,8 +16821,8 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="18" customHeight="1">
-      <c r="A101" s="160"/>
-      <c r="B101" s="185"/>
+      <c r="A101" s="165"/>
+      <c r="B101" s="188"/>
       <c r="C101" s="102">
         <v>98</v>
       </c>
@@ -16838,8 +16846,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" customHeight="1">
-      <c r="A102" s="160"/>
-      <c r="B102" s="185"/>
+      <c r="A102" s="165"/>
+      <c r="B102" s="188"/>
       <c r="C102" s="102">
         <v>99</v>
       </c>
@@ -16863,8 +16871,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="18" customHeight="1">
-      <c r="A103" s="160"/>
-      <c r="B103" s="185"/>
+      <c r="A103" s="165"/>
+      <c r="B103" s="188"/>
       <c r="C103" s="102">
         <v>100</v>
       </c>
@@ -16888,8 +16896,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" customHeight="1">
-      <c r="A104" s="160"/>
-      <c r="B104" s="185"/>
+      <c r="A104" s="165"/>
+      <c r="B104" s="188"/>
       <c r="C104" s="102">
         <v>101</v>
       </c>
@@ -16913,8 +16921,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="18" customHeight="1">
-      <c r="A105" s="160"/>
-      <c r="B105" s="184" t="s">
+      <c r="A105" s="165"/>
+      <c r="B105" s="179" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="102">
@@ -16940,8 +16948,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="18" customHeight="1">
-      <c r="A106" s="160"/>
-      <c r="B106" s="184"/>
+      <c r="A106" s="165"/>
+      <c r="B106" s="179"/>
       <c r="C106" s="102">
         <v>103</v>
       </c>
@@ -16965,8 +16973,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="18" customHeight="1">
-      <c r="A107" s="160"/>
-      <c r="B107" s="184"/>
+      <c r="A107" s="165"/>
+      <c r="B107" s="179"/>
       <c r="C107" s="102">
         <v>104</v>
       </c>
@@ -16990,8 +16998,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="18" customHeight="1">
-      <c r="A108" s="160"/>
-      <c r="B108" s="184"/>
+      <c r="A108" s="165"/>
+      <c r="B108" s="179"/>
       <c r="C108" s="102">
         <v>105</v>
       </c>
@@ -17015,8 +17023,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="18" customHeight="1">
-      <c r="A109" s="160"/>
-      <c r="B109" s="184"/>
+      <c r="A109" s="165"/>
+      <c r="B109" s="179"/>
       <c r="C109" s="102">
         <v>106</v>
       </c>
@@ -17040,8 +17048,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" customHeight="1">
-      <c r="A110" s="160"/>
-      <c r="B110" s="184"/>
+      <c r="A110" s="165"/>
+      <c r="B110" s="179"/>
       <c r="C110" s="102">
         <v>107</v>
       </c>
@@ -17065,8 +17073,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" customHeight="1">
-      <c r="A111" s="160"/>
-      <c r="B111" s="184"/>
+      <c r="A111" s="165"/>
+      <c r="B111" s="179"/>
       <c r="C111" s="102">
         <v>108</v>
       </c>
@@ -17090,8 +17098,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" customHeight="1">
-      <c r="A112" s="160"/>
-      <c r="B112" s="184"/>
+      <c r="A112" s="165"/>
+      <c r="B112" s="179"/>
       <c r="C112" s="102">
         <v>109</v>
       </c>
@@ -17115,8 +17123,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="18" customHeight="1">
-      <c r="A113" s="160"/>
-      <c r="B113" s="184"/>
+      <c r="A113" s="165"/>
+      <c r="B113" s="179"/>
       <c r="C113" s="102">
         <v>110</v>
       </c>
@@ -17140,8 +17148,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="18" customHeight="1">
-      <c r="A114" s="160"/>
-      <c r="B114" s="184"/>
+      <c r="A114" s="165"/>
+      <c r="B114" s="179"/>
       <c r="C114" s="102">
         <v>111</v>
       </c>
@@ -17165,8 +17173,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="18" customHeight="1">
-      <c r="A115" s="160"/>
-      <c r="B115" s="184"/>
+      <c r="A115" s="165"/>
+      <c r="B115" s="179"/>
       <c r="C115" s="102">
         <v>112</v>
       </c>
@@ -17190,8 +17198,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="18" customHeight="1">
-      <c r="A116" s="160"/>
-      <c r="B116" s="184"/>
+      <c r="A116" s="165"/>
+      <c r="B116" s="179"/>
       <c r="C116" s="102">
         <v>113</v>
       </c>
@@ -17215,8 +17223,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="18" customHeight="1">
-      <c r="A117" s="160"/>
-      <c r="B117" s="184"/>
+      <c r="A117" s="165"/>
+      <c r="B117" s="179"/>
       <c r="C117" s="102">
         <v>114</v>
       </c>
@@ -17240,8 +17248,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="18" customHeight="1">
-      <c r="A118" s="160"/>
-      <c r="B118" s="184"/>
+      <c r="A118" s="165"/>
+      <c r="B118" s="179"/>
       <c r="C118" s="102">
         <v>115</v>
       </c>
@@ -17265,8 +17273,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="18" customHeight="1">
-      <c r="A119" s="160"/>
-      <c r="B119" s="184"/>
+      <c r="A119" s="165"/>
+      <c r="B119" s="179"/>
       <c r="C119" s="102">
         <v>116</v>
       </c>
@@ -17290,8 +17298,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" customHeight="1">
-      <c r="A120" s="160"/>
-      <c r="B120" s="184"/>
+      <c r="A120" s="165"/>
+      <c r="B120" s="179"/>
       <c r="C120" s="102">
         <v>117</v>
       </c>
@@ -17315,8 +17323,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="18" customHeight="1">
-      <c r="A121" s="160"/>
-      <c r="B121" s="184"/>
+      <c r="A121" s="165"/>
+      <c r="B121" s="179"/>
       <c r="C121" s="102">
         <v>118</v>
       </c>
@@ -17340,8 +17348,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="18" customHeight="1">
-      <c r="A122" s="160"/>
-      <c r="B122" s="184"/>
+      <c r="A122" s="165"/>
+      <c r="B122" s="179"/>
       <c r="C122" s="102">
         <v>119</v>
       </c>
@@ -17365,8 +17373,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="18" customHeight="1">
-      <c r="A123" s="160"/>
-      <c r="B123" s="184"/>
+      <c r="A123" s="165"/>
+      <c r="B123" s="179"/>
       <c r="C123" s="102">
         <v>120</v>
       </c>
@@ -17390,8 +17398,8 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="18" customHeight="1">
-      <c r="A124" s="160"/>
-      <c r="B124" s="184"/>
+      <c r="A124" s="165"/>
+      <c r="B124" s="179"/>
       <c r="C124" s="102">
         <v>121</v>
       </c>
@@ -17415,8 +17423,8 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="18" customHeight="1">
-      <c r="A125" s="160"/>
-      <c r="B125" s="184"/>
+      <c r="A125" s="165"/>
+      <c r="B125" s="179"/>
       <c r="C125" s="102">
         <v>122</v>
       </c>
@@ -17440,8 +17448,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="18" customHeight="1">
-      <c r="A126" s="160"/>
-      <c r="B126" s="184"/>
+      <c r="A126" s="165"/>
+      <c r="B126" s="179"/>
       <c r="C126" s="102">
         <v>123</v>
       </c>
@@ -17465,8 +17473,8 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="18" customHeight="1">
-      <c r="A127" s="160"/>
-      <c r="B127" s="184"/>
+      <c r="A127" s="165"/>
+      <c r="B127" s="179"/>
       <c r="C127" s="102">
         <v>124</v>
       </c>
@@ -17490,8 +17498,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="18" customHeight="1">
-      <c r="A128" s="160"/>
-      <c r="B128" s="184"/>
+      <c r="A128" s="165"/>
+      <c r="B128" s="179"/>
       <c r="C128" s="102">
         <v>125</v>
       </c>
@@ -17515,8 +17523,8 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="18" customHeight="1">
-      <c r="A129" s="160"/>
-      <c r="B129" s="184"/>
+      <c r="A129" s="165"/>
+      <c r="B129" s="179"/>
       <c r="C129" s="102">
         <v>126</v>
       </c>
@@ -17540,8 +17548,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" customHeight="1">
-      <c r="A130" s="160"/>
-      <c r="B130" s="184"/>
+      <c r="A130" s="165"/>
+      <c r="B130" s="179"/>
       <c r="C130" s="102">
         <v>127</v>
       </c>
@@ -17565,8 +17573,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" customHeight="1">
-      <c r="A131" s="160"/>
-      <c r="B131" s="184"/>
+      <c r="A131" s="165"/>
+      <c r="B131" s="179"/>
       <c r="C131" s="102">
         <v>128</v>
       </c>
@@ -17590,8 +17598,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" customHeight="1">
-      <c r="A132" s="160"/>
-      <c r="B132" s="184"/>
+      <c r="A132" s="165"/>
+      <c r="B132" s="179"/>
       <c r="C132" s="102">
         <v>129</v>
       </c>
@@ -17615,8 +17623,8 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" customHeight="1">
-      <c r="A133" s="190"/>
-      <c r="B133" s="189"/>
+      <c r="A133" s="187"/>
+      <c r="B133" s="186"/>
       <c r="C133" s="102">
         <v>130</v>
       </c>
@@ -17640,8 +17648,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" customHeight="1">
-      <c r="A134" s="190"/>
-      <c r="B134" s="189"/>
+      <c r="A134" s="187"/>
+      <c r="B134" s="186"/>
       <c r="C134" s="102">
         <v>131</v>
       </c>
@@ -17665,10 +17673,10 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" customHeight="1">
-      <c r="A135" s="160" t="s">
+      <c r="A135" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="B135" s="184" t="s">
+      <c r="B135" s="179" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="102">
@@ -17694,8 +17702,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="18" customHeight="1">
-      <c r="A136" s="160"/>
-      <c r="B136" s="184"/>
+      <c r="A136" s="165"/>
+      <c r="B136" s="179"/>
       <c r="C136" s="102">
         <v>133</v>
       </c>
@@ -17719,8 +17727,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" customHeight="1">
-      <c r="A137" s="160"/>
-      <c r="B137" s="184"/>
+      <c r="A137" s="165"/>
+      <c r="B137" s="179"/>
       <c r="C137" s="102">
         <v>134</v>
       </c>
@@ -17742,8 +17750,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" customHeight="1">
-      <c r="A138" s="160"/>
-      <c r="B138" s="184"/>
+      <c r="A138" s="165"/>
+      <c r="B138" s="179"/>
       <c r="C138" s="102">
         <v>135</v>
       </c>
@@ -17767,8 +17775,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" customHeight="1">
-      <c r="A139" s="160"/>
-      <c r="B139" s="184"/>
+      <c r="A139" s="165"/>
+      <c r="B139" s="179"/>
       <c r="C139" s="102">
         <v>136</v>
       </c>
@@ -17792,8 +17800,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" customHeight="1">
-      <c r="A140" s="160"/>
-      <c r="B140" s="184"/>
+      <c r="A140" s="165"/>
+      <c r="B140" s="179"/>
       <c r="C140" s="102">
         <v>137</v>
       </c>
@@ -17817,8 +17825,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="18" customHeight="1">
-      <c r="A141" s="160"/>
-      <c r="B141" s="184"/>
+      <c r="A141" s="165"/>
+      <c r="B141" s="179"/>
       <c r="C141" s="102">
         <v>138</v>
       </c>
@@ -17842,8 +17850,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="18" customHeight="1">
-      <c r="A142" s="160"/>
-      <c r="B142" s="184"/>
+      <c r="A142" s="165"/>
+      <c r="B142" s="179"/>
       <c r="C142" s="102">
         <v>139</v>
       </c>
@@ -17867,8 +17875,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="18" customHeight="1">
-      <c r="A143" s="160"/>
-      <c r="B143" s="184"/>
+      <c r="A143" s="165"/>
+      <c r="B143" s="179"/>
       <c r="C143" s="102">
         <v>140</v>
       </c>
@@ -17892,8 +17900,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="18" customHeight="1">
-      <c r="A144" s="160"/>
-      <c r="B144" s="184"/>
+      <c r="A144" s="165"/>
+      <c r="B144" s="179"/>
       <c r="C144" s="102">
         <v>141</v>
       </c>
@@ -17917,8 +17925,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="18" customHeight="1">
-      <c r="A145" s="160"/>
-      <c r="B145" s="184"/>
+      <c r="A145" s="165"/>
+      <c r="B145" s="179"/>
       <c r="C145" s="102">
         <v>142</v>
       </c>
@@ -17942,8 +17950,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="18" customHeight="1">
-      <c r="A146" s="160"/>
-      <c r="B146" s="184"/>
+      <c r="A146" s="165"/>
+      <c r="B146" s="179"/>
       <c r="C146" s="102">
         <v>143</v>
       </c>
@@ -17967,8 +17975,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="18" customHeight="1">
-      <c r="A147" s="160"/>
-      <c r="B147" s="184"/>
+      <c r="A147" s="165"/>
+      <c r="B147" s="179"/>
       <c r="C147" s="102">
         <v>144</v>
       </c>
@@ -17992,8 +18000,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="18" customHeight="1">
-      <c r="A148" s="160"/>
-      <c r="B148" s="184"/>
+      <c r="A148" s="165"/>
+      <c r="B148" s="179"/>
       <c r="C148" s="102">
         <v>145</v>
       </c>
@@ -18017,8 +18025,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="18" customHeight="1">
-      <c r="A149" s="160"/>
-      <c r="B149" s="184"/>
+      <c r="A149" s="165"/>
+      <c r="B149" s="179"/>
       <c r="C149" s="102">
         <v>146</v>
       </c>
@@ -18042,8 +18050,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="18" customHeight="1">
-      <c r="A150" s="160"/>
-      <c r="B150" s="184"/>
+      <c r="A150" s="165"/>
+      <c r="B150" s="179"/>
       <c r="C150" s="102">
         <v>147</v>
       </c>
@@ -18067,8 +18075,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="18" customHeight="1">
-      <c r="A151" s="160"/>
-      <c r="B151" s="184"/>
+      <c r="A151" s="165"/>
+      <c r="B151" s="179"/>
       <c r="C151" s="102">
         <v>148</v>
       </c>
@@ -18092,8 +18100,8 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="18" customHeight="1">
-      <c r="A152" s="160"/>
-      <c r="B152" s="184"/>
+      <c r="A152" s="165"/>
+      <c r="B152" s="179"/>
       <c r="C152" s="102">
         <v>149</v>
       </c>
@@ -18117,8 +18125,8 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="18" customHeight="1">
-      <c r="A153" s="160"/>
-      <c r="B153" s="184"/>
+      <c r="A153" s="165"/>
+      <c r="B153" s="179"/>
       <c r="C153" s="102">
         <v>150</v>
       </c>
@@ -18142,8 +18150,8 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="18" customHeight="1">
-      <c r="A154" s="160"/>
-      <c r="B154" s="184"/>
+      <c r="A154" s="165"/>
+      <c r="B154" s="179"/>
       <c r="C154" s="102">
         <v>151</v>
       </c>
@@ -18167,8 +18175,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="18" customHeight="1">
-      <c r="A155" s="160"/>
-      <c r="B155" s="184"/>
+      <c r="A155" s="165"/>
+      <c r="B155" s="179"/>
       <c r="C155" s="102">
         <v>152</v>
       </c>
@@ -18192,8 +18200,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="18" customHeight="1">
-      <c r="A156" s="160"/>
-      <c r="B156" s="184"/>
+      <c r="A156" s="165"/>
+      <c r="B156" s="179"/>
       <c r="C156" s="102">
         <v>153</v>
       </c>
@@ -18217,8 +18225,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="18" customHeight="1">
-      <c r="A157" s="160"/>
-      <c r="B157" s="184"/>
+      <c r="A157" s="165"/>
+      <c r="B157" s="179"/>
       <c r="C157" s="102">
         <v>154</v>
       </c>
@@ -18242,8 +18250,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="18" customHeight="1">
-      <c r="A158" s="160"/>
-      <c r="B158" s="184"/>
+      <c r="A158" s="165"/>
+      <c r="B158" s="179"/>
       <c r="C158" s="102">
         <v>155</v>
       </c>
@@ -18267,8 +18275,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="18" customHeight="1">
-      <c r="A159" s="160"/>
-      <c r="B159" s="184"/>
+      <c r="A159" s="165"/>
+      <c r="B159" s="179"/>
       <c r="C159" s="102">
         <v>156</v>
       </c>
@@ -18292,8 +18300,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="18" customHeight="1">
-      <c r="A160" s="160"/>
-      <c r="B160" s="184"/>
+      <c r="A160" s="165"/>
+      <c r="B160" s="179"/>
       <c r="C160" s="102">
         <v>157</v>
       </c>
@@ -18317,8 +18325,8 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="18" customHeight="1">
-      <c r="A161" s="160"/>
-      <c r="B161" s="184"/>
+      <c r="A161" s="165"/>
+      <c r="B161" s="179"/>
       <c r="C161" s="102">
         <v>158</v>
       </c>
@@ -18342,8 +18350,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="18" customHeight="1">
-      <c r="A162" s="160"/>
-      <c r="B162" s="184"/>
+      <c r="A162" s="165"/>
+      <c r="B162" s="179"/>
       <c r="C162" s="102">
         <v>159</v>
       </c>
@@ -18367,8 +18375,8 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="18" customHeight="1">
-      <c r="A163" s="160"/>
-      <c r="B163" s="184"/>
+      <c r="A163" s="165"/>
+      <c r="B163" s="179"/>
       <c r="C163" s="102">
         <v>160</v>
       </c>
@@ -18392,8 +18400,8 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="18" customHeight="1">
-      <c r="A164" s="160"/>
-      <c r="B164" s="184"/>
+      <c r="A164" s="165"/>
+      <c r="B164" s="179"/>
       <c r="C164" s="102">
         <v>161</v>
       </c>
@@ -18420,8 +18428,8 @@
       <c r="L164" s="12"/>
     </row>
     <row r="165" spans="1:12" ht="18" customHeight="1">
-      <c r="A165" s="160"/>
-      <c r="B165" s="184"/>
+      <c r="A165" s="165"/>
+      <c r="B165" s="179"/>
       <c r="C165" s="102">
         <v>162</v>
       </c>
@@ -18448,8 +18456,8 @@
       <c r="L165" s="12"/>
     </row>
     <row r="166" spans="1:12" ht="18" customHeight="1">
-      <c r="A166" s="160"/>
-      <c r="B166" s="184"/>
+      <c r="A166" s="165"/>
+      <c r="B166" s="179"/>
       <c r="C166" s="102">
         <v>163</v>
       </c>
@@ -18476,8 +18484,8 @@
       <c r="L166" s="12"/>
     </row>
     <row r="167" spans="1:12" ht="18" customHeight="1">
-      <c r="A167" s="160"/>
-      <c r="B167" s="184"/>
+      <c r="A167" s="165"/>
+      <c r="B167" s="179"/>
       <c r="C167" s="102">
         <v>164</v>
       </c>
@@ -18501,8 +18509,8 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A168" s="186"/>
-      <c r="B168" s="187"/>
+      <c r="A168" s="178"/>
+      <c r="B168" s="180"/>
       <c r="C168" s="105">
         <v>165</v>
       </c>
@@ -18527,6 +18535,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B27:B32"/>
     <mergeCell ref="A135:A168"/>
     <mergeCell ref="B135:B168"/>
     <mergeCell ref="D1:D2"/>
@@ -18542,11 +18555,6 @@
     <mergeCell ref="A99:A134"/>
     <mergeCell ref="B99:B104"/>
     <mergeCell ref="B105:B134"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18578,10 +18586,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="161"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -18599,7 +18607,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -18622,7 +18630,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="161"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="102" t="s">
         <v>13</v>
       </c>
@@ -18643,7 +18651,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="165" t="s">
         <v>302</v>
       </c>
       <c r="B4" s="102" t="s">
@@ -18666,8 +18674,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="163" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -18687,8 +18695,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="161"/>
-      <c r="B6" s="163"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -18706,8 +18714,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="161"/>
-      <c r="B7" s="163"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="102">
         <v>5</v>
       </c>
@@ -18725,8 +18733,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="163"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="102">
         <v>6</v>
       </c>
@@ -18744,8 +18752,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="161"/>
-      <c r="B9" s="163"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="102">
         <v>7</v>
       </c>
@@ -18763,8 +18771,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="161"/>
-      <c r="B10" s="163"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="102">
         <v>8</v>
       </c>
@@ -18782,8 +18790,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="161"/>
-      <c r="B11" s="163"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="102">
         <v>9</v>
       </c>
@@ -18801,8 +18809,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="161"/>
-      <c r="B12" s="163"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -18820,8 +18828,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="161"/>
-      <c r="B13" s="163"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -18839,8 +18847,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="102">
         <v>12</v>
       </c>
@@ -18858,10 +18866,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="165" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="168" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="102">
@@ -18881,8 +18889,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="102">
         <v>14</v>
       </c>
@@ -18900,8 +18908,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="163"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -18919,8 +18927,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="161"/>
-      <c r="B18" s="163" t="s">
+      <c r="A18" s="166"/>
+      <c r="B18" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="102">
@@ -18940,8 +18948,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="161"/>
-      <c r="B19" s="163"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="102">
         <v>17</v>
       </c>
@@ -18959,8 +18967,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="102">
         <v>18</v>
       </c>
@@ -18978,8 +18986,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="102">
         <v>19</v>
       </c>
@@ -18997,8 +19005,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="161"/>
-      <c r="B22" s="163"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -19016,10 +19024,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="160" t="s">
+      <c r="A23" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="168" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="102">
@@ -19039,8 +19047,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="161"/>
-      <c r="B24" s="163"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="102">
         <v>22</v>
       </c>
@@ -19058,8 +19066,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="161"/>
-      <c r="B25" s="163"/>
+      <c r="A25" s="166"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="102">
         <v>23</v>
       </c>
@@ -19077,8 +19085,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="161"/>
-      <c r="B26" s="163" t="s">
+      <c r="A26" s="166"/>
+      <c r="B26" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="102">
@@ -19098,8 +19106,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1">
-      <c r="A27" s="161"/>
-      <c r="B27" s="163"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="102">
         <v>25</v>
       </c>
@@ -19117,8 +19125,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="161"/>
-      <c r="B28" s="163"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="102">
         <v>26</v>
       </c>
@@ -19136,8 +19144,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="161"/>
-      <c r="B29" s="163"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="102">
         <v>27</v>
       </c>
@@ -19155,8 +19163,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="102">
         <v>28</v>
       </c>
@@ -19174,10 +19182,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="165" t="s">
         <v>441</v>
       </c>
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="168" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="102">
@@ -19197,8 +19205,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1">
-      <c r="A32" s="161"/>
-      <c r="B32" s="163"/>
+      <c r="A32" s="166"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="102">
         <v>30</v>
       </c>
@@ -19216,8 +19224,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="161"/>
-      <c r="B33" s="163"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="102">
         <v>31</v>
       </c>
@@ -19235,8 +19243,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1">
-      <c r="A34" s="161"/>
-      <c r="B34" s="163" t="s">
+      <c r="A34" s="166"/>
+      <c r="B34" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="102">
@@ -19256,8 +19264,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1">
-      <c r="A35" s="161"/>
-      <c r="B35" s="163"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="102">
         <v>33</v>
       </c>
@@ -19275,8 +19283,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1">
-      <c r="A36" s="161"/>
-      <c r="B36" s="163"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="102">
         <v>34</v>
       </c>
@@ -19294,8 +19302,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1">
-      <c r="A37" s="161"/>
-      <c r="B37" s="163"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="102">
         <v>35</v>
       </c>
@@ -19313,8 +19321,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="162"/>
-      <c r="B38" s="191"/>
+      <c r="A38" s="167"/>
+      <c r="B38" s="193"/>
       <c r="C38" s="105">
         <v>36</v>
       </c>
@@ -19426,7 +19434,7 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A4" s="157"/>
+      <c r="A4" s="154"/>
       <c r="B4" s="107" t="s">
         <v>290</v>
       </c>
@@ -19472,7 +19480,7 @@
       <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="157"/>
+      <c r="A7" s="154"/>
       <c r="B7" s="107" t="s">
         <v>526</v>
       </c>
@@ -19485,7 +19493,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A8" s="158"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="112" t="s">
         <v>527</v>
       </c>
@@ -19506,31 +19514,31 @@
       <c r="F9" s="85"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="194" t="s">
         <v>531</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="194" t="s">
         <v>532</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="194" t="s">
         <v>533</v>
       </c>
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -19985,10 +19993,10 @@
       <c r="A3" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="194"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="37" t="s">
         <v>229</v>
       </c>
@@ -20000,7 +20008,7 @@
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="197" t="s">
         <v>371</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -20009,7 +20017,7 @@
       <c r="C4" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="195"/>
+      <c r="D4" s="197"/>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -20018,14 +20026,14 @@
       <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A5" s="195"/>
+      <c r="A5" s="197"/>
       <c r="B5" s="39" t="s">
         <v>230</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="195"/>
+      <c r="D5" s="197"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
@@ -20034,7 +20042,7 @@
       <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="197" t="s">
         <v>374</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -20043,7 +20051,7 @@
       <c r="C6" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="195" t="s">
+      <c r="D6" s="197" t="s">
         <v>232</v>
       </c>
       <c r="E6" s="36"/>
@@ -20054,14 +20062,14 @@
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="195"/>
+      <c r="A7" s="197"/>
       <c r="B7" s="39" t="s">
         <v>233</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="195"/>
+      <c r="D7" s="197"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>

--- a/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
+++ b/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="581">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2259,6 +2259,10 @@
   </si>
   <si>
     <t>요 셀에도 내용을 바꿔보자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경사항 반영되나 보자</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4388,41 +4392,50 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="247" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4436,14 +4449,11 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4451,26 +4461,53 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4478,44 +4515,11 @@
     <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6032,7 +6036,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6051,10 +6055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="161"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -6108,7 +6112,7 @@
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
       <c r="A3" s="153"/>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="156" t="s">
         <v>261</v>
       </c>
       <c r="C3" s="129">
@@ -6136,7 +6140,7 @@
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
       <c r="A4" s="153"/>
-      <c r="B4" s="150"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="129">
         <v>2</v>
       </c>
@@ -6149,8 +6153,10 @@
       <c r="F4" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="160"/>
+      <c r="G4" s="150" t="s">
+        <v>580</v>
+      </c>
+      <c r="H4" s="151"/>
       <c r="I4" s="107">
         <v>2</v>
       </c>
@@ -6160,7 +6166,7 @@
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
       <c r="A5" s="153"/>
-      <c r="B5" s="150"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="129">
         <v>3</v>
       </c>
@@ -6173,10 +6179,10 @@
       <c r="F5" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="150" t="s">
         <v>579</v>
       </c>
-      <c r="H5" s="160"/>
+      <c r="H5" s="151"/>
       <c r="I5" s="107">
         <v>3</v>
       </c>
@@ -6186,7 +6192,7 @@
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1">
       <c r="A6" s="153"/>
-      <c r="B6" s="150"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="129">
         <v>4</v>
       </c>
@@ -6233,10 +6239,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="159" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="129">
@@ -6261,7 +6267,7 @@
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
       <c r="A9" s="153"/>
-      <c r="B9" s="150"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="129">
         <v>7</v>
       </c>
@@ -6284,7 +6290,7 @@
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1">
       <c r="A10" s="153"/>
-      <c r="B10" s="150"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="129">
         <v>8</v>
       </c>
@@ -6307,7 +6313,7 @@
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1">
       <c r="A11" s="153"/>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="129">
@@ -6342,7 +6348,7 @@
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1">
       <c r="A12" s="153"/>
-      <c r="B12" s="150"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="129">
         <v>10</v>
       </c>
@@ -6365,16 +6371,16 @@
       <c r="K12" t="s">
         <v>552</v>
       </c>
-      <c r="L12" s="161" t="s">
+      <c r="L12" s="152" t="s">
         <v>554</v>
       </c>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="129">
@@ -6399,7 +6405,7 @@
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
       <c r="A14" s="153"/>
-      <c r="B14" s="150"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="129">
         <v>12</v>
       </c>
@@ -6422,7 +6428,7 @@
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1">
       <c r="A15" s="153"/>
-      <c r="B15" s="150"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="129">
         <v>13</v>
       </c>
@@ -6445,7 +6451,7 @@
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1">
       <c r="A16" s="153"/>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="129">
@@ -6470,7 +6476,7 @@
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="153"/>
-      <c r="B17" s="150"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="129">
         <v>15</v>
       </c>
@@ -6493,7 +6499,7 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="153"/>
-      <c r="B18" s="150"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="129">
         <v>16</v>
       </c>
@@ -6516,7 +6522,7 @@
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="153"/>
-      <c r="B19" s="150"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="129">
         <v>17</v>
       </c>
@@ -6539,7 +6545,7 @@
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="153"/>
-      <c r="B20" s="150"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="129">
         <v>18</v>
       </c>
@@ -6562,7 +6568,7 @@
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1">
       <c r="A21" s="153"/>
-      <c r="B21" s="150"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="129">
         <v>19</v>
       </c>
@@ -6585,7 +6591,7 @@
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1">
       <c r="A22" s="153"/>
-      <c r="B22" s="150"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="129">
         <v>20</v>
       </c>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1">
       <c r="A23" s="153"/>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="129">
@@ -6636,7 +6642,7 @@
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1">
       <c r="A24" s="153"/>
-      <c r="B24" s="151"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="129">
         <v>22</v>
       </c>
@@ -6662,7 +6668,7 @@
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1">
       <c r="A25" s="153"/>
-      <c r="B25" s="151"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="129">
         <v>23</v>
       </c>
@@ -6688,7 +6694,7 @@
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1">
       <c r="A26" s="153"/>
-      <c r="B26" s="151"/>
+      <c r="B26" s="157"/>
       <c r="C26" s="129">
         <v>24</v>
       </c>
@@ -6714,7 +6720,7 @@
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1">
       <c r="A27" s="153"/>
-      <c r="B27" s="151"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="129">
         <v>25</v>
       </c>
@@ -6737,7 +6743,7 @@
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="151"/>
+      <c r="B28" s="157"/>
       <c r="C28" s="129">
         <v>26</v>
       </c>
@@ -6760,7 +6766,7 @@
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1">
       <c r="A29" s="153"/>
-      <c r="B29" s="151"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="129">
         <v>27</v>
       </c>
@@ -6783,7 +6789,7 @@
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1">
       <c r="A30" s="153"/>
-      <c r="B30" s="151"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="129">
         <v>28</v>
       </c>
@@ -6806,7 +6812,7 @@
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1">
       <c r="A31" s="153"/>
-      <c r="B31" s="151"/>
+      <c r="B31" s="157"/>
       <c r="C31" s="129">
         <v>29</v>
       </c>
@@ -6828,10 +6834,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="159" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="129">
@@ -6856,7 +6862,7 @@
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1">
       <c r="A33" s="153"/>
-      <c r="B33" s="150"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="129">
         <v>31</v>
       </c>
@@ -6879,7 +6885,7 @@
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1">
       <c r="A34" s="153"/>
-      <c r="B34" s="150"/>
+      <c r="B34" s="156"/>
       <c r="C34" s="129">
         <v>32</v>
       </c>
@@ -6902,7 +6908,7 @@
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1">
       <c r="A35" s="153"/>
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="129">
@@ -6930,7 +6936,7 @@
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1">
       <c r="A36" s="153"/>
-      <c r="B36" s="150"/>
+      <c r="B36" s="156"/>
       <c r="C36" s="129">
         <v>34</v>
       </c>
@@ -6953,14 +6959,14 @@
       <c r="K36" t="s">
         <v>552</v>
       </c>
-      <c r="L36" s="161" t="s">
+      <c r="L36" s="152" t="s">
         <v>560</v>
       </c>
-      <c r="M36" s="161"/>
+      <c r="M36" s="152"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1">
       <c r="A37" s="153"/>
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="129">
@@ -6991,7 +6997,7 @@
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1">
       <c r="A38" s="153"/>
-      <c r="B38" s="150"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="129">
         <v>36</v>
       </c>
@@ -7020,7 +7026,7 @@
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1">
       <c r="A39" s="153"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="129">
         <v>37</v>
       </c>
@@ -7043,7 +7049,7 @@
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
       <c r="A40" s="153"/>
-      <c r="B40" s="150"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="129">
         <v>38</v>
       </c>
@@ -7066,7 +7072,7 @@
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
       <c r="A41" s="153"/>
-      <c r="B41" s="150" t="s">
+      <c r="B41" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="129">
@@ -7091,7 +7097,7 @@
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
       <c r="A42" s="153"/>
-      <c r="B42" s="150"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="129">
         <v>40</v>
       </c>
@@ -7114,7 +7120,7 @@
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1">
       <c r="A43" s="153"/>
-      <c r="B43" s="150"/>
+      <c r="B43" s="156"/>
       <c r="C43" s="129">
         <v>41</v>
       </c>
@@ -7137,7 +7143,7 @@
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1">
       <c r="A44" s="153"/>
-      <c r="B44" s="150"/>
+      <c r="B44" s="156"/>
       <c r="C44" s="129">
         <v>42</v>
       </c>
@@ -7160,7 +7166,7 @@
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1">
       <c r="A45" s="153"/>
-      <c r="B45" s="150"/>
+      <c r="B45" s="156"/>
       <c r="C45" s="129">
         <v>43</v>
       </c>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1">
       <c r="A46" s="153"/>
-      <c r="B46" s="150"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="129">
         <v>44</v>
       </c>
@@ -7206,7 +7212,7 @@
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1">
       <c r="A47" s="153"/>
-      <c r="B47" s="150"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="129">
         <v>45</v>
       </c>
@@ -7229,7 +7235,7 @@
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1">
       <c r="A48" s="153"/>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="129">
@@ -7254,7 +7260,7 @@
     </row>
     <row r="49" spans="1:16" ht="18" customHeight="1">
       <c r="A49" s="153"/>
-      <c r="B49" s="151"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="129">
         <v>47</v>
       </c>
@@ -7277,7 +7283,7 @@
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1">
       <c r="A50" s="153"/>
-      <c r="B50" s="151"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="129">
         <v>48</v>
       </c>
@@ -7300,7 +7306,7 @@
     </row>
     <row r="51" spans="1:16" ht="18" customHeight="1">
       <c r="A51" s="153"/>
-      <c r="B51" s="151"/>
+      <c r="B51" s="157"/>
       <c r="C51" s="129">
         <v>49</v>
       </c>
@@ -7323,7 +7329,7 @@
     </row>
     <row r="52" spans="1:16" ht="18" customHeight="1">
       <c r="A52" s="153"/>
-      <c r="B52" s="151"/>
+      <c r="B52" s="157"/>
       <c r="C52" s="129">
         <v>50</v>
       </c>
@@ -7346,7 +7352,7 @@
     </row>
     <row r="53" spans="1:16" ht="18" customHeight="1">
       <c r="A53" s="153"/>
-      <c r="B53" s="151"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="129">
         <v>51</v>
       </c>
@@ -7368,10 +7374,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="152" t="s">
+      <c r="A54" s="159" t="s">
         <v>346</v>
       </c>
-      <c r="B54" s="150" t="s">
+      <c r="B54" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="129">
@@ -7396,7 +7402,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="153"/>
-      <c r="B55" s="150"/>
+      <c r="B55" s="156"/>
       <c r="C55" s="129">
         <v>53</v>
       </c>
@@ -7419,7 +7425,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="153"/>
-      <c r="B56" s="150"/>
+      <c r="B56" s="156"/>
       <c r="C56" s="129">
         <v>54</v>
       </c>
@@ -7442,7 +7448,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="153"/>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="129">
@@ -7477,7 +7483,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="153"/>
-      <c r="B58" s="150"/>
+      <c r="B58" s="156"/>
       <c r="C58" s="129">
         <v>56</v>
       </c>
@@ -7500,15 +7506,15 @@
       <c r="K58" t="s">
         <v>570</v>
       </c>
-      <c r="L58" s="161" t="s">
+      <c r="L58" s="152" t="s">
         <v>571</v>
       </c>
-      <c r="M58" s="161"/>
-      <c r="N58" s="161"/>
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="153"/>
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="129">
@@ -7539,7 +7545,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="153"/>
-      <c r="B60" s="150"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="129">
         <v>58</v>
       </c>
@@ -7568,7 +7574,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="153"/>
-      <c r="B61" s="150"/>
+      <c r="B61" s="156"/>
       <c r="C61" s="129">
         <v>59</v>
       </c>
@@ -7591,7 +7597,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="153"/>
-      <c r="B62" s="150"/>
+      <c r="B62" s="156"/>
       <c r="C62" s="129">
         <v>60</v>
       </c>
@@ -7614,7 +7620,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="153"/>
-      <c r="B63" s="150" t="s">
+      <c r="B63" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="129">
@@ -7639,7 +7645,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="153"/>
-      <c r="B64" s="150"/>
+      <c r="B64" s="156"/>
       <c r="C64" s="129">
         <v>62</v>
       </c>
@@ -7662,7 +7668,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="153"/>
-      <c r="B65" s="150"/>
+      <c r="B65" s="156"/>
       <c r="C65" s="129">
         <v>63</v>
       </c>
@@ -7685,7 +7691,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="153"/>
-      <c r="B66" s="150"/>
+      <c r="B66" s="156"/>
       <c r="C66" s="129">
         <v>64</v>
       </c>
@@ -7708,7 +7714,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="153"/>
-      <c r="B67" s="150"/>
+      <c r="B67" s="156"/>
       <c r="C67" s="129">
         <v>65</v>
       </c>
@@ -7731,7 +7737,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="153"/>
-      <c r="B68" s="150"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="129">
         <v>66</v>
       </c>
@@ -7754,7 +7760,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="153"/>
-      <c r="B69" s="150"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="129">
         <v>67</v>
       </c>
@@ -7777,7 +7783,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="153"/>
-      <c r="B70" s="150" t="s">
+      <c r="B70" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="129">
@@ -7802,7 +7808,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="153"/>
-      <c r="B71" s="151"/>
+      <c r="B71" s="157"/>
       <c r="C71" s="129">
         <v>69</v>
       </c>
@@ -7825,7 +7831,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="153"/>
-      <c r="B72" s="151"/>
+      <c r="B72" s="157"/>
       <c r="C72" s="129">
         <v>70</v>
       </c>
@@ -7848,7 +7854,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="153"/>
-      <c r="B73" s="151"/>
+      <c r="B73" s="157"/>
       <c r="C73" s="129">
         <v>71</v>
       </c>
@@ -7871,7 +7877,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="153"/>
-      <c r="B74" s="151"/>
+      <c r="B74" s="157"/>
       <c r="C74" s="129">
         <v>72</v>
       </c>
@@ -7894,7 +7900,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="153"/>
-      <c r="B75" s="151"/>
+      <c r="B75" s="157"/>
       <c r="C75" s="129">
         <v>73</v>
       </c>
@@ -7916,10 +7922,10 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A76" s="152" t="s">
+      <c r="A76" s="159" t="s">
         <v>440</v>
       </c>
-      <c r="B76" s="150" t="s">
+      <c r="B76" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="129">
@@ -7944,7 +7950,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="153"/>
-      <c r="B77" s="150"/>
+      <c r="B77" s="156"/>
       <c r="C77" s="129">
         <v>75</v>
       </c>
@@ -7967,7 +7973,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="153"/>
-      <c r="B78" s="150"/>
+      <c r="B78" s="156"/>
       <c r="C78" s="129">
         <v>76</v>
       </c>
@@ -7990,7 +7996,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="153"/>
-      <c r="B79" s="150" t="s">
+      <c r="B79" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="129">
@@ -8025,7 +8031,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="153"/>
-      <c r="B80" s="150"/>
+      <c r="B80" s="156"/>
       <c r="C80" s="129">
         <v>78</v>
       </c>
@@ -8048,15 +8054,15 @@
       <c r="K80" t="s">
         <v>570</v>
       </c>
-      <c r="L80" s="161" t="s">
+      <c r="L80" s="152" t="s">
         <v>571</v>
       </c>
-      <c r="M80" s="161"/>
-      <c r="N80" s="161"/>
+      <c r="M80" s="152"/>
+      <c r="N80" s="152"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="153"/>
-      <c r="B81" s="150" t="s">
+      <c r="B81" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="129">
@@ -8087,7 +8093,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="153"/>
-      <c r="B82" s="150"/>
+      <c r="B82" s="156"/>
       <c r="C82" s="129">
         <v>80</v>
       </c>
@@ -8116,7 +8122,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="153"/>
-      <c r="B83" s="150"/>
+      <c r="B83" s="156"/>
       <c r="C83" s="129">
         <v>81</v>
       </c>
@@ -8139,7 +8145,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="153"/>
-      <c r="B84" s="150"/>
+      <c r="B84" s="156"/>
       <c r="C84" s="129">
         <v>82</v>
       </c>
@@ -8162,7 +8168,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="153"/>
-      <c r="B85" s="150" t="s">
+      <c r="B85" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="129">
@@ -8187,7 +8193,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="153"/>
-      <c r="B86" s="150"/>
+      <c r="B86" s="156"/>
       <c r="C86" s="129">
         <v>84</v>
       </c>
@@ -8210,7 +8216,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="153"/>
-      <c r="B87" s="150"/>
+      <c r="B87" s="156"/>
       <c r="C87" s="129">
         <v>85</v>
       </c>
@@ -8233,7 +8239,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="153"/>
-      <c r="B88" s="150"/>
+      <c r="B88" s="156"/>
       <c r="C88" s="129">
         <v>86</v>
       </c>
@@ -8256,7 +8262,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="153"/>
-      <c r="B89" s="150"/>
+      <c r="B89" s="156"/>
       <c r="C89" s="129">
         <v>87</v>
       </c>
@@ -8279,7 +8285,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="153"/>
-      <c r="B90" s="150"/>
+      <c r="B90" s="156"/>
       <c r="C90" s="129">
         <v>88</v>
       </c>
@@ -8302,7 +8308,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="153"/>
-      <c r="B91" s="150"/>
+      <c r="B91" s="156"/>
       <c r="C91" s="129">
         <v>89</v>
       </c>
@@ -8325,7 +8331,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="153"/>
-      <c r="B92" s="150" t="s">
+      <c r="B92" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="129">
@@ -8350,7 +8356,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="153"/>
-      <c r="B93" s="151"/>
+      <c r="B93" s="157"/>
       <c r="C93" s="129">
         <v>91</v>
       </c>
@@ -8373,7 +8379,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="153"/>
-      <c r="B94" s="151"/>
+      <c r="B94" s="157"/>
       <c r="C94" s="129">
         <v>92</v>
       </c>
@@ -8396,7 +8402,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="153"/>
-      <c r="B95" s="151"/>
+      <c r="B95" s="157"/>
       <c r="C95" s="129">
         <v>93</v>
       </c>
@@ -8419,7 +8425,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="153"/>
-      <c r="B96" s="151"/>
+      <c r="B96" s="157"/>
       <c r="C96" s="129">
         <v>94</v>
       </c>
@@ -8442,7 +8448,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="153"/>
-      <c r="B97" s="151"/>
+      <c r="B97" s="157"/>
       <c r="C97" s="129">
         <v>95</v>
       </c>
@@ -8467,7 +8473,7 @@
       <c r="A98" s="153" t="s">
         <v>538</v>
       </c>
-      <c r="B98" s="150" t="s">
+      <c r="B98" s="156" t="s">
         <v>539</v>
       </c>
       <c r="C98" s="129">
@@ -8491,8 +8497,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="156"/>
-      <c r="B99" s="151"/>
+      <c r="A99" s="154"/>
+      <c r="B99" s="157"/>
       <c r="C99" s="129">
         <v>97</v>
       </c>
@@ -8514,7 +8520,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A100" s="157"/>
+      <c r="A100" s="155"/>
       <c r="B100" s="158"/>
       <c r="C100" s="112">
         <v>98</v>
@@ -8538,20 +8544,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A76:A97"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B75"/>
     <mergeCell ref="A32:A53"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
@@ -8568,11 +8565,20 @@
     <mergeCell ref="B41:B47"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="A54:A75"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A76:A97"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8606,10 +8612,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="161"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -8633,7 +8639,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="166" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -8662,7 +8668,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="163"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="102" t="s">
         <v>264</v>
       </c>
@@ -8689,7 +8695,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="A4" s="163"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
@@ -8716,8 +8722,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="165" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -8744,8 +8750,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="165"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -8769,7 +8775,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="165" t="s">
         <v>302</v>
       </c>
       <c r="B7" s="102" t="s">
@@ -8798,7 +8804,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A8" s="163"/>
+      <c r="A8" s="166"/>
       <c r="B8" s="102" t="s">
         <v>6</v>
       </c>
@@ -8823,15 +8829,15 @@
       <c r="J8" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="166" t="s">
+      <c r="K8" s="163" t="s">
         <v>572</v>
       </c>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A9" s="163"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="102" t="s">
         <v>8</v>
       </c>
@@ -8858,7 +8864,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="165" t="s">
         <v>303</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -8887,8 +8893,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="165" t="s">
+      <c r="A11" s="166"/>
+      <c r="B11" s="168" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="102">
@@ -8912,19 +8918,19 @@
       <c r="J11" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="166" t="s">
+      <c r="K11" s="163" t="s">
         <v>575</v>
       </c>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
       <c r="Q11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="165"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -8946,19 +8952,19 @@
       <c r="J12" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K12" s="168" t="s">
+      <c r="K12" s="162" t="s">
         <v>574</v>
       </c>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
       <c r="Q12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="165"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -8980,18 +8986,18 @@
       <c r="J13" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K13" s="168" t="s">
+      <c r="K13" s="162" t="s">
         <v>573</v>
       </c>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
       <c r="Q13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A14" s="163"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="102" t="s">
         <v>8</v>
       </c>
@@ -9018,7 +9024,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="165" t="s">
         <v>304</v>
       </c>
       <c r="B15" s="102" t="s">
@@ -9047,8 +9053,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="165" t="s">
+      <c r="A16" s="166"/>
+      <c r="B16" s="168" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="102">
@@ -9072,19 +9078,19 @@
       <c r="J16" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="166" t="s">
+      <c r="K16" s="163" t="s">
         <v>575</v>
       </c>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="167"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
       <c r="Q16" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="165"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -9109,19 +9115,19 @@
       <c r="J17" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="168" t="s">
+      <c r="K17" s="162" t="s">
         <v>574</v>
       </c>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
       <c r="Q17" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="165"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="102">
         <v>16</v>
       </c>
@@ -9146,18 +9152,18 @@
       <c r="J18" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="168" t="s">
+      <c r="K18" s="162" t="s">
         <v>573</v>
       </c>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
       <c r="Q18" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A19" s="163"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="102" t="s">
         <v>8</v>
       </c>
@@ -9184,7 +9190,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="165" t="s">
         <v>441</v>
       </c>
       <c r="B20" s="102" t="s">
@@ -9213,8 +9219,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="165" t="s">
+      <c r="A21" s="166"/>
+      <c r="B21" s="168" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="102">
@@ -9238,19 +9244,19 @@
       <c r="J21" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="166" t="s">
+      <c r="K21" s="163" t="s">
         <v>575</v>
       </c>
-      <c r="L21" s="167"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="167"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
       <c r="Q21" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="165"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -9272,12 +9278,12 @@
       <c r="J22" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K22" s="168" t="s">
+      <c r="K22" s="162" t="s">
         <v>574</v>
       </c>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
       <c r="O22" t="s">
         <v>577</v>
       </c>
@@ -9286,8 +9292,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="165"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="102">
         <v>21</v>
       </c>
@@ -9309,18 +9315,18 @@
       <c r="J23" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K23" s="168" t="s">
+      <c r="K23" s="162" t="s">
         <v>573</v>
       </c>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
       <c r="Q23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A24" s="164"/>
+      <c r="A24" s="167"/>
       <c r="B24" s="105" t="s">
         <v>8</v>
       </c>
@@ -9348,16 +9354,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:A9"/>
@@ -9368,6 +9364,16 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A15:A19"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9401,10 +9407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="161"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -9428,10 +9434,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="159" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="176" t="s">
         <v>444</v>
       </c>
       <c r="C2" s="108">
@@ -9457,8 +9463,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="172"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="173"/>
       <c r="C3" s="108">
         <v>1</v>
       </c>
@@ -9482,8 +9488,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="152"/>
-      <c r="B4" s="172"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="173"/>
       <c r="C4" s="108">
         <v>2</v>
       </c>
@@ -9505,8 +9511,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A5" s="152"/>
-      <c r="B5" s="172"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="108">
         <v>3</v>
       </c>
@@ -9530,10 +9536,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="159" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="156" t="s">
         <v>442</v>
       </c>
       <c r="C6" s="124">
@@ -9560,7 +9566,7 @@
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
       <c r="A7" s="153"/>
-      <c r="B7" s="172"/>
+      <c r="B7" s="173"/>
       <c r="C7" s="124">
         <v>5</v>
       </c>
@@ -9585,7 +9591,7 @@
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
       <c r="A8" s="153"/>
-      <c r="B8" s="172"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="124">
         <v>6</v>
       </c>
@@ -9610,7 +9616,7 @@
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
       <c r="A9" s="153"/>
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="124">
         <v>7</v>
       </c>
@@ -9635,7 +9641,7 @@
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
       <c r="A10" s="153"/>
-      <c r="B10" s="172"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="124">
         <v>8</v>
       </c>
@@ -9663,7 +9669,7 @@
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="153"/>
-      <c r="B11" s="172"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="124">
         <v>9</v>
       </c>
@@ -9691,7 +9697,7 @@
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="153"/>
-      <c r="B12" s="172"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="124">
         <v>10</v>
       </c>
@@ -9716,7 +9722,7 @@
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="172"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="124">
         <v>11</v>
       </c>
@@ -9741,7 +9747,7 @@
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="153"/>
-      <c r="B14" s="172"/>
+      <c r="B14" s="173"/>
       <c r="C14" s="124">
         <v>12</v>
       </c>
@@ -9766,7 +9772,7 @@
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="A15" s="153"/>
-      <c r="B15" s="172"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="124">
         <v>13</v>
       </c>
@@ -9791,7 +9797,7 @@
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="A16" s="153"/>
-      <c r="B16" s="172"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="124">
         <v>14</v>
       </c>
@@ -9816,7 +9822,7 @@
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1">
       <c r="A17" s="153"/>
-      <c r="B17" s="172"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="124">
         <v>15</v>
       </c>
@@ -9841,7 +9847,7 @@
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1">
       <c r="A18" s="153"/>
-      <c r="B18" s="172"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="124">
         <v>16</v>
       </c>
@@ -9866,7 +9872,7 @@
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1">
       <c r="A19" s="153"/>
-      <c r="B19" s="172"/>
+      <c r="B19" s="173"/>
       <c r="C19" s="124">
         <v>17</v>
       </c>
@@ -9891,7 +9897,7 @@
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1">
       <c r="A20" s="153"/>
-      <c r="B20" s="172"/>
+      <c r="B20" s="173"/>
       <c r="C20" s="124">
         <v>18</v>
       </c>
@@ -9916,7 +9922,7 @@
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
       <c r="A21" s="153"/>
-      <c r="B21" s="172"/>
+      <c r="B21" s="173"/>
       <c r="C21" s="124">
         <v>19</v>
       </c>
@@ -9941,7 +9947,7 @@
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1">
       <c r="A22" s="153"/>
-      <c r="B22" s="172"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="124">
         <v>20</v>
       </c>
@@ -9966,7 +9972,7 @@
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1">
       <c r="A23" s="153"/>
-      <c r="B23" s="172"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="124">
         <v>21</v>
       </c>
@@ -9991,7 +9997,7 @@
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1">
       <c r="A24" s="153"/>
-      <c r="B24" s="172"/>
+      <c r="B24" s="173"/>
       <c r="C24" s="124">
         <v>22</v>
       </c>
@@ -10016,7 +10022,7 @@
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1">
       <c r="A25" s="153"/>
-      <c r="B25" s="172"/>
+      <c r="B25" s="173"/>
       <c r="C25" s="124">
         <v>23</v>
       </c>
@@ -10041,7 +10047,7 @@
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1">
       <c r="A26" s="153"/>
-      <c r="B26" s="172"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="124">
         <v>24</v>
       </c>
@@ -10066,7 +10072,7 @@
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1">
       <c r="A27" s="153"/>
-      <c r="B27" s="172"/>
+      <c r="B27" s="173"/>
       <c r="C27" s="124">
         <v>25</v>
       </c>
@@ -10091,7 +10097,7 @@
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="172"/>
+      <c r="B28" s="173"/>
       <c r="C28" s="124">
         <v>26</v>
       </c>
@@ -10116,7 +10122,7 @@
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
       <c r="A29" s="153"/>
-      <c r="B29" s="172"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="124">
         <v>27</v>
       </c>
@@ -10141,7 +10147,7 @@
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1">
       <c r="A30" s="153"/>
-      <c r="B30" s="172"/>
+      <c r="B30" s="173"/>
       <c r="C30" s="124">
         <v>28</v>
       </c>
@@ -10166,7 +10172,7 @@
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1">
       <c r="A31" s="153"/>
-      <c r="B31" s="172"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="124">
         <v>29</v>
       </c>
@@ -10191,7 +10197,7 @@
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1">
       <c r="A32" s="153"/>
-      <c r="B32" s="172"/>
+      <c r="B32" s="173"/>
       <c r="C32" s="124">
         <v>30</v>
       </c>
@@ -10216,7 +10222,7 @@
     </row>
     <row r="33" spans="1:12" ht="17.25" customHeight="1">
       <c r="A33" s="153"/>
-      <c r="B33" s="172"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="124">
         <v>31</v>
       </c>
@@ -10241,7 +10247,7 @@
     </row>
     <row r="34" spans="1:12" ht="17.25" customHeight="1">
       <c r="A34" s="153"/>
-      <c r="B34" s="172"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="124">
         <v>32</v>
       </c>
@@ -10266,7 +10272,7 @@
     </row>
     <row r="35" spans="1:12" ht="17.25" customHeight="1">
       <c r="A35" s="153"/>
-      <c r="B35" s="172"/>
+      <c r="B35" s="173"/>
       <c r="C35" s="124">
         <v>33</v>
       </c>
@@ -10291,7 +10297,7 @@
     </row>
     <row r="36" spans="1:12" ht="17.25" customHeight="1">
       <c r="A36" s="153"/>
-      <c r="B36" s="172"/>
+      <c r="B36" s="173"/>
       <c r="C36" s="124">
         <v>34</v>
       </c>
@@ -10316,7 +10322,7 @@
     </row>
     <row r="37" spans="1:12" ht="17.25" customHeight="1">
       <c r="A37" s="153"/>
-      <c r="B37" s="172"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="124">
         <v>35</v>
       </c>
@@ -10341,7 +10347,7 @@
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1">
       <c r="A38" s="153"/>
-      <c r="B38" s="172"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="124">
         <v>36</v>
       </c>
@@ -10366,7 +10372,7 @@
     </row>
     <row r="39" spans="1:12" ht="17.25" customHeight="1">
       <c r="A39" s="153"/>
-      <c r="B39" s="172"/>
+      <c r="B39" s="173"/>
       <c r="C39" s="124">
         <v>37</v>
       </c>
@@ -10391,7 +10397,7 @@
     </row>
     <row r="40" spans="1:12" ht="17.25" customHeight="1">
       <c r="A40" s="153"/>
-      <c r="B40" s="172"/>
+      <c r="B40" s="173"/>
       <c r="C40" s="124">
         <v>38</v>
       </c>
@@ -10416,7 +10422,7 @@
     </row>
     <row r="41" spans="1:12" ht="17.25" customHeight="1">
       <c r="A41" s="153"/>
-      <c r="B41" s="172"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="124">
         <v>39</v>
       </c>
@@ -10441,7 +10447,7 @@
     </row>
     <row r="42" spans="1:12" ht="17.25" customHeight="1">
       <c r="A42" s="153"/>
-      <c r="B42" s="150" t="s">
+      <c r="B42" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="124">
@@ -10465,14 +10471,14 @@
       <c r="J42" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="K42" s="176" t="s">
+      <c r="K42" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L42" s="177"/>
+      <c r="L42" s="170"/>
     </row>
     <row r="43" spans="1:12" ht="17.25" customHeight="1">
       <c r="A43" s="153"/>
-      <c r="B43" s="172"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="124">
         <v>41</v>
       </c>
@@ -10494,14 +10500,14 @@
       <c r="J43" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="176" t="s">
+      <c r="K43" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L43" s="177"/>
+      <c r="L43" s="170"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" customHeight="1">
       <c r="A44" s="153"/>
-      <c r="B44" s="172"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="124">
         <v>42</v>
       </c>
@@ -10523,14 +10529,14 @@
       <c r="J44" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="176" t="s">
+      <c r="K44" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L44" s="177"/>
+      <c r="L44" s="170"/>
     </row>
     <row r="45" spans="1:12" ht="17.25" customHeight="1">
       <c r="A45" s="153"/>
-      <c r="B45" s="172"/>
+      <c r="B45" s="173"/>
       <c r="C45" s="124">
         <v>43</v>
       </c>
@@ -10552,14 +10558,14 @@
       <c r="J45" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="176" t="s">
+      <c r="K45" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L45" s="177"/>
+      <c r="L45" s="170"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" customHeight="1">
       <c r="A46" s="153"/>
-      <c r="B46" s="172"/>
+      <c r="B46" s="173"/>
       <c r="C46" s="124">
         <v>44</v>
       </c>
@@ -10581,14 +10587,14 @@
       <c r="J46" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="K46" s="176" t="s">
+      <c r="K46" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L46" s="177"/>
+      <c r="L46" s="170"/>
     </row>
     <row r="47" spans="1:12" ht="17.25" customHeight="1">
       <c r="A47" s="153"/>
-      <c r="B47" s="172"/>
+      <c r="B47" s="173"/>
       <c r="C47" s="124">
         <v>45</v>
       </c>
@@ -10610,14 +10616,14 @@
       <c r="J47" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="K47" s="176" t="s">
+      <c r="K47" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L47" s="177"/>
+      <c r="L47" s="170"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" customHeight="1">
       <c r="A48" s="153"/>
-      <c r="B48" s="172"/>
+      <c r="B48" s="173"/>
       <c r="C48" s="124">
         <v>46</v>
       </c>
@@ -10639,14 +10645,14 @@
       <c r="J48" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="K48" s="176" t="s">
+      <c r="K48" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L48" s="177"/>
+      <c r="L48" s="170"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" customHeight="1">
       <c r="A49" s="153"/>
-      <c r="B49" s="172"/>
+      <c r="B49" s="173"/>
       <c r="C49" s="124">
         <v>47</v>
       </c>
@@ -10668,16 +10674,16 @@
       <c r="J49" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="176" t="s">
+      <c r="K49" s="169" t="s">
         <v>555</v>
       </c>
-      <c r="L49" s="177"/>
+      <c r="L49" s="170"/>
     </row>
     <row r="50" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A50" s="152" t="s">
+      <c r="A50" s="159" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="156" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="124">
@@ -10704,7 +10710,7 @@
     </row>
     <row r="51" spans="1:12" ht="17.25" customHeight="1">
       <c r="A51" s="153"/>
-      <c r="B51" s="172"/>
+      <c r="B51" s="173"/>
       <c r="C51" s="124">
         <v>49</v>
       </c>
@@ -10729,7 +10735,7 @@
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1">
       <c r="A52" s="153"/>
-      <c r="B52" s="172"/>
+      <c r="B52" s="173"/>
       <c r="C52" s="124">
         <v>50</v>
       </c>
@@ -10754,7 +10760,7 @@
     </row>
     <row r="53" spans="1:12" ht="17.25" customHeight="1">
       <c r="A53" s="153"/>
-      <c r="B53" s="172"/>
+      <c r="B53" s="173"/>
       <c r="C53" s="124">
         <v>51</v>
       </c>
@@ -10779,7 +10785,7 @@
     </row>
     <row r="54" spans="1:12" ht="17.25" customHeight="1">
       <c r="A54" s="153"/>
-      <c r="B54" s="172"/>
+      <c r="B54" s="173"/>
       <c r="C54" s="124">
         <v>52</v>
       </c>
@@ -10804,7 +10810,7 @@
     </row>
     <row r="55" spans="1:12" ht="17.25" customHeight="1">
       <c r="A55" s="153"/>
-      <c r="B55" s="172"/>
+      <c r="B55" s="173"/>
       <c r="C55" s="124">
         <v>53</v>
       </c>
@@ -10829,7 +10835,7 @@
     </row>
     <row r="56" spans="1:12" ht="17.25" customHeight="1">
       <c r="A56" s="153"/>
-      <c r="B56" s="172"/>
+      <c r="B56" s="173"/>
       <c r="C56" s="124">
         <v>54</v>
       </c>
@@ -10854,7 +10860,7 @@
     </row>
     <row r="57" spans="1:12" ht="17.25" customHeight="1">
       <c r="A57" s="153"/>
-      <c r="B57" s="172"/>
+      <c r="B57" s="173"/>
       <c r="C57" s="124">
         <v>55</v>
       </c>
@@ -10879,7 +10885,7 @@
     </row>
     <row r="58" spans="1:12" ht="17.25" customHeight="1">
       <c r="A58" s="153"/>
-      <c r="B58" s="172"/>
+      <c r="B58" s="173"/>
       <c r="C58" s="124">
         <v>56</v>
       </c>
@@ -10904,7 +10910,7 @@
     </row>
     <row r="59" spans="1:12" ht="17.25" customHeight="1">
       <c r="A59" s="153"/>
-      <c r="B59" s="172"/>
+      <c r="B59" s="173"/>
       <c r="C59" s="124">
         <v>57</v>
       </c>
@@ -10929,7 +10935,7 @@
     </row>
     <row r="60" spans="1:12" ht="17.25" customHeight="1">
       <c r="A60" s="153"/>
-      <c r="B60" s="172"/>
+      <c r="B60" s="173"/>
       <c r="C60" s="124">
         <v>58</v>
       </c>
@@ -10954,7 +10960,7 @@
     </row>
     <row r="61" spans="1:12" ht="17.25" customHeight="1">
       <c r="A61" s="153"/>
-      <c r="B61" s="172"/>
+      <c r="B61" s="173"/>
       <c r="C61" s="124">
         <v>59</v>
       </c>
@@ -10979,7 +10985,7 @@
     </row>
     <row r="62" spans="1:12" ht="17.25" customHeight="1">
       <c r="A62" s="153"/>
-      <c r="B62" s="172"/>
+      <c r="B62" s="173"/>
       <c r="C62" s="124">
         <v>60</v>
       </c>
@@ -11004,7 +11010,7 @@
     </row>
     <row r="63" spans="1:12" ht="17.25" customHeight="1">
       <c r="A63" s="153"/>
-      <c r="B63" s="172"/>
+      <c r="B63" s="173"/>
       <c r="C63" s="124">
         <v>61</v>
       </c>
@@ -11029,7 +11035,7 @@
     </row>
     <row r="64" spans="1:12" ht="17.25" customHeight="1">
       <c r="A64" s="153"/>
-      <c r="B64" s="172"/>
+      <c r="B64" s="173"/>
       <c r="C64" s="124">
         <v>62</v>
       </c>
@@ -11054,7 +11060,7 @@
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1">
       <c r="A65" s="153"/>
-      <c r="B65" s="172"/>
+      <c r="B65" s="173"/>
       <c r="C65" s="124">
         <v>63</v>
       </c>
@@ -11079,7 +11085,7 @@
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1">
       <c r="A66" s="153"/>
-      <c r="B66" s="172"/>
+      <c r="B66" s="173"/>
       <c r="C66" s="124">
         <v>64</v>
       </c>
@@ -11104,7 +11110,7 @@
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1">
       <c r="A67" s="153"/>
-      <c r="B67" s="172"/>
+      <c r="B67" s="173"/>
       <c r="C67" s="124">
         <v>65</v>
       </c>
@@ -11129,7 +11135,7 @@
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1">
       <c r="A68" s="153"/>
-      <c r="B68" s="172"/>
+      <c r="B68" s="173"/>
       <c r="C68" s="124">
         <v>66</v>
       </c>
@@ -11154,7 +11160,7 @@
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1">
       <c r="A69" s="153"/>
-      <c r="B69" s="172"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="124">
         <v>67</v>
       </c>
@@ -11179,7 +11185,7 @@
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1">
       <c r="A70" s="153"/>
-      <c r="B70" s="172"/>
+      <c r="B70" s="173"/>
       <c r="C70" s="124">
         <v>68</v>
       </c>
@@ -11204,7 +11210,7 @@
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1">
       <c r="A71" s="153"/>
-      <c r="B71" s="172"/>
+      <c r="B71" s="173"/>
       <c r="C71" s="124">
         <v>69</v>
       </c>
@@ -11229,7 +11235,7 @@
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1">
       <c r="A72" s="153"/>
-      <c r="B72" s="172"/>
+      <c r="B72" s="173"/>
       <c r="C72" s="124">
         <v>70</v>
       </c>
@@ -11254,7 +11260,7 @@
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1">
       <c r="A73" s="153"/>
-      <c r="B73" s="172"/>
+      <c r="B73" s="173"/>
       <c r="C73" s="124">
         <v>71</v>
       </c>
@@ -11279,7 +11285,7 @@
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1">
       <c r="A74" s="153"/>
-      <c r="B74" s="172"/>
+      <c r="B74" s="173"/>
       <c r="C74" s="124">
         <v>72</v>
       </c>
@@ -11304,7 +11310,7 @@
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1">
       <c r="A75" s="153"/>
-      <c r="B75" s="172"/>
+      <c r="B75" s="173"/>
       <c r="C75" s="124">
         <v>73</v>
       </c>
@@ -11329,7 +11335,7 @@
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1">
       <c r="A76" s="153"/>
-      <c r="B76" s="172"/>
+      <c r="B76" s="173"/>
       <c r="C76" s="124">
         <v>74</v>
       </c>
@@ -11354,7 +11360,7 @@
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1">
       <c r="A77" s="153"/>
-      <c r="B77" s="172"/>
+      <c r="B77" s="173"/>
       <c r="C77" s="124">
         <v>75</v>
       </c>
@@ -11379,7 +11385,7 @@
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1">
       <c r="A78" s="153"/>
-      <c r="B78" s="172"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="124">
         <v>76</v>
       </c>
@@ -11404,7 +11410,7 @@
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1">
       <c r="A79" s="153"/>
-      <c r="B79" s="172"/>
+      <c r="B79" s="173"/>
       <c r="C79" s="124">
         <v>77</v>
       </c>
@@ -11429,7 +11435,7 @@
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1">
       <c r="A80" s="153"/>
-      <c r="B80" s="172"/>
+      <c r="B80" s="173"/>
       <c r="C80" s="124">
         <v>78</v>
       </c>
@@ -11454,7 +11460,7 @@
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1">
       <c r="A81" s="153"/>
-      <c r="B81" s="172"/>
+      <c r="B81" s="173"/>
       <c r="C81" s="124">
         <v>79</v>
       </c>
@@ -11479,7 +11485,7 @@
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1">
       <c r="A82" s="153"/>
-      <c r="B82" s="172"/>
+      <c r="B82" s="173"/>
       <c r="C82" s="124">
         <v>80</v>
       </c>
@@ -11504,7 +11510,7 @@
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1">
       <c r="A83" s="153"/>
-      <c r="B83" s="172"/>
+      <c r="B83" s="173"/>
       <c r="C83" s="124">
         <v>81</v>
       </c>
@@ -11529,7 +11535,7 @@
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1">
       <c r="A84" s="153"/>
-      <c r="B84" s="172"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="124">
         <v>82</v>
       </c>
@@ -11554,7 +11560,7 @@
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1">
       <c r="A85" s="153"/>
-      <c r="B85" s="172"/>
+      <c r="B85" s="173"/>
       <c r="C85" s="124">
         <v>83</v>
       </c>
@@ -11579,7 +11585,7 @@
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1">
       <c r="A86" s="153"/>
-      <c r="B86" s="150" t="s">
+      <c r="B86" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="124">
@@ -11606,7 +11612,7 @@
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1">
       <c r="A87" s="153"/>
-      <c r="B87" s="172"/>
+      <c r="B87" s="173"/>
       <c r="C87" s="124">
         <v>85</v>
       </c>
@@ -11631,7 +11637,7 @@
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1">
       <c r="A88" s="153"/>
-      <c r="B88" s="172"/>
+      <c r="B88" s="173"/>
       <c r="C88" s="124">
         <v>86</v>
       </c>
@@ -11656,7 +11662,7 @@
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1">
       <c r="A89" s="153"/>
-      <c r="B89" s="172"/>
+      <c r="B89" s="173"/>
       <c r="C89" s="124">
         <v>87</v>
       </c>
@@ -11681,7 +11687,7 @@
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1">
       <c r="A90" s="153"/>
-      <c r="B90" s="172"/>
+      <c r="B90" s="173"/>
       <c r="C90" s="124">
         <v>88</v>
       </c>
@@ -11706,7 +11712,7 @@
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1">
       <c r="A91" s="153"/>
-      <c r="B91" s="172"/>
+      <c r="B91" s="173"/>
       <c r="C91" s="124">
         <v>89</v>
       </c>
@@ -11731,7 +11737,7 @@
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1">
       <c r="A92" s="153"/>
-      <c r="B92" s="172"/>
+      <c r="B92" s="173"/>
       <c r="C92" s="124">
         <v>90</v>
       </c>
@@ -11756,7 +11762,7 @@
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1">
       <c r="A93" s="153"/>
-      <c r="B93" s="172"/>
+      <c r="B93" s="173"/>
       <c r="C93" s="124">
         <v>91</v>
       </c>
@@ -11780,10 +11786,10 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A94" s="152" t="s">
+      <c r="A94" s="159" t="s">
         <v>346</v>
       </c>
-      <c r="B94" s="150" t="s">
+      <c r="B94" s="156" t="s">
         <v>102</v>
       </c>
       <c r="C94" s="124">
@@ -11810,7 +11816,7 @@
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1">
       <c r="A95" s="153"/>
-      <c r="B95" s="172"/>
+      <c r="B95" s="173"/>
       <c r="C95" s="124">
         <v>93</v>
       </c>
@@ -11835,7 +11841,7 @@
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1">
       <c r="A96" s="153"/>
-      <c r="B96" s="172"/>
+      <c r="B96" s="173"/>
       <c r="C96" s="124">
         <v>94</v>
       </c>
@@ -11860,7 +11866,7 @@
     </row>
     <row r="97" spans="1:10" ht="17.25" customHeight="1">
       <c r="A97" s="153"/>
-      <c r="B97" s="172"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="124">
         <v>95</v>
       </c>
@@ -11885,7 +11891,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1">
       <c r="A98" s="153"/>
-      <c r="B98" s="172"/>
+      <c r="B98" s="173"/>
       <c r="C98" s="124">
         <v>96</v>
       </c>
@@ -11910,7 +11916,7 @@
     </row>
     <row r="99" spans="1:10" ht="17.25" customHeight="1">
       <c r="A99" s="153"/>
-      <c r="B99" s="172"/>
+      <c r="B99" s="173"/>
       <c r="C99" s="124">
         <v>97</v>
       </c>
@@ -11935,7 +11941,7 @@
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1">
       <c r="A100" s="153"/>
-      <c r="B100" s="172"/>
+      <c r="B100" s="173"/>
       <c r="C100" s="124">
         <v>98</v>
       </c>
@@ -11960,7 +11966,7 @@
     </row>
     <row r="101" spans="1:10" ht="17.25" customHeight="1">
       <c r="A101" s="153"/>
-      <c r="B101" s="172"/>
+      <c r="B101" s="173"/>
       <c r="C101" s="124">
         <v>99</v>
       </c>
@@ -11985,7 +11991,7 @@
     </row>
     <row r="102" spans="1:10" ht="17.25" customHeight="1">
       <c r="A102" s="153"/>
-      <c r="B102" s="172"/>
+      <c r="B102" s="173"/>
       <c r="C102" s="124">
         <v>100</v>
       </c>
@@ -12010,7 +12016,7 @@
     </row>
     <row r="103" spans="1:10" ht="17.25" customHeight="1">
       <c r="A103" s="153"/>
-      <c r="B103" s="172"/>
+      <c r="B103" s="173"/>
       <c r="C103" s="124">
         <v>101</v>
       </c>
@@ -12035,7 +12041,7 @@
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1">
       <c r="A104" s="153"/>
-      <c r="B104" s="172"/>
+      <c r="B104" s="173"/>
       <c r="C104" s="124">
         <v>102</v>
       </c>
@@ -12060,7 +12066,7 @@
     </row>
     <row r="105" spans="1:10" ht="17.25" customHeight="1">
       <c r="A105" s="153"/>
-      <c r="B105" s="172"/>
+      <c r="B105" s="173"/>
       <c r="C105" s="124">
         <v>103</v>
       </c>
@@ -12085,7 +12091,7 @@
     </row>
     <row r="106" spans="1:10" ht="17.25" customHeight="1">
       <c r="A106" s="153"/>
-      <c r="B106" s="172"/>
+      <c r="B106" s="173"/>
       <c r="C106" s="124">
         <v>104</v>
       </c>
@@ -12110,7 +12116,7 @@
     </row>
     <row r="107" spans="1:10" ht="17.25" customHeight="1">
       <c r="A107" s="153"/>
-      <c r="B107" s="172"/>
+      <c r="B107" s="173"/>
       <c r="C107" s="124">
         <v>105</v>
       </c>
@@ -12135,7 +12141,7 @@
     </row>
     <row r="108" spans="1:10" ht="17.25" customHeight="1">
       <c r="A108" s="153"/>
-      <c r="B108" s="172"/>
+      <c r="B108" s="173"/>
       <c r="C108" s="124">
         <v>106</v>
       </c>
@@ -12160,7 +12166,7 @@
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1">
       <c r="A109" s="153"/>
-      <c r="B109" s="172"/>
+      <c r="B109" s="173"/>
       <c r="C109" s="124">
         <v>107</v>
       </c>
@@ -12185,7 +12191,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1">
       <c r="A110" s="153"/>
-      <c r="B110" s="172"/>
+      <c r="B110" s="173"/>
       <c r="C110" s="124">
         <v>108</v>
       </c>
@@ -12210,7 +12216,7 @@
     </row>
     <row r="111" spans="1:10" ht="17.25" customHeight="1">
       <c r="A111" s="153"/>
-      <c r="B111" s="172"/>
+      <c r="B111" s="173"/>
       <c r="C111" s="124">
         <v>109</v>
       </c>
@@ -12235,7 +12241,7 @@
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1">
       <c r="A112" s="153"/>
-      <c r="B112" s="172"/>
+      <c r="B112" s="173"/>
       <c r="C112" s="124">
         <v>110</v>
       </c>
@@ -12260,7 +12266,7 @@
     </row>
     <row r="113" spans="1:10" ht="17.25" customHeight="1">
       <c r="A113" s="153"/>
-      <c r="B113" s="172"/>
+      <c r="B113" s="173"/>
       <c r="C113" s="124">
         <v>111</v>
       </c>
@@ -12285,7 +12291,7 @@
     </row>
     <row r="114" spans="1:10" ht="17.25" customHeight="1">
       <c r="A114" s="153"/>
-      <c r="B114" s="172"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="124">
         <v>112</v>
       </c>
@@ -12310,7 +12316,7 @@
     </row>
     <row r="115" spans="1:10" ht="17.25" customHeight="1">
       <c r="A115" s="153"/>
-      <c r="B115" s="172"/>
+      <c r="B115" s="173"/>
       <c r="C115" s="124">
         <v>113</v>
       </c>
@@ -12335,7 +12341,7 @@
     </row>
     <row r="116" spans="1:10" ht="17.25" customHeight="1">
       <c r="A116" s="153"/>
-      <c r="B116" s="172"/>
+      <c r="B116" s="173"/>
       <c r="C116" s="124">
         <v>114</v>
       </c>
@@ -12360,7 +12366,7 @@
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1">
       <c r="A117" s="153"/>
-      <c r="B117" s="172"/>
+      <c r="B117" s="173"/>
       <c r="C117" s="124">
         <v>115</v>
       </c>
@@ -12385,7 +12391,7 @@
     </row>
     <row r="118" spans="1:10" ht="17.25" customHeight="1">
       <c r="A118" s="153"/>
-      <c r="B118" s="172"/>
+      <c r="B118" s="173"/>
       <c r="C118" s="124">
         <v>116</v>
       </c>
@@ -12410,7 +12416,7 @@
     </row>
     <row r="119" spans="1:10" ht="17.25" customHeight="1">
       <c r="A119" s="153"/>
-      <c r="B119" s="172"/>
+      <c r="B119" s="173"/>
       <c r="C119" s="124">
         <v>117</v>
       </c>
@@ -12435,7 +12441,7 @@
     </row>
     <row r="120" spans="1:10" ht="17.25" customHeight="1">
       <c r="A120" s="153"/>
-      <c r="B120" s="172"/>
+      <c r="B120" s="173"/>
       <c r="C120" s="124">
         <v>118</v>
       </c>
@@ -12460,7 +12466,7 @@
     </row>
     <row r="121" spans="1:10" ht="17.25" customHeight="1">
       <c r="A121" s="153"/>
-      <c r="B121" s="172"/>
+      <c r="B121" s="173"/>
       <c r="C121" s="124">
         <v>119</v>
       </c>
@@ -12485,7 +12491,7 @@
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1">
       <c r="A122" s="153"/>
-      <c r="B122" s="172"/>
+      <c r="B122" s="173"/>
       <c r="C122" s="124">
         <v>120</v>
       </c>
@@ -12510,7 +12516,7 @@
     </row>
     <row r="123" spans="1:10" ht="17.25" customHeight="1">
       <c r="A123" s="153"/>
-      <c r="B123" s="172"/>
+      <c r="B123" s="173"/>
       <c r="C123" s="124">
         <v>121</v>
       </c>
@@ -12535,7 +12541,7 @@
     </row>
     <row r="124" spans="1:10" ht="17.25" customHeight="1">
       <c r="A124" s="153"/>
-      <c r="B124" s="172"/>
+      <c r="B124" s="173"/>
       <c r="C124" s="124">
         <v>122</v>
       </c>
@@ -12560,7 +12566,7 @@
     </row>
     <row r="125" spans="1:10" ht="17.25" customHeight="1">
       <c r="A125" s="153"/>
-      <c r="B125" s="172"/>
+      <c r="B125" s="173"/>
       <c r="C125" s="124">
         <v>123</v>
       </c>
@@ -12585,7 +12591,7 @@
     </row>
     <row r="126" spans="1:10" ht="17.25" customHeight="1">
       <c r="A126" s="153"/>
-      <c r="B126" s="172"/>
+      <c r="B126" s="173"/>
       <c r="C126" s="124">
         <v>124</v>
       </c>
@@ -12610,7 +12616,7 @@
     </row>
     <row r="127" spans="1:10" ht="17.25" customHeight="1">
       <c r="A127" s="153"/>
-      <c r="B127" s="172"/>
+      <c r="B127" s="173"/>
       <c r="C127" s="124">
         <v>125</v>
       </c>
@@ -12635,7 +12641,7 @@
     </row>
     <row r="128" spans="1:10" ht="17.25" customHeight="1">
       <c r="A128" s="153"/>
-      <c r="B128" s="172"/>
+      <c r="B128" s="173"/>
       <c r="C128" s="124">
         <v>126</v>
       </c>
@@ -12660,7 +12666,7 @@
     </row>
     <row r="129" spans="1:10" ht="17.25" customHeight="1">
       <c r="A129" s="153"/>
-      <c r="B129" s="172"/>
+      <c r="B129" s="173"/>
       <c r="C129" s="124">
         <v>127</v>
       </c>
@@ -12685,7 +12691,7 @@
     </row>
     <row r="130" spans="1:10" ht="17.25" customHeight="1">
       <c r="A130" s="153"/>
-      <c r="B130" s="150" t="s">
+      <c r="B130" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="124">
@@ -12712,7 +12718,7 @@
     </row>
     <row r="131" spans="1:10" ht="17.25" customHeight="1">
       <c r="A131" s="153"/>
-      <c r="B131" s="172"/>
+      <c r="B131" s="173"/>
       <c r="C131" s="124">
         <v>129</v>
       </c>
@@ -12737,7 +12743,7 @@
     </row>
     <row r="132" spans="1:10" ht="17.25" customHeight="1">
       <c r="A132" s="153"/>
-      <c r="B132" s="172"/>
+      <c r="B132" s="173"/>
       <c r="C132" s="124">
         <v>130</v>
       </c>
@@ -12762,7 +12768,7 @@
     </row>
     <row r="133" spans="1:10" ht="17.25" customHeight="1">
       <c r="A133" s="153"/>
-      <c r="B133" s="172"/>
+      <c r="B133" s="173"/>
       <c r="C133" s="124">
         <v>131</v>
       </c>
@@ -12787,7 +12793,7 @@
     </row>
     <row r="134" spans="1:10" ht="17.25" customHeight="1">
       <c r="A134" s="153"/>
-      <c r="B134" s="172"/>
+      <c r="B134" s="173"/>
       <c r="C134" s="124">
         <v>132</v>
       </c>
@@ -12812,7 +12818,7 @@
     </row>
     <row r="135" spans="1:10" ht="17.25" customHeight="1">
       <c r="A135" s="153"/>
-      <c r="B135" s="172"/>
+      <c r="B135" s="173"/>
       <c r="C135" s="124">
         <v>133</v>
       </c>
@@ -12837,7 +12843,7 @@
     </row>
     <row r="136" spans="1:10" ht="17.25" customHeight="1">
       <c r="A136" s="153"/>
-      <c r="B136" s="172"/>
+      <c r="B136" s="173"/>
       <c r="C136" s="124">
         <v>134</v>
       </c>
@@ -12862,7 +12868,7 @@
     </row>
     <row r="137" spans="1:10" ht="17.25" customHeight="1">
       <c r="A137" s="153"/>
-      <c r="B137" s="172"/>
+      <c r="B137" s="173"/>
       <c r="C137" s="124">
         <v>135</v>
       </c>
@@ -12886,10 +12892,10 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A138" s="152" t="s">
+      <c r="A138" s="159" t="s">
         <v>447</v>
       </c>
-      <c r="B138" s="150" t="s">
+      <c r="B138" s="156" t="s">
         <v>102</v>
       </c>
       <c r="C138" s="124">
@@ -12916,7 +12922,7 @@
     </row>
     <row r="139" spans="1:10" ht="17.25" customHeight="1">
       <c r="A139" s="153"/>
-      <c r="B139" s="172"/>
+      <c r="B139" s="173"/>
       <c r="C139" s="124">
         <v>137</v>
       </c>
@@ -12941,7 +12947,7 @@
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1">
       <c r="A140" s="153"/>
-      <c r="B140" s="172"/>
+      <c r="B140" s="173"/>
       <c r="C140" s="124">
         <v>138</v>
       </c>
@@ -12966,7 +12972,7 @@
     </row>
     <row r="141" spans="1:10" ht="17.25" customHeight="1">
       <c r="A141" s="153"/>
-      <c r="B141" s="172"/>
+      <c r="B141" s="173"/>
       <c r="C141" s="124">
         <v>139</v>
       </c>
@@ -12991,7 +12997,7 @@
     </row>
     <row r="142" spans="1:10" ht="17.25" customHeight="1">
       <c r="A142" s="153"/>
-      <c r="B142" s="172"/>
+      <c r="B142" s="173"/>
       <c r="C142" s="124">
         <v>140</v>
       </c>
@@ -13016,7 +13022,7 @@
     </row>
     <row r="143" spans="1:10" ht="17.25" customHeight="1">
       <c r="A143" s="153"/>
-      <c r="B143" s="172"/>
+      <c r="B143" s="173"/>
       <c r="C143" s="124">
         <v>141</v>
       </c>
@@ -13041,7 +13047,7 @@
     </row>
     <row r="144" spans="1:10" ht="17.25" customHeight="1">
       <c r="A144" s="153"/>
-      <c r="B144" s="172"/>
+      <c r="B144" s="173"/>
       <c r="C144" s="124">
         <v>142</v>
       </c>
@@ -13066,7 +13072,7 @@
     </row>
     <row r="145" spans="1:10" ht="17.25" customHeight="1">
       <c r="A145" s="153"/>
-      <c r="B145" s="172"/>
+      <c r="B145" s="173"/>
       <c r="C145" s="124">
         <v>143</v>
       </c>
@@ -13091,7 +13097,7 @@
     </row>
     <row r="146" spans="1:10" ht="17.25" customHeight="1">
       <c r="A146" s="153"/>
-      <c r="B146" s="172"/>
+      <c r="B146" s="173"/>
       <c r="C146" s="124">
         <v>144</v>
       </c>
@@ -13116,7 +13122,7 @@
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1">
       <c r="A147" s="153"/>
-      <c r="B147" s="172"/>
+      <c r="B147" s="173"/>
       <c r="C147" s="124">
         <v>145</v>
       </c>
@@ -13141,7 +13147,7 @@
     </row>
     <row r="148" spans="1:10" ht="17.25" customHeight="1">
       <c r="A148" s="153"/>
-      <c r="B148" s="172"/>
+      <c r="B148" s="173"/>
       <c r="C148" s="124">
         <v>146</v>
       </c>
@@ -13166,7 +13172,7 @@
     </row>
     <row r="149" spans="1:10" ht="17.25" customHeight="1">
       <c r="A149" s="153"/>
-      <c r="B149" s="172"/>
+      <c r="B149" s="173"/>
       <c r="C149" s="124">
         <v>147</v>
       </c>
@@ -13191,7 +13197,7 @@
     </row>
     <row r="150" spans="1:10" ht="17.25" customHeight="1">
       <c r="A150" s="153"/>
-      <c r="B150" s="172"/>
+      <c r="B150" s="173"/>
       <c r="C150" s="124">
         <v>148</v>
       </c>
@@ -13216,7 +13222,7 @@
     </row>
     <row r="151" spans="1:10" ht="17.25" customHeight="1">
       <c r="A151" s="153"/>
-      <c r="B151" s="172"/>
+      <c r="B151" s="173"/>
       <c r="C151" s="124">
         <v>149</v>
       </c>
@@ -13241,7 +13247,7 @@
     </row>
     <row r="152" spans="1:10" ht="17.25" customHeight="1">
       <c r="A152" s="153"/>
-      <c r="B152" s="172"/>
+      <c r="B152" s="173"/>
       <c r="C152" s="124">
         <v>150</v>
       </c>
@@ -13266,7 +13272,7 @@
     </row>
     <row r="153" spans="1:10" ht="17.25" customHeight="1">
       <c r="A153" s="153"/>
-      <c r="B153" s="172"/>
+      <c r="B153" s="173"/>
       <c r="C153" s="124">
         <v>151</v>
       </c>
@@ -13291,7 +13297,7 @@
     </row>
     <row r="154" spans="1:10" ht="17.25" customHeight="1">
       <c r="A154" s="153"/>
-      <c r="B154" s="172"/>
+      <c r="B154" s="173"/>
       <c r="C154" s="124">
         <v>152</v>
       </c>
@@ -13316,7 +13322,7 @@
     </row>
     <row r="155" spans="1:10" ht="17.25" customHeight="1">
       <c r="A155" s="153"/>
-      <c r="B155" s="172"/>
+      <c r="B155" s="173"/>
       <c r="C155" s="124">
         <v>153</v>
       </c>
@@ -13341,7 +13347,7 @@
     </row>
     <row r="156" spans="1:10" ht="17.25" customHeight="1">
       <c r="A156" s="153"/>
-      <c r="B156" s="172"/>
+      <c r="B156" s="173"/>
       <c r="C156" s="124">
         <v>154</v>
       </c>
@@ -13366,7 +13372,7 @@
     </row>
     <row r="157" spans="1:10" ht="17.25" customHeight="1">
       <c r="A157" s="153"/>
-      <c r="B157" s="172"/>
+      <c r="B157" s="173"/>
       <c r="C157" s="124">
         <v>155</v>
       </c>
@@ -13391,7 +13397,7 @@
     </row>
     <row r="158" spans="1:10" ht="17.25" customHeight="1">
       <c r="A158" s="153"/>
-      <c r="B158" s="172"/>
+      <c r="B158" s="173"/>
       <c r="C158" s="124">
         <v>156</v>
       </c>
@@ -13416,7 +13422,7 @@
     </row>
     <row r="159" spans="1:10" ht="17.25" customHeight="1">
       <c r="A159" s="153"/>
-      <c r="B159" s="172"/>
+      <c r="B159" s="173"/>
       <c r="C159" s="124">
         <v>157</v>
       </c>
@@ -13441,7 +13447,7 @@
     </row>
     <row r="160" spans="1:10" ht="17.25" customHeight="1">
       <c r="A160" s="153"/>
-      <c r="B160" s="172"/>
+      <c r="B160" s="173"/>
       <c r="C160" s="124">
         <v>158</v>
       </c>
@@ -13466,7 +13472,7 @@
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1">
       <c r="A161" s="153"/>
-      <c r="B161" s="172"/>
+      <c r="B161" s="173"/>
       <c r="C161" s="124">
         <v>159</v>
       </c>
@@ -13491,7 +13497,7 @@
     </row>
     <row r="162" spans="1:10" ht="17.25" customHeight="1">
       <c r="A162" s="153"/>
-      <c r="B162" s="172"/>
+      <c r="B162" s="173"/>
       <c r="C162" s="124">
         <v>160</v>
       </c>
@@ -13516,7 +13522,7 @@
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1">
       <c r="A163" s="153"/>
-      <c r="B163" s="172"/>
+      <c r="B163" s="173"/>
       <c r="C163" s="124">
         <v>161</v>
       </c>
@@ -13541,7 +13547,7 @@
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1">
       <c r="A164" s="153"/>
-      <c r="B164" s="172"/>
+      <c r="B164" s="173"/>
       <c r="C164" s="124">
         <v>162</v>
       </c>
@@ -13566,7 +13572,7 @@
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1">
       <c r="A165" s="153"/>
-      <c r="B165" s="172"/>
+      <c r="B165" s="173"/>
       <c r="C165" s="124">
         <v>163</v>
       </c>
@@ -13591,7 +13597,7 @@
     </row>
     <row r="166" spans="1:10" ht="17.25" customHeight="1">
       <c r="A166" s="153"/>
-      <c r="B166" s="172"/>
+      <c r="B166" s="173"/>
       <c r="C166" s="124">
         <v>164</v>
       </c>
@@ -13616,7 +13622,7 @@
     </row>
     <row r="167" spans="1:10" ht="17.25" customHeight="1">
       <c r="A167" s="153"/>
-      <c r="B167" s="172"/>
+      <c r="B167" s="173"/>
       <c r="C167" s="124">
         <v>165</v>
       </c>
@@ -13641,7 +13647,7 @@
     </row>
     <row r="168" spans="1:10" ht="17.25" customHeight="1">
       <c r="A168" s="153"/>
-      <c r="B168" s="172"/>
+      <c r="B168" s="173"/>
       <c r="C168" s="124">
         <v>166</v>
       </c>
@@ -13666,7 +13672,7 @@
     </row>
     <row r="169" spans="1:10" ht="17.25" customHeight="1">
       <c r="A169" s="153"/>
-      <c r="B169" s="172"/>
+      <c r="B169" s="173"/>
       <c r="C169" s="124">
         <v>167</v>
       </c>
@@ -13691,7 +13697,7 @@
     </row>
     <row r="170" spans="1:10" ht="17.25" customHeight="1">
       <c r="A170" s="153"/>
-      <c r="B170" s="172"/>
+      <c r="B170" s="173"/>
       <c r="C170" s="124">
         <v>168</v>
       </c>
@@ -13716,7 +13722,7 @@
     </row>
     <row r="171" spans="1:10" ht="17.25" customHeight="1">
       <c r="A171" s="153"/>
-      <c r="B171" s="172"/>
+      <c r="B171" s="173"/>
       <c r="C171" s="124">
         <v>169</v>
       </c>
@@ -13741,7 +13747,7 @@
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1">
       <c r="A172" s="153"/>
-      <c r="B172" s="172"/>
+      <c r="B172" s="173"/>
       <c r="C172" s="124">
         <v>170</v>
       </c>
@@ -13766,7 +13772,7 @@
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1">
       <c r="A173" s="153"/>
-      <c r="B173" s="172"/>
+      <c r="B173" s="173"/>
       <c r="C173" s="124">
         <v>171</v>
       </c>
@@ -13791,7 +13797,7 @@
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1">
       <c r="A174" s="153"/>
-      <c r="B174" s="150" t="s">
+      <c r="B174" s="156" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="124">
@@ -13818,7 +13824,7 @@
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1">
       <c r="A175" s="153"/>
-      <c r="B175" s="172"/>
+      <c r="B175" s="173"/>
       <c r="C175" s="124">
         <v>173</v>
       </c>
@@ -13843,7 +13849,7 @@
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1">
       <c r="A176" s="153"/>
-      <c r="B176" s="172"/>
+      <c r="B176" s="173"/>
       <c r="C176" s="124">
         <v>174</v>
       </c>
@@ -13868,7 +13874,7 @@
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1">
       <c r="A177" s="153"/>
-      <c r="B177" s="172"/>
+      <c r="B177" s="173"/>
       <c r="C177" s="124">
         <v>175</v>
       </c>
@@ -13893,7 +13899,7 @@
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1">
       <c r="A178" s="153"/>
-      <c r="B178" s="172"/>
+      <c r="B178" s="173"/>
       <c r="C178" s="124">
         <v>176</v>
       </c>
@@ -13918,7 +13924,7 @@
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1">
       <c r="A179" s="153"/>
-      <c r="B179" s="172"/>
+      <c r="B179" s="173"/>
       <c r="C179" s="124">
         <v>177</v>
       </c>
@@ -13943,7 +13949,7 @@
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1">
       <c r="A180" s="153"/>
-      <c r="B180" s="172"/>
+      <c r="B180" s="173"/>
       <c r="C180" s="124">
         <v>178</v>
       </c>
@@ -13967,8 +13973,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A181" s="173"/>
-      <c r="B181" s="174"/>
+      <c r="A181" s="174"/>
+      <c r="B181" s="175"/>
       <c r="C181" s="125">
         <v>179</v>
       </c>
@@ -14048,10 +14054,10 @@
       <c r="A186" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B186" s="171" t="s">
+      <c r="B186" s="177" t="s">
         <v>208</v>
       </c>
-      <c r="C186" s="170"/>
+      <c r="C186" s="172"/>
       <c r="G186" s="63"/>
       <c r="I186"/>
     </row>
@@ -14059,10 +14065,10 @@
       <c r="A187" s="2">
         <v>0</v>
       </c>
-      <c r="B187" s="169" t="s">
+      <c r="B187" s="171" t="s">
         <v>209</v>
       </c>
-      <c r="C187" s="170"/>
+      <c r="C187" s="172"/>
       <c r="G187" s="63"/>
       <c r="I187"/>
     </row>
@@ -14070,10 +14076,10 @@
       <c r="A188" s="2">
         <v>1</v>
       </c>
-      <c r="B188" s="169" t="s">
+      <c r="B188" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="C188" s="170"/>
+      <c r="C188" s="172"/>
       <c r="G188" s="63"/>
       <c r="I188"/>
     </row>
@@ -14081,10 +14087,10 @@
       <c r="A189" s="2">
         <v>2</v>
       </c>
-      <c r="B189" s="169" t="s">
+      <c r="B189" s="171" t="s">
         <v>211</v>
       </c>
-      <c r="C189" s="170"/>
+      <c r="C189" s="172"/>
       <c r="G189" s="63"/>
       <c r="I189"/>
     </row>
@@ -14092,10 +14098,10 @@
       <c r="A190" s="2">
         <v>3</v>
       </c>
-      <c r="B190" s="169" t="s">
+      <c r="B190" s="171" t="s">
         <v>212</v>
       </c>
-      <c r="C190" s="170"/>
+      <c r="C190" s="172"/>
       <c r="G190" s="63"/>
       <c r="I190"/>
     </row>
@@ -14103,10 +14109,10 @@
       <c r="A191" s="2">
         <v>4</v>
       </c>
-      <c r="B191" s="169" t="s">
+      <c r="B191" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="C191" s="170"/>
+      <c r="C191" s="172"/>
       <c r="G191" s="63"/>
       <c r="I191"/>
     </row>
@@ -14114,10 +14120,10 @@
       <c r="A192" s="2">
         <v>5</v>
       </c>
-      <c r="B192" s="169" t="s">
+      <c r="B192" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="C192" s="170"/>
+      <c r="C192" s="172"/>
       <c r="G192" s="63"/>
       <c r="I192"/>
     </row>
@@ -14125,10 +14131,10 @@
       <c r="A193" s="2">
         <v>6</v>
       </c>
-      <c r="B193" s="169" t="s">
+      <c r="B193" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="C193" s="170"/>
+      <c r="C193" s="172"/>
       <c r="G193" s="63"/>
       <c r="I193"/>
     </row>
@@ -14136,10 +14142,10 @@
       <c r="A194" s="2">
         <v>7</v>
       </c>
-      <c r="B194" s="169" t="s">
+      <c r="B194" s="171" t="s">
         <v>216</v>
       </c>
-      <c r="C194" s="170"/>
+      <c r="C194" s="172"/>
       <c r="G194" s="63"/>
       <c r="I194"/>
     </row>
@@ -14147,10 +14153,10 @@
       <c r="A195" s="2">
         <v>8</v>
       </c>
-      <c r="B195" s="169" t="s">
+      <c r="B195" s="171" t="s">
         <v>217</v>
       </c>
-      <c r="C195" s="170"/>
+      <c r="C195" s="172"/>
       <c r="G195" s="63"/>
       <c r="I195"/>
     </row>
@@ -14158,10 +14164,10 @@
       <c r="A196" s="2">
         <v>9</v>
       </c>
-      <c r="B196" s="169" t="s">
+      <c r="B196" s="171" t="s">
         <v>218</v>
       </c>
-      <c r="C196" s="170"/>
+      <c r="C196" s="172"/>
       <c r="G196" s="63"/>
       <c r="I196"/>
     </row>
@@ -14169,10 +14175,10 @@
       <c r="A197" s="2">
         <v>10</v>
       </c>
-      <c r="B197" s="169" t="s">
+      <c r="B197" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="C197" s="170"/>
+      <c r="C197" s="172"/>
       <c r="G197" s="63"/>
       <c r="I197"/>
     </row>
@@ -14180,10 +14186,10 @@
       <c r="A198" s="2">
         <v>11</v>
       </c>
-      <c r="B198" s="169" t="s">
+      <c r="B198" s="171" t="s">
         <v>220</v>
       </c>
-      <c r="C198" s="170"/>
+      <c r="C198" s="172"/>
       <c r="G198" s="63"/>
       <c r="I198"/>
     </row>
@@ -14191,10 +14197,10 @@
       <c r="A199" s="2">
         <v>12</v>
       </c>
-      <c r="B199" s="169" t="s">
+      <c r="B199" s="171" t="s">
         <v>221</v>
       </c>
-      <c r="C199" s="170"/>
+      <c r="C199" s="172"/>
       <c r="G199" s="63"/>
       <c r="I199"/>
     </row>
@@ -14202,42 +14208,50 @@
       <c r="A200" s="2">
         <v>13</v>
       </c>
-      <c r="B200" s="169" t="s">
+      <c r="B200" s="171" t="s">
         <v>222</v>
       </c>
-      <c r="C200" s="170"/>
+      <c r="C200" s="172"/>
       <c r="I200"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2">
         <v>14</v>
       </c>
-      <c r="B201" s="171" t="s">
+      <c r="B201" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="C201" s="170"/>
+      <c r="C201" s="172"/>
       <c r="I201"/>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2">
         <v>15</v>
       </c>
-      <c r="B202" s="171" t="s">
+      <c r="B202" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="C202" s="170"/>
+      <c r="C202" s="172"/>
       <c r="I202"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B189:C189"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:A49"/>
@@ -14254,22 +14268,14 @@
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B41"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14303,35 +14309,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="180" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="184" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="181" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="180" t="s">
+      <c r="E1" s="184" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="180" t="s">
+      <c r="F1" s="184" t="s">
         <v>536</v>
       </c>
-      <c r="G1" s="178" t="s">
+      <c r="G1" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="179"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
       <c r="G2" s="98" t="s">
         <v>270</v>
       </c>
@@ -14343,10 +14349,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="165" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="179" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="102">
@@ -14372,8 +14378,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="162"/>
-      <c r="B4" s="190"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="102">
         <v>1</v>
       </c>
@@ -14397,8 +14403,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="162"/>
-      <c r="B5" s="190"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="102">
         <v>2</v>
       </c>
@@ -14422,8 +14428,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="162"/>
-      <c r="B6" s="190"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="102">
         <v>3</v>
       </c>
@@ -14447,8 +14453,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="162"/>
-      <c r="B7" s="190"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="102">
         <v>4</v>
       </c>
@@ -14472,8 +14478,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="190"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="102">
         <v>5</v>
       </c>
@@ -14497,8 +14503,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="186" t="s">
+      <c r="A9" s="165"/>
+      <c r="B9" s="179" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="102">
@@ -14524,8 +14530,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="162"/>
-      <c r="B10" s="186"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="102">
         <v>7</v>
       </c>
@@ -14549,8 +14555,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="162"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="179"/>
       <c r="C11" s="102">
         <v>8</v>
       </c>
@@ -14574,8 +14580,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="162"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="102">
         <v>9</v>
       </c>
@@ -14599,8 +14605,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="162"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="102">
         <v>10</v>
       </c>
@@ -14624,8 +14630,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="162"/>
-      <c r="B14" s="186"/>
+      <c r="A14" s="165"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="102">
         <v>11</v>
       </c>
@@ -14649,8 +14655,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="162"/>
-      <c r="B15" s="186"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="102">
         <v>12</v>
       </c>
@@ -14674,8 +14680,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="162"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="102">
         <v>13</v>
       </c>
@@ -14699,8 +14705,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="162"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="102">
         <v>14</v>
       </c>
@@ -14724,8 +14730,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="162"/>
-      <c r="B18" s="186"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="102">
         <v>15</v>
       </c>
@@ -14749,8 +14755,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="162"/>
-      <c r="B19" s="186"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="102">
         <v>16</v>
       </c>
@@ -14774,8 +14780,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="162"/>
-      <c r="B20" s="186"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="102">
         <v>17</v>
       </c>
@@ -14799,8 +14805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="162"/>
-      <c r="B21" s="186"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="102">
         <v>18</v>
       </c>
@@ -14824,8 +14830,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="162"/>
-      <c r="B22" s="186"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="102">
         <v>19</v>
       </c>
@@ -14849,8 +14855,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="162"/>
-      <c r="B23" s="186"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="179"/>
       <c r="C23" s="102">
         <v>20</v>
       </c>
@@ -14874,8 +14880,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="162"/>
-      <c r="B24" s="186"/>
+      <c r="A24" s="165"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="102">
         <v>21</v>
       </c>
@@ -14899,8 +14905,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="162"/>
-      <c r="B25" s="186"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="102">
         <v>22</v>
       </c>
@@ -14924,8 +14930,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="162"/>
-      <c r="B26" s="186"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="102">
         <v>23</v>
       </c>
@@ -14949,10 +14955,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="165" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="186" t="s">
+      <c r="B27" s="179" t="s">
         <v>363</v>
       </c>
       <c r="C27" s="102">
@@ -14978,8 +14984,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="162"/>
-      <c r="B28" s="187"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="188"/>
       <c r="C28" s="102">
         <v>25</v>
       </c>
@@ -15003,8 +15009,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="162"/>
-      <c r="B29" s="187"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="102">
         <v>26</v>
       </c>
@@ -15028,8 +15034,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="162"/>
-      <c r="B30" s="187"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="102">
         <v>27</v>
       </c>
@@ -15053,8 +15059,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="162"/>
-      <c r="B31" s="187"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="188"/>
       <c r="C31" s="102">
         <v>28</v>
       </c>
@@ -15078,8 +15084,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
-      <c r="A32" s="162"/>
-      <c r="B32" s="187"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="188"/>
       <c r="C32" s="102">
         <v>29</v>
       </c>
@@ -15103,8 +15109,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
-      <c r="A33" s="162"/>
-      <c r="B33" s="186" t="s">
+      <c r="A33" s="165"/>
+      <c r="B33" s="179" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="102">
@@ -15130,8 +15136,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1">
-      <c r="A34" s="162"/>
-      <c r="B34" s="186"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="102">
         <v>31</v>
       </c>
@@ -15155,8 +15161,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
-      <c r="A35" s="162"/>
-      <c r="B35" s="186"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="102">
         <v>32</v>
       </c>
@@ -15180,8 +15186,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1">
-      <c r="A36" s="162"/>
-      <c r="B36" s="186"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="102">
         <v>33</v>
       </c>
@@ -15205,8 +15211,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1">
-      <c r="A37" s="162"/>
-      <c r="B37" s="186"/>
+      <c r="A37" s="165"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="102">
         <v>34</v>
       </c>
@@ -15230,8 +15236,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1">
-      <c r="A38" s="162"/>
-      <c r="B38" s="186"/>
+      <c r="A38" s="165"/>
+      <c r="B38" s="179"/>
       <c r="C38" s="102">
         <v>35</v>
       </c>
@@ -15255,8 +15261,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1">
-      <c r="A39" s="162"/>
-      <c r="B39" s="186"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="179"/>
       <c r="C39" s="102">
         <v>36</v>
       </c>
@@ -15280,8 +15286,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="162"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="165"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="102">
         <v>37</v>
       </c>
@@ -15305,8 +15311,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1">
-      <c r="A41" s="162"/>
-      <c r="B41" s="186"/>
+      <c r="A41" s="165"/>
+      <c r="B41" s="179"/>
       <c r="C41" s="102">
         <v>38</v>
       </c>
@@ -15330,8 +15336,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1">
-      <c r="A42" s="162"/>
-      <c r="B42" s="186"/>
+      <c r="A42" s="165"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="102">
         <v>39</v>
       </c>
@@ -15355,8 +15361,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1">
-      <c r="A43" s="162"/>
-      <c r="B43" s="186"/>
+      <c r="A43" s="165"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="102">
         <v>40</v>
       </c>
@@ -15380,8 +15386,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1">
-      <c r="A44" s="162"/>
-      <c r="B44" s="186"/>
+      <c r="A44" s="165"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="102">
         <v>41</v>
       </c>
@@ -15405,8 +15411,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1">
-      <c r="A45" s="162"/>
-      <c r="B45" s="186"/>
+      <c r="A45" s="165"/>
+      <c r="B45" s="179"/>
       <c r="C45" s="102">
         <v>42</v>
       </c>
@@ -15430,8 +15436,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1">
-      <c r="A46" s="162"/>
-      <c r="B46" s="186"/>
+      <c r="A46" s="165"/>
+      <c r="B46" s="179"/>
       <c r="C46" s="102">
         <v>43</v>
       </c>
@@ -15455,8 +15461,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1">
-      <c r="A47" s="162"/>
-      <c r="B47" s="186"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="179"/>
       <c r="C47" s="102">
         <v>44</v>
       </c>
@@ -15480,8 +15486,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" customHeight="1">
-      <c r="A48" s="162"/>
-      <c r="B48" s="186"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="179"/>
       <c r="C48" s="102">
         <v>45</v>
       </c>
@@ -15505,8 +15511,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1">
-      <c r="A49" s="162"/>
-      <c r="B49" s="186"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="102">
         <v>46</v>
       </c>
@@ -15530,8 +15536,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1">
-      <c r="A50" s="162"/>
-      <c r="B50" s="186"/>
+      <c r="A50" s="165"/>
+      <c r="B50" s="179"/>
       <c r="C50" s="102">
         <v>47</v>
       </c>
@@ -15555,8 +15561,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1">
-      <c r="A51" s="162"/>
-      <c r="B51" s="186"/>
+      <c r="A51" s="165"/>
+      <c r="B51" s="179"/>
       <c r="C51" s="102">
         <v>48</v>
       </c>
@@ -15580,8 +15586,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1">
-      <c r="A52" s="162"/>
-      <c r="B52" s="186"/>
+      <c r="A52" s="165"/>
+      <c r="B52" s="179"/>
       <c r="C52" s="102">
         <v>49</v>
       </c>
@@ -15605,8 +15611,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1">
-      <c r="A53" s="162"/>
-      <c r="B53" s="186"/>
+      <c r="A53" s="165"/>
+      <c r="B53" s="179"/>
       <c r="C53" s="102">
         <v>50</v>
       </c>
@@ -15630,8 +15636,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1">
-      <c r="A54" s="162"/>
-      <c r="B54" s="186"/>
+      <c r="A54" s="165"/>
+      <c r="B54" s="179"/>
       <c r="C54" s="102">
         <v>51</v>
       </c>
@@ -15655,8 +15661,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1">
-      <c r="A55" s="162"/>
-      <c r="B55" s="186"/>
+      <c r="A55" s="165"/>
+      <c r="B55" s="179"/>
       <c r="C55" s="102">
         <v>52</v>
       </c>
@@ -15680,8 +15686,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1">
-      <c r="A56" s="162"/>
-      <c r="B56" s="186"/>
+      <c r="A56" s="165"/>
+      <c r="B56" s="179"/>
       <c r="C56" s="102">
         <v>53</v>
       </c>
@@ -15705,8 +15711,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" customHeight="1">
-      <c r="A57" s="162"/>
-      <c r="B57" s="186"/>
+      <c r="A57" s="165"/>
+      <c r="B57" s="179"/>
       <c r="C57" s="102">
         <v>54</v>
       </c>
@@ -15730,8 +15736,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" customHeight="1">
-      <c r="A58" s="162"/>
-      <c r="B58" s="186"/>
+      <c r="A58" s="165"/>
+      <c r="B58" s="179"/>
       <c r="C58" s="102">
         <v>55</v>
       </c>
@@ -15755,8 +15761,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" customHeight="1">
-      <c r="A59" s="162"/>
-      <c r="B59" s="186"/>
+      <c r="A59" s="165"/>
+      <c r="B59" s="179"/>
       <c r="C59" s="102">
         <v>56</v>
       </c>
@@ -15780,8 +15786,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" customHeight="1">
-      <c r="A60" s="162"/>
-      <c r="B60" s="186"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="179"/>
       <c r="C60" s="102">
         <v>57</v>
       </c>
@@ -15805,8 +15811,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1">
-      <c r="A61" s="192"/>
-      <c r="B61" s="191"/>
+      <c r="A61" s="187"/>
+      <c r="B61" s="186"/>
       <c r="C61" s="102">
         <v>58</v>
       </c>
@@ -15830,8 +15836,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" customHeight="1">
-      <c r="A62" s="192"/>
-      <c r="B62" s="191"/>
+      <c r="A62" s="187"/>
+      <c r="B62" s="186"/>
       <c r="C62" s="102">
         <v>59</v>
       </c>
@@ -15855,10 +15861,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" customHeight="1">
-      <c r="A63" s="162" t="s">
+      <c r="A63" s="165" t="s">
         <v>502</v>
       </c>
-      <c r="B63" s="186" t="s">
+      <c r="B63" s="179" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="102">
@@ -15884,8 +15890,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" customHeight="1">
-      <c r="A64" s="162"/>
-      <c r="B64" s="187"/>
+      <c r="A64" s="165"/>
+      <c r="B64" s="188"/>
       <c r="C64" s="102">
         <v>61</v>
       </c>
@@ -15909,8 +15915,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" customHeight="1">
-      <c r="A65" s="162"/>
-      <c r="B65" s="187"/>
+      <c r="A65" s="165"/>
+      <c r="B65" s="188"/>
       <c r="C65" s="102">
         <v>62</v>
       </c>
@@ -15934,8 +15940,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" customHeight="1">
-      <c r="A66" s="162"/>
-      <c r="B66" s="187"/>
+      <c r="A66" s="165"/>
+      <c r="B66" s="188"/>
       <c r="C66" s="102">
         <v>63</v>
       </c>
@@ -15959,8 +15965,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1">
-      <c r="A67" s="162"/>
-      <c r="B67" s="187"/>
+      <c r="A67" s="165"/>
+      <c r="B67" s="188"/>
       <c r="C67" s="102">
         <v>64</v>
       </c>
@@ -15984,8 +15990,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" customHeight="1">
-      <c r="A68" s="162"/>
-      <c r="B68" s="187"/>
+      <c r="A68" s="165"/>
+      <c r="B68" s="188"/>
       <c r="C68" s="102">
         <v>65</v>
       </c>
@@ -16009,8 +16015,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1">
-      <c r="A69" s="162"/>
-      <c r="B69" s="186" t="s">
+      <c r="A69" s="165"/>
+      <c r="B69" s="179" t="s">
         <v>206</v>
       </c>
       <c r="C69" s="102">
@@ -16036,8 +16042,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" customHeight="1">
-      <c r="A70" s="162"/>
-      <c r="B70" s="186"/>
+      <c r="A70" s="165"/>
+      <c r="B70" s="179"/>
       <c r="C70" s="102">
         <v>67</v>
       </c>
@@ -16061,8 +16067,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" customHeight="1">
-      <c r="A71" s="162"/>
-      <c r="B71" s="186"/>
+      <c r="A71" s="165"/>
+      <c r="B71" s="179"/>
       <c r="C71" s="102">
         <v>68</v>
       </c>
@@ -16086,8 +16092,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" customHeight="1">
-      <c r="A72" s="162"/>
-      <c r="B72" s="186"/>
+      <c r="A72" s="165"/>
+      <c r="B72" s="179"/>
       <c r="C72" s="102">
         <v>69</v>
       </c>
@@ -16111,8 +16117,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1">
-      <c r="A73" s="162"/>
-      <c r="B73" s="186"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="179"/>
       <c r="C73" s="102">
         <v>70</v>
       </c>
@@ -16136,8 +16142,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1">
-      <c r="A74" s="162"/>
-      <c r="B74" s="186"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="179"/>
       <c r="C74" s="102">
         <v>71</v>
       </c>
@@ -16161,8 +16167,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1">
-      <c r="A75" s="162"/>
-      <c r="B75" s="186"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="179"/>
       <c r="C75" s="102">
         <v>72</v>
       </c>
@@ -16186,8 +16192,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1">
-      <c r="A76" s="162"/>
-      <c r="B76" s="186"/>
+      <c r="A76" s="165"/>
+      <c r="B76" s="179"/>
       <c r="C76" s="102">
         <v>73</v>
       </c>
@@ -16211,8 +16217,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1">
-      <c r="A77" s="162"/>
-      <c r="B77" s="186"/>
+      <c r="A77" s="165"/>
+      <c r="B77" s="179"/>
       <c r="C77" s="102">
         <v>74</v>
       </c>
@@ -16236,8 +16242,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1">
-      <c r="A78" s="162"/>
-      <c r="B78" s="186"/>
+      <c r="A78" s="165"/>
+      <c r="B78" s="179"/>
       <c r="C78" s="102">
         <v>75</v>
       </c>
@@ -16261,8 +16267,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" customHeight="1">
-      <c r="A79" s="162"/>
-      <c r="B79" s="186"/>
+      <c r="A79" s="165"/>
+      <c r="B79" s="179"/>
       <c r="C79" s="102">
         <v>76</v>
       </c>
@@ -16286,8 +16292,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" customHeight="1">
-      <c r="A80" s="162"/>
-      <c r="B80" s="186"/>
+      <c r="A80" s="165"/>
+      <c r="B80" s="179"/>
       <c r="C80" s="102">
         <v>77</v>
       </c>
@@ -16311,8 +16317,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" customHeight="1">
-      <c r="A81" s="162"/>
-      <c r="B81" s="186"/>
+      <c r="A81" s="165"/>
+      <c r="B81" s="179"/>
       <c r="C81" s="102">
         <v>78</v>
       </c>
@@ -16336,8 +16342,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" customHeight="1">
-      <c r="A82" s="162"/>
-      <c r="B82" s="186"/>
+      <c r="A82" s="165"/>
+      <c r="B82" s="179"/>
       <c r="C82" s="102">
         <v>79</v>
       </c>
@@ -16361,8 +16367,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" customHeight="1">
-      <c r="A83" s="162"/>
-      <c r="B83" s="186"/>
+      <c r="A83" s="165"/>
+      <c r="B83" s="179"/>
       <c r="C83" s="102">
         <v>80</v>
       </c>
@@ -16386,8 +16392,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" customHeight="1">
-      <c r="A84" s="162"/>
-      <c r="B84" s="186"/>
+      <c r="A84" s="165"/>
+      <c r="B84" s="179"/>
       <c r="C84" s="102">
         <v>81</v>
       </c>
@@ -16411,8 +16417,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" customHeight="1">
-      <c r="A85" s="162"/>
-      <c r="B85" s="186"/>
+      <c r="A85" s="165"/>
+      <c r="B85" s="179"/>
       <c r="C85" s="102">
         <v>82</v>
       </c>
@@ -16436,8 +16442,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="18" customHeight="1">
-      <c r="A86" s="162"/>
-      <c r="B86" s="186"/>
+      <c r="A86" s="165"/>
+      <c r="B86" s="179"/>
       <c r="C86" s="102">
         <v>83</v>
       </c>
@@ -16461,8 +16467,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" customHeight="1">
-      <c r="A87" s="162"/>
-      <c r="B87" s="186"/>
+      <c r="A87" s="165"/>
+      <c r="B87" s="179"/>
       <c r="C87" s="102">
         <v>84</v>
       </c>
@@ -16486,8 +16492,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="18" customHeight="1">
-      <c r="A88" s="162"/>
-      <c r="B88" s="186"/>
+      <c r="A88" s="165"/>
+      <c r="B88" s="179"/>
       <c r="C88" s="102">
         <v>85</v>
       </c>
@@ -16511,8 +16517,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" customHeight="1">
-      <c r="A89" s="162"/>
-      <c r="B89" s="186"/>
+      <c r="A89" s="165"/>
+      <c r="B89" s="179"/>
       <c r="C89" s="102">
         <v>86</v>
       </c>
@@ -16536,8 +16542,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="18" customHeight="1">
-      <c r="A90" s="162"/>
-      <c r="B90" s="186"/>
+      <c r="A90" s="165"/>
+      <c r="B90" s="179"/>
       <c r="C90" s="102">
         <v>87</v>
       </c>
@@ -16561,8 +16567,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="18" customHeight="1">
-      <c r="A91" s="162"/>
-      <c r="B91" s="186"/>
+      <c r="A91" s="165"/>
+      <c r="B91" s="179"/>
       <c r="C91" s="102">
         <v>88</v>
       </c>
@@ -16586,8 +16592,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="18" customHeight="1">
-      <c r="A92" s="162"/>
-      <c r="B92" s="186"/>
+      <c r="A92" s="165"/>
+      <c r="B92" s="179"/>
       <c r="C92" s="102">
         <v>89</v>
       </c>
@@ -16611,8 +16617,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" customHeight="1">
-      <c r="A93" s="162"/>
-      <c r="B93" s="186"/>
+      <c r="A93" s="165"/>
+      <c r="B93" s="179"/>
       <c r="C93" s="102">
         <v>90</v>
       </c>
@@ -16636,8 +16642,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="18" customHeight="1">
-      <c r="A94" s="162"/>
-      <c r="B94" s="186"/>
+      <c r="A94" s="165"/>
+      <c r="B94" s="179"/>
       <c r="C94" s="102">
         <v>91</v>
       </c>
@@ -16661,8 +16667,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="18" customHeight="1">
-      <c r="A95" s="162"/>
-      <c r="B95" s="186"/>
+      <c r="A95" s="165"/>
+      <c r="B95" s="179"/>
       <c r="C95" s="102">
         <v>92</v>
       </c>
@@ -16686,8 +16692,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="18" customHeight="1">
-      <c r="A96" s="162"/>
-      <c r="B96" s="186"/>
+      <c r="A96" s="165"/>
+      <c r="B96" s="179"/>
       <c r="C96" s="102">
         <v>93</v>
       </c>
@@ -16711,8 +16717,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="18" customHeight="1">
-      <c r="A97" s="192"/>
-      <c r="B97" s="191"/>
+      <c r="A97" s="187"/>
+      <c r="B97" s="186"/>
       <c r="C97" s="102">
         <v>94</v>
       </c>
@@ -16736,8 +16742,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="18" customHeight="1">
-      <c r="A98" s="192"/>
-      <c r="B98" s="191"/>
+      <c r="A98" s="187"/>
+      <c r="B98" s="186"/>
       <c r="C98" s="102">
         <v>95</v>
       </c>
@@ -16761,10 +16767,10 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="18" customHeight="1">
-      <c r="A99" s="162" t="s">
+      <c r="A99" s="165" t="s">
         <v>503</v>
       </c>
-      <c r="B99" s="186" t="s">
+      <c r="B99" s="179" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="102">
@@ -16790,8 +16796,8 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="18" customHeight="1">
-      <c r="A100" s="162"/>
-      <c r="B100" s="187"/>
+      <c r="A100" s="165"/>
+      <c r="B100" s="188"/>
       <c r="C100" s="102">
         <v>97</v>
       </c>
@@ -16815,8 +16821,8 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="18" customHeight="1">
-      <c r="A101" s="162"/>
-      <c r="B101" s="187"/>
+      <c r="A101" s="165"/>
+      <c r="B101" s="188"/>
       <c r="C101" s="102">
         <v>98</v>
       </c>
@@ -16840,8 +16846,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" customHeight="1">
-      <c r="A102" s="162"/>
-      <c r="B102" s="187"/>
+      <c r="A102" s="165"/>
+      <c r="B102" s="188"/>
       <c r="C102" s="102">
         <v>99</v>
       </c>
@@ -16865,8 +16871,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="18" customHeight="1">
-      <c r="A103" s="162"/>
-      <c r="B103" s="187"/>
+      <c r="A103" s="165"/>
+      <c r="B103" s="188"/>
       <c r="C103" s="102">
         <v>100</v>
       </c>
@@ -16890,8 +16896,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" customHeight="1">
-      <c r="A104" s="162"/>
-      <c r="B104" s="187"/>
+      <c r="A104" s="165"/>
+      <c r="B104" s="188"/>
       <c r="C104" s="102">
         <v>101</v>
       </c>
@@ -16915,8 +16921,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="18" customHeight="1">
-      <c r="A105" s="162"/>
-      <c r="B105" s="186" t="s">
+      <c r="A105" s="165"/>
+      <c r="B105" s="179" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="102">
@@ -16942,8 +16948,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="18" customHeight="1">
-      <c r="A106" s="162"/>
-      <c r="B106" s="186"/>
+      <c r="A106" s="165"/>
+      <c r="B106" s="179"/>
       <c r="C106" s="102">
         <v>103</v>
       </c>
@@ -16967,8 +16973,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="18" customHeight="1">
-      <c r="A107" s="162"/>
-      <c r="B107" s="186"/>
+      <c r="A107" s="165"/>
+      <c r="B107" s="179"/>
       <c r="C107" s="102">
         <v>104</v>
       </c>
@@ -16992,8 +16998,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="18" customHeight="1">
-      <c r="A108" s="162"/>
-      <c r="B108" s="186"/>
+      <c r="A108" s="165"/>
+      <c r="B108" s="179"/>
       <c r="C108" s="102">
         <v>105</v>
       </c>
@@ -17017,8 +17023,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="18" customHeight="1">
-      <c r="A109" s="162"/>
-      <c r="B109" s="186"/>
+      <c r="A109" s="165"/>
+      <c r="B109" s="179"/>
       <c r="C109" s="102">
         <v>106</v>
       </c>
@@ -17042,8 +17048,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" customHeight="1">
-      <c r="A110" s="162"/>
-      <c r="B110" s="186"/>
+      <c r="A110" s="165"/>
+      <c r="B110" s="179"/>
       <c r="C110" s="102">
         <v>107</v>
       </c>
@@ -17067,8 +17073,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" customHeight="1">
-      <c r="A111" s="162"/>
-      <c r="B111" s="186"/>
+      <c r="A111" s="165"/>
+      <c r="B111" s="179"/>
       <c r="C111" s="102">
         <v>108</v>
       </c>
@@ -17092,8 +17098,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" customHeight="1">
-      <c r="A112" s="162"/>
-      <c r="B112" s="186"/>
+      <c r="A112" s="165"/>
+      <c r="B112" s="179"/>
       <c r="C112" s="102">
         <v>109</v>
       </c>
@@ -17117,8 +17123,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="18" customHeight="1">
-      <c r="A113" s="162"/>
-      <c r="B113" s="186"/>
+      <c r="A113" s="165"/>
+      <c r="B113" s="179"/>
       <c r="C113" s="102">
         <v>110</v>
       </c>
@@ -17142,8 +17148,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="18" customHeight="1">
-      <c r="A114" s="162"/>
-      <c r="B114" s="186"/>
+      <c r="A114" s="165"/>
+      <c r="B114" s="179"/>
       <c r="C114" s="102">
         <v>111</v>
       </c>
@@ -17167,8 +17173,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="18" customHeight="1">
-      <c r="A115" s="162"/>
-      <c r="B115" s="186"/>
+      <c r="A115" s="165"/>
+      <c r="B115" s="179"/>
       <c r="C115" s="102">
         <v>112</v>
       </c>
@@ -17192,8 +17198,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="18" customHeight="1">
-      <c r="A116" s="162"/>
-      <c r="B116" s="186"/>
+      <c r="A116" s="165"/>
+      <c r="B116" s="179"/>
       <c r="C116" s="102">
         <v>113</v>
       </c>
@@ -17217,8 +17223,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="18" customHeight="1">
-      <c r="A117" s="162"/>
-      <c r="B117" s="186"/>
+      <c r="A117" s="165"/>
+      <c r="B117" s="179"/>
       <c r="C117" s="102">
         <v>114</v>
       </c>
@@ -17242,8 +17248,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="18" customHeight="1">
-      <c r="A118" s="162"/>
-      <c r="B118" s="186"/>
+      <c r="A118" s="165"/>
+      <c r="B118" s="179"/>
       <c r="C118" s="102">
         <v>115</v>
       </c>
@@ -17267,8 +17273,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="18" customHeight="1">
-      <c r="A119" s="162"/>
-      <c r="B119" s="186"/>
+      <c r="A119" s="165"/>
+      <c r="B119" s="179"/>
       <c r="C119" s="102">
         <v>116</v>
       </c>
@@ -17292,8 +17298,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" customHeight="1">
-      <c r="A120" s="162"/>
-      <c r="B120" s="186"/>
+      <c r="A120" s="165"/>
+      <c r="B120" s="179"/>
       <c r="C120" s="102">
         <v>117</v>
       </c>
@@ -17317,8 +17323,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="18" customHeight="1">
-      <c r="A121" s="162"/>
-      <c r="B121" s="186"/>
+      <c r="A121" s="165"/>
+      <c r="B121" s="179"/>
       <c r="C121" s="102">
         <v>118</v>
       </c>
@@ -17342,8 +17348,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="18" customHeight="1">
-      <c r="A122" s="162"/>
-      <c r="B122" s="186"/>
+      <c r="A122" s="165"/>
+      <c r="B122" s="179"/>
       <c r="C122" s="102">
         <v>119</v>
       </c>
@@ -17367,8 +17373,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="18" customHeight="1">
-      <c r="A123" s="162"/>
-      <c r="B123" s="186"/>
+      <c r="A123" s="165"/>
+      <c r="B123" s="179"/>
       <c r="C123" s="102">
         <v>120</v>
       </c>
@@ -17392,8 +17398,8 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="18" customHeight="1">
-      <c r="A124" s="162"/>
-      <c r="B124" s="186"/>
+      <c r="A124" s="165"/>
+      <c r="B124" s="179"/>
       <c r="C124" s="102">
         <v>121</v>
       </c>
@@ -17417,8 +17423,8 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="18" customHeight="1">
-      <c r="A125" s="162"/>
-      <c r="B125" s="186"/>
+      <c r="A125" s="165"/>
+      <c r="B125" s="179"/>
       <c r="C125" s="102">
         <v>122</v>
       </c>
@@ -17442,8 +17448,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="18" customHeight="1">
-      <c r="A126" s="162"/>
-      <c r="B126" s="186"/>
+      <c r="A126" s="165"/>
+      <c r="B126" s="179"/>
       <c r="C126" s="102">
         <v>123</v>
       </c>
@@ -17467,8 +17473,8 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="18" customHeight="1">
-      <c r="A127" s="162"/>
-      <c r="B127" s="186"/>
+      <c r="A127" s="165"/>
+      <c r="B127" s="179"/>
       <c r="C127" s="102">
         <v>124</v>
       </c>
@@ -17492,8 +17498,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="18" customHeight="1">
-      <c r="A128" s="162"/>
-      <c r="B128" s="186"/>
+      <c r="A128" s="165"/>
+      <c r="B128" s="179"/>
       <c r="C128" s="102">
         <v>125</v>
       </c>
@@ -17517,8 +17523,8 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="18" customHeight="1">
-      <c r="A129" s="162"/>
-      <c r="B129" s="186"/>
+      <c r="A129" s="165"/>
+      <c r="B129" s="179"/>
       <c r="C129" s="102">
         <v>126</v>
       </c>
@@ -17542,8 +17548,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" customHeight="1">
-      <c r="A130" s="162"/>
-      <c r="B130" s="186"/>
+      <c r="A130" s="165"/>
+      <c r="B130" s="179"/>
       <c r="C130" s="102">
         <v>127</v>
       </c>
@@ -17567,8 +17573,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" customHeight="1">
-      <c r="A131" s="162"/>
-      <c r="B131" s="186"/>
+      <c r="A131" s="165"/>
+      <c r="B131" s="179"/>
       <c r="C131" s="102">
         <v>128</v>
       </c>
@@ -17592,8 +17598,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" customHeight="1">
-      <c r="A132" s="162"/>
-      <c r="B132" s="186"/>
+      <c r="A132" s="165"/>
+      <c r="B132" s="179"/>
       <c r="C132" s="102">
         <v>129</v>
       </c>
@@ -17617,8 +17623,8 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" customHeight="1">
-      <c r="A133" s="192"/>
-      <c r="B133" s="191"/>
+      <c r="A133" s="187"/>
+      <c r="B133" s="186"/>
       <c r="C133" s="102">
         <v>130</v>
       </c>
@@ -17642,8 +17648,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" customHeight="1">
-      <c r="A134" s="192"/>
-      <c r="B134" s="191"/>
+      <c r="A134" s="187"/>
+      <c r="B134" s="186"/>
       <c r="C134" s="102">
         <v>131</v>
       </c>
@@ -17667,10 +17673,10 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" customHeight="1">
-      <c r="A135" s="162" t="s">
+      <c r="A135" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="B135" s="186" t="s">
+      <c r="B135" s="179" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="102">
@@ -17696,8 +17702,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="18" customHeight="1">
-      <c r="A136" s="162"/>
-      <c r="B136" s="186"/>
+      <c r="A136" s="165"/>
+      <c r="B136" s="179"/>
       <c r="C136" s="102">
         <v>133</v>
       </c>
@@ -17721,8 +17727,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" customHeight="1">
-      <c r="A137" s="162"/>
-      <c r="B137" s="186"/>
+      <c r="A137" s="165"/>
+      <c r="B137" s="179"/>
       <c r="C137" s="102">
         <v>134</v>
       </c>
@@ -17744,8 +17750,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" customHeight="1">
-      <c r="A138" s="162"/>
-      <c r="B138" s="186"/>
+      <c r="A138" s="165"/>
+      <c r="B138" s="179"/>
       <c r="C138" s="102">
         <v>135</v>
       </c>
@@ -17769,8 +17775,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" customHeight="1">
-      <c r="A139" s="162"/>
-      <c r="B139" s="186"/>
+      <c r="A139" s="165"/>
+      <c r="B139" s="179"/>
       <c r="C139" s="102">
         <v>136</v>
       </c>
@@ -17794,8 +17800,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" customHeight="1">
-      <c r="A140" s="162"/>
-      <c r="B140" s="186"/>
+      <c r="A140" s="165"/>
+      <c r="B140" s="179"/>
       <c r="C140" s="102">
         <v>137</v>
       </c>
@@ -17819,8 +17825,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="18" customHeight="1">
-      <c r="A141" s="162"/>
-      <c r="B141" s="186"/>
+      <c r="A141" s="165"/>
+      <c r="B141" s="179"/>
       <c r="C141" s="102">
         <v>138</v>
       </c>
@@ -17844,8 +17850,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="18" customHeight="1">
-      <c r="A142" s="162"/>
-      <c r="B142" s="186"/>
+      <c r="A142" s="165"/>
+      <c r="B142" s="179"/>
       <c r="C142" s="102">
         <v>139</v>
       </c>
@@ -17869,8 +17875,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="18" customHeight="1">
-      <c r="A143" s="162"/>
-      <c r="B143" s="186"/>
+      <c r="A143" s="165"/>
+      <c r="B143" s="179"/>
       <c r="C143" s="102">
         <v>140</v>
       </c>
@@ -17894,8 +17900,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="18" customHeight="1">
-      <c r="A144" s="162"/>
-      <c r="B144" s="186"/>
+      <c r="A144" s="165"/>
+      <c r="B144" s="179"/>
       <c r="C144" s="102">
         <v>141</v>
       </c>
@@ -17919,8 +17925,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="18" customHeight="1">
-      <c r="A145" s="162"/>
-      <c r="B145" s="186"/>
+      <c r="A145" s="165"/>
+      <c r="B145" s="179"/>
       <c r="C145" s="102">
         <v>142</v>
       </c>
@@ -17944,8 +17950,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="18" customHeight="1">
-      <c r="A146" s="162"/>
-      <c r="B146" s="186"/>
+      <c r="A146" s="165"/>
+      <c r="B146" s="179"/>
       <c r="C146" s="102">
         <v>143</v>
       </c>
@@ -17969,8 +17975,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="18" customHeight="1">
-      <c r="A147" s="162"/>
-      <c r="B147" s="186"/>
+      <c r="A147" s="165"/>
+      <c r="B147" s="179"/>
       <c r="C147" s="102">
         <v>144</v>
       </c>
@@ -17994,8 +18000,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="18" customHeight="1">
-      <c r="A148" s="162"/>
-      <c r="B148" s="186"/>
+      <c r="A148" s="165"/>
+      <c r="B148" s="179"/>
       <c r="C148" s="102">
         <v>145</v>
       </c>
@@ -18019,8 +18025,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="18" customHeight="1">
-      <c r="A149" s="162"/>
-      <c r="B149" s="186"/>
+      <c r="A149" s="165"/>
+      <c r="B149" s="179"/>
       <c r="C149" s="102">
         <v>146</v>
       </c>
@@ -18044,8 +18050,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="18" customHeight="1">
-      <c r="A150" s="162"/>
-      <c r="B150" s="186"/>
+      <c r="A150" s="165"/>
+      <c r="B150" s="179"/>
       <c r="C150" s="102">
         <v>147</v>
       </c>
@@ -18069,8 +18075,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="18" customHeight="1">
-      <c r="A151" s="162"/>
-      <c r="B151" s="186"/>
+      <c r="A151" s="165"/>
+      <c r="B151" s="179"/>
       <c r="C151" s="102">
         <v>148</v>
       </c>
@@ -18094,8 +18100,8 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="18" customHeight="1">
-      <c r="A152" s="162"/>
-      <c r="B152" s="186"/>
+      <c r="A152" s="165"/>
+      <c r="B152" s="179"/>
       <c r="C152" s="102">
         <v>149</v>
       </c>
@@ -18119,8 +18125,8 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="18" customHeight="1">
-      <c r="A153" s="162"/>
-      <c r="B153" s="186"/>
+      <c r="A153" s="165"/>
+      <c r="B153" s="179"/>
       <c r="C153" s="102">
         <v>150</v>
       </c>
@@ -18144,8 +18150,8 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="18" customHeight="1">
-      <c r="A154" s="162"/>
-      <c r="B154" s="186"/>
+      <c r="A154" s="165"/>
+      <c r="B154" s="179"/>
       <c r="C154" s="102">
         <v>151</v>
       </c>
@@ -18169,8 +18175,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="18" customHeight="1">
-      <c r="A155" s="162"/>
-      <c r="B155" s="186"/>
+      <c r="A155" s="165"/>
+      <c r="B155" s="179"/>
       <c r="C155" s="102">
         <v>152</v>
       </c>
@@ -18194,8 +18200,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="18" customHeight="1">
-      <c r="A156" s="162"/>
-      <c r="B156" s="186"/>
+      <c r="A156" s="165"/>
+      <c r="B156" s="179"/>
       <c r="C156" s="102">
         <v>153</v>
       </c>
@@ -18219,8 +18225,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="18" customHeight="1">
-      <c r="A157" s="162"/>
-      <c r="B157" s="186"/>
+      <c r="A157" s="165"/>
+      <c r="B157" s="179"/>
       <c r="C157" s="102">
         <v>154</v>
       </c>
@@ -18244,8 +18250,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="18" customHeight="1">
-      <c r="A158" s="162"/>
-      <c r="B158" s="186"/>
+      <c r="A158" s="165"/>
+      <c r="B158" s="179"/>
       <c r="C158" s="102">
         <v>155</v>
       </c>
@@ -18269,8 +18275,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="18" customHeight="1">
-      <c r="A159" s="162"/>
-      <c r="B159" s="186"/>
+      <c r="A159" s="165"/>
+      <c r="B159" s="179"/>
       <c r="C159" s="102">
         <v>156</v>
       </c>
@@ -18294,8 +18300,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="18" customHeight="1">
-      <c r="A160" s="162"/>
-      <c r="B160" s="186"/>
+      <c r="A160" s="165"/>
+      <c r="B160" s="179"/>
       <c r="C160" s="102">
         <v>157</v>
       </c>
@@ -18319,8 +18325,8 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="18" customHeight="1">
-      <c r="A161" s="162"/>
-      <c r="B161" s="186"/>
+      <c r="A161" s="165"/>
+      <c r="B161" s="179"/>
       <c r="C161" s="102">
         <v>158</v>
       </c>
@@ -18344,8 +18350,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="18" customHeight="1">
-      <c r="A162" s="162"/>
-      <c r="B162" s="186"/>
+      <c r="A162" s="165"/>
+      <c r="B162" s="179"/>
       <c r="C162" s="102">
         <v>159</v>
       </c>
@@ -18369,8 +18375,8 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="18" customHeight="1">
-      <c r="A163" s="162"/>
-      <c r="B163" s="186"/>
+      <c r="A163" s="165"/>
+      <c r="B163" s="179"/>
       <c r="C163" s="102">
         <v>160</v>
       </c>
@@ -18394,8 +18400,8 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="18" customHeight="1">
-      <c r="A164" s="162"/>
-      <c r="B164" s="186"/>
+      <c r="A164" s="165"/>
+      <c r="B164" s="179"/>
       <c r="C164" s="102">
         <v>161</v>
       </c>
@@ -18422,8 +18428,8 @@
       <c r="L164" s="12"/>
     </row>
     <row r="165" spans="1:12" ht="18" customHeight="1">
-      <c r="A165" s="162"/>
-      <c r="B165" s="186"/>
+      <c r="A165" s="165"/>
+      <c r="B165" s="179"/>
       <c r="C165" s="102">
         <v>162</v>
       </c>
@@ -18450,8 +18456,8 @@
       <c r="L165" s="12"/>
     </row>
     <row r="166" spans="1:12" ht="18" customHeight="1">
-      <c r="A166" s="162"/>
-      <c r="B166" s="186"/>
+      <c r="A166" s="165"/>
+      <c r="B166" s="179"/>
       <c r="C166" s="102">
         <v>163</v>
       </c>
@@ -18478,8 +18484,8 @@
       <c r="L166" s="12"/>
     </row>
     <row r="167" spans="1:12" ht="18" customHeight="1">
-      <c r="A167" s="162"/>
-      <c r="B167" s="186"/>
+      <c r="A167" s="165"/>
+      <c r="B167" s="179"/>
       <c r="C167" s="102">
         <v>164</v>
       </c>
@@ -18503,8 +18509,8 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A168" s="188"/>
-      <c r="B168" s="189"/>
+      <c r="A168" s="178"/>
+      <c r="B168" s="180"/>
       <c r="C168" s="105">
         <v>165</v>
       </c>
@@ -18529,6 +18535,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B27:B32"/>
     <mergeCell ref="A135:A168"/>
     <mergeCell ref="B135:B168"/>
     <mergeCell ref="D1:D2"/>
@@ -18544,11 +18555,6 @@
     <mergeCell ref="A99:A134"/>
     <mergeCell ref="B99:B104"/>
     <mergeCell ref="B105:B134"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18580,10 +18586,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="161"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -18601,7 +18607,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="166" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -18624,7 +18630,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="163"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="102" t="s">
         <v>13</v>
       </c>
@@ -18645,7 +18651,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="165" t="s">
         <v>302</v>
       </c>
       <c r="B4" s="102" t="s">
@@ -18668,8 +18674,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="165" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -18689,8 +18695,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="165"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -18708,8 +18714,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="102">
         <v>5</v>
       </c>
@@ -18727,8 +18733,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="102">
         <v>6</v>
       </c>
@@ -18746,8 +18752,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="165"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="102">
         <v>7</v>
       </c>
@@ -18765,8 +18771,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="165"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="102">
         <v>8</v>
       </c>
@@ -18784,8 +18790,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="165"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="102">
         <v>9</v>
       </c>
@@ -18803,8 +18809,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="165"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -18822,8 +18828,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="165"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -18841,8 +18847,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="165"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="102">
         <v>12</v>
       </c>
@@ -18860,10 +18866,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="165" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="168" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="102">
@@ -18883,8 +18889,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="165"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="102">
         <v>14</v>
       </c>
@@ -18902,8 +18908,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="165"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -18921,8 +18927,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="165" t="s">
+      <c r="A18" s="166"/>
+      <c r="B18" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="102">
@@ -18942,8 +18948,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="165"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="102">
         <v>17</v>
       </c>
@@ -18961,8 +18967,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="165"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="102">
         <v>18</v>
       </c>
@@ -18980,8 +18986,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="165"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="102">
         <v>19</v>
       </c>
@@ -18999,8 +19005,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="165"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -19018,10 +19024,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="168" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="102">
@@ -19041,8 +19047,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="165"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="102">
         <v>22</v>
       </c>
@@ -19060,8 +19066,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="165"/>
+      <c r="A25" s="166"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="102">
         <v>23</v>
       </c>
@@ -19079,8 +19085,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="165" t="s">
+      <c r="A26" s="166"/>
+      <c r="B26" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="102">
@@ -19100,8 +19106,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="165"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="102">
         <v>25</v>
       </c>
@@ -19119,8 +19125,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="165"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="102">
         <v>26</v>
       </c>
@@ -19138,8 +19144,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="165"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="102">
         <v>27</v>
       </c>
@@ -19157,8 +19163,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="165"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="102">
         <v>28</v>
       </c>
@@ -19176,10 +19182,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="165" t="s">
         <v>441</v>
       </c>
-      <c r="B31" s="165" t="s">
+      <c r="B31" s="168" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="102">
@@ -19199,8 +19205,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1">
-      <c r="A32" s="163"/>
-      <c r="B32" s="165"/>
+      <c r="A32" s="166"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="102">
         <v>30</v>
       </c>
@@ -19218,8 +19224,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="163"/>
-      <c r="B33" s="165"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="102">
         <v>31</v>
       </c>
@@ -19237,8 +19243,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1">
-      <c r="A34" s="163"/>
-      <c r="B34" s="165" t="s">
+      <c r="A34" s="166"/>
+      <c r="B34" s="168" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="102">
@@ -19258,8 +19264,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="102">
         <v>33</v>
       </c>
@@ -19277,8 +19283,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1">
-      <c r="A36" s="163"/>
-      <c r="B36" s="165"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="102">
         <v>34</v>
       </c>
@@ -19296,8 +19302,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="165"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="102">
         <v>35</v>
       </c>
@@ -19315,7 +19321,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="164"/>
+      <c r="A38" s="167"/>
       <c r="B38" s="193"/>
       <c r="C38" s="105">
         <v>36</v>
@@ -19428,7 +19434,7 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A4" s="156"/>
+      <c r="A4" s="154"/>
       <c r="B4" s="107" t="s">
         <v>290</v>
       </c>
@@ -19474,7 +19480,7 @@
       <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="156"/>
+      <c r="A7" s="154"/>
       <c r="B7" s="107" t="s">
         <v>526</v>
       </c>
@@ -19487,7 +19493,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A8" s="157"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="112" t="s">
         <v>527</v>
       </c>

--- a/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
+++ b/20180116_방향성_다회로차단기(4회로_3차단형_44-3B-A-125-P)_DNP_Point_V1.0.xlsx
@@ -2262,7 +2262,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>변경사항 반영되나 보자</t>
+    <t>다시해보자…. 되라</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4392,6 +4392,33 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="247" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4401,53 +4428,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4455,71 +4476,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6036,7 +6036,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6055,10 +6055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
       <c r="A3" s="153"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="150" t="s">
         <v>261</v>
       </c>
       <c r="C3" s="129">
@@ -6140,7 +6140,7 @@
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
       <c r="A4" s="153"/>
-      <c r="B4" s="156"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="129">
         <v>2</v>
       </c>
@@ -6153,10 +6153,10 @@
       <c r="F4" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="159" t="s">
         <v>580</v>
       </c>
-      <c r="H4" s="151"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="107">
         <v>2</v>
       </c>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
       <c r="A5" s="153"/>
-      <c r="B5" s="156"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="129">
         <v>3</v>
       </c>
@@ -6179,10 +6179,10 @@
       <c r="F5" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="159" t="s">
         <v>579</v>
       </c>
-      <c r="H5" s="151"/>
+      <c r="H5" s="160"/>
       <c r="I5" s="107">
         <v>3</v>
       </c>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1">
       <c r="A6" s="153"/>
-      <c r="B6" s="156"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="129">
         <v>4</v>
       </c>
@@ -6239,10 +6239,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="152" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="129">
@@ -6267,7 +6267,7 @@
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
       <c r="A9" s="153"/>
-      <c r="B9" s="156"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="129">
         <v>7</v>
       </c>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1">
       <c r="A10" s="153"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="129">
         <v>8</v>
       </c>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1">
       <c r="A11" s="153"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="129">
@@ -6348,7 +6348,7 @@
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1">
       <c r="A12" s="153"/>
-      <c r="B12" s="156"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="129">
         <v>10</v>
       </c>
@@ -6371,16 +6371,16 @@
       <c r="K12" t="s">
         <v>552</v>
       </c>
-      <c r="L12" s="152" t="s">
+      <c r="L12" s="161" t="s">
         <v>554</v>
       </c>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="129">
@@ -6405,7 +6405,7 @@
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
       <c r="A14" s="153"/>
-      <c r="B14" s="156"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="129">
         <v>12</v>
       </c>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1">
       <c r="A15" s="153"/>
-      <c r="B15" s="156"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="129">
         <v>13</v>
       </c>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1">
       <c r="A16" s="153"/>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="129">
@@ -6476,7 +6476,7 @@
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="153"/>
-      <c r="B17" s="156"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="129">
         <v>15</v>
       </c>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="153"/>
-      <c r="B18" s="156"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="129">
         <v>16</v>
       </c>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="153"/>
-      <c r="B19" s="156"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="129">
         <v>17</v>
       </c>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="153"/>
-      <c r="B20" s="156"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="129">
         <v>18</v>
       </c>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1">
       <c r="A21" s="153"/>
-      <c r="B21" s="156"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="129">
         <v>19</v>
       </c>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1">
       <c r="A22" s="153"/>
-      <c r="B22" s="156"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="129">
         <v>20</v>
       </c>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1">
       <c r="A23" s="153"/>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="129">
@@ -6642,7 +6642,7 @@
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1">
       <c r="A24" s="153"/>
-      <c r="B24" s="157"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="129">
         <v>22</v>
       </c>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1">
       <c r="A25" s="153"/>
-      <c r="B25" s="157"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="129">
         <v>23</v>
       </c>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1">
       <c r="A26" s="153"/>
-      <c r="B26" s="157"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="129">
         <v>24</v>
       </c>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1">
       <c r="A27" s="153"/>
-      <c r="B27" s="157"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="129">
         <v>25</v>
       </c>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="157"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="129">
         <v>26</v>
       </c>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1">
       <c r="A29" s="153"/>
-      <c r="B29" s="157"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="129">
         <v>27</v>
       </c>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1">
       <c r="A30" s="153"/>
-      <c r="B30" s="157"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="129">
         <v>28</v>
       </c>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1">
       <c r="A31" s="153"/>
-      <c r="B31" s="157"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="129">
         <v>29</v>
       </c>
@@ -6834,10 +6834,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="152" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="156" t="s">
+      <c r="B32" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="129">
@@ -6862,7 +6862,7 @@
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1">
       <c r="A33" s="153"/>
-      <c r="B33" s="156"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="129">
         <v>31</v>
       </c>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1">
       <c r="A34" s="153"/>
-      <c r="B34" s="156"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="129">
         <v>32</v>
       </c>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1">
       <c r="A35" s="153"/>
-      <c r="B35" s="156" t="s">
+      <c r="B35" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="129">
@@ -6936,7 +6936,7 @@
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1">
       <c r="A36" s="153"/>
-      <c r="B36" s="156"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="129">
         <v>34</v>
       </c>
@@ -6959,14 +6959,14 @@
       <c r="K36" t="s">
         <v>552</v>
       </c>
-      <c r="L36" s="152" t="s">
+      <c r="L36" s="161" t="s">
         <v>560</v>
       </c>
-      <c r="M36" s="152"/>
+      <c r="M36" s="161"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1">
       <c r="A37" s="153"/>
-      <c r="B37" s="156" t="s">
+      <c r="B37" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="129">
@@ -6997,7 +6997,7 @@
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1">
       <c r="A38" s="153"/>
-      <c r="B38" s="156"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="129">
         <v>36</v>
       </c>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1">
       <c r="A39" s="153"/>
-      <c r="B39" s="156"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="129">
         <v>37</v>
       </c>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
       <c r="A40" s="153"/>
-      <c r="B40" s="156"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="129">
         <v>38</v>
       </c>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
       <c r="A41" s="153"/>
-      <c r="B41" s="156" t="s">
+      <c r="B41" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="129">
@@ -7097,7 +7097,7 @@
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
       <c r="A42" s="153"/>
-      <c r="B42" s="156"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="129">
         <v>40</v>
       </c>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1">
       <c r="A43" s="153"/>
-      <c r="B43" s="156"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="129">
         <v>41</v>
       </c>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1">
       <c r="A44" s="153"/>
-      <c r="B44" s="156"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="129">
         <v>42</v>
       </c>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1">
       <c r="A45" s="153"/>
-      <c r="B45" s="156"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="129">
         <v>43</v>
       </c>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1">
       <c r="A46" s="153"/>
-      <c r="B46" s="156"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="129">
         <v>44</v>
       </c>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1">
       <c r="A47" s="153"/>
-      <c r="B47" s="156"/>
+      <c r="B47" s="150"/>
       <c r="C47" s="129">
         <v>45</v>
       </c>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1">
       <c r="A48" s="153"/>
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="129">
@@ -7260,7 +7260,7 @@
     </row>
     <row r="49" spans="1:16" ht="18" customHeight="1">
       <c r="A49" s="153"/>
-      <c r="B49" s="157"/>
+      <c r="B49" s="151"/>
       <c r="C49" s="129">
         <v>47</v>
       </c>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1">
       <c r="A50" s="153"/>
-      <c r="B50" s="157"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="129">
         <v>48</v>
       </c>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="51" spans="1:16" ht="18" customHeight="1">
       <c r="A51" s="153"/>
-      <c r="B51" s="157"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="129">
         <v>49</v>
       </c>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="52" spans="1:16" ht="18" customHeight="1">
       <c r="A52" s="153"/>
-      <c r="B52" s="157"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="129">
         <v>50</v>
       </c>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="53" spans="1:16" ht="18" customHeight="1">
       <c r="A53" s="153"/>
-      <c r="B53" s="157"/>
+      <c r="B53" s="151"/>
       <c r="C53" s="129">
         <v>51</v>
       </c>
@@ -7374,10 +7374,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="159" t="s">
+      <c r="A54" s="152" t="s">
         <v>346</v>
       </c>
-      <c r="B54" s="156" t="s">
+      <c r="B54" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="129">
@@ -7402,7 +7402,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="153"/>
-      <c r="B55" s="156"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="129">
         <v>53</v>
       </c>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="153"/>
-      <c r="B56" s="156"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="129">
         <v>54</v>
       </c>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="153"/>
-      <c r="B57" s="156" t="s">
+      <c r="B57" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="129">
@@ -7483,7 +7483,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="153"/>
-      <c r="B58" s="156"/>
+      <c r="B58" s="150"/>
       <c r="C58" s="129">
         <v>56</v>
       </c>
@@ -7506,15 +7506,15 @@
       <c r="K58" t="s">
         <v>570</v>
       </c>
-      <c r="L58" s="152" t="s">
+      <c r="L58" s="161" t="s">
         <v>571</v>
       </c>
-      <c r="M58" s="152"/>
-      <c r="N58" s="152"/>
+      <c r="M58" s="161"/>
+      <c r="N58" s="161"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="153"/>
-      <c r="B59" s="156" t="s">
+      <c r="B59" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="129">
@@ -7545,7 +7545,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="153"/>
-      <c r="B60" s="156"/>
+      <c r="B60" s="150"/>
       <c r="C60" s="129">
         <v>58</v>
       </c>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="153"/>
-      <c r="B61" s="156"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="129">
         <v>59</v>
       </c>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="153"/>
-      <c r="B62" s="156"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="129">
         <v>60</v>
       </c>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="153"/>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="129">
@@ -7645,7 +7645,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="153"/>
-      <c r="B64" s="156"/>
+      <c r="B64" s="150"/>
       <c r="C64" s="129">
         <v>62</v>
       </c>
@@ -7668,7 +7668,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="153"/>
-      <c r="B65" s="156"/>
+      <c r="B65" s="150"/>
       <c r="C65" s="129">
         <v>63</v>
       </c>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="153"/>
-      <c r="B66" s="156"/>
+      <c r="B66" s="150"/>
       <c r="C66" s="129">
         <v>64</v>
       </c>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="153"/>
-      <c r="B67" s="156"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="129">
         <v>65</v>
       </c>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="153"/>
-      <c r="B68" s="156"/>
+      <c r="B68" s="150"/>
       <c r="C68" s="129">
         <v>66</v>
       </c>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="153"/>
-      <c r="B69" s="156"/>
+      <c r="B69" s="150"/>
       <c r="C69" s="129">
         <v>67</v>
       </c>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="153"/>
-      <c r="B70" s="156" t="s">
+      <c r="B70" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="129">
@@ -7808,7 +7808,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="153"/>
-      <c r="B71" s="157"/>
+      <c r="B71" s="151"/>
       <c r="C71" s="129">
         <v>69</v>
       </c>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="153"/>
-      <c r="B72" s="157"/>
+      <c r="B72" s="151"/>
       <c r="C72" s="129">
         <v>70</v>
       </c>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="153"/>
-      <c r="B73" s="157"/>
+      <c r="B73" s="151"/>
       <c r="C73" s="129">
         <v>71</v>
       </c>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="153"/>
-      <c r="B74" s="157"/>
+      <c r="B74" s="151"/>
       <c r="C74" s="129">
         <v>72</v>
       </c>
@@ -7900,7 +7900,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="153"/>
-      <c r="B75" s="157"/>
+      <c r="B75" s="151"/>
       <c r="C75" s="129">
         <v>73</v>
       </c>
@@ -7922,10 +7922,10 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A76" s="159" t="s">
+      <c r="A76" s="152" t="s">
         <v>440</v>
       </c>
-      <c r="B76" s="156" t="s">
+      <c r="B76" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="129">
@@ -7950,7 +7950,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="153"/>
-      <c r="B77" s="156"/>
+      <c r="B77" s="150"/>
       <c r="C77" s="129">
         <v>75</v>
       </c>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="153"/>
-      <c r="B78" s="156"/>
+      <c r="B78" s="150"/>
       <c r="C78" s="129">
         <v>76</v>
       </c>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="153"/>
-      <c r="B79" s="156" t="s">
+      <c r="B79" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="129">
@@ -8031,7 +8031,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="153"/>
-      <c r="B80" s="156"/>
+      <c r="B80" s="150"/>
       <c r="C80" s="129">
         <v>78</v>
       </c>
@@ -8054,15 +8054,15 @@
       <c r="K80" t="s">
         <v>570</v>
       </c>
-      <c r="L80" s="152" t="s">
+      <c r="L80" s="161" t="s">
         <v>571</v>
       </c>
-      <c r="M80" s="152"/>
-      <c r="N80" s="152"/>
+      <c r="M80" s="161"/>
+      <c r="N80" s="161"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="153"/>
-      <c r="B81" s="156" t="s">
+      <c r="B81" s="150" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="129">
@@ -8093,7 +8093,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="153"/>
-      <c r="B82" s="156"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="129">
         <v>80</v>
       </c>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="153"/>
-      <c r="B83" s="156"/>
+      <c r="B83" s="150"/>
       <c r="C83" s="129">
         <v>81</v>
       </c>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="153"/>
-      <c r="B84" s="156"/>
+      <c r="B84" s="150"/>
       <c r="C84" s="129">
         <v>82</v>
       </c>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="153"/>
-      <c r="B85" s="156" t="s">
+      <c r="B85" s="150" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="129">
@@ -8193,7 +8193,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="153"/>
-      <c r="B86" s="156"/>
+      <c r="B86" s="150"/>
       <c r="C86" s="129">
         <v>84</v>
       </c>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="153"/>
-      <c r="B87" s="156"/>
+      <c r="B87" s="150"/>
       <c r="C87" s="129">
         <v>85</v>
       </c>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="153"/>
-      <c r="B88" s="156"/>
+      <c r="B88" s="150"/>
       <c r="C88" s="129">
         <v>86</v>
       </c>
@@ -8262,7 +8262,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="153"/>
-      <c r="B89" s="156"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="129">
         <v>87</v>
       </c>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="153"/>
-      <c r="B90" s="156"/>
+      <c r="B90" s="150"/>
       <c r="C90" s="129">
         <v>88</v>
       </c>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="153"/>
-      <c r="B91" s="156"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="129">
         <v>89</v>
       </c>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="153"/>
-      <c r="B92" s="156" t="s">
+      <c r="B92" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="129">
@@ -8356,7 +8356,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="153"/>
-      <c r="B93" s="157"/>
+      <c r="B93" s="151"/>
       <c r="C93" s="129">
         <v>91</v>
       </c>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="153"/>
-      <c r="B94" s="157"/>
+      <c r="B94" s="151"/>
       <c r="C94" s="129">
         <v>92</v>
       </c>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="153"/>
-      <c r="B95" s="157"/>
+      <c r="B95" s="151"/>
       <c r="C95" s="129">
         <v>93</v>
       </c>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="153"/>
-      <c r="B96" s="157"/>
+      <c r="B96" s="151"/>
       <c r="C96" s="129">
         <v>94</v>
       </c>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="153"/>
-      <c r="B97" s="157"/>
+      <c r="B97" s="151"/>
       <c r="C97" s="129">
         <v>95</v>
       </c>
@@ -8473,7 +8473,7 @@
       <c r="A98" s="153" t="s">
         <v>538</v>
       </c>
-      <c r="B98" s="156" t="s">
+      <c r="B98" s="150" t="s">
         <v>539</v>
       </c>
       <c r="C98" s="129">
@@ -8497,8 +8497,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="154"/>
-      <c r="B99" s="157"/>
+      <c r="A99" s="156"/>
+      <c r="B99" s="151"/>
       <c r="C99" s="129">
         <v>97</v>
       </c>
@@ -8520,7 +8520,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A100" s="155"/>
+      <c r="A100" s="157"/>
       <c r="B100" s="158"/>
       <c r="C100" s="112">
         <v>98</v>
@@ -8544,11 +8544,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A76:A97"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B92:B97"/>
     <mergeCell ref="A32:A53"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
@@ -8565,20 +8574,11 @@
     <mergeCell ref="B41:B47"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="A54:A75"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A76:A97"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8612,10 +8612,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -8639,7 +8639,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="163" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -8668,7 +8668,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="166"/>
+      <c r="A3" s="163"/>
       <c r="B3" s="102" t="s">
         <v>264</v>
       </c>
@@ -8695,7 +8695,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="A4" s="166"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
@@ -8722,8 +8722,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="A5" s="166"/>
-      <c r="B5" s="168" t="s">
+      <c r="A5" s="163"/>
+      <c r="B5" s="165" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -8750,8 +8750,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="168"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -8775,7 +8775,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="162" t="s">
         <v>302</v>
       </c>
       <c r="B7" s="102" t="s">
@@ -8804,7 +8804,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A8" s="166"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="102" t="s">
         <v>6</v>
       </c>
@@ -8829,15 +8829,15 @@
       <c r="J8" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="163" t="s">
+      <c r="K8" s="166" t="s">
         <v>572</v>
       </c>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A9" s="166"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="102" t="s">
         <v>8</v>
       </c>
@@ -8864,7 +8864,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="162" t="s">
         <v>303</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -8893,8 +8893,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A11" s="166"/>
-      <c r="B11" s="168" t="s">
+      <c r="A11" s="163"/>
+      <c r="B11" s="165" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="102">
@@ -8918,19 +8918,19 @@
       <c r="J11" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="163" t="s">
+      <c r="K11" s="166" t="s">
         <v>575</v>
       </c>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
       <c r="Q11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A12" s="166"/>
-      <c r="B12" s="168"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -8952,19 +8952,19 @@
       <c r="J12" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K12" s="162" t="s">
+      <c r="K12" s="168" t="s">
         <v>574</v>
       </c>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
       <c r="Q12" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A13" s="166"/>
-      <c r="B13" s="168"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -8986,18 +8986,18 @@
       <c r="J13" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K13" s="162" t="s">
+      <c r="K13" s="168" t="s">
         <v>573</v>
       </c>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
       <c r="Q13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A14" s="166"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="102" t="s">
         <v>8</v>
       </c>
@@ -9024,7 +9024,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="162" t="s">
         <v>304</v>
       </c>
       <c r="B15" s="102" t="s">
@@ -9053,8 +9053,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A16" s="166"/>
-      <c r="B16" s="168" t="s">
+      <c r="A16" s="163"/>
+      <c r="B16" s="165" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="102">
@@ -9078,19 +9078,19 @@
       <c r="J16" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="163" t="s">
+      <c r="K16" s="166" t="s">
         <v>575</v>
       </c>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="167"/>
       <c r="Q16" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A17" s="166"/>
-      <c r="B17" s="168"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -9115,19 +9115,19 @@
       <c r="J17" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="162" t="s">
+      <c r="K17" s="168" t="s">
         <v>574</v>
       </c>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
       <c r="Q17" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A18" s="166"/>
-      <c r="B18" s="168"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="102">
         <v>16</v>
       </c>
@@ -9152,18 +9152,18 @@
       <c r="J18" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="162" t="s">
+      <c r="K18" s="168" t="s">
         <v>573</v>
       </c>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
       <c r="Q18" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A19" s="166"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="102" t="s">
         <v>8</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="162" t="s">
         <v>441</v>
       </c>
       <c r="B20" s="102" t="s">
@@ -9219,8 +9219,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A21" s="166"/>
-      <c r="B21" s="168" t="s">
+      <c r="A21" s="163"/>
+      <c r="B21" s="165" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="102">
@@ -9244,19 +9244,19 @@
       <c r="J21" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="163" t="s">
+      <c r="K21" s="166" t="s">
         <v>575</v>
       </c>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="167"/>
       <c r="Q21" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A22" s="166"/>
-      <c r="B22" s="168"/>
+      <c r="A22" s="163"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -9278,12 +9278,12 @@
       <c r="J22" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K22" s="162" t="s">
+      <c r="K22" s="168" t="s">
         <v>574</v>
       </c>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
       <c r="O22" t="s">
         <v>577</v>
       </c>
@@ -9292,8 +9292,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A23" s="166"/>
-      <c r="B23" s="168"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="102">
         <v>21</v>
       </c>
@@ -9315,18 +9315,18 @@
       <c r="J23" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K23" s="162" t="s">
+      <c r="K23" s="168" t="s">
         <v>573</v>
       </c>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
       <c r="Q23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A24" s="167"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="105" t="s">
         <v>8</v>
       </c>
@@ -9354,6 +9354,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:A9"/>
@@ -9364,16 +9374,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A15:A19"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9407,10 +9407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -9434,10 +9434,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="152" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="175" t="s">
         <v>444</v>
       </c>
       <c r="C2" s="108">
@@ -9463,8 +9463,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="173"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="108">
         <v>1</v>
       </c>
@@ -9488,8 +9488,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="173"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="108">
         <v>2</v>
       </c>
@@ -9511,8 +9511,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="173"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="108">
         <v>3</v>
       </c>
@@ -9536,10 +9536,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="152" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="150" t="s">
         <v>442</v>
       </c>
       <c r="C6" s="124">
@@ -9566,7 +9566,7 @@
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
       <c r="A7" s="153"/>
-      <c r="B7" s="173"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="124">
         <v>5</v>
       </c>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
       <c r="A8" s="153"/>
-      <c r="B8" s="173"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="124">
         <v>6</v>
       </c>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
       <c r="A9" s="153"/>
-      <c r="B9" s="173"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="124">
         <v>7</v>
       </c>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
       <c r="A10" s="153"/>
-      <c r="B10" s="173"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="124">
         <v>8</v>
       </c>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="153"/>
-      <c r="B11" s="173"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="124">
         <v>9</v>
       </c>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="153"/>
-      <c r="B12" s="173"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="124">
         <v>10</v>
       </c>
@@ -9722,7 +9722,7 @@
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="153"/>
-      <c r="B13" s="173"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="124">
         <v>11</v>
       </c>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="153"/>
-      <c r="B14" s="173"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="124">
         <v>12</v>
       </c>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="A15" s="153"/>
-      <c r="B15" s="173"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="124">
         <v>13</v>
       </c>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="A16" s="153"/>
-      <c r="B16" s="173"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="124">
         <v>14</v>
       </c>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1">
       <c r="A17" s="153"/>
-      <c r="B17" s="173"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="124">
         <v>15</v>
       </c>
@@ -9847,7 +9847,7 @@
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1">
       <c r="A18" s="153"/>
-      <c r="B18" s="173"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="124">
         <v>16</v>
       </c>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1">
       <c r="A19" s="153"/>
-      <c r="B19" s="173"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="124">
         <v>17</v>
       </c>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1">
       <c r="A20" s="153"/>
-      <c r="B20" s="173"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="124">
         <v>18</v>
       </c>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
       <c r="A21" s="153"/>
-      <c r="B21" s="173"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="124">
         <v>19</v>
       </c>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1">
       <c r="A22" s="153"/>
-      <c r="B22" s="173"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="124">
         <v>20</v>
       </c>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1">
       <c r="A23" s="153"/>
-      <c r="B23" s="173"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="124">
         <v>21</v>
       </c>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1">
       <c r="A24" s="153"/>
-      <c r="B24" s="173"/>
+      <c r="B24" s="172"/>
       <c r="C24" s="124">
         <v>22</v>
       </c>
@@ -10022,7 +10022,7 @@
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1">
       <c r="A25" s="153"/>
-      <c r="B25" s="173"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="124">
         <v>23</v>
       </c>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1">
       <c r="A26" s="153"/>
-      <c r="B26" s="173"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="124">
         <v>24</v>
       </c>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1">
       <c r="A27" s="153"/>
-      <c r="B27" s="173"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="124">
         <v>25</v>
       </c>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="173"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="124">
         <v>26</v>
       </c>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
       <c r="A29" s="153"/>
-      <c r="B29" s="173"/>
+      <c r="B29" s="172"/>
       <c r="C29" s="124">
         <v>27</v>
       </c>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1">
       <c r="A30" s="153"/>
-      <c r="B30" s="173"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="124">
         <v>28</v>
       </c>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1">
       <c r="A31" s="153"/>
-      <c r="B31" s="173"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="124">
         <v>29</v>
       </c>
@@ -10197,7 +10197,7 @@
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1">
       <c r="A32" s="153"/>
-      <c r="B32" s="173"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="124">
         <v>30</v>
       </c>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="33" spans="1:12" ht="17.25" customHeight="1">
       <c r="A33" s="153"/>
-      <c r="B33" s="173"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="124">
         <v>31</v>
       </c>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="34" spans="1:12" ht="17.25" customHeight="1">
       <c r="A34" s="153"/>
-      <c r="B34" s="173"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="124">
         <v>32</v>
       </c>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="35" spans="1:12" ht="17.25" customHeight="1">
       <c r="A35" s="153"/>
-      <c r="B35" s="173"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="124">
         <v>33</v>
       </c>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="36" spans="1:12" ht="17.25" customHeight="1">
       <c r="A36" s="153"/>
-      <c r="B36" s="173"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="124">
         <v>34</v>
       </c>
@@ -10322,7 +10322,7 @@
     </row>
     <row r="37" spans="1:12" ht="17.25" customHeight="1">
       <c r="A37" s="153"/>
-      <c r="B37" s="173"/>
+      <c r="B37" s="172"/>
       <c r="C37" s="124">
         <v>35</v>
       </c>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1">
       <c r="A38" s="153"/>
-      <c r="B38" s="173"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="124">
         <v>36</v>
       </c>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="39" spans="1:12" ht="17.25" customHeight="1">
       <c r="A39" s="153"/>
-      <c r="B39" s="173"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="124">
         <v>37</v>
       </c>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="40" spans="1:12" ht="17.25" customHeight="1">
       <c r="A40" s="153"/>
-      <c r="B40" s="173"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="124">
         <v>38</v>
       </c>
@@ -10422,7 +10422,7 @@
     </row>
     <row r="41" spans="1:12" ht="17.25" customHeight="1">
       <c r="A41" s="153"/>
-      <c r="B41" s="173"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="124">
         <v>39</v>
       </c>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="42" spans="1:12" ht="17.25" customHeight="1">
       <c r="A42" s="153"/>
-      <c r="B42" s="156" t="s">
+      <c r="B42" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="124">
@@ -10471,14 +10471,14 @@
       <c r="J42" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="K42" s="169" t="s">
+      <c r="K42" s="176" t="s">
         <v>555</v>
       </c>
-      <c r="L42" s="170"/>
+      <c r="L42" s="177"/>
     </row>
     <row r="43" spans="1:12" ht="17.25" customHeight="1">
       <c r="A43" s="153"/>
-      <c r="B43" s="173"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="124">
         <v>41</v>
       </c>
@@ -10500,14 +10500,14 @@
       <c r="J43" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="169" t="s">
+      <c r="K43" s="176" t="s">
         <v>555</v>
       </c>
-      <c r="L43" s="170"/>
+      <c r="L43" s="177"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" customHeight="1">
       <c r="A44" s="153"/>
-      <c r="B44" s="173"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="124">
         <v>42</v>
       </c>
@@ -10529,14 +10529,14 @@
       <c r="J44" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="169" t="s">
+      <c r="K44" s="176" t="s">
         <v>555</v>
       </c>
-      <c r="L44" s="170"/>
+      <c r="L44" s="177"/>
     </row>
     <row r="45" spans="1:12" ht="17.25" customHeight="1">
       <c r="A45" s="153"/>
-      <c r="B45" s="173"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="124">
         <v>43</v>
       </c>
@@ -10558,14 +10558,14 @@
       <c r="J45" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="169" t="s">
+      <c r="K45" s="176" t="s">
         <v>555</v>
       </c>
-      <c r="L45" s="170"/>
+      <c r="L45" s="177"/>
     </row>
     <row r="46" spans="1:12" ht="17.25" customHeight="1">
       <c r="A46" s="153"/>
-      <c r="B46" s="173"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="124">
         <v>44</v>
       </c>
@@ -10587,14 +10587,14 @@
       <c r="J46" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="K46" s="169" t="s">
+      <c r="K46" s="176" t="s">
         <v>555</v>
       </c>
-      <c r="L46" s="170"/>
+      <c r="L46" s="177"/>
     </row>
     <row r="47" spans="1:12" ht="17.25" customHeight="1">
       <c r="A47" s="153"/>
-      <c r="B47" s="173"/>
+      <c r="B47" s="172"/>
       <c r="C47" s="124">
         <v>45</v>
       </c>
@@ -10616,14 +10616,14 @@
       <c r="J47" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="K47" s="169" t="s">
+      <c r="K47" s="176" t="s">
         <v>555</v>
       </c>
-      <c r="L47" s="170"/>
+      <c r="L47" s="177"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" customHeight="1">
       <c r="A48" s="153"/>
-      <c r="B48" s="173"/>
+      <c r="B48" s="172"/>
       <c r="C48" s="124">
         <v>46</v>
       </c>
@@ -10645,14 +10645,14 @@
       <c r="J48" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="K48" s="169" t="s">
+      <c r="K48" s="176" t="s">
         <v>555</v>
       </c>
-      <c r="L48" s="170"/>
+      <c r="L48" s="177"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" customHeight="1">
       <c r="A49" s="153"/>
-      <c r="B49" s="173"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="124">
         <v>47</v>
       </c>
@@ -10674,16 +10674,16 @@
       <c r="J49" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="169" t="s">
+      <c r="K49" s="176" t="s">
         <v>555</v>
       </c>
-      <c r="L49" s="170"/>
+      <c r="L49" s="177"/>
     </row>
     <row r="50" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A50" s="159" t="s">
+      <c r="A50" s="152" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="156" t="s">
+      <c r="B50" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="124">
@@ -10710,7 +10710,7 @@
     </row>
     <row r="51" spans="1:12" ht="17.25" customHeight="1">
       <c r="A51" s="153"/>
-      <c r="B51" s="173"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="124">
         <v>49</v>
       </c>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1">
       <c r="A52" s="153"/>
-      <c r="B52" s="173"/>
+      <c r="B52" s="172"/>
       <c r="C52" s="124">
         <v>50</v>
       </c>
@@ -10760,7 +10760,7 @@
     </row>
     <row r="53" spans="1:12" ht="17.25" customHeight="1">
       <c r="A53" s="153"/>
-      <c r="B53" s="173"/>
+      <c r="B53" s="172"/>
       <c r="C53" s="124">
         <v>51</v>
       </c>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="54" spans="1:12" ht="17.25" customHeight="1">
       <c r="A54" s="153"/>
-      <c r="B54" s="173"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="124">
         <v>52</v>
       </c>
@@ -10810,7 +10810,7 @@
     </row>
     <row r="55" spans="1:12" ht="17.25" customHeight="1">
       <c r="A55" s="153"/>
-      <c r="B55" s="173"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="124">
         <v>53</v>
       </c>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="56" spans="1:12" ht="17.25" customHeight="1">
       <c r="A56" s="153"/>
-      <c r="B56" s="173"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="124">
         <v>54</v>
       </c>
@@ -10860,7 +10860,7 @@
     </row>
     <row r="57" spans="1:12" ht="17.25" customHeight="1">
       <c r="A57" s="153"/>
-      <c r="B57" s="173"/>
+      <c r="B57" s="172"/>
       <c r="C57" s="124">
         <v>55</v>
       </c>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="58" spans="1:12" ht="17.25" customHeight="1">
       <c r="A58" s="153"/>
-      <c r="B58" s="173"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="124">
         <v>56</v>
       </c>
@@ -10910,7 +10910,7 @@
     </row>
     <row r="59" spans="1:12" ht="17.25" customHeight="1">
       <c r="A59" s="153"/>
-      <c r="B59" s="173"/>
+      <c r="B59" s="172"/>
       <c r="C59" s="124">
         <v>57</v>
       </c>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="60" spans="1:12" ht="17.25" customHeight="1">
       <c r="A60" s="153"/>
-      <c r="B60" s="173"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="124">
         <v>58</v>
       </c>
@@ -10960,7 +10960,7 @@
     </row>
     <row r="61" spans="1:12" ht="17.25" customHeight="1">
       <c r="A61" s="153"/>
-      <c r="B61" s="173"/>
+      <c r="B61" s="172"/>
       <c r="C61" s="124">
         <v>59</v>
       </c>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="62" spans="1:12" ht="17.25" customHeight="1">
       <c r="A62" s="153"/>
-      <c r="B62" s="173"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="124">
         <v>60</v>
       </c>
@@ -11010,7 +11010,7 @@
     </row>
     <row r="63" spans="1:12" ht="17.25" customHeight="1">
       <c r="A63" s="153"/>
-      <c r="B63" s="173"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="124">
         <v>61</v>
       </c>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="64" spans="1:12" ht="17.25" customHeight="1">
       <c r="A64" s="153"/>
-      <c r="B64" s="173"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="124">
         <v>62</v>
       </c>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1">
       <c r="A65" s="153"/>
-      <c r="B65" s="173"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="124">
         <v>63</v>
       </c>
@@ -11085,7 +11085,7 @@
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1">
       <c r="A66" s="153"/>
-      <c r="B66" s="173"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="124">
         <v>64</v>
       </c>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1">
       <c r="A67" s="153"/>
-      <c r="B67" s="173"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="124">
         <v>65</v>
       </c>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1">
       <c r="A68" s="153"/>
-      <c r="B68" s="173"/>
+      <c r="B68" s="172"/>
       <c r="C68" s="124">
         <v>66</v>
       </c>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1">
       <c r="A69" s="153"/>
-      <c r="B69" s="173"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="124">
         <v>67</v>
       </c>
@@ -11185,7 +11185,7 @@
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1">
       <c r="A70" s="153"/>
-      <c r="B70" s="173"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="124">
         <v>68</v>
       </c>
@@ -11210,7 +11210,7 @@
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1">
       <c r="A71" s="153"/>
-      <c r="B71" s="173"/>
+      <c r="B71" s="172"/>
       <c r="C71" s="124">
         <v>69</v>
       </c>
@@ -11235,7 +11235,7 @@
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1">
       <c r="A72" s="153"/>
-      <c r="B72" s="173"/>
+      <c r="B72" s="172"/>
       <c r="C72" s="124">
         <v>70</v>
       </c>
@@ -11260,7 +11260,7 @@
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1">
       <c r="A73" s="153"/>
-      <c r="B73" s="173"/>
+      <c r="B73" s="172"/>
       <c r="C73" s="124">
         <v>71</v>
       </c>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1">
       <c r="A74" s="153"/>
-      <c r="B74" s="173"/>
+      <c r="B74" s="172"/>
       <c r="C74" s="124">
         <v>72</v>
       </c>
@@ -11310,7 +11310,7 @@
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1">
       <c r="A75" s="153"/>
-      <c r="B75" s="173"/>
+      <c r="B75" s="172"/>
       <c r="C75" s="124">
         <v>73</v>
       </c>
@@ -11335,7 +11335,7 @@
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1">
       <c r="A76" s="153"/>
-      <c r="B76" s="173"/>
+      <c r="B76" s="172"/>
       <c r="C76" s="124">
         <v>74</v>
       </c>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1">
       <c r="A77" s="153"/>
-      <c r="B77" s="173"/>
+      <c r="B77" s="172"/>
       <c r="C77" s="124">
         <v>75</v>
       </c>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1">
       <c r="A78" s="153"/>
-      <c r="B78" s="173"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="124">
         <v>76</v>
       </c>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1">
       <c r="A79" s="153"/>
-      <c r="B79" s="173"/>
+      <c r="B79" s="172"/>
       <c r="C79" s="124">
         <v>77</v>
       </c>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1">
       <c r="A80" s="153"/>
-      <c r="B80" s="173"/>
+      <c r="B80" s="172"/>
       <c r="C80" s="124">
         <v>78</v>
       </c>
@@ -11460,7 +11460,7 @@
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1">
       <c r="A81" s="153"/>
-      <c r="B81" s="173"/>
+      <c r="B81" s="172"/>
       <c r="C81" s="124">
         <v>79</v>
       </c>
@@ -11485,7 +11485,7 @@
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1">
       <c r="A82" s="153"/>
-      <c r="B82" s="173"/>
+      <c r="B82" s="172"/>
       <c r="C82" s="124">
         <v>80</v>
       </c>
@@ -11510,7 +11510,7 @@
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1">
       <c r="A83" s="153"/>
-      <c r="B83" s="173"/>
+      <c r="B83" s="172"/>
       <c r="C83" s="124">
         <v>81</v>
       </c>
@@ -11535,7 +11535,7 @@
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1">
       <c r="A84" s="153"/>
-      <c r="B84" s="173"/>
+      <c r="B84" s="172"/>
       <c r="C84" s="124">
         <v>82</v>
       </c>
@@ -11560,7 +11560,7 @@
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1">
       <c r="A85" s="153"/>
-      <c r="B85" s="173"/>
+      <c r="B85" s="172"/>
       <c r="C85" s="124">
         <v>83</v>
       </c>
@@ -11585,7 +11585,7 @@
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1">
       <c r="A86" s="153"/>
-      <c r="B86" s="156" t="s">
+      <c r="B86" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="124">
@@ -11612,7 +11612,7 @@
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1">
       <c r="A87" s="153"/>
-      <c r="B87" s="173"/>
+      <c r="B87" s="172"/>
       <c r="C87" s="124">
         <v>85</v>
       </c>
@@ -11637,7 +11637,7 @@
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1">
       <c r="A88" s="153"/>
-      <c r="B88" s="173"/>
+      <c r="B88" s="172"/>
       <c r="C88" s="124">
         <v>86</v>
       </c>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1">
       <c r="A89" s="153"/>
-      <c r="B89" s="173"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="124">
         <v>87</v>
       </c>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1">
       <c r="A90" s="153"/>
-      <c r="B90" s="173"/>
+      <c r="B90" s="172"/>
       <c r="C90" s="124">
         <v>88</v>
       </c>
@@ -11712,7 +11712,7 @@
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1">
       <c r="A91" s="153"/>
-      <c r="B91" s="173"/>
+      <c r="B91" s="172"/>
       <c r="C91" s="124">
         <v>89</v>
       </c>
@@ -11737,7 +11737,7 @@
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1">
       <c r="A92" s="153"/>
-      <c r="B92" s="173"/>
+      <c r="B92" s="172"/>
       <c r="C92" s="124">
         <v>90</v>
       </c>
@@ -11762,7 +11762,7 @@
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1">
       <c r="A93" s="153"/>
-      <c r="B93" s="173"/>
+      <c r="B93" s="172"/>
       <c r="C93" s="124">
         <v>91</v>
       </c>
@@ -11786,10 +11786,10 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A94" s="159" t="s">
+      <c r="A94" s="152" t="s">
         <v>346</v>
       </c>
-      <c r="B94" s="156" t="s">
+      <c r="B94" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C94" s="124">
@@ -11816,7 +11816,7 @@
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1">
       <c r="A95" s="153"/>
-      <c r="B95" s="173"/>
+      <c r="B95" s="172"/>
       <c r="C95" s="124">
         <v>93</v>
       </c>
@@ -11841,7 +11841,7 @@
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1">
       <c r="A96" s="153"/>
-      <c r="B96" s="173"/>
+      <c r="B96" s="172"/>
       <c r="C96" s="124">
         <v>94</v>
       </c>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="97" spans="1:10" ht="17.25" customHeight="1">
       <c r="A97" s="153"/>
-      <c r="B97" s="173"/>
+      <c r="B97" s="172"/>
       <c r="C97" s="124">
         <v>95</v>
       </c>
@@ -11891,7 +11891,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1">
       <c r="A98" s="153"/>
-      <c r="B98" s="173"/>
+      <c r="B98" s="172"/>
       <c r="C98" s="124">
         <v>96</v>
       </c>
@@ -11916,7 +11916,7 @@
     </row>
     <row r="99" spans="1:10" ht="17.25" customHeight="1">
       <c r="A99" s="153"/>
-      <c r="B99" s="173"/>
+      <c r="B99" s="172"/>
       <c r="C99" s="124">
         <v>97</v>
       </c>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1">
       <c r="A100" s="153"/>
-      <c r="B100" s="173"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="124">
         <v>98</v>
       </c>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="101" spans="1:10" ht="17.25" customHeight="1">
       <c r="A101" s="153"/>
-      <c r="B101" s="173"/>
+      <c r="B101" s="172"/>
       <c r="C101" s="124">
         <v>99</v>
       </c>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="102" spans="1:10" ht="17.25" customHeight="1">
       <c r="A102" s="153"/>
-      <c r="B102" s="173"/>
+      <c r="B102" s="172"/>
       <c r="C102" s="124">
         <v>100</v>
       </c>
@@ -12016,7 +12016,7 @@
     </row>
     <row r="103" spans="1:10" ht="17.25" customHeight="1">
       <c r="A103" s="153"/>
-      <c r="B103" s="173"/>
+      <c r="B103" s="172"/>
       <c r="C103" s="124">
         <v>101</v>
       </c>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1">
       <c r="A104" s="153"/>
-      <c r="B104" s="173"/>
+      <c r="B104" s="172"/>
       <c r="C104" s="124">
         <v>102</v>
       </c>
@@ -12066,7 +12066,7 @@
     </row>
     <row r="105" spans="1:10" ht="17.25" customHeight="1">
       <c r="A105" s="153"/>
-      <c r="B105" s="173"/>
+      <c r="B105" s="172"/>
       <c r="C105" s="124">
         <v>103</v>
       </c>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="106" spans="1:10" ht="17.25" customHeight="1">
       <c r="A106" s="153"/>
-      <c r="B106" s="173"/>
+      <c r="B106" s="172"/>
       <c r="C106" s="124">
         <v>104</v>
       </c>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="107" spans="1:10" ht="17.25" customHeight="1">
       <c r="A107" s="153"/>
-      <c r="B107" s="173"/>
+      <c r="B107" s="172"/>
       <c r="C107" s="124">
         <v>105</v>
       </c>
@@ -12141,7 +12141,7 @@
     </row>
     <row r="108" spans="1:10" ht="17.25" customHeight="1">
       <c r="A108" s="153"/>
-      <c r="B108" s="173"/>
+      <c r="B108" s="172"/>
       <c r="C108" s="124">
         <v>106</v>
       </c>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1">
       <c r="A109" s="153"/>
-      <c r="B109" s="173"/>
+      <c r="B109" s="172"/>
       <c r="C109" s="124">
         <v>107</v>
       </c>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1">
       <c r="A110" s="153"/>
-      <c r="B110" s="173"/>
+      <c r="B110" s="172"/>
       <c r="C110" s="124">
         <v>108</v>
       </c>
@@ -12216,7 +12216,7 @@
     </row>
     <row r="111" spans="1:10" ht="17.25" customHeight="1">
       <c r="A111" s="153"/>
-      <c r="B111" s="173"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="124">
         <v>109</v>
       </c>
@@ -12241,7 +12241,7 @@
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1">
       <c r="A112" s="153"/>
-      <c r="B112" s="173"/>
+      <c r="B112" s="172"/>
       <c r="C112" s="124">
         <v>110</v>
       </c>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="113" spans="1:10" ht="17.25" customHeight="1">
       <c r="A113" s="153"/>
-      <c r="B113" s="173"/>
+      <c r="B113" s="172"/>
       <c r="C113" s="124">
         <v>111</v>
       </c>
@@ -12291,7 +12291,7 @@
     </row>
     <row r="114" spans="1:10" ht="17.25" customHeight="1">
       <c r="A114" s="153"/>
-      <c r="B114" s="173"/>
+      <c r="B114" s="172"/>
       <c r="C114" s="124">
         <v>112</v>
       </c>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="115" spans="1:10" ht="17.25" customHeight="1">
       <c r="A115" s="153"/>
-      <c r="B115" s="173"/>
+      <c r="B115" s="172"/>
       <c r="C115" s="124">
         <v>113</v>
       </c>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="116" spans="1:10" ht="17.25" customHeight="1">
       <c r="A116" s="153"/>
-      <c r="B116" s="173"/>
+      <c r="B116" s="172"/>
       <c r="C116" s="124">
         <v>114</v>
       </c>
@@ -12366,7 +12366,7 @@
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1">
       <c r="A117" s="153"/>
-      <c r="B117" s="173"/>
+      <c r="B117" s="172"/>
       <c r="C117" s="124">
         <v>115</v>
       </c>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="118" spans="1:10" ht="17.25" customHeight="1">
       <c r="A118" s="153"/>
-      <c r="B118" s="173"/>
+      <c r="B118" s="172"/>
       <c r="C118" s="124">
         <v>116</v>
       </c>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="119" spans="1:10" ht="17.25" customHeight="1">
       <c r="A119" s="153"/>
-      <c r="B119" s="173"/>
+      <c r="B119" s="172"/>
       <c r="C119" s="124">
         <v>117</v>
       </c>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="120" spans="1:10" ht="17.25" customHeight="1">
       <c r="A120" s="153"/>
-      <c r="B120" s="173"/>
+      <c r="B120" s="172"/>
       <c r="C120" s="124">
         <v>118</v>
       </c>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="121" spans="1:10" ht="17.25" customHeight="1">
       <c r="A121" s="153"/>
-      <c r="B121" s="173"/>
+      <c r="B121" s="172"/>
       <c r="C121" s="124">
         <v>119</v>
       </c>
@@ -12491,7 +12491,7 @@
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1">
       <c r="A122" s="153"/>
-      <c r="B122" s="173"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="124">
         <v>120</v>
       </c>
@@ -12516,7 +12516,7 @@
     </row>
     <row r="123" spans="1:10" ht="17.25" customHeight="1">
       <c r="A123" s="153"/>
-      <c r="B123" s="173"/>
+      <c r="B123" s="172"/>
       <c r="C123" s="124">
         <v>121</v>
       </c>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="124" spans="1:10" ht="17.25" customHeight="1">
       <c r="A124" s="153"/>
-      <c r="B124" s="173"/>
+      <c r="B124" s="172"/>
       <c r="C124" s="124">
         <v>122</v>
       </c>
@@ -12566,7 +12566,7 @@
     </row>
     <row r="125" spans="1:10" ht="17.25" customHeight="1">
       <c r="A125" s="153"/>
-      <c r="B125" s="173"/>
+      <c r="B125" s="172"/>
       <c r="C125" s="124">
         <v>123</v>
       </c>
@@ -12591,7 +12591,7 @@
     </row>
     <row r="126" spans="1:10" ht="17.25" customHeight="1">
       <c r="A126" s="153"/>
-      <c r="B126" s="173"/>
+      <c r="B126" s="172"/>
       <c r="C126" s="124">
         <v>124</v>
       </c>
@@ -12616,7 +12616,7 @@
     </row>
     <row r="127" spans="1:10" ht="17.25" customHeight="1">
       <c r="A127" s="153"/>
-      <c r="B127" s="173"/>
+      <c r="B127" s="172"/>
       <c r="C127" s="124">
         <v>125</v>
       </c>
@@ -12641,7 +12641,7 @@
     </row>
     <row r="128" spans="1:10" ht="17.25" customHeight="1">
       <c r="A128" s="153"/>
-      <c r="B128" s="173"/>
+      <c r="B128" s="172"/>
       <c r="C128" s="124">
         <v>126</v>
       </c>
@@ -12666,7 +12666,7 @@
     </row>
     <row r="129" spans="1:10" ht="17.25" customHeight="1">
       <c r="A129" s="153"/>
-      <c r="B129" s="173"/>
+      <c r="B129" s="172"/>
       <c r="C129" s="124">
         <v>127</v>
       </c>
@@ -12691,7 +12691,7 @@
     </row>
     <row r="130" spans="1:10" ht="17.25" customHeight="1">
       <c r="A130" s="153"/>
-      <c r="B130" s="156" t="s">
+      <c r="B130" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="124">
@@ -12718,7 +12718,7 @@
     </row>
     <row r="131" spans="1:10" ht="17.25" customHeight="1">
       <c r="A131" s="153"/>
-      <c r="B131" s="173"/>
+      <c r="B131" s="172"/>
       <c r="C131" s="124">
         <v>129</v>
       </c>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="132" spans="1:10" ht="17.25" customHeight="1">
       <c r="A132" s="153"/>
-      <c r="B132" s="173"/>
+      <c r="B132" s="172"/>
       <c r="C132" s="124">
         <v>130</v>
       </c>
@@ -12768,7 +12768,7 @@
     </row>
     <row r="133" spans="1:10" ht="17.25" customHeight="1">
       <c r="A133" s="153"/>
-      <c r="B133" s="173"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="124">
         <v>131</v>
       </c>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="134" spans="1:10" ht="17.25" customHeight="1">
       <c r="A134" s="153"/>
-      <c r="B134" s="173"/>
+      <c r="B134" s="172"/>
       <c r="C134" s="124">
         <v>132</v>
       </c>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="135" spans="1:10" ht="17.25" customHeight="1">
       <c r="A135" s="153"/>
-      <c r="B135" s="173"/>
+      <c r="B135" s="172"/>
       <c r="C135" s="124">
         <v>133</v>
       </c>
@@ -12843,7 +12843,7 @@
     </row>
     <row r="136" spans="1:10" ht="17.25" customHeight="1">
       <c r="A136" s="153"/>
-      <c r="B136" s="173"/>
+      <c r="B136" s="172"/>
       <c r="C136" s="124">
         <v>134</v>
       </c>
@@ -12868,7 +12868,7 @@
     </row>
     <row r="137" spans="1:10" ht="17.25" customHeight="1">
       <c r="A137" s="153"/>
-      <c r="B137" s="173"/>
+      <c r="B137" s="172"/>
       <c r="C137" s="124">
         <v>135</v>
       </c>
@@ -12892,10 +12892,10 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A138" s="159" t="s">
+      <c r="A138" s="152" t="s">
         <v>447</v>
       </c>
-      <c r="B138" s="156" t="s">
+      <c r="B138" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C138" s="124">
@@ -12922,7 +12922,7 @@
     </row>
     <row r="139" spans="1:10" ht="17.25" customHeight="1">
       <c r="A139" s="153"/>
-      <c r="B139" s="173"/>
+      <c r="B139" s="172"/>
       <c r="C139" s="124">
         <v>137</v>
       </c>
@@ -12947,7 +12947,7 @@
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1">
       <c r="A140" s="153"/>
-      <c r="B140" s="173"/>
+      <c r="B140" s="172"/>
       <c r="C140" s="124">
         <v>138</v>
       </c>
@@ -12972,7 +12972,7 @@
     </row>
     <row r="141" spans="1:10" ht="17.25" customHeight="1">
       <c r="A141" s="153"/>
-      <c r="B141" s="173"/>
+      <c r="B141" s="172"/>
       <c r="C141" s="124">
         <v>139</v>
       </c>
@@ -12997,7 +12997,7 @@
     </row>
     <row r="142" spans="1:10" ht="17.25" customHeight="1">
       <c r="A142" s="153"/>
-      <c r="B142" s="173"/>
+      <c r="B142" s="172"/>
       <c r="C142" s="124">
         <v>140</v>
       </c>
@@ -13022,7 +13022,7 @@
     </row>
     <row r="143" spans="1:10" ht="17.25" customHeight="1">
       <c r="A143" s="153"/>
-      <c r="B143" s="173"/>
+      <c r="B143" s="172"/>
       <c r="C143" s="124">
         <v>141</v>
       </c>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="144" spans="1:10" ht="17.25" customHeight="1">
       <c r="A144" s="153"/>
-      <c r="B144" s="173"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="124">
         <v>142</v>
       </c>
@@ -13072,7 +13072,7 @@
     </row>
     <row r="145" spans="1:10" ht="17.25" customHeight="1">
       <c r="A145" s="153"/>
-      <c r="B145" s="173"/>
+      <c r="B145" s="172"/>
       <c r="C145" s="124">
         <v>143</v>
       </c>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="146" spans="1:10" ht="17.25" customHeight="1">
       <c r="A146" s="153"/>
-      <c r="B146" s="173"/>
+      <c r="B146" s="172"/>
       <c r="C146" s="124">
         <v>144</v>
       </c>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1">
       <c r="A147" s="153"/>
-      <c r="B147" s="173"/>
+      <c r="B147" s="172"/>
       <c r="C147" s="124">
         <v>145</v>
       </c>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="148" spans="1:10" ht="17.25" customHeight="1">
       <c r="A148" s="153"/>
-      <c r="B148" s="173"/>
+      <c r="B148" s="172"/>
       <c r="C148" s="124">
         <v>146</v>
       </c>
@@ -13172,7 +13172,7 @@
     </row>
     <row r="149" spans="1:10" ht="17.25" customHeight="1">
       <c r="A149" s="153"/>
-      <c r="B149" s="173"/>
+      <c r="B149" s="172"/>
       <c r="C149" s="124">
         <v>147</v>
       </c>
@@ -13197,7 +13197,7 @@
     </row>
     <row r="150" spans="1:10" ht="17.25" customHeight="1">
       <c r="A150" s="153"/>
-      <c r="B150" s="173"/>
+      <c r="B150" s="172"/>
       <c r="C150" s="124">
         <v>148</v>
       </c>
@@ -13222,7 +13222,7 @@
     </row>
     <row r="151" spans="1:10" ht="17.25" customHeight="1">
       <c r="A151" s="153"/>
-      <c r="B151" s="173"/>
+      <c r="B151" s="172"/>
       <c r="C151" s="124">
         <v>149</v>
       </c>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="152" spans="1:10" ht="17.25" customHeight="1">
       <c r="A152" s="153"/>
-      <c r="B152" s="173"/>
+      <c r="B152" s="172"/>
       <c r="C152" s="124">
         <v>150</v>
       </c>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="153" spans="1:10" ht="17.25" customHeight="1">
       <c r="A153" s="153"/>
-      <c r="B153" s="173"/>
+      <c r="B153" s="172"/>
       <c r="C153" s="124">
         <v>151</v>
       </c>
@@ -13297,7 +13297,7 @@
     </row>
     <row r="154" spans="1:10" ht="17.25" customHeight="1">
       <c r="A154" s="153"/>
-      <c r="B154" s="173"/>
+      <c r="B154" s="172"/>
       <c r="C154" s="124">
         <v>152</v>
       </c>
@@ -13322,7 +13322,7 @@
     </row>
     <row r="155" spans="1:10" ht="17.25" customHeight="1">
       <c r="A155" s="153"/>
-      <c r="B155" s="173"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="124">
         <v>153</v>
       </c>
@@ -13347,7 +13347,7 @@
     </row>
     <row r="156" spans="1:10" ht="17.25" customHeight="1">
       <c r="A156" s="153"/>
-      <c r="B156" s="173"/>
+      <c r="B156" s="172"/>
       <c r="C156" s="124">
         <v>154</v>
       </c>
@@ -13372,7 +13372,7 @@
     </row>
     <row r="157" spans="1:10" ht="17.25" customHeight="1">
       <c r="A157" s="153"/>
-      <c r="B157" s="173"/>
+      <c r="B157" s="172"/>
       <c r="C157" s="124">
         <v>155</v>
       </c>
@@ -13397,7 +13397,7 @@
     </row>
     <row r="158" spans="1:10" ht="17.25" customHeight="1">
       <c r="A158" s="153"/>
-      <c r="B158" s="173"/>
+      <c r="B158" s="172"/>
       <c r="C158" s="124">
         <v>156</v>
       </c>
@@ -13422,7 +13422,7 @@
     </row>
     <row r="159" spans="1:10" ht="17.25" customHeight="1">
       <c r="A159" s="153"/>
-      <c r="B159" s="173"/>
+      <c r="B159" s="172"/>
       <c r="C159" s="124">
         <v>157</v>
       </c>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="160" spans="1:10" ht="17.25" customHeight="1">
       <c r="A160" s="153"/>
-      <c r="B160" s="173"/>
+      <c r="B160" s="172"/>
       <c r="C160" s="124">
         <v>158</v>
       </c>
@@ -13472,7 +13472,7 @@
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1">
       <c r="A161" s="153"/>
-      <c r="B161" s="173"/>
+      <c r="B161" s="172"/>
       <c r="C161" s="124">
         <v>159</v>
       </c>
@@ -13497,7 +13497,7 @@
     </row>
     <row r="162" spans="1:10" ht="17.25" customHeight="1">
       <c r="A162" s="153"/>
-      <c r="B162" s="173"/>
+      <c r="B162" s="172"/>
       <c r="C162" s="124">
         <v>160</v>
       </c>
@@ -13522,7 +13522,7 @@
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1">
       <c r="A163" s="153"/>
-      <c r="B163" s="173"/>
+      <c r="B163" s="172"/>
       <c r="C163" s="124">
         <v>161</v>
       </c>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1">
       <c r="A164" s="153"/>
-      <c r="B164" s="173"/>
+      <c r="B164" s="172"/>
       <c r="C164" s="124">
         <v>162</v>
       </c>
@@ -13572,7 +13572,7 @@
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1">
       <c r="A165" s="153"/>
-      <c r="B165" s="173"/>
+      <c r="B165" s="172"/>
       <c r="C165" s="124">
         <v>163</v>
       </c>
@@ -13597,7 +13597,7 @@
     </row>
     <row r="166" spans="1:10" ht="17.25" customHeight="1">
       <c r="A166" s="153"/>
-      <c r="B166" s="173"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="124">
         <v>164</v>
       </c>
@@ -13622,7 +13622,7 @@
     </row>
     <row r="167" spans="1:10" ht="17.25" customHeight="1">
       <c r="A167" s="153"/>
-      <c r="B167" s="173"/>
+      <c r="B167" s="172"/>
       <c r="C167" s="124">
         <v>165</v>
       </c>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="168" spans="1:10" ht="17.25" customHeight="1">
       <c r="A168" s="153"/>
-      <c r="B168" s="173"/>
+      <c r="B168" s="172"/>
       <c r="C168" s="124">
         <v>166</v>
       </c>
@@ -13672,7 +13672,7 @@
     </row>
     <row r="169" spans="1:10" ht="17.25" customHeight="1">
       <c r="A169" s="153"/>
-      <c r="B169" s="173"/>
+      <c r="B169" s="172"/>
       <c r="C169" s="124">
         <v>167</v>
       </c>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="170" spans="1:10" ht="17.25" customHeight="1">
       <c r="A170" s="153"/>
-      <c r="B170" s="173"/>
+      <c r="B170" s="172"/>
       <c r="C170" s="124">
         <v>168</v>
       </c>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="171" spans="1:10" ht="17.25" customHeight="1">
       <c r="A171" s="153"/>
-      <c r="B171" s="173"/>
+      <c r="B171" s="172"/>
       <c r="C171" s="124">
         <v>169</v>
       </c>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1">
       <c r="A172" s="153"/>
-      <c r="B172" s="173"/>
+      <c r="B172" s="172"/>
       <c r="C172" s="124">
         <v>170</v>
       </c>
@@ -13772,7 +13772,7 @@
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1">
       <c r="A173" s="153"/>
-      <c r="B173" s="173"/>
+      <c r="B173" s="172"/>
       <c r="C173" s="124">
         <v>171</v>
       </c>
@@ -13797,7 +13797,7 @@
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1">
       <c r="A174" s="153"/>
-      <c r="B174" s="156" t="s">
+      <c r="B174" s="150" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="124">
@@ -13824,7 +13824,7 @@
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1">
       <c r="A175" s="153"/>
-      <c r="B175" s="173"/>
+      <c r="B175" s="172"/>
       <c r="C175" s="124">
         <v>173</v>
       </c>
@@ -13849,7 +13849,7 @@
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1">
       <c r="A176" s="153"/>
-      <c r="B176" s="173"/>
+      <c r="B176" s="172"/>
       <c r="C176" s="124">
         <v>174</v>
       </c>
@@ -13874,7 +13874,7 @@
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1">
       <c r="A177" s="153"/>
-      <c r="B177" s="173"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="124">
         <v>175</v>
       </c>
@@ -13899,7 +13899,7 @@
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1">
       <c r="A178" s="153"/>
-      <c r="B178" s="173"/>
+      <c r="B178" s="172"/>
       <c r="C178" s="124">
         <v>176</v>
       </c>
@@ -13924,7 +13924,7 @@
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1">
       <c r="A179" s="153"/>
-      <c r="B179" s="173"/>
+      <c r="B179" s="172"/>
       <c r="C179" s="124">
         <v>177</v>
       </c>
@@ -13949,7 +13949,7 @@
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1">
       <c r="A180" s="153"/>
-      <c r="B180" s="173"/>
+      <c r="B180" s="172"/>
       <c r="C180" s="124">
         <v>178</v>
       </c>
@@ -13973,8 +13973,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A181" s="174"/>
-      <c r="B181" s="175"/>
+      <c r="A181" s="173"/>
+      <c r="B181" s="174"/>
       <c r="C181" s="125">
         <v>179</v>
       </c>
@@ -14054,10 +14054,10 @@
       <c r="A186" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B186" s="177" t="s">
+      <c r="B186" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="C186" s="172"/>
+      <c r="C186" s="170"/>
       <c r="G186" s="63"/>
       <c r="I186"/>
     </row>
@@ -14065,10 +14065,10 @@
       <c r="A187" s="2">
         <v>0</v>
       </c>
-      <c r="B187" s="171" t="s">
+      <c r="B187" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="C187" s="172"/>
+      <c r="C187" s="170"/>
       <c r="G187" s="63"/>
       <c r="I187"/>
     </row>
@@ -14076,10 +14076,10 @@
       <c r="A188" s="2">
         <v>1</v>
       </c>
-      <c r="B188" s="171" t="s">
+      <c r="B188" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="C188" s="172"/>
+      <c r="C188" s="170"/>
       <c r="G188" s="63"/>
       <c r="I188"/>
     </row>
@@ -14087,10 +14087,10 @@
       <c r="A189" s="2">
         <v>2</v>
       </c>
-      <c r="B189" s="171" t="s">
+      <c r="B189" s="169" t="s">
         <v>211</v>
       </c>
-      <c r="C189" s="172"/>
+      <c r="C189" s="170"/>
       <c r="G189" s="63"/>
       <c r="I189"/>
     </row>
@@ -14098,10 +14098,10 @@
       <c r="A190" s="2">
         <v>3</v>
       </c>
-      <c r="B190" s="171" t="s">
+      <c r="B190" s="169" t="s">
         <v>212</v>
       </c>
-      <c r="C190" s="172"/>
+      <c r="C190" s="170"/>
       <c r="G190" s="63"/>
       <c r="I190"/>
     </row>
@@ -14109,10 +14109,10 @@
       <c r="A191" s="2">
         <v>4</v>
       </c>
-      <c r="B191" s="171" t="s">
+      <c r="B191" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="C191" s="172"/>
+      <c r="C191" s="170"/>
       <c r="G191" s="63"/>
       <c r="I191"/>
     </row>
@@ -14120,10 +14120,10 @@
       <c r="A192" s="2">
         <v>5</v>
       </c>
-      <c r="B192" s="171" t="s">
+      <c r="B192" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="C192" s="172"/>
+      <c r="C192" s="170"/>
       <c r="G192" s="63"/>
       <c r="I192"/>
     </row>
@@ -14131,10 +14131,10 @@
       <c r="A193" s="2">
         <v>6</v>
       </c>
-      <c r="B193" s="171" t="s">
+      <c r="B193" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C193" s="172"/>
+      <c r="C193" s="170"/>
       <c r="G193" s="63"/>
       <c r="I193"/>
     </row>
@@ -14142,10 +14142,10 @@
       <c r="A194" s="2">
         <v>7</v>
       </c>
-      <c r="B194" s="171" t="s">
+      <c r="B194" s="169" t="s">
         <v>216</v>
       </c>
-      <c r="C194" s="172"/>
+      <c r="C194" s="170"/>
       <c r="G194" s="63"/>
       <c r="I194"/>
     </row>
@@ -14153,10 +14153,10 @@
       <c r="A195" s="2">
         <v>8</v>
       </c>
-      <c r="B195" s="171" t="s">
+      <c r="B195" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="C195" s="172"/>
+      <c r="C195" s="170"/>
       <c r="G195" s="63"/>
       <c r="I195"/>
     </row>
@@ -14164,10 +14164,10 @@
       <c r="A196" s="2">
         <v>9</v>
       </c>
-      <c r="B196" s="171" t="s">
+      <c r="B196" s="169" t="s">
         <v>218</v>
       </c>
-      <c r="C196" s="172"/>
+      <c r="C196" s="170"/>
       <c r="G196" s="63"/>
       <c r="I196"/>
     </row>
@@ -14175,10 +14175,10 @@
       <c r="A197" s="2">
         <v>10</v>
       </c>
-      <c r="B197" s="171" t="s">
+      <c r="B197" s="169" t="s">
         <v>219</v>
       </c>
-      <c r="C197" s="172"/>
+      <c r="C197" s="170"/>
       <c r="G197" s="63"/>
       <c r="I197"/>
     </row>
@@ -14186,10 +14186,10 @@
       <c r="A198" s="2">
         <v>11</v>
       </c>
-      <c r="B198" s="171" t="s">
+      <c r="B198" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="C198" s="172"/>
+      <c r="C198" s="170"/>
       <c r="G198" s="63"/>
       <c r="I198"/>
     </row>
@@ -14197,10 +14197,10 @@
       <c r="A199" s="2">
         <v>12</v>
       </c>
-      <c r="B199" s="171" t="s">
+      <c r="B199" s="169" t="s">
         <v>221</v>
       </c>
-      <c r="C199" s="172"/>
+      <c r="C199" s="170"/>
       <c r="G199" s="63"/>
       <c r="I199"/>
     </row>
@@ -14208,50 +14208,42 @@
       <c r="A200" s="2">
         <v>13</v>
       </c>
-      <c r="B200" s="171" t="s">
+      <c r="B200" s="169" t="s">
         <v>222</v>
       </c>
-      <c r="C200" s="172"/>
+      <c r="C200" s="170"/>
       <c r="I200"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2">
         <v>14</v>
       </c>
-      <c r="B201" s="177" t="s">
+      <c r="B201" s="171" t="s">
         <v>223</v>
       </c>
-      <c r="C201" s="172"/>
+      <c r="C201" s="170"/>
       <c r="I201"/>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2">
         <v>15</v>
       </c>
-      <c r="B202" s="177" t="s">
+      <c r="B202" s="171" t="s">
         <v>223</v>
       </c>
-      <c r="C202" s="172"/>
+      <c r="C202" s="170"/>
       <c r="I202"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:A49"/>
@@ -14268,14 +14260,22 @@
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B41"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B197:C197"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14309,35 +14309,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="182" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="184" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="180" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="183" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="184" t="s">
+      <c r="E1" s="180" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="184" t="s">
+      <c r="F1" s="180" t="s">
         <v>536</v>
       </c>
-      <c r="G1" s="189" t="s">
+      <c r="G1" s="178" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="189"/>
-      <c r="I1" s="190"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="192"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
       <c r="G2" s="98" t="s">
         <v>270</v>
       </c>
@@ -14349,10 +14349,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="162" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="186" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="102">
@@ -14378,8 +14378,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="165"/>
-      <c r="B4" s="183"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="190"/>
       <c r="C4" s="102">
         <v>1</v>
       </c>
@@ -14403,8 +14403,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="183"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="190"/>
       <c r="C5" s="102">
         <v>2</v>
       </c>
@@ -14428,8 +14428,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="165"/>
-      <c r="B6" s="183"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="190"/>
       <c r="C6" s="102">
         <v>3</v>
       </c>
@@ -14453,8 +14453,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="165"/>
-      <c r="B7" s="183"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="190"/>
       <c r="C7" s="102">
         <v>4</v>
       </c>
@@ -14478,8 +14478,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="165"/>
-      <c r="B8" s="183"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="190"/>
       <c r="C8" s="102">
         <v>5</v>
       </c>
@@ -14503,8 +14503,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="179" t="s">
+      <c r="A9" s="162"/>
+      <c r="B9" s="186" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="102">
@@ -14530,8 +14530,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="165"/>
-      <c r="B10" s="179"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="102">
         <v>7</v>
       </c>
@@ -14555,8 +14555,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="179"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="102">
         <v>8</v>
       </c>
@@ -14580,8 +14580,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="179"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="102">
         <v>9</v>
       </c>
@@ -14605,8 +14605,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="179"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="102">
         <v>10</v>
       </c>
@@ -14630,8 +14630,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="179"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="102">
         <v>11</v>
       </c>
@@ -14655,8 +14655,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="179"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="102">
         <v>12</v>
       </c>
@@ -14680,8 +14680,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="179"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="102">
         <v>13</v>
       </c>
@@ -14705,8 +14705,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="179"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="102">
         <v>14</v>
       </c>
@@ -14730,8 +14730,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="165"/>
-      <c r="B18" s="179"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="102">
         <v>15</v>
       </c>
@@ -14755,8 +14755,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="179"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="102">
         <v>16</v>
       </c>
@@ -14780,8 +14780,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="165"/>
-      <c r="B20" s="179"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="102">
         <v>17</v>
       </c>
@@ -14805,8 +14805,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="165"/>
-      <c r="B21" s="179"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="102">
         <v>18</v>
       </c>
@@ -14830,8 +14830,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="165"/>
-      <c r="B22" s="179"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="186"/>
       <c r="C22" s="102">
         <v>19</v>
       </c>
@@ -14855,8 +14855,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="179"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="186"/>
       <c r="C23" s="102">
         <v>20</v>
       </c>
@@ -14880,8 +14880,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="165"/>
-      <c r="B24" s="179"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="186"/>
       <c r="C24" s="102">
         <v>21</v>
       </c>
@@ -14905,8 +14905,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="165"/>
-      <c r="B25" s="179"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="102">
         <v>22</v>
       </c>
@@ -14930,8 +14930,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="165"/>
-      <c r="B26" s="179"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="102">
         <v>23</v>
       </c>
@@ -14955,10 +14955,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="162" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="186" t="s">
         <v>363</v>
       </c>
       <c r="C27" s="102">
@@ -14984,8 +14984,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="165"/>
-      <c r="B28" s="188"/>
+      <c r="A28" s="162"/>
+      <c r="B28" s="187"/>
       <c r="C28" s="102">
         <v>25</v>
       </c>
@@ -15009,8 +15009,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="165"/>
-      <c r="B29" s="188"/>
+      <c r="A29" s="162"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="102">
         <v>26</v>
       </c>
@@ -15034,8 +15034,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="165"/>
-      <c r="B30" s="188"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="187"/>
       <c r="C30" s="102">
         <v>27</v>
       </c>
@@ -15059,8 +15059,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="165"/>
-      <c r="B31" s="188"/>
+      <c r="A31" s="162"/>
+      <c r="B31" s="187"/>
       <c r="C31" s="102">
         <v>28</v>
       </c>
@@ -15084,8 +15084,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
-      <c r="A32" s="165"/>
-      <c r="B32" s="188"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="102">
         <v>29</v>
       </c>
@@ -15109,8 +15109,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
-      <c r="A33" s="165"/>
-      <c r="B33" s="179" t="s">
+      <c r="A33" s="162"/>
+      <c r="B33" s="186" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="102">
@@ -15136,8 +15136,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1">
-      <c r="A34" s="165"/>
-      <c r="B34" s="179"/>
+      <c r="A34" s="162"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="102">
         <v>31</v>
       </c>
@@ -15161,8 +15161,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
-      <c r="A35" s="165"/>
-      <c r="B35" s="179"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="102">
         <v>32</v>
       </c>
@@ -15186,8 +15186,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1">
-      <c r="A36" s="165"/>
-      <c r="B36" s="179"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="102">
         <v>33</v>
       </c>
@@ -15211,8 +15211,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1">
-      <c r="A37" s="165"/>
-      <c r="B37" s="179"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="186"/>
       <c r="C37" s="102">
         <v>34</v>
       </c>
@@ -15236,8 +15236,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1">
-      <c r="A38" s="165"/>
-      <c r="B38" s="179"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="102">
         <v>35</v>
       </c>
@@ -15261,8 +15261,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1">
-      <c r="A39" s="165"/>
-      <c r="B39" s="179"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="186"/>
       <c r="C39" s="102">
         <v>36</v>
       </c>
@@ -15286,8 +15286,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="165"/>
-      <c r="B40" s="179"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="102">
         <v>37</v>
       </c>
@@ -15311,8 +15311,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1">
-      <c r="A41" s="165"/>
-      <c r="B41" s="179"/>
+      <c r="A41" s="162"/>
+      <c r="B41" s="186"/>
       <c r="C41" s="102">
         <v>38</v>
       </c>
@@ -15336,8 +15336,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1">
-      <c r="A42" s="165"/>
-      <c r="B42" s="179"/>
+      <c r="A42" s="162"/>
+      <c r="B42" s="186"/>
       <c r="C42" s="102">
         <v>39</v>
       </c>
@@ -15361,8 +15361,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1">
-      <c r="A43" s="165"/>
-      <c r="B43" s="179"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="186"/>
       <c r="C43" s="102">
         <v>40</v>
       </c>
@@ -15386,8 +15386,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1">
-      <c r="A44" s="165"/>
-      <c r="B44" s="179"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="186"/>
       <c r="C44" s="102">
         <v>41</v>
       </c>
@@ -15411,8 +15411,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1">
-      <c r="A45" s="165"/>
-      <c r="B45" s="179"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="186"/>
       <c r="C45" s="102">
         <v>42</v>
       </c>
@@ -15436,8 +15436,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1">
-      <c r="A46" s="165"/>
-      <c r="B46" s="179"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="186"/>
       <c r="C46" s="102">
         <v>43</v>
       </c>
@@ -15461,8 +15461,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1">
-      <c r="A47" s="165"/>
-      <c r="B47" s="179"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="186"/>
       <c r="C47" s="102">
         <v>44</v>
       </c>
@@ -15486,8 +15486,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" customHeight="1">
-      <c r="A48" s="165"/>
-      <c r="B48" s="179"/>
+      <c r="A48" s="162"/>
+      <c r="B48" s="186"/>
       <c r="C48" s="102">
         <v>45</v>
       </c>
@@ -15511,8 +15511,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1">
-      <c r="A49" s="165"/>
-      <c r="B49" s="179"/>
+      <c r="A49" s="162"/>
+      <c r="B49" s="186"/>
       <c r="C49" s="102">
         <v>46</v>
       </c>
@@ -15536,8 +15536,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1">
-      <c r="A50" s="165"/>
-      <c r="B50" s="179"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="186"/>
       <c r="C50" s="102">
         <v>47</v>
       </c>
@@ -15561,8 +15561,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1">
-      <c r="A51" s="165"/>
-      <c r="B51" s="179"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="102">
         <v>48</v>
       </c>
@@ -15586,8 +15586,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1">
-      <c r="A52" s="165"/>
-      <c r="B52" s="179"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="186"/>
       <c r="C52" s="102">
         <v>49</v>
       </c>
@@ -15611,8 +15611,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1">
-      <c r="A53" s="165"/>
-      <c r="B53" s="179"/>
+      <c r="A53" s="162"/>
+      <c r="B53" s="186"/>
       <c r="C53" s="102">
         <v>50</v>
       </c>
@@ -15636,8 +15636,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1">
-      <c r="A54" s="165"/>
-      <c r="B54" s="179"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="186"/>
       <c r="C54" s="102">
         <v>51</v>
       </c>
@@ -15661,8 +15661,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1">
-      <c r="A55" s="165"/>
-      <c r="B55" s="179"/>
+      <c r="A55" s="162"/>
+      <c r="B55" s="186"/>
       <c r="C55" s="102">
         <v>52</v>
       </c>
@@ -15686,8 +15686,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1">
-      <c r="A56" s="165"/>
-      <c r="B56" s="179"/>
+      <c r="A56" s="162"/>
+      <c r="B56" s="186"/>
       <c r="C56" s="102">
         <v>53</v>
       </c>
@@ -15711,8 +15711,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" customHeight="1">
-      <c r="A57" s="165"/>
-      <c r="B57" s="179"/>
+      <c r="A57" s="162"/>
+      <c r="B57" s="186"/>
       <c r="C57" s="102">
         <v>54</v>
       </c>
@@ -15736,8 +15736,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" customHeight="1">
-      <c r="A58" s="165"/>
-      <c r="B58" s="179"/>
+      <c r="A58" s="162"/>
+      <c r="B58" s="186"/>
       <c r="C58" s="102">
         <v>55</v>
       </c>
@@ -15761,8 +15761,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" customHeight="1">
-      <c r="A59" s="165"/>
-      <c r="B59" s="179"/>
+      <c r="A59" s="162"/>
+      <c r="B59" s="186"/>
       <c r="C59" s="102">
         <v>56</v>
       </c>
@@ -15786,8 +15786,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" customHeight="1">
-      <c r="A60" s="165"/>
-      <c r="B60" s="179"/>
+      <c r="A60" s="162"/>
+      <c r="B60" s="186"/>
       <c r="C60" s="102">
         <v>57</v>
       </c>
@@ -15811,8 +15811,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1">
-      <c r="A61" s="187"/>
-      <c r="B61" s="186"/>
+      <c r="A61" s="192"/>
+      <c r="B61" s="191"/>
       <c r="C61" s="102">
         <v>58</v>
       </c>
@@ -15836,8 +15836,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" customHeight="1">
-      <c r="A62" s="187"/>
-      <c r="B62" s="186"/>
+      <c r="A62" s="192"/>
+      <c r="B62" s="191"/>
       <c r="C62" s="102">
         <v>59</v>
       </c>
@@ -15861,10 +15861,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" customHeight="1">
-      <c r="A63" s="165" t="s">
+      <c r="A63" s="162" t="s">
         <v>502</v>
       </c>
-      <c r="B63" s="179" t="s">
+      <c r="B63" s="186" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="102">
@@ -15890,8 +15890,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" customHeight="1">
-      <c r="A64" s="165"/>
-      <c r="B64" s="188"/>
+      <c r="A64" s="162"/>
+      <c r="B64" s="187"/>
       <c r="C64" s="102">
         <v>61</v>
       </c>
@@ -15915,8 +15915,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" customHeight="1">
-      <c r="A65" s="165"/>
-      <c r="B65" s="188"/>
+      <c r="A65" s="162"/>
+      <c r="B65" s="187"/>
       <c r="C65" s="102">
         <v>62</v>
       </c>
@@ -15940,8 +15940,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" customHeight="1">
-      <c r="A66" s="165"/>
-      <c r="B66" s="188"/>
+      <c r="A66" s="162"/>
+      <c r="B66" s="187"/>
       <c r="C66" s="102">
         <v>63</v>
       </c>
@@ -15965,8 +15965,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1">
-      <c r="A67" s="165"/>
-      <c r="B67" s="188"/>
+      <c r="A67" s="162"/>
+      <c r="B67" s="187"/>
       <c r="C67" s="102">
         <v>64</v>
       </c>
@@ -15990,8 +15990,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" customHeight="1">
-      <c r="A68" s="165"/>
-      <c r="B68" s="188"/>
+      <c r="A68" s="162"/>
+      <c r="B68" s="187"/>
       <c r="C68" s="102">
         <v>65</v>
       </c>
@@ -16015,8 +16015,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1">
-      <c r="A69" s="165"/>
-      <c r="B69" s="179" t="s">
+      <c r="A69" s="162"/>
+      <c r="B69" s="186" t="s">
         <v>206</v>
       </c>
       <c r="C69" s="102">
@@ -16042,8 +16042,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" customHeight="1">
-      <c r="A70" s="165"/>
-      <c r="B70" s="179"/>
+      <c r="A70" s="162"/>
+      <c r="B70" s="186"/>
       <c r="C70" s="102">
         <v>67</v>
       </c>
@@ -16067,8 +16067,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" customHeight="1">
-      <c r="A71" s="165"/>
-      <c r="B71" s="179"/>
+      <c r="A71" s="162"/>
+      <c r="B71" s="186"/>
       <c r="C71" s="102">
         <v>68</v>
       </c>
@@ -16092,8 +16092,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" customHeight="1">
-      <c r="A72" s="165"/>
-      <c r="B72" s="179"/>
+      <c r="A72" s="162"/>
+      <c r="B72" s="186"/>
       <c r="C72" s="102">
         <v>69</v>
       </c>
@@ -16117,8 +16117,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1">
-      <c r="A73" s="165"/>
-      <c r="B73" s="179"/>
+      <c r="A73" s="162"/>
+      <c r="B73" s="186"/>
       <c r="C73" s="102">
         <v>70</v>
       </c>
@@ -16142,8 +16142,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1">
-      <c r="A74" s="165"/>
-      <c r="B74" s="179"/>
+      <c r="A74" s="162"/>
+      <c r="B74" s="186"/>
       <c r="C74" s="102">
         <v>71</v>
       </c>
@@ -16167,8 +16167,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1">
-      <c r="A75" s="165"/>
-      <c r="B75" s="179"/>
+      <c r="A75" s="162"/>
+      <c r="B75" s="186"/>
       <c r="C75" s="102">
         <v>72</v>
       </c>
@@ -16192,8 +16192,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1">
-      <c r="A76" s="165"/>
-      <c r="B76" s="179"/>
+      <c r="A76" s="162"/>
+      <c r="B76" s="186"/>
       <c r="C76" s="102">
         <v>73</v>
       </c>
@@ -16217,8 +16217,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1">
-      <c r="A77" s="165"/>
-      <c r="B77" s="179"/>
+      <c r="A77" s="162"/>
+      <c r="B77" s="186"/>
       <c r="C77" s="102">
         <v>74</v>
       </c>
@@ -16242,8 +16242,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1">
-      <c r="A78" s="165"/>
-      <c r="B78" s="179"/>
+      <c r="A78" s="162"/>
+      <c r="B78" s="186"/>
       <c r="C78" s="102">
         <v>75</v>
       </c>
@@ -16267,8 +16267,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" customHeight="1">
-      <c r="A79" s="165"/>
-      <c r="B79" s="179"/>
+      <c r="A79" s="162"/>
+      <c r="B79" s="186"/>
       <c r="C79" s="102">
         <v>76</v>
       </c>
@@ -16292,8 +16292,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" customHeight="1">
-      <c r="A80" s="165"/>
-      <c r="B80" s="179"/>
+      <c r="A80" s="162"/>
+      <c r="B80" s="186"/>
       <c r="C80" s="102">
         <v>77</v>
       </c>
@@ -16317,8 +16317,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" customHeight="1">
-      <c r="A81" s="165"/>
-      <c r="B81" s="179"/>
+      <c r="A81" s="162"/>
+      <c r="B81" s="186"/>
       <c r="C81" s="102">
         <v>78</v>
       </c>
@@ -16342,8 +16342,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" customHeight="1">
-      <c r="A82" s="165"/>
-      <c r="B82" s="179"/>
+      <c r="A82" s="162"/>
+      <c r="B82" s="186"/>
       <c r="C82" s="102">
         <v>79</v>
       </c>
@@ -16367,8 +16367,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" customHeight="1">
-      <c r="A83" s="165"/>
-      <c r="B83" s="179"/>
+      <c r="A83" s="162"/>
+      <c r="B83" s="186"/>
       <c r="C83" s="102">
         <v>80</v>
       </c>
@@ -16392,8 +16392,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" customHeight="1">
-      <c r="A84" s="165"/>
-      <c r="B84" s="179"/>
+      <c r="A84" s="162"/>
+      <c r="B84" s="186"/>
       <c r="C84" s="102">
         <v>81</v>
       </c>
@@ -16417,8 +16417,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" customHeight="1">
-      <c r="A85" s="165"/>
-      <c r="B85" s="179"/>
+      <c r="A85" s="162"/>
+      <c r="B85" s="186"/>
       <c r="C85" s="102">
         <v>82</v>
       </c>
@@ -16442,8 +16442,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="18" customHeight="1">
-      <c r="A86" s="165"/>
-      <c r="B86" s="179"/>
+      <c r="A86" s="162"/>
+      <c r="B86" s="186"/>
       <c r="C86" s="102">
         <v>83</v>
       </c>
@@ -16467,8 +16467,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" customHeight="1">
-      <c r="A87" s="165"/>
-      <c r="B87" s="179"/>
+      <c r="A87" s="162"/>
+      <c r="B87" s="186"/>
       <c r="C87" s="102">
         <v>84</v>
       </c>
@@ -16492,8 +16492,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="18" customHeight="1">
-      <c r="A88" s="165"/>
-      <c r="B88" s="179"/>
+      <c r="A88" s="162"/>
+      <c r="B88" s="186"/>
       <c r="C88" s="102">
         <v>85</v>
       </c>
@@ -16517,8 +16517,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" customHeight="1">
-      <c r="A89" s="165"/>
-      <c r="B89" s="179"/>
+      <c r="A89" s="162"/>
+      <c r="B89" s="186"/>
       <c r="C89" s="102">
         <v>86</v>
       </c>
@@ -16542,8 +16542,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="18" customHeight="1">
-      <c r="A90" s="165"/>
-      <c r="B90" s="179"/>
+      <c r="A90" s="162"/>
+      <c r="B90" s="186"/>
       <c r="C90" s="102">
         <v>87</v>
       </c>
@@ -16567,8 +16567,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="18" customHeight="1">
-      <c r="A91" s="165"/>
-      <c r="B91" s="179"/>
+      <c r="A91" s="162"/>
+      <c r="B91" s="186"/>
       <c r="C91" s="102">
         <v>88</v>
       </c>
@@ -16592,8 +16592,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="18" customHeight="1">
-      <c r="A92" s="165"/>
-      <c r="B92" s="179"/>
+      <c r="A92" s="162"/>
+      <c r="B92" s="186"/>
       <c r="C92" s="102">
         <v>89</v>
       </c>
@@ -16617,8 +16617,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" customHeight="1">
-      <c r="A93" s="165"/>
-      <c r="B93" s="179"/>
+      <c r="A93" s="162"/>
+      <c r="B93" s="186"/>
       <c r="C93" s="102">
         <v>90</v>
       </c>
@@ -16642,8 +16642,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="18" customHeight="1">
-      <c r="A94" s="165"/>
-      <c r="B94" s="179"/>
+      <c r="A94" s="162"/>
+      <c r="B94" s="186"/>
       <c r="C94" s="102">
         <v>91</v>
       </c>
@@ -16667,8 +16667,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="18" customHeight="1">
-      <c r="A95" s="165"/>
-      <c r="B95" s="179"/>
+      <c r="A95" s="162"/>
+      <c r="B95" s="186"/>
       <c r="C95" s="102">
         <v>92</v>
       </c>
@@ -16692,8 +16692,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="18" customHeight="1">
-      <c r="A96" s="165"/>
-      <c r="B96" s="179"/>
+      <c r="A96" s="162"/>
+      <c r="B96" s="186"/>
       <c r="C96" s="102">
         <v>93</v>
       </c>
@@ -16717,8 +16717,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="18" customHeight="1">
-      <c r="A97" s="187"/>
-      <c r="B97" s="186"/>
+      <c r="A97" s="192"/>
+      <c r="B97" s="191"/>
       <c r="C97" s="102">
         <v>94</v>
       </c>
@@ -16742,8 +16742,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="18" customHeight="1">
-      <c r="A98" s="187"/>
-      <c r="B98" s="186"/>
+      <c r="A98" s="192"/>
+      <c r="B98" s="191"/>
       <c r="C98" s="102">
         <v>95</v>
       </c>
@@ -16767,10 +16767,10 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="18" customHeight="1">
-      <c r="A99" s="165" t="s">
+      <c r="A99" s="162" t="s">
         <v>503</v>
       </c>
-      <c r="B99" s="179" t="s">
+      <c r="B99" s="186" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="102">
@@ -16796,8 +16796,8 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="18" customHeight="1">
-      <c r="A100" s="165"/>
-      <c r="B100" s="188"/>
+      <c r="A100" s="162"/>
+      <c r="B100" s="187"/>
       <c r="C100" s="102">
         <v>97</v>
       </c>
@@ -16821,8 +16821,8 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="18" customHeight="1">
-      <c r="A101" s="165"/>
-      <c r="B101" s="188"/>
+      <c r="A101" s="162"/>
+      <c r="B101" s="187"/>
       <c r="C101" s="102">
         <v>98</v>
       </c>
@@ -16846,8 +16846,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" customHeight="1">
-      <c r="A102" s="165"/>
-      <c r="B102" s="188"/>
+      <c r="A102" s="162"/>
+      <c r="B102" s="187"/>
       <c r="C102" s="102">
         <v>99</v>
       </c>
@@ -16871,8 +16871,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="18" customHeight="1">
-      <c r="A103" s="165"/>
-      <c r="B103" s="188"/>
+      <c r="A103" s="162"/>
+      <c r="B103" s="187"/>
       <c r="C103" s="102">
         <v>100</v>
       </c>
@@ -16896,8 +16896,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" customHeight="1">
-      <c r="A104" s="165"/>
-      <c r="B104" s="188"/>
+      <c r="A104" s="162"/>
+      <c r="B104" s="187"/>
       <c r="C104" s="102">
         <v>101</v>
       </c>
@@ -16921,8 +16921,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="18" customHeight="1">
-      <c r="A105" s="165"/>
-      <c r="B105" s="179" t="s">
+      <c r="A105" s="162"/>
+      <c r="B105" s="186" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="102">
@@ -16948,8 +16948,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="18" customHeight="1">
-      <c r="A106" s="165"/>
-      <c r="B106" s="179"/>
+      <c r="A106" s="162"/>
+      <c r="B106" s="186"/>
       <c r="C106" s="102">
         <v>103</v>
       </c>
@@ -16973,8 +16973,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="18" customHeight="1">
-      <c r="A107" s="165"/>
-      <c r="B107" s="179"/>
+      <c r="A107" s="162"/>
+      <c r="B107" s="186"/>
       <c r="C107" s="102">
         <v>104</v>
       </c>
@@ -16998,8 +16998,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="18" customHeight="1">
-      <c r="A108" s="165"/>
-      <c r="B108" s="179"/>
+      <c r="A108" s="162"/>
+      <c r="B108" s="186"/>
       <c r="C108" s="102">
         <v>105</v>
       </c>
@@ -17023,8 +17023,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="18" customHeight="1">
-      <c r="A109" s="165"/>
-      <c r="B109" s="179"/>
+      <c r="A109" s="162"/>
+      <c r="B109" s="186"/>
       <c r="C109" s="102">
         <v>106</v>
       </c>
@@ -17048,8 +17048,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" customHeight="1">
-      <c r="A110" s="165"/>
-      <c r="B110" s="179"/>
+      <c r="A110" s="162"/>
+      <c r="B110" s="186"/>
       <c r="C110" s="102">
         <v>107</v>
       </c>
@@ -17073,8 +17073,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" customHeight="1">
-      <c r="A111" s="165"/>
-      <c r="B111" s="179"/>
+      <c r="A111" s="162"/>
+      <c r="B111" s="186"/>
       <c r="C111" s="102">
         <v>108</v>
       </c>
@@ -17098,8 +17098,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" customHeight="1">
-      <c r="A112" s="165"/>
-      <c r="B112" s="179"/>
+      <c r="A112" s="162"/>
+      <c r="B112" s="186"/>
       <c r="C112" s="102">
         <v>109</v>
       </c>
@@ -17123,8 +17123,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="18" customHeight="1">
-      <c r="A113" s="165"/>
-      <c r="B113" s="179"/>
+      <c r="A113" s="162"/>
+      <c r="B113" s="186"/>
       <c r="C113" s="102">
         <v>110</v>
       </c>
@@ -17148,8 +17148,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="18" customHeight="1">
-      <c r="A114" s="165"/>
-      <c r="B114" s="179"/>
+      <c r="A114" s="162"/>
+      <c r="B114" s="186"/>
       <c r="C114" s="102">
         <v>111</v>
       </c>
@@ -17173,8 +17173,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="18" customHeight="1">
-      <c r="A115" s="165"/>
-      <c r="B115" s="179"/>
+      <c r="A115" s="162"/>
+      <c r="B115" s="186"/>
       <c r="C115" s="102">
         <v>112</v>
       </c>
@@ -17198,8 +17198,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="18" customHeight="1">
-      <c r="A116" s="165"/>
-      <c r="B116" s="179"/>
+      <c r="A116" s="162"/>
+      <c r="B116" s="186"/>
       <c r="C116" s="102">
         <v>113</v>
       </c>
@@ -17223,8 +17223,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="18" customHeight="1">
-      <c r="A117" s="165"/>
-      <c r="B117" s="179"/>
+      <c r="A117" s="162"/>
+      <c r="B117" s="186"/>
       <c r="C117" s="102">
         <v>114</v>
       </c>
@@ -17248,8 +17248,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="18" customHeight="1">
-      <c r="A118" s="165"/>
-      <c r="B118" s="179"/>
+      <c r="A118" s="162"/>
+      <c r="B118" s="186"/>
       <c r="C118" s="102">
         <v>115</v>
       </c>
@@ -17273,8 +17273,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="18" customHeight="1">
-      <c r="A119" s="165"/>
-      <c r="B119" s="179"/>
+      <c r="A119" s="162"/>
+      <c r="B119" s="186"/>
       <c r="C119" s="102">
         <v>116</v>
       </c>
@@ -17298,8 +17298,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" customHeight="1">
-      <c r="A120" s="165"/>
-      <c r="B120" s="179"/>
+      <c r="A120" s="162"/>
+      <c r="B120" s="186"/>
       <c r="C120" s="102">
         <v>117</v>
       </c>
@@ -17323,8 +17323,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="18" customHeight="1">
-      <c r="A121" s="165"/>
-      <c r="B121" s="179"/>
+      <c r="A121" s="162"/>
+      <c r="B121" s="186"/>
       <c r="C121" s="102">
         <v>118</v>
       </c>
@@ -17348,8 +17348,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="18" customHeight="1">
-      <c r="A122" s="165"/>
-      <c r="B122" s="179"/>
+      <c r="A122" s="162"/>
+      <c r="B122" s="186"/>
       <c r="C122" s="102">
         <v>119</v>
       </c>
@@ -17373,8 +17373,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="18" customHeight="1">
-      <c r="A123" s="165"/>
-      <c r="B123" s="179"/>
+      <c r="A123" s="162"/>
+      <c r="B123" s="186"/>
       <c r="C123" s="102">
         <v>120</v>
       </c>
@@ -17398,8 +17398,8 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="18" customHeight="1">
-      <c r="A124" s="165"/>
-      <c r="B124" s="179"/>
+      <c r="A124" s="162"/>
+      <c r="B124" s="186"/>
       <c r="C124" s="102">
         <v>121</v>
       </c>
@@ -17423,8 +17423,8 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="18" customHeight="1">
-      <c r="A125" s="165"/>
-      <c r="B125" s="179"/>
+      <c r="A125" s="162"/>
+      <c r="B125" s="186"/>
       <c r="C125" s="102">
         <v>122</v>
       </c>
@@ -17448,8 +17448,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="18" customHeight="1">
-      <c r="A126" s="165"/>
-      <c r="B126" s="179"/>
+      <c r="A126" s="162"/>
+      <c r="B126" s="186"/>
       <c r="C126" s="102">
         <v>123</v>
       </c>
@@ -17473,8 +17473,8 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="18" customHeight="1">
-      <c r="A127" s="165"/>
-      <c r="B127" s="179"/>
+      <c r="A127" s="162"/>
+      <c r="B127" s="186"/>
       <c r="C127" s="102">
         <v>124</v>
       </c>
@@ -17498,8 +17498,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="18" customHeight="1">
-      <c r="A128" s="165"/>
-      <c r="B128" s="179"/>
+      <c r="A128" s="162"/>
+      <c r="B128" s="186"/>
       <c r="C128" s="102">
         <v>125</v>
       </c>
@@ -17523,8 +17523,8 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="18" customHeight="1">
-      <c r="A129" s="165"/>
-      <c r="B129" s="179"/>
+      <c r="A129" s="162"/>
+      <c r="B129" s="186"/>
       <c r="C129" s="102">
         <v>126</v>
       </c>
@@ -17548,8 +17548,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" customHeight="1">
-      <c r="A130" s="165"/>
-      <c r="B130" s="179"/>
+      <c r="A130" s="162"/>
+      <c r="B130" s="186"/>
       <c r="C130" s="102">
         <v>127</v>
       </c>
@@ -17573,8 +17573,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" customHeight="1">
-      <c r="A131" s="165"/>
-      <c r="B131" s="179"/>
+      <c r="A131" s="162"/>
+      <c r="B131" s="186"/>
       <c r="C131" s="102">
         <v>128</v>
       </c>
@@ -17598,8 +17598,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" customHeight="1">
-      <c r="A132" s="165"/>
-      <c r="B132" s="179"/>
+      <c r="A132" s="162"/>
+      <c r="B132" s="186"/>
       <c r="C132" s="102">
         <v>129</v>
       </c>
@@ -17623,8 +17623,8 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" customHeight="1">
-      <c r="A133" s="187"/>
-      <c r="B133" s="186"/>
+      <c r="A133" s="192"/>
+      <c r="B133" s="191"/>
       <c r="C133" s="102">
         <v>130</v>
       </c>
@@ -17648,8 +17648,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" customHeight="1">
-      <c r="A134" s="187"/>
-      <c r="B134" s="186"/>
+      <c r="A134" s="192"/>
+      <c r="B134" s="191"/>
       <c r="C134" s="102">
         <v>131</v>
       </c>
@@ -17673,10 +17673,10 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" customHeight="1">
-      <c r="A135" s="165" t="s">
+      <c r="A135" s="162" t="s">
         <v>265</v>
       </c>
-      <c r="B135" s="179" t="s">
+      <c r="B135" s="186" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="102">
@@ -17702,8 +17702,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="18" customHeight="1">
-      <c r="A136" s="165"/>
-      <c r="B136" s="179"/>
+      <c r="A136" s="162"/>
+      <c r="B136" s="186"/>
       <c r="C136" s="102">
         <v>133</v>
       </c>
@@ -17727,8 +17727,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" customHeight="1">
-      <c r="A137" s="165"/>
-      <c r="B137" s="179"/>
+      <c r="A137" s="162"/>
+      <c r="B137" s="186"/>
       <c r="C137" s="102">
         <v>134</v>
       </c>
@@ -17750,8 +17750,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" customHeight="1">
-      <c r="A138" s="165"/>
-      <c r="B138" s="179"/>
+      <c r="A138" s="162"/>
+      <c r="B138" s="186"/>
       <c r="C138" s="102">
         <v>135</v>
       </c>
@@ -17775,8 +17775,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" customHeight="1">
-      <c r="A139" s="165"/>
-      <c r="B139" s="179"/>
+      <c r="A139" s="162"/>
+      <c r="B139" s="186"/>
       <c r="C139" s="102">
         <v>136</v>
       </c>
@@ -17800,8 +17800,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" customHeight="1">
-      <c r="A140" s="165"/>
-      <c r="B140" s="179"/>
+      <c r="A140" s="162"/>
+      <c r="B140" s="186"/>
       <c r="C140" s="102">
         <v>137</v>
       </c>
@@ -17825,8 +17825,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="18" customHeight="1">
-      <c r="A141" s="165"/>
-      <c r="B141" s="179"/>
+      <c r="A141" s="162"/>
+      <c r="B141" s="186"/>
       <c r="C141" s="102">
         <v>138</v>
       </c>
@@ -17850,8 +17850,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="18" customHeight="1">
-      <c r="A142" s="165"/>
-      <c r="B142" s="179"/>
+      <c r="A142" s="162"/>
+      <c r="B142" s="186"/>
       <c r="C142" s="102">
         <v>139</v>
       </c>
@@ -17875,8 +17875,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="18" customHeight="1">
-      <c r="A143" s="165"/>
-      <c r="B143" s="179"/>
+      <c r="A143" s="162"/>
+      <c r="B143" s="186"/>
       <c r="C143" s="102">
         <v>140</v>
       </c>
@@ -17900,8 +17900,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="18" customHeight="1">
-      <c r="A144" s="165"/>
-      <c r="B144" s="179"/>
+      <c r="A144" s="162"/>
+      <c r="B144" s="186"/>
       <c r="C144" s="102">
         <v>141</v>
       </c>
@@ -17925,8 +17925,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="18" customHeight="1">
-      <c r="A145" s="165"/>
-      <c r="B145" s="179"/>
+      <c r="A145" s="162"/>
+      <c r="B145" s="186"/>
       <c r="C145" s="102">
         <v>142</v>
       </c>
@@ -17950,8 +17950,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="18" customHeight="1">
-      <c r="A146" s="165"/>
-      <c r="B146" s="179"/>
+      <c r="A146" s="162"/>
+      <c r="B146" s="186"/>
       <c r="C146" s="102">
         <v>143</v>
       </c>
@@ -17975,8 +17975,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="18" customHeight="1">
-      <c r="A147" s="165"/>
-      <c r="B147" s="179"/>
+      <c r="A147" s="162"/>
+      <c r="B147" s="186"/>
       <c r="C147" s="102">
         <v>144</v>
       </c>
@@ -18000,8 +18000,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="18" customHeight="1">
-      <c r="A148" s="165"/>
-      <c r="B148" s="179"/>
+      <c r="A148" s="162"/>
+      <c r="B148" s="186"/>
       <c r="C148" s="102">
         <v>145</v>
       </c>
@@ -18025,8 +18025,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="18" customHeight="1">
-      <c r="A149" s="165"/>
-      <c r="B149" s="179"/>
+      <c r="A149" s="162"/>
+      <c r="B149" s="186"/>
       <c r="C149" s="102">
         <v>146</v>
       </c>
@@ -18050,8 +18050,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="18" customHeight="1">
-      <c r="A150" s="165"/>
-      <c r="B150" s="179"/>
+      <c r="A150" s="162"/>
+      <c r="B150" s="186"/>
       <c r="C150" s="102">
         <v>147</v>
       </c>
@@ -18075,8 +18075,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="18" customHeight="1">
-      <c r="A151" s="165"/>
-      <c r="B151" s="179"/>
+      <c r="A151" s="162"/>
+      <c r="B151" s="186"/>
       <c r="C151" s="102">
         <v>148</v>
       </c>
@@ -18100,8 +18100,8 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="18" customHeight="1">
-      <c r="A152" s="165"/>
-      <c r="B152" s="179"/>
+      <c r="A152" s="162"/>
+      <c r="B152" s="186"/>
       <c r="C152" s="102">
         <v>149</v>
       </c>
@@ -18125,8 +18125,8 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="18" customHeight="1">
-      <c r="A153" s="165"/>
-      <c r="B153" s="179"/>
+      <c r="A153" s="162"/>
+      <c r="B153" s="186"/>
       <c r="C153" s="102">
         <v>150</v>
       </c>
@@ -18150,8 +18150,8 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="18" customHeight="1">
-      <c r="A154" s="165"/>
-      <c r="B154" s="179"/>
+      <c r="A154" s="162"/>
+      <c r="B154" s="186"/>
       <c r="C154" s="102">
         <v>151</v>
       </c>
@@ -18175,8 +18175,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="18" customHeight="1">
-      <c r="A155" s="165"/>
-      <c r="B155" s="179"/>
+      <c r="A155" s="162"/>
+      <c r="B155" s="186"/>
       <c r="C155" s="102">
         <v>152</v>
       </c>
@@ -18200,8 +18200,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="18" customHeight="1">
-      <c r="A156" s="165"/>
-      <c r="B156" s="179"/>
+      <c r="A156" s="162"/>
+      <c r="B156" s="186"/>
       <c r="C156" s="102">
         <v>153</v>
       </c>
@@ -18225,8 +18225,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="18" customHeight="1">
-      <c r="A157" s="165"/>
-      <c r="B157" s="179"/>
+      <c r="A157" s="162"/>
+      <c r="B157" s="186"/>
       <c r="C157" s="102">
         <v>154</v>
       </c>
@@ -18250,8 +18250,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="18" customHeight="1">
-      <c r="A158" s="165"/>
-      <c r="B158" s="179"/>
+      <c r="A158" s="162"/>
+      <c r="B158" s="186"/>
       <c r="C158" s="102">
         <v>155</v>
       </c>
@@ -18275,8 +18275,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="18" customHeight="1">
-      <c r="A159" s="165"/>
-      <c r="B159" s="179"/>
+      <c r="A159" s="162"/>
+      <c r="B159" s="186"/>
       <c r="C159" s="102">
         <v>156</v>
       </c>
@@ -18300,8 +18300,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="18" customHeight="1">
-      <c r="A160" s="165"/>
-      <c r="B160" s="179"/>
+      <c r="A160" s="162"/>
+      <c r="B160" s="186"/>
       <c r="C160" s="102">
         <v>157</v>
       </c>
@@ -18325,8 +18325,8 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="18" customHeight="1">
-      <c r="A161" s="165"/>
-      <c r="B161" s="179"/>
+      <c r="A161" s="162"/>
+      <c r="B161" s="186"/>
       <c r="C161" s="102">
         <v>158</v>
       </c>
@@ -18350,8 +18350,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="18" customHeight="1">
-      <c r="A162" s="165"/>
-      <c r="B162" s="179"/>
+      <c r="A162" s="162"/>
+      <c r="B162" s="186"/>
       <c r="C162" s="102">
         <v>159</v>
       </c>
@@ -18375,8 +18375,8 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="18" customHeight="1">
-      <c r="A163" s="165"/>
-      <c r="B163" s="179"/>
+      <c r="A163" s="162"/>
+      <c r="B163" s="186"/>
       <c r="C163" s="102">
         <v>160</v>
       </c>
@@ -18400,8 +18400,8 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="18" customHeight="1">
-      <c r="A164" s="165"/>
-      <c r="B164" s="179"/>
+      <c r="A164" s="162"/>
+      <c r="B164" s="186"/>
       <c r="C164" s="102">
         <v>161</v>
       </c>
@@ -18428,8 +18428,8 @@
       <c r="L164" s="12"/>
     </row>
     <row r="165" spans="1:12" ht="18" customHeight="1">
-      <c r="A165" s="165"/>
-      <c r="B165" s="179"/>
+      <c r="A165" s="162"/>
+      <c r="B165" s="186"/>
       <c r="C165" s="102">
         <v>162</v>
       </c>
@@ -18456,8 +18456,8 @@
       <c r="L165" s="12"/>
     </row>
     <row r="166" spans="1:12" ht="18" customHeight="1">
-      <c r="A166" s="165"/>
-      <c r="B166" s="179"/>
+      <c r="A166" s="162"/>
+      <c r="B166" s="186"/>
       <c r="C166" s="102">
         <v>163</v>
       </c>
@@ -18484,8 +18484,8 @@
       <c r="L166" s="12"/>
     </row>
     <row r="167" spans="1:12" ht="18" customHeight="1">
-      <c r="A167" s="165"/>
-      <c r="B167" s="179"/>
+      <c r="A167" s="162"/>
+      <c r="B167" s="186"/>
       <c r="C167" s="102">
         <v>164</v>
       </c>
@@ -18509,8 +18509,8 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A168" s="178"/>
-      <c r="B168" s="180"/>
+      <c r="A168" s="188"/>
+      <c r="B168" s="189"/>
       <c r="C168" s="105">
         <v>165</v>
       </c>
@@ -18535,11 +18535,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B27:B32"/>
     <mergeCell ref="A135:A168"/>
     <mergeCell ref="B135:B168"/>
     <mergeCell ref="D1:D2"/>
@@ -18555,6 +18550,11 @@
     <mergeCell ref="A99:A134"/>
     <mergeCell ref="B99:B104"/>
     <mergeCell ref="B105:B134"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18586,10 +18586,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
@@ -18607,7 +18607,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="163" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="102" t="s">
@@ -18630,7 +18630,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="166"/>
+      <c r="A3" s="163"/>
       <c r="B3" s="102" t="s">
         <v>13</v>
       </c>
@@ -18651,7 +18651,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="162" t="s">
         <v>302</v>
       </c>
       <c r="B4" s="102" t="s">
@@ -18674,8 +18674,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="166"/>
-      <c r="B5" s="168" t="s">
+      <c r="A5" s="163"/>
+      <c r="B5" s="165" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="102">
@@ -18695,8 +18695,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="168"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="102">
         <v>4</v>
       </c>
@@ -18714,8 +18714,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="166"/>
-      <c r="B7" s="168"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="102">
         <v>5</v>
       </c>
@@ -18733,8 +18733,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="166"/>
-      <c r="B8" s="168"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="102">
         <v>6</v>
       </c>
@@ -18752,8 +18752,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="166"/>
-      <c r="B9" s="168"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="102">
         <v>7</v>
       </c>
@@ -18771,8 +18771,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="166"/>
-      <c r="B10" s="168"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="102">
         <v>8</v>
       </c>
@@ -18790,8 +18790,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="166"/>
-      <c r="B11" s="168"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="102">
         <v>9</v>
       </c>
@@ -18809,8 +18809,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="166"/>
-      <c r="B12" s="168"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="102">
         <v>10</v>
       </c>
@@ -18828,8 +18828,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="166"/>
-      <c r="B13" s="168"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="102">
         <v>11</v>
       </c>
@@ -18847,8 +18847,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="166"/>
-      <c r="B14" s="168"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="102">
         <v>12</v>
       </c>
@@ -18866,10 +18866,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="162" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="168" t="s">
+      <c r="B15" s="165" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="102">
@@ -18889,8 +18889,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="166"/>
-      <c r="B16" s="168"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="165"/>
       <c r="C16" s="102">
         <v>14</v>
       </c>
@@ -18908,8 +18908,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="166"/>
-      <c r="B17" s="168"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="102">
         <v>15</v>
       </c>
@@ -18927,8 +18927,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="166"/>
-      <c r="B18" s="168" t="s">
+      <c r="A18" s="163"/>
+      <c r="B18" s="165" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="102">
@@ -18948,8 +18948,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="166"/>
-      <c r="B19" s="168"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="102">
         <v>17</v>
       </c>
@@ -18967,8 +18967,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="166"/>
-      <c r="B20" s="168"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="165"/>
       <c r="C20" s="102">
         <v>18</v>
       </c>
@@ -18986,8 +18986,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="166"/>
-      <c r="B21" s="168"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="102">
         <v>19</v>
       </c>
@@ -19005,8 +19005,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="166"/>
-      <c r="B22" s="168"/>
+      <c r="A22" s="163"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="102">
         <v>20</v>
       </c>
@@ -19024,10 +19024,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="162" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="165" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="102">
@@ -19047,8 +19047,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="166"/>
-      <c r="B24" s="168"/>
+      <c r="A24" s="163"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="102">
         <v>22</v>
       </c>
@@ -19066,8 +19066,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="166"/>
-      <c r="B25" s="168"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="102">
         <v>23</v>
       </c>
@@ -19085,8 +19085,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="166"/>
-      <c r="B26" s="168" t="s">
+      <c r="A26" s="163"/>
+      <c r="B26" s="165" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="102">
@@ -19106,8 +19106,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1">
-      <c r="A27" s="166"/>
-      <c r="B27" s="168"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="102">
         <v>25</v>
       </c>
@@ -19125,8 +19125,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="166"/>
-      <c r="B28" s="168"/>
+      <c r="A28" s="163"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="102">
         <v>26</v>
       </c>
@@ -19144,8 +19144,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="166"/>
-      <c r="B29" s="168"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="102">
         <v>27</v>
       </c>
@@ -19163,8 +19163,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="166"/>
-      <c r="B30" s="168"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="102">
         <v>28</v>
       </c>
@@ -19182,10 +19182,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="B31" s="168" t="s">
+      <c r="B31" s="165" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="102">
@@ -19205,8 +19205,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1">
-      <c r="A32" s="166"/>
-      <c r="B32" s="168"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="165"/>
       <c r="C32" s="102">
         <v>30</v>
       </c>
@@ -19224,8 +19224,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="166"/>
-      <c r="B33" s="168"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="165"/>
       <c r="C33" s="102">
         <v>31</v>
       </c>
@@ -19243,8 +19243,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1">
-      <c r="A34" s="166"/>
-      <c r="B34" s="168" t="s">
+      <c r="A34" s="163"/>
+      <c r="B34" s="165" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="102">
@@ -19264,8 +19264,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1">
-      <c r="A35" s="166"/>
-      <c r="B35" s="168"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="102">
         <v>33</v>
       </c>
@@ -19283,8 +19283,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1">
-      <c r="A36" s="166"/>
-      <c r="B36" s="168"/>
+      <c r="A36" s="163"/>
+      <c r="B36" s="165"/>
       <c r="C36" s="102">
         <v>34</v>
       </c>
@@ -19302,8 +19302,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1">
-      <c r="A37" s="166"/>
-      <c r="B37" s="168"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="165"/>
       <c r="C37" s="102">
         <v>35</v>
       </c>
@@ -19321,7 +19321,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="167"/>
+      <c r="A38" s="164"/>
       <c r="B38" s="193"/>
       <c r="C38" s="105">
         <v>36</v>
@@ -19434,7 +19434,7 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A4" s="154"/>
+      <c r="A4" s="156"/>
       <c r="B4" s="107" t="s">
         <v>290</v>
       </c>
@@ -19480,7 +19480,7 @@
       <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="154"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="107" t="s">
         <v>526</v>
       </c>
@@ -19493,7 +19493,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A8" s="155"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="112" t="s">
         <v>527</v>
       </c>
